--- a/doc/Manuscript/data/memory.xlsx
+++ b/doc/Manuscript/data/memory.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="-20" windowWidth="21600" windowHeight="13580" activeTab="2"/>
+    <workbookView xWindow="-20" yWindow="-20" windowWidth="17440" windowHeight="13160" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
     <sheet name="Plan2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="exp6_" localSheetId="0">Plan1!$A$1:$Y$408</definedName>
@@ -60,7 +61,1267 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="452">
+  <si>
+    <t>SingleSource/Regression/C/PR491</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C/test_indvars</t>
+  </si>
+  <si>
+    <t>Memory (KB)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C/bigstack</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C/sumarraymalloc</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/SignlessTypes/Large/cast</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/SignlessTypes/rem</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/SignlessTypes/cast2</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/SignlessTypes/shr</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/SignlessTypes/div</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/SignlessTypes/factor</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/SignlessTypes/ccc</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/SignlessTypes/cast-bug</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/Vector/sumarray</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/Vector/divides</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/Vector/multiplies</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/Vector/sumarray-dbl</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/Vector/build</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/Vector/build2</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/Vector/simple</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/Vector/SSE/sse.stepfft</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/Vector/SSE/sse.shift</t>
+  </si>
+  <si>
+    <t>h264ref</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>astar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xalancbmk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sjeng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mcf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>omnetpp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gcc gobmk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>libquantum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bzip2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hmmer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B/A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C/A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D/A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B = 16 iterations</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C = Jump Set Widening</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D = 16 iterations + Jump set widening</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A = Simple widening</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C++/2003-09-29-NonPODsByValue</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C++/fixups</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2003-05-12-MinIntProblem</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2003-07-06-IntOverflow</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2002-10-12-StructureArgsSimple</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2002-12-13-MishaTest</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2007-04-10-BitfieldTest</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2002-08-02-CastTest</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2003-08-05-CastFPToUint</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2003-08-20-FoldBug</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/vla</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2002-10-13-BadLoad</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/StructModifyTest</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2003-07-08-BitOpsTest</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2005-07-17-INT-To-FP</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2003-05-02-DependentPHI</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2005-05-11-Popcount-ffs-fls</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2002-05-02-CastTest2</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2002-05-02-CastTest</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2008-07-13-InlineSetjmp</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C++/pointer_member</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C++/2003-08-20-EnumSizeProblem</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C++/short_circuit_dtor</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C++/2003-06-08-BaseType</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C++/global_ctor</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C++/EH/ConditionalExpr</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C++/EH/function_try_block</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C++/EH/exception_spec_test</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C++/EH/ctor_dtor_count-2</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C++/EH/simple_rethrow</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C++/EH/simple_throw</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C++/EH/throw_rethrow_test</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C++/EH/dead_try_block</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C++/EH/inlined_cleanup</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C++/EH/ctor_dtor_count</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C/uint64_to_float</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C/2003-05-22-LocalTypeTest</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C/sumarray</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C/2003-05-22-VarSizeArray</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C/PR640</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2006-01-23-UnionInit</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2002-05-19-DivTest</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2002-08-02-CastTest2</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2010-05-24-BitfieldTest</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2004-02-02-NegativeZero</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2002-05-02-CastTest3</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2003-10-13-SwitchTest</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2005-05-12-Int64ToFP</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2002-10-12-StructureArgs</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/stmtexpr</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/Threads/2010-12-08-tls</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/Threads/tls</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Misc/perlin</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Misc/flops-3</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Misc/ReedSolomon</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Misc/flops-7</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Misc/flops-4</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Misc/fbench</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Misc/flops-5</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Misc/flops-6</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/Vector/SSE/sse.expandfft</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/Vector/SSE/sse.isamax</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/conditional-gnu-ext</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2006-02-04-DivRem</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Oprs</t>
+  </si>
+  <si>
+    <t>Vars</t>
+  </si>
+  <si>
+    <t>unk</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>cinf</t>
+  </si>
+  <si>
+    <t>cc</t>
+  </si>
+  <si>
+    <t>infc</t>
+  </si>
+  <si>
+    <t>maxrange</t>
+  </si>
+  <si>
+    <t>Insts</t>
+  </si>
+  <si>
+    <t>Init</t>
+  </si>
+  <si>
+    <t>Needed</t>
+  </si>
+  <si>
+    <t>Pct</t>
+  </si>
+  <si>
+    <t>SCCs</t>
+  </si>
+  <si>
+    <t>SCCs 1</t>
+  </si>
+  <si>
+    <t>largestSCC</t>
+  </si>
+  <si>
+    <t>maxvisited</t>
+  </si>
+  <si>
+    <t>vSSA</t>
+  </si>
+  <si>
+    <t>RangeAnalysis</t>
+  </si>
+  <si>
+    <t>BuildGraph</t>
+  </si>
+  <si>
+    <t>Nuutila</t>
+  </si>
+  <si>
+    <t>SCCs resolution</t>
+  </si>
+  <si>
+    <t>ComputeStats</t>
+  </si>
+  <si>
+    <t>Memory</t>
+  </si>
+  <si>
+    <t>|</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C++/2008-01-29-ParamAliasesReturn</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C++/pointer_method2</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C++/BuiltinTypeInfo</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C++/2011-03-28-Bitfield</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C++/2003-05-14-array-init</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C++/2003-06-08-VirtualFunctions</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C++/2003-06-13-Crasher</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C++/ofstream_ctor</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C++/pointer_method</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/initp1</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Shootout/random</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Shootout/objinst</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Shootout/strcat</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Shootout/matrix</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Shootout/heapsort</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Stanford/Towers</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Stanford/Queens</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Stanford/FloatMM</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Stanford/Perm</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Stanford/IntMM</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Stanford/Oscar</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Stanford/Quicksort</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Stanford/Bubblesort</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Stanford/RealMM</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Stanford/Puzzle</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Stanford/Treesort</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Shootout-C++/ary</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Shootout-C++/lists1</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Shootout-C++/hash2</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Shootout-C++/lists</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/conditional-gnu-ext-cxx</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2003-05-26-Shorts</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2003-05-31-CastToBool</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C/2004-02-03-AggregateCopy</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C/testtrace</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C/2004-08-12-InlinerAndAllocas</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C/matrixTranspose</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C/2003-05-23-TransparentUnion</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C/sumarray2d</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C/DuffsDevice</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C/2003-05-21-UnionTest</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C/callargs</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C/2005-05-06-LongLongSignedShift</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C/badidx</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C/2004-03-15-IndirectGoto</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C/2003-05-21-UnionBitfields</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C/globalrefs</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C/pointer_arithmetic</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C/2003-05-21-BitfieldHandling</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C/PR1386</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C/casts</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2003-07-09-SignedArgs</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Misc-C++-EH/spirit</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/BenchmarkGame/Large/fasta</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/BenchmarkGame/partialsums</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/BenchmarkGame/n-body</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/BenchmarkGame/nsieve-bits</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/BenchmarkGame/spectral-norm</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/BenchmarkGame/fannkuch</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/BenchmarkGame/recursive</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/BenchmarkGame/puzzle</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Misc-C++/Large/sphereflake</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Misc-C++/Large/ray</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Misc-C++/stepanov_container</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Misc-C++/mandel-text</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Misc-C++/oopack_v1p8</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Misc-C++/bigfib</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Misc-C++/stepanov_v1p2</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/McGill/queens</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/McGill/exptree</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Misc/dt</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Misc/flops-8</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Misc/lowercase</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2003-05-31-LongShifts</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/byval-alignment</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2009-04-16-BitfieldInitialization</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2002-05-03-NotTest</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2002-10-09-ArrayResolution</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/member-function-pointers</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/FloatPrecision</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2003-10-29-ScalarReplBug</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2007-01-04-KNR-Args</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2004-06-20-StaticBitfieldInit</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2008-04-18-LoopBug</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/DefaultInitDynArrays</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2005-05-13-SDivTwo</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2003-08-11-VaListArg</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2003-07-10-SignConversions</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2002-05-02-ManyArguments</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2006-12-04-DynAllocAndRestore</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Shootout/sieve</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/mediabench/jpeg/jpeg-6a/cjpeg</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/BitBench/five11/five11</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/BitBench/uuencode/uuencode</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/BitBench/drop3/drop3</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/BitBench/uudecode/uudecode</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Ptrdist/yacr2/yacr2</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Ptrdist/ks/ks</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Ptrdist/anagram/anagram</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Ptrdist/ft/ft</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Ptrdist/bc/bc</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/VersaBench/dbms/dbms</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/VersaBench/8b10b/8b10b</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/VersaBench/ecbdes/ecbdes</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/VersaBench/beamformer/beamformer</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/VersaBench/bmm/bmm</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/SciMark2-C/scimark2</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/MallocBench/gs/gs</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/MallocBench/cfrac/cfrac</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Shootout-C++/hello</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Shootout-C++/fibo</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Shootout-C++/spellcheck</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2005-07-15-Bitfield-ABI</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2007-04-25-weak</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2005-11-29-LongSwitch</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2008-04-20-LoopBug2</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/AtomicOps</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2002-04-17-PrintfChar</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2003-07-09-LoadShorts</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2002-05-02-CastTest1</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/TestLoop</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2006-12-07-Compare64BitConstant</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2009-12-07-StructReturn</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2003-05-07-VarArgs</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/printargs</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2003-09-18-BitFieldTest</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2006-12-11-LoadConstants</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2003-04-22-Switch</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2002-05-02-ArgumentTest</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2004-11-28-GlobalBoolLayout</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Shootout-C++/heapsort</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Olden/power/power</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Olden/bisort/bisort</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/mafft/pairlocalalign</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Fhourstones-3.1/fhourstones3.1</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/PAQ8p/paq8p</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/MiBench/telecomm-FFT/telecomm-fft</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/MiBench/telecomm-adpcm/telecomm-adpcm</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/MiBench/network-patricia/network-patricia</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/MiBench/consumer-typeset/consumer-typeset</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/MiBench/office-stringsearch/office-stringsearch</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/MiBench/network-dijkstra/network-dijkstra</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/MiBench/automotive-susan/automotive-susan</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/MiBench/automotive-basicmath/automotive-basicmath</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/MiBench/telecomm-gsm/telecomm-gsm</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/MiBench/security-sha/security-sha</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/McGill/misr</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/McGill/chomp</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Adobe-C++/stepanov_vector</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Misc/salsa20</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Misc/mandel-2</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Misc/pi</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Misc/himenobmtxpa</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Misc/mandel</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Misc/oourafft</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Misc/flops</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Misc/flops-2</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Misc/flops-1</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Misc/whetstone</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Misc/fp-convert</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Misc/richards_benchmark</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Misc/ffbench</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Shootout/lists</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Shootout/ackermann</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Shootout/fib2</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Shootout/nestedloop</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Shootout/hash</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Shootout/methcall</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Shootout/ary3</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/mediabench/gsm/toast/toast</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Prolangs-C/archie-client/archie</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Prolangs-C/allroots/allroots</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Prolangs-C/compiler/compiler</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Prolangs-C/gnugo/gnugo</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Prolangs-C/unix-smail/unix-smail</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Prolangs-C/simulator/simulator</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Prolangs-C/assembler/assembler</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Prolangs-C/bison/mybison</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Prolangs-C/unix-tbl/unix-tbl</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Prolangs-C/plot2fig/plot2fig</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Prolangs-C/agrep/agrep</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Prolangs-C/fixoutput/fixoutput</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Prolangs-C/cdecl/cdecl</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Prolangs-C/loader/loader</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Prolangs-C/football/football</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Prolangs-C/TimberWolfMC/timberwolfmc</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/MallocBench/espresso/espresso</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/ASC_Sequoia/IRSmk/IRSmk</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/ASC_Sequoia/CrystalMk/CrystalMk</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Shootout-C++/ackermann</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Shootout-C++/nestedloop</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Shootout-C++/wordfreq</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Shootout-C++/hash</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Shootout-C++/reversefile</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Shootout-C++/methcall</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Shootout-C++/ary3</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Shootout-C++/sieve</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Shootout-C++/random</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Shootout-C++/objinst</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Shootout-C++/sumcol</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Shootout-C++/moments</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Shootout-C++/strcat</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Shootout-C++/except</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Shootout-C++/ary2</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Shootout-C++/matrix</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Shootout-C++/wc</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Olden/treeadd/treeadd</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Olden/em3d/em3d</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Trimaran/netbench-url/netbench-url</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Trimaran/enc-pc1/enc-pc1</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Trimaran/netbench-crc/netbench-crc</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Trimaran/enc-3des/enc-3des</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Trimaran/enc-md5/enc-md5</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/llubenchmark/llu</t>
+  </si>
+  <si>
+    <t>MultiSource/Applications/obsequi/Obsequi</t>
+  </si>
+  <si>
+    <t>MultiSource/Applications/d/make_dparser</t>
+  </si>
+  <si>
+    <t>MultiSource/Applications/treecc/treecc</t>
+  </si>
+  <si>
+    <t>MultiSource/Applications/SPASS/SPASS</t>
+  </si>
+  <si>
+    <t>MultiSource/Applications/JM/lencod/lencod</t>
+  </si>
+  <si>
+    <t>MultiSource/Applications/JM/ldecod/ldecod</t>
+  </si>
+  <si>
+    <t>MultiSource/Applications/hexxagon/hexxagon</t>
+  </si>
+  <si>
+    <t>MultiSource/Applications/hbd/hbd</t>
+  </si>
+  <si>
+    <t>MultiSource/Applications/oggenc/oggenc</t>
+  </si>
+  <si>
+    <t>MultiSource/Applications/minisat/minisat</t>
+  </si>
+  <si>
+    <t>MultiSource/Applications/lua/lua</t>
+  </si>
+  <si>
+    <t>MultiSource/Applications/aha/aha</t>
+  </si>
+  <si>
+    <t>MultiSource/Applications/viterbi/viterbi</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/MiBench/telecomm-CRC32/telecomm-CRC32</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/MiBench/security-blowfish/security-blowfish</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Adobe-C++/simple_types_constant_folding</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Adobe-C++/stepanov_abstraction</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Adobe-C++/functionobjects</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Adobe-C++/simple_types_loop_invariant</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Adobe-C++/loop_unroll</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/CoyoteBench/lpbench</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/CoyoteBench/huffbench</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/CoyoteBench/fftbench</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/CoyoteBench/almabench</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Dhrystone/dry</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Dhrystone/fldry</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/mediabench/adpcm/rawdaudio/rawdaudio</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/mediabench/adpcm/rawcaudio/rawcaudio</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/mediabench/g721/g721encode/encode</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/mediabench/mpeg2/mpeg2dec/mpeg2decode</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Fhourstones/fhourstones</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Bullet/bullet</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/sim/sim</t>
+  </si>
+  <si>
+    <t>MultiSource/Applications/sqlite3/sqlite3</t>
+  </si>
+  <si>
+    <t>MultiSource/Applications/lemon/lemon</t>
+  </si>
+  <si>
+    <t>MultiSource/Applications/siod/siod</t>
+  </si>
+  <si>
+    <t>MultiSource/Applications/kimwitu++/kc</t>
+  </si>
+  <si>
+    <t>MultiSource/Applications/spiff/spiff</t>
+  </si>
+  <si>
+    <t>MultiSource/Applications/Burg/burg</t>
+  </si>
+  <si>
+    <t>External/SPEC/CFP2006/470.lbm/470.lbm</t>
+  </si>
+  <si>
+    <t>External/SPEC/CFP2006/433.milc/433.milc</t>
+  </si>
+  <si>
+    <t>External/SPEC/CFP2006/444.namd/444.namd</t>
+  </si>
+  <si>
+    <t>External/SPEC/CFP2006/447.dealII/447.dealII</t>
+  </si>
+  <si>
+    <t>External/SPEC/CINT2006/464.h264ref/464.h264ref</t>
+  </si>
+  <si>
+    <t>External/SPEC/CINT2006/473.astar/473.astar</t>
+  </si>
+  <si>
+    <t>External/SPEC/CINT2006/483.xalancbmk/483.xalancbmk</t>
+  </si>
+  <si>
+    <t>External/SPEC/CINT2006/458.sjeng/458.sjeng</t>
+  </si>
+  <si>
+    <t>External/SPEC/CINT2006/429.mcf/429.mcf</t>
+  </si>
+  <si>
+    <t>External/SPEC/CINT2006/471.omnetpp/471.omnetpp</t>
+  </si>
+  <si>
+    <t>External/SPEC/CINT2006/403.gcc/403.gcc</t>
+  </si>
+  <si>
+    <t>External/SPEC/CINT2006/445.gobmk/445.gobmk</t>
+  </si>
+  <si>
+    <t>External/SPEC/CINT2006/462.libquantum/462.libquantum</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Prolangs-C++/simul/simul</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Prolangs-C++/deriv1/deriv1</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Prolangs-C++/shapes/shapes</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/ASC_Sequoia/AMGmk/AMGmk</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/McCat/17-bintr/bintr</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/McCat/08-main/main</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/McCat/05-eks/eks</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/McCat/15-trie/trie</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/McCat/03-testtrie/testtrie</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/McCat/09-vor/vor</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/McCat/01-qbsort/qbsort</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/McCat/18-imp/imp</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/McCat/12-IOtest/iotest</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/McCat/04-bisect/bisect</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Olden/tsp/tsp</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Olden/health/health</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Olden/mst/mst</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Olden/perimeter/perimeter</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Olden/bh/bh</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Olden/voronoi/voronoi</t>
+  </si>
   <si>
     <t>External/SPEC/CINT2006/401.bzip2/401.bzip2</t>
   </si>
@@ -176,1198 +1437,6 @@
   </si>
   <si>
     <t>MultiSource/Benchmarks/FreeBench/neural/neural</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Fhourstones/fhourstones</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Bullet/bullet</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/sim/sim</t>
-  </si>
-  <si>
-    <t>MultiSource/Applications/sqlite3/sqlite3</t>
-  </si>
-  <si>
-    <t>MultiSource/Applications/lemon/lemon</t>
-  </si>
-  <si>
-    <t>MultiSource/Applications/siod/siod</t>
-  </si>
-  <si>
-    <t>MultiSource/Applications/kimwitu++/kc</t>
-  </si>
-  <si>
-    <t>MultiSource/Applications/spiff/spiff</t>
-  </si>
-  <si>
-    <t>MultiSource/Applications/Burg/burg</t>
-  </si>
-  <si>
-    <t>External/SPEC/CFP2006/470.lbm/470.lbm</t>
-  </si>
-  <si>
-    <t>External/SPEC/CFP2006/433.milc/433.milc</t>
-  </si>
-  <si>
-    <t>External/SPEC/CFP2006/444.namd/444.namd</t>
-  </si>
-  <si>
-    <t>External/SPEC/CFP2006/447.dealII/447.dealII</t>
-  </si>
-  <si>
-    <t>External/SPEC/CINT2006/464.h264ref/464.h264ref</t>
-  </si>
-  <si>
-    <t>External/SPEC/CINT2006/473.astar/473.astar</t>
-  </si>
-  <si>
-    <t>External/SPEC/CINT2006/483.xalancbmk/483.xalancbmk</t>
-  </si>
-  <si>
-    <t>External/SPEC/CINT2006/458.sjeng/458.sjeng</t>
-  </si>
-  <si>
-    <t>External/SPEC/CINT2006/429.mcf/429.mcf</t>
-  </si>
-  <si>
-    <t>External/SPEC/CINT2006/471.omnetpp/471.omnetpp</t>
-  </si>
-  <si>
-    <t>External/SPEC/CINT2006/403.gcc/403.gcc</t>
-  </si>
-  <si>
-    <t>External/SPEC/CINT2006/445.gobmk/445.gobmk</t>
-  </si>
-  <si>
-    <t>External/SPEC/CINT2006/462.libquantum/462.libquantum</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Prolangs-C++/simul/simul</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Prolangs-C++/deriv1/deriv1</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Prolangs-C++/shapes/shapes</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/ASC_Sequoia/AMGmk/AMGmk</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/McCat/17-bintr/bintr</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/McCat/08-main/main</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/McCat/05-eks/eks</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/McCat/15-trie/trie</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/McCat/03-testtrie/testtrie</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/McCat/09-vor/vor</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/McCat/01-qbsort/qbsort</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/McCat/18-imp/imp</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/McCat/12-IOtest/iotest</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/McCat/04-bisect/bisect</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Olden/tsp/tsp</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Olden/health/health</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Olden/mst/mst</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Olden/perimeter/perimeter</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Olden/bh/bh</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Olden/voronoi/voronoi</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Olden/treeadd/treeadd</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Olden/em3d/em3d</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Trimaran/netbench-url/netbench-url</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Trimaran/enc-pc1/enc-pc1</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Trimaran/netbench-crc/netbench-crc</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Trimaran/enc-3des/enc-3des</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Trimaran/enc-md5/enc-md5</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/llubenchmark/llu</t>
-  </si>
-  <si>
-    <t>MultiSource/Applications/obsequi/Obsequi</t>
-  </si>
-  <si>
-    <t>MultiSource/Applications/d/make_dparser</t>
-  </si>
-  <si>
-    <t>MultiSource/Applications/treecc/treecc</t>
-  </si>
-  <si>
-    <t>MultiSource/Applications/SPASS/SPASS</t>
-  </si>
-  <si>
-    <t>MultiSource/Applications/JM/lencod/lencod</t>
-  </si>
-  <si>
-    <t>MultiSource/Applications/JM/ldecod/ldecod</t>
-  </si>
-  <si>
-    <t>MultiSource/Applications/hexxagon/hexxagon</t>
-  </si>
-  <si>
-    <t>MultiSource/Applications/hbd/hbd</t>
-  </si>
-  <si>
-    <t>MultiSource/Applications/oggenc/oggenc</t>
-  </si>
-  <si>
-    <t>MultiSource/Applications/minisat/minisat</t>
-  </si>
-  <si>
-    <t>MultiSource/Applications/lua/lua</t>
-  </si>
-  <si>
-    <t>MultiSource/Applications/aha/aha</t>
-  </si>
-  <si>
-    <t>MultiSource/Applications/viterbi/viterbi</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/MiBench/telecomm-CRC32/telecomm-CRC32</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/MiBench/security-blowfish/security-blowfish</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Adobe-C++/simple_types_constant_folding</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Adobe-C++/stepanov_abstraction</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Adobe-C++/functionobjects</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Adobe-C++/simple_types_loop_invariant</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Adobe-C++/loop_unroll</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/CoyoteBench/lpbench</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/CoyoteBench/huffbench</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/CoyoteBench/fftbench</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/CoyoteBench/almabench</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Dhrystone/dry</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Dhrystone/fldry</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/mediabench/adpcm/rawdaudio/rawdaudio</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/mediabench/adpcm/rawcaudio/rawcaudio</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/mediabench/g721/g721encode/encode</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/mediabench/mpeg2/mpeg2dec/mpeg2decode</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/mediabench/gsm/toast/toast</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Prolangs-C/archie-client/archie</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Prolangs-C/allroots/allroots</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Prolangs-C/compiler/compiler</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Prolangs-C/gnugo/gnugo</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Prolangs-C/unix-smail/unix-smail</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Prolangs-C/simulator/simulator</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Prolangs-C/assembler/assembler</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Prolangs-C/bison/mybison</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Prolangs-C/unix-tbl/unix-tbl</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Prolangs-C/plot2fig/plot2fig</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Prolangs-C/agrep/agrep</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Prolangs-C/fixoutput/fixoutput</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Prolangs-C/cdecl/cdecl</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Prolangs-C/loader/loader</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Prolangs-C/football/football</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Prolangs-C/TimberWolfMC/timberwolfmc</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/MallocBench/espresso/espresso</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/ASC_Sequoia/IRSmk/IRSmk</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/ASC_Sequoia/CrystalMk/CrystalMk</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Shootout-C++/ackermann</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Shootout-C++/nestedloop</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Shootout-C++/wordfreq</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Shootout-C++/hash</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Shootout-C++/reversefile</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Shootout-C++/methcall</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Shootout-C++/ary3</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Shootout-C++/sieve</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Shootout-C++/random</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Shootout-C++/objinst</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Shootout-C++/sumcol</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Shootout-C++/moments</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Shootout-C++/strcat</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Shootout-C++/except</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Shootout-C++/ary2</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Shootout-C++/matrix</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Shootout-C++/wc</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Shootout-C++/heapsort</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Olden/power/power</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Olden/bisort/bisort</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/mafft/pairlocalalign</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Fhourstones-3.1/fhourstones3.1</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/PAQ8p/paq8p</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/MiBench/telecomm-FFT/telecomm-fft</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/MiBench/telecomm-adpcm/telecomm-adpcm</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/MiBench/network-patricia/network-patricia</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/MiBench/consumer-typeset/consumer-typeset</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/MiBench/office-stringsearch/office-stringsearch</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/MiBench/network-dijkstra/network-dijkstra</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/MiBench/automotive-susan/automotive-susan</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/MiBench/automotive-basicmath/automotive-basicmath</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/MiBench/telecomm-gsm/telecomm-gsm</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/MiBench/security-sha/security-sha</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/McGill/misr</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/McGill/chomp</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Adobe-C++/stepanov_vector</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Misc/salsa20</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Misc/mandel-2</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Misc/pi</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Misc/himenobmtxpa</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Misc/mandel</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Misc/oourafft</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Misc/flops</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Misc/flops-2</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Misc/flops-1</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Misc/whetstone</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Misc/fp-convert</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Misc/richards_benchmark</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Misc/ffbench</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Shootout/lists</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Shootout/ackermann</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Shootout/fib2</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Shootout/nestedloop</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Shootout/hash</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Shootout/methcall</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Shootout/ary3</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Shootout/sieve</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/mediabench/jpeg/jpeg-6a/cjpeg</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/BitBench/five11/five11</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/BitBench/uuencode/uuencode</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/BitBench/drop3/drop3</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/BitBench/uudecode/uudecode</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Ptrdist/yacr2/yacr2</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Ptrdist/ks/ks</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Ptrdist/anagram/anagram</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Ptrdist/ft/ft</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Ptrdist/bc/bc</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/VersaBench/dbms/dbms</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/VersaBench/8b10b/8b10b</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/VersaBench/ecbdes/ecbdes</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/VersaBench/beamformer/beamformer</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/VersaBench/bmm/bmm</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/SciMark2-C/scimark2</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/MallocBench/gs/gs</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/MallocBench/cfrac/cfrac</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Shootout-C++/hello</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Shootout-C++/fibo</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Shootout-C++/spellcheck</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2005-07-15-Bitfield-ABI</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2007-04-25-weak</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2005-11-29-LongSwitch</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2008-04-20-LoopBug2</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/AtomicOps</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2002-04-17-PrintfChar</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2003-07-09-LoadShorts</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2002-05-02-CastTest1</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/TestLoop</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2006-12-07-Compare64BitConstant</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2009-12-07-StructReturn</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2003-05-07-VarArgs</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/printargs</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2003-09-18-BitFieldTest</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2006-12-11-LoadConstants</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2003-04-22-Switch</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2002-05-02-ArgumentTest</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2004-11-28-GlobalBoolLayout</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2003-07-09-SignedArgs</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Misc-C++-EH/spirit</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/BenchmarkGame/Large/fasta</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/BenchmarkGame/partialsums</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/BenchmarkGame/n-body</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/BenchmarkGame/nsieve-bits</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/BenchmarkGame/spectral-norm</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/BenchmarkGame/fannkuch</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/BenchmarkGame/recursive</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/BenchmarkGame/puzzle</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Misc-C++/Large/sphereflake</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Misc-C++/Large/ray</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Misc-C++/stepanov_container</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Misc-C++/mandel-text</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Misc-C++/oopack_v1p8</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Misc-C++/bigfib</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Misc-C++/stepanov_v1p2</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/McGill/queens</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/McGill/exptree</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Misc/dt</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Misc/flops-8</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Misc/lowercase</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2003-05-31-LongShifts</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/byval-alignment</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2009-04-16-BitfieldInitialization</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2002-05-03-NotTest</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2002-10-09-ArrayResolution</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/member-function-pointers</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/FloatPrecision</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2003-10-29-ScalarReplBug</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2007-01-04-KNR-Args</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2004-06-20-StaticBitfieldInit</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2008-04-18-LoopBug</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/DefaultInitDynArrays</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2005-05-13-SDivTwo</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2003-08-11-VaListArg</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2003-07-10-SignConversions</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2002-05-02-ManyArguments</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2006-12-04-DynAllocAndRestore</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/initp1</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Shootout/random</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Shootout/objinst</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Shootout/strcat</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Shootout/matrix</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Shootout/heapsort</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Stanford/Towers</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Stanford/Queens</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Stanford/FloatMM</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Stanford/Perm</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Stanford/IntMM</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Stanford/Oscar</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Stanford/Quicksort</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Stanford/Bubblesort</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Stanford/RealMM</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Stanford/Puzzle</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Stanford/Treesort</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Shootout-C++/ary</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Shootout-C++/lists1</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Shootout-C++/hash2</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Shootout-C++/lists</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/conditional-gnu-ext-cxx</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2003-05-26-Shorts</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2003-05-31-CastToBool</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C/2004-02-03-AggregateCopy</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C/testtrace</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C/2004-08-12-InlinerAndAllocas</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C/matrixTranspose</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C/2003-05-23-TransparentUnion</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C/sumarray2d</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C/DuffsDevice</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C/2003-05-21-UnionTest</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C/callargs</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C/2005-05-06-LongLongSignedShift</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C/badidx</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C/2004-03-15-IndirectGoto</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C/2003-05-21-UnionBitfields</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C/globalrefs</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C/pointer_arithmetic</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C/2003-05-21-BitfieldHandling</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C/PR1386</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C/casts</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C/PR640</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2006-01-23-UnionInit</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2002-05-19-DivTest</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2002-08-02-CastTest2</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2010-05-24-BitfieldTest</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2004-02-02-NegativeZero</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2002-05-02-CastTest3</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2003-10-13-SwitchTest</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2005-05-12-Int64ToFP</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2002-10-12-StructureArgs</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/stmtexpr</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/Threads/2010-12-08-tls</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/Threads/tls</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Misc/perlin</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Misc/flops-3</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Misc/ReedSolomon</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Misc/flops-7</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Misc/flops-4</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Misc/fbench</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Misc/flops-5</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Misc/flops-6</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/Vector/SSE/sse.expandfft</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/Vector/SSE/sse.isamax</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/conditional-gnu-ext</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2006-02-04-DivRem</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Oprs</t>
-  </si>
-  <si>
-    <t>Vars</t>
-  </si>
-  <si>
-    <t>unk</t>
-  </si>
-  <si>
-    <t>empty</t>
-  </si>
-  <si>
-    <t>cinf</t>
-  </si>
-  <si>
-    <t>cc</t>
-  </si>
-  <si>
-    <t>infc</t>
-  </si>
-  <si>
-    <t>maxrange</t>
-  </si>
-  <si>
-    <t>Insts</t>
-  </si>
-  <si>
-    <t>Init</t>
-  </si>
-  <si>
-    <t>Needed</t>
-  </si>
-  <si>
-    <t>Pct</t>
-  </si>
-  <si>
-    <t>SCCs</t>
-  </si>
-  <si>
-    <t>SCCs 1</t>
-  </si>
-  <si>
-    <t>largestSCC</t>
-  </si>
-  <si>
-    <t>maxvisited</t>
-  </si>
-  <si>
-    <t>vSSA</t>
-  </si>
-  <si>
-    <t>RangeAnalysis</t>
-  </si>
-  <si>
-    <t>BuildGraph</t>
-  </si>
-  <si>
-    <t>Nuutila</t>
-  </si>
-  <si>
-    <t>SCCs resolution</t>
-  </si>
-  <si>
-    <t>ComputeStats</t>
-  </si>
-  <si>
-    <t>Memory</t>
-  </si>
-  <si>
-    <t>|</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C++/2008-01-29-ParamAliasesReturn</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C++/pointer_method2</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C++/BuiltinTypeInfo</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C++/2011-03-28-Bitfield</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C++/2003-05-14-array-init</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C++/2003-06-08-VirtualFunctions</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C++/2003-06-13-Crasher</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C++/ofstream_ctor</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C++/pointer_method</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C++/2003-09-29-NonPODsByValue</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C++/fixups</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2003-05-12-MinIntProblem</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2003-07-06-IntOverflow</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2002-10-12-StructureArgsSimple</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2002-12-13-MishaTest</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2007-04-10-BitfieldTest</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2002-08-02-CastTest</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2003-08-05-CastFPToUint</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2003-08-20-FoldBug</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/vla</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2002-10-13-BadLoad</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/StructModifyTest</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2003-07-08-BitOpsTest</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2005-07-17-INT-To-FP</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2003-05-02-DependentPHI</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2005-05-11-Popcount-ffs-fls</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2002-05-02-CastTest2</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2002-05-02-CastTest</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2008-07-13-InlineSetjmp</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C++/pointer_member</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C++/2003-08-20-EnumSizeProblem</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C++/short_circuit_dtor</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C++/2003-06-08-BaseType</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C++/global_ctor</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C++/EH/ConditionalExpr</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C++/EH/function_try_block</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C++/EH/exception_spec_test</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C++/EH/ctor_dtor_count-2</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C++/EH/simple_rethrow</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C++/EH/simple_throw</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C++/EH/throw_rethrow_test</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C++/EH/dead_try_block</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C++/EH/inlined_cleanup</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C++/EH/ctor_dtor_count</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C/uint64_to_float</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C/2003-05-22-LocalTypeTest</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C/sumarray</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C/2003-05-22-VarSizeArray</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C/PR491</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C/test_indvars</t>
-  </si>
-  <si>
-    <t>Memory (KB)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C/bigstack</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C/sumarraymalloc</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/SignlessTypes/Large/cast</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/SignlessTypes/rem</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/SignlessTypes/cast2</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/SignlessTypes/shr</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/SignlessTypes/div</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/SignlessTypes/factor</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/SignlessTypes/ccc</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/SignlessTypes/cast-bug</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/Vector/sumarray</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/Vector/divides</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/Vector/multiplies</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/Vector/sumarray-dbl</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/Vector/build</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/Vector/build2</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/Vector/simple</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/Vector/SSE/sse.stepfft</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/Vector/SSE/sse.shift</t>
   </si>
 </sst>
 </file>
@@ -3924,11 +3993,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="447818152"/>
-        <c:axId val="522591240"/>
+        <c:axId val="447631736"/>
+        <c:axId val="447634936"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="447818152"/>
+        <c:axId val="447631736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3944,12 +4013,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="522591240"/>
+        <c:crossAx val="447634936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="522591240"/>
+        <c:axId val="447634936"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -3968,7 +4037,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="447818152"/>
+        <c:crossAx val="447631736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4667,11 +4736,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="545138216"/>
-        <c:axId val="544984008"/>
+        <c:axId val="447683128"/>
+        <c:axId val="447688152"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="545138216"/>
+        <c:axId val="447683128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="98.0"/>
@@ -4681,12 +4750,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="544984008"/>
+        <c:crossAx val="447688152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="544984008"/>
+        <c:axId val="447688152"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -4696,7 +4765,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.E+00" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="545138216"/>
+        <c:crossAx val="447683128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4714,6 +4783,338 @@
           <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:style val="18"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>B/A</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$3:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>h264ref</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>astar</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>xalancbmk</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sjeng</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>mcf</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>omnetpp</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>gcc gobmk</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>libquantum</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>bzip2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>hmmer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$3:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.875515134938723</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7624161035601</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.622176838121049</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.822448245531632</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.046305722179568</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.121367735089734</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.33101913210976</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.709109322540826</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.592777591596132</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.948621669671411</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C/A</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$3:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>h264ref</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>astar</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>xalancbmk</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sjeng</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>mcf</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>omnetpp</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>gcc gobmk</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>libquantum</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>bzip2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>hmmer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$3:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.579840820091704</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.565578261557675</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.894543616117517</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.977222792361334</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.603179795536562</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.809411041098428</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.338963923033589</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.562644054922202</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.686105636814318</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.841001582581157</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>D/A</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$3:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>h264ref</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>astar</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>xalancbmk</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sjeng</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>mcf</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>omnetpp</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>gcc gobmk</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>libquantum</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>bzip2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>hmmer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$D$3:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.439971011474881</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.321877290635712</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.049515635777425</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.07383499284424</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.348259657027484</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.734815034757958</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.604242477892512</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.538241241702963</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.801140668011612</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.012821778492253</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="484135752"/>
+        <c:axId val="484138920"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="484135752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="484138920"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="484138920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2.0"/>
+          <c:min val="0.8"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="484135752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -4778,6 +5179,41 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5120,84 +5556,84 @@
   <sheetData>
     <row r="1" spans="1:25">
       <c r="A1" t="s">
-        <v>340</v>
+        <v>103</v>
       </c>
       <c r="B1" t="s">
-        <v>341</v>
+        <v>104</v>
       </c>
       <c r="C1" t="s">
-        <v>342</v>
+        <v>105</v>
       </c>
       <c r="D1" t="s">
-        <v>343</v>
+        <v>106</v>
       </c>
       <c r="E1" t="s">
-        <v>344</v>
+        <v>107</v>
       </c>
       <c r="F1" t="s">
-        <v>345</v>
+        <v>108</v>
       </c>
       <c r="G1" t="s">
-        <v>346</v>
+        <v>109</v>
       </c>
       <c r="H1" t="s">
-        <v>347</v>
+        <v>110</v>
       </c>
       <c r="I1" t="s">
-        <v>348</v>
+        <v>111</v>
       </c>
       <c r="J1" t="s">
-        <v>349</v>
+        <v>112</v>
       </c>
       <c r="K1" t="s">
-        <v>350</v>
+        <v>113</v>
       </c>
       <c r="L1" t="s">
-        <v>351</v>
+        <v>114</v>
       </c>
       <c r="M1" t="s">
-        <v>352</v>
+        <v>115</v>
       </c>
       <c r="N1" t="s">
-        <v>353</v>
+        <v>116</v>
       </c>
       <c r="O1" t="s">
-        <v>354</v>
+        <v>117</v>
       </c>
       <c r="P1" t="s">
-        <v>355</v>
+        <v>118</v>
       </c>
       <c r="Q1" t="s">
-        <v>356</v>
+        <v>119</v>
       </c>
       <c r="R1" t="s">
-        <v>357</v>
+        <v>120</v>
       </c>
       <c r="S1" t="s">
-        <v>358</v>
+        <v>121</v>
       </c>
       <c r="T1" t="s">
-        <v>359</v>
+        <v>122</v>
       </c>
       <c r="U1" t="s">
-        <v>360</v>
+        <v>123</v>
       </c>
       <c r="V1" t="s">
-        <v>361</v>
+        <v>124</v>
       </c>
       <c r="W1" t="s">
-        <v>362</v>
+        <v>125</v>
       </c>
       <c r="X1" t="s">
-        <v>363</v>
+        <v>126</v>
       </c>
       <c r="Y1" t="s">
-        <v>364</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:25">
       <c r="A2" t="s">
-        <v>371</v>
+        <v>134</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -5271,7 +5707,7 @@
     </row>
     <row r="3" spans="1:25">
       <c r="A3" t="s">
-        <v>395</v>
+        <v>60</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -5345,7 +5781,7 @@
     </row>
     <row r="4" spans="1:25">
       <c r="A4" t="s">
-        <v>397</v>
+        <v>62</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -5419,7 +5855,7 @@
     </row>
     <row r="5" spans="1:25">
       <c r="A5" t="s">
-        <v>406</v>
+        <v>71</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -5493,7 +5929,7 @@
     </row>
     <row r="6" spans="1:25">
       <c r="A6" t="s">
-        <v>385</v>
+        <v>50</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -5567,7 +6003,7 @@
     </row>
     <row r="7" spans="1:25">
       <c r="A7" t="s">
-        <v>217</v>
+        <v>241</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -5641,7 +6077,7 @@
     </row>
     <row r="8" spans="1:25">
       <c r="A8" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -5715,7 +6151,7 @@
     </row>
     <row r="9" spans="1:25">
       <c r="A9" t="s">
-        <v>320</v>
+        <v>83</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -5789,7 +6225,7 @@
     </row>
     <row r="10" spans="1:25">
       <c r="A10" t="s">
-        <v>326</v>
+        <v>89</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -5863,7 +6299,7 @@
     </row>
     <row r="11" spans="1:25">
       <c r="A11" t="s">
-        <v>311</v>
+        <v>175</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -5937,7 +6373,7 @@
     </row>
     <row r="12" spans="1:25">
       <c r="A12" t="s">
-        <v>262</v>
+        <v>207</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -6011,7 +6447,7 @@
     </row>
     <row r="13" spans="1:25">
       <c r="A13" t="s">
-        <v>318</v>
+        <v>81</v>
       </c>
       <c r="B13">
         <v>3</v>
@@ -6085,7 +6521,7 @@
     </row>
     <row r="14" spans="1:25">
       <c r="A14" t="s">
-        <v>322</v>
+        <v>85</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -6159,7 +6595,7 @@
     </row>
     <row r="15" spans="1:25">
       <c r="A15" t="s">
-        <v>404</v>
+        <v>69</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -6233,7 +6669,7 @@
     </row>
     <row r="16" spans="1:25">
       <c r="A16" t="s">
-        <v>376</v>
+        <v>41</v>
       </c>
       <c r="B16">
         <v>2</v>
@@ -6307,7 +6743,7 @@
     </row>
     <row r="17" spans="1:24">
       <c r="A17" t="s">
-        <v>381</v>
+        <v>46</v>
       </c>
       <c r="B17">
         <v>4</v>
@@ -6381,7 +6817,7 @@
     </row>
     <row r="18" spans="1:24">
       <c r="A18" t="s">
-        <v>306</v>
+        <v>170</v>
       </c>
       <c r="B18">
         <v>3</v>
@@ -6455,7 +6891,7 @@
     </row>
     <row r="19" spans="1:24">
       <c r="A19" t="s">
-        <v>383</v>
+        <v>48</v>
       </c>
       <c r="B19">
         <v>3</v>
@@ -6529,7 +6965,7 @@
     </row>
     <row r="20" spans="1:24">
       <c r="A20" t="s">
-        <v>323</v>
+        <v>86</v>
       </c>
       <c r="B20">
         <v>4</v>
@@ -6603,7 +7039,7 @@
     </row>
     <row r="21" spans="1:24">
       <c r="A21" t="s">
-        <v>412</v>
+        <v>77</v>
       </c>
       <c r="B21">
         <v>4</v>
@@ -6677,7 +7113,7 @@
     </row>
     <row r="22" spans="1:24">
       <c r="A22" t="s">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="B22">
         <v>3</v>
@@ -6751,7 +7187,7 @@
     </row>
     <row r="23" spans="1:24">
       <c r="A23" t="s">
-        <v>221</v>
+        <v>245</v>
       </c>
       <c r="B23">
         <v>5</v>
@@ -6825,7 +7261,7 @@
     </row>
     <row r="24" spans="1:24">
       <c r="A24" t="s">
-        <v>225</v>
+        <v>249</v>
       </c>
       <c r="B24">
         <v>3</v>
@@ -6899,7 +7335,7 @@
     </row>
     <row r="25" spans="1:24">
       <c r="A25" t="s">
-        <v>297</v>
+        <v>161</v>
       </c>
       <c r="B25">
         <v>4</v>
@@ -6973,7 +7409,7 @@
     </row>
     <row r="26" spans="1:24">
       <c r="A26" t="s">
-        <v>257</v>
+        <v>202</v>
       </c>
       <c r="B26">
         <v>4</v>
@@ -7047,7 +7483,7 @@
     </row>
     <row r="27" spans="1:24">
       <c r="A27" t="s">
-        <v>380</v>
+        <v>45</v>
       </c>
       <c r="B27">
         <v>4</v>
@@ -7121,7 +7557,7 @@
     </row>
     <row r="28" spans="1:24">
       <c r="A28" t="s">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="B28">
         <v>4</v>
@@ -7195,7 +7631,7 @@
     </row>
     <row r="29" spans="1:24">
       <c r="A29" t="s">
-        <v>228</v>
+        <v>252</v>
       </c>
       <c r="B29">
         <v>5</v>
@@ -7269,7 +7705,7 @@
     </row>
     <row r="30" spans="1:24">
       <c r="A30" t="s">
-        <v>321</v>
+        <v>84</v>
       </c>
       <c r="B30">
         <v>5</v>
@@ -7343,7 +7779,7 @@
     </row>
     <row r="31" spans="1:24">
       <c r="A31" t="s">
-        <v>369</v>
+        <v>132</v>
       </c>
       <c r="B31">
         <v>5</v>
@@ -7417,7 +7853,7 @@
     </row>
     <row r="32" spans="1:24">
       <c r="A32" t="s">
-        <v>308</v>
+        <v>172</v>
       </c>
       <c r="B32">
         <v>6</v>
@@ -7491,7 +7927,7 @@
     </row>
     <row r="33" spans="1:24">
       <c r="A33" t="s">
-        <v>393</v>
+        <v>58</v>
       </c>
       <c r="B33">
         <v>5</v>
@@ -7565,7 +8001,7 @@
     </row>
     <row r="34" spans="1:24">
       <c r="A34" t="s">
-        <v>319</v>
+        <v>82</v>
       </c>
       <c r="B34">
         <v>5</v>
@@ -7639,7 +8075,7 @@
     </row>
     <row r="35" spans="1:24">
       <c r="A35" t="s">
-        <v>260</v>
+        <v>205</v>
       </c>
       <c r="B35">
         <v>5</v>
@@ -7713,7 +8149,7 @@
     </row>
     <row r="36" spans="1:24">
       <c r="A36" t="s">
-        <v>268</v>
+        <v>213</v>
       </c>
       <c r="B36">
         <v>6</v>
@@ -7787,7 +8223,7 @@
     </row>
     <row r="37" spans="1:24">
       <c r="A37" t="s">
-        <v>382</v>
+        <v>47</v>
       </c>
       <c r="B37">
         <v>5</v>
@@ -7861,7 +8297,7 @@
     </row>
     <row r="38" spans="1:24">
       <c r="A38" t="s">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="B38">
         <v>5</v>
@@ -7935,7 +8371,7 @@
     </row>
     <row r="39" spans="1:24">
       <c r="A39" t="s">
-        <v>367</v>
+        <v>130</v>
       </c>
       <c r="B39">
         <v>6</v>
@@ -8009,7 +8445,7 @@
     </row>
     <row r="40" spans="1:24">
       <c r="A40" t="s">
-        <v>370</v>
+        <v>133</v>
       </c>
       <c r="B40">
         <v>6</v>
@@ -8083,7 +8519,7 @@
     </row>
     <row r="41" spans="1:24">
       <c r="A41" t="s">
-        <v>304</v>
+        <v>168</v>
       </c>
       <c r="B41">
         <v>6</v>
@@ -8157,7 +8593,7 @@
     </row>
     <row r="42" spans="1:24">
       <c r="A42" t="s">
-        <v>420</v>
+        <v>7</v>
       </c>
       <c r="B42">
         <v>6</v>
@@ -8231,7 +8667,7 @@
     </row>
     <row r="43" spans="1:24">
       <c r="A43" t="s">
-        <v>391</v>
+        <v>56</v>
       </c>
       <c r="B43">
         <v>6</v>
@@ -8305,7 +8741,7 @@
     </row>
     <row r="44" spans="1:24">
       <c r="A44" t="s">
-        <v>430</v>
+        <v>17</v>
       </c>
       <c r="B44">
         <v>5</v>
@@ -8379,7 +8815,7 @@
     </row>
     <row r="45" spans="1:24">
       <c r="A45" t="s">
-        <v>378</v>
+        <v>43</v>
       </c>
       <c r="B45">
         <v>6</v>
@@ -8453,7 +8889,7 @@
     </row>
     <row r="46" spans="1:24">
       <c r="A46" t="s">
-        <v>389</v>
+        <v>54</v>
       </c>
       <c r="B46">
         <v>6</v>
@@ -8527,7 +8963,7 @@
     </row>
     <row r="47" spans="1:24">
       <c r="A47" t="s">
-        <v>301</v>
+        <v>165</v>
       </c>
       <c r="B47">
         <v>7</v>
@@ -8601,7 +9037,7 @@
     </row>
     <row r="48" spans="1:24">
       <c r="A48" t="s">
-        <v>263</v>
+        <v>208</v>
       </c>
       <c r="B48">
         <v>7</v>
@@ -8675,7 +9111,7 @@
     </row>
     <row r="49" spans="1:24">
       <c r="A49" t="s">
-        <v>265</v>
+        <v>210</v>
       </c>
       <c r="B49">
         <v>8</v>
@@ -8749,7 +9185,7 @@
     </row>
     <row r="50" spans="1:24">
       <c r="A50" t="s">
-        <v>267</v>
+        <v>212</v>
       </c>
       <c r="B50">
         <v>7</v>
@@ -8823,7 +9259,7 @@
     </row>
     <row r="51" spans="1:24">
       <c r="A51" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="B51">
         <v>9</v>
@@ -8897,7 +9333,7 @@
     </row>
     <row r="52" spans="1:24">
       <c r="A52" t="s">
-        <v>410</v>
+        <v>75</v>
       </c>
       <c r="B52">
         <v>9</v>
@@ -8971,7 +9407,7 @@
     </row>
     <row r="53" spans="1:24">
       <c r="A53" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="B53">
         <v>8</v>
@@ -9045,7 +9481,7 @@
     </row>
     <row r="54" spans="1:24">
       <c r="A54" t="s">
-        <v>232</v>
+        <v>256</v>
       </c>
       <c r="B54">
         <v>8</v>
@@ -9119,7 +9555,7 @@
     </row>
     <row r="55" spans="1:24">
       <c r="A55" t="s">
-        <v>327</v>
+        <v>90</v>
       </c>
       <c r="B55">
         <v>9</v>
@@ -9193,7 +9629,7 @@
     </row>
     <row r="56" spans="1:24">
       <c r="A56" t="s">
-        <v>299</v>
+        <v>163</v>
       </c>
       <c r="B56">
         <v>11</v>
@@ -9267,7 +9703,7 @@
     </row>
     <row r="57" spans="1:24">
       <c r="A57" t="s">
-        <v>425</v>
+        <v>12</v>
       </c>
       <c r="B57">
         <v>9</v>
@@ -9341,7 +9777,7 @@
     </row>
     <row r="58" spans="1:24">
       <c r="A58" t="s">
-        <v>233</v>
+        <v>257</v>
       </c>
       <c r="B58">
         <v>10</v>
@@ -9415,7 +9851,7 @@
     </row>
     <row r="59" spans="1:24">
       <c r="A59" t="s">
-        <v>374</v>
+        <v>39</v>
       </c>
       <c r="B59">
         <v>8</v>
@@ -9489,7 +9925,7 @@
     </row>
     <row r="60" spans="1:24">
       <c r="A60" t="s">
-        <v>394</v>
+        <v>59</v>
       </c>
       <c r="B60">
         <v>8</v>
@@ -9563,7 +9999,7 @@
     </row>
     <row r="61" spans="1:24">
       <c r="A61" t="s">
-        <v>407</v>
+        <v>72</v>
       </c>
       <c r="B61">
         <v>8</v>
@@ -9637,7 +10073,7 @@
     </row>
     <row r="62" spans="1:24">
       <c r="A62" t="s">
-        <v>426</v>
+        <v>13</v>
       </c>
       <c r="B62">
         <v>9</v>
@@ -9711,7 +10147,7 @@
     </row>
     <row r="63" spans="1:24">
       <c r="A63" t="s">
-        <v>429</v>
+        <v>16</v>
       </c>
       <c r="B63">
         <v>9</v>
@@ -9785,7 +10221,7 @@
     </row>
     <row r="64" spans="1:24">
       <c r="A64" t="s">
-        <v>403</v>
+        <v>68</v>
       </c>
       <c r="B64">
         <v>8</v>
@@ -9859,7 +10295,7 @@
     </row>
     <row r="65" spans="1:24">
       <c r="A65" t="s">
-        <v>189</v>
+        <v>292</v>
       </c>
       <c r="B65">
         <v>11</v>
@@ -9933,7 +10369,7 @@
     </row>
     <row r="66" spans="1:24">
       <c r="A66" t="s">
-        <v>315</v>
+        <v>78</v>
       </c>
       <c r="B66">
         <v>11</v>
@@ -10007,7 +10443,7 @@
     </row>
     <row r="67" spans="1:24">
       <c r="A67" t="s">
-        <v>307</v>
+        <v>171</v>
       </c>
       <c r="B67">
         <v>12</v>
@@ -10081,7 +10517,7 @@
     </row>
     <row r="68" spans="1:24">
       <c r="A68" t="s">
-        <v>256</v>
+        <v>201</v>
       </c>
       <c r="B68">
         <v>14</v>
@@ -10155,7 +10591,7 @@
     </row>
     <row r="69" spans="1:24">
       <c r="A69" t="s">
-        <v>368</v>
+        <v>131</v>
       </c>
       <c r="B69">
         <v>13</v>
@@ -10229,7 +10665,7 @@
     </row>
     <row r="70" spans="1:24">
       <c r="A70" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="B70">
         <v>13</v>
@@ -10303,7 +10739,7 @@
     </row>
     <row r="71" spans="1:24">
       <c r="A71" t="s">
-        <v>229</v>
+        <v>253</v>
       </c>
       <c r="B71">
         <v>13</v>
@@ -10377,7 +10813,7 @@
     </row>
     <row r="72" spans="1:24">
       <c r="A72" t="s">
-        <v>270</v>
+        <v>215</v>
       </c>
       <c r="B72">
         <v>22</v>
@@ -10451,7 +10887,7 @@
     </row>
     <row r="73" spans="1:24">
       <c r="A73" t="s">
-        <v>271</v>
+        <v>216</v>
       </c>
       <c r="B73">
         <v>13</v>
@@ -10525,7 +10961,7 @@
     </row>
     <row r="74" spans="1:24">
       <c r="A74" t="s">
-        <v>386</v>
+        <v>51</v>
       </c>
       <c r="B74">
         <v>11</v>
@@ -10599,7 +11035,7 @@
     </row>
     <row r="75" spans="1:24">
       <c r="A75" t="s">
-        <v>309</v>
+        <v>173</v>
       </c>
       <c r="B75">
         <v>12</v>
@@ -10673,7 +11109,7 @@
     </row>
     <row r="76" spans="1:24">
       <c r="A76" t="s">
-        <v>224</v>
+        <v>248</v>
       </c>
       <c r="B76">
         <v>16</v>
@@ -10747,7 +11183,7 @@
     </row>
     <row r="77" spans="1:24">
       <c r="A77" t="s">
-        <v>324</v>
+        <v>87</v>
       </c>
       <c r="B77">
         <v>12</v>
@@ -10821,7 +11257,7 @@
     </row>
     <row r="78" spans="1:24">
       <c r="A78" t="s">
-        <v>176</v>
+        <v>279</v>
       </c>
       <c r="B78">
         <v>17</v>
@@ -10895,7 +11331,7 @@
     </row>
     <row r="79" spans="1:24">
       <c r="A79" t="s">
-        <v>188</v>
+        <v>291</v>
       </c>
       <c r="B79">
         <v>17</v>
@@ -10969,7 +11405,7 @@
     </row>
     <row r="80" spans="1:24">
       <c r="A80" t="s">
-        <v>339</v>
+        <v>102</v>
       </c>
       <c r="B80">
         <v>19</v>
@@ -11043,7 +11479,7 @@
     </row>
     <row r="81" spans="1:24">
       <c r="A81" t="s">
-        <v>317</v>
+        <v>80</v>
       </c>
       <c r="B81">
         <v>14</v>
@@ -11117,7 +11553,7 @@
     </row>
     <row r="82" spans="1:24">
       <c r="A82" t="s">
-        <v>184</v>
+        <v>287</v>
       </c>
       <c r="B82">
         <v>16</v>
@@ -11191,7 +11627,7 @@
     </row>
     <row r="83" spans="1:24">
       <c r="A83" t="s">
-        <v>398</v>
+        <v>63</v>
       </c>
       <c r="B83">
         <v>17</v>
@@ -11265,7 +11701,7 @@
     </row>
     <row r="84" spans="1:24">
       <c r="A84" t="s">
-        <v>387</v>
+        <v>52</v>
       </c>
       <c r="B84">
         <v>23</v>
@@ -11339,7 +11775,7 @@
     </row>
     <row r="85" spans="1:24">
       <c r="A85" t="s">
-        <v>396</v>
+        <v>61</v>
       </c>
       <c r="B85">
         <v>16</v>
@@ -11413,7 +11849,7 @@
     </row>
     <row r="86" spans="1:24">
       <c r="A86" t="s">
-        <v>253</v>
+        <v>198</v>
       </c>
       <c r="B86">
         <v>20</v>
@@ -11487,7 +11923,7 @@
     </row>
     <row r="87" spans="1:24">
       <c r="A87" t="s">
-        <v>373</v>
+        <v>136</v>
       </c>
       <c r="B87">
         <v>15</v>
@@ -11561,7 +11997,7 @@
     </row>
     <row r="88" spans="1:24">
       <c r="A88" t="s">
-        <v>411</v>
+        <v>76</v>
       </c>
       <c r="B88">
         <v>20</v>
@@ -11635,7 +12071,7 @@
     </row>
     <row r="89" spans="1:24">
       <c r="A89" t="s">
-        <v>313</v>
+        <v>177</v>
       </c>
       <c r="B89">
         <v>19</v>
@@ -11709,7 +12145,7 @@
     </row>
     <row r="90" spans="1:24">
       <c r="A90" t="s">
-        <v>274</v>
+        <v>138</v>
       </c>
       <c r="B90">
         <v>16</v>
@@ -11783,7 +12219,7 @@
     </row>
     <row r="91" spans="1:24">
       <c r="A91" t="s">
-        <v>329</v>
+        <v>92</v>
       </c>
       <c r="B91">
         <v>17</v>
@@ -11857,7 +12293,7 @@
     </row>
     <row r="92" spans="1:24">
       <c r="A92" t="s">
-        <v>401</v>
+        <v>66</v>
       </c>
       <c r="B92">
         <v>14</v>
@@ -11931,7 +12367,7 @@
     </row>
     <row r="93" spans="1:24">
       <c r="A93" t="s">
-        <v>434</v>
+        <v>21</v>
       </c>
       <c r="B93">
         <v>18</v>
@@ -12005,7 +12441,7 @@
     </row>
     <row r="94" spans="1:24">
       <c r="A94" t="s">
-        <v>408</v>
+        <v>73</v>
       </c>
       <c r="B94">
         <v>19</v>
@@ -12079,7 +12515,7 @@
     </row>
     <row r="95" spans="1:24">
       <c r="A95" t="s">
-        <v>413</v>
+        <v>0</v>
       </c>
       <c r="B95">
         <v>18</v>
@@ -12153,7 +12589,7 @@
     </row>
     <row r="96" spans="1:24">
       <c r="A96" t="s">
-        <v>264</v>
+        <v>209</v>
       </c>
       <c r="B96">
         <v>23</v>
@@ -12227,7 +12663,7 @@
     </row>
     <row r="97" spans="1:24">
       <c r="A97" t="s">
-        <v>272</v>
+        <v>217</v>
       </c>
       <c r="B97">
         <v>23</v>
@@ -12301,7 +12737,7 @@
     </row>
     <row r="98" spans="1:24">
       <c r="A98" t="s">
-        <v>379</v>
+        <v>44</v>
       </c>
       <c r="B98">
         <v>25</v>
@@ -12375,7 +12811,7 @@
     </row>
     <row r="99" spans="1:24">
       <c r="A99" t="s">
-        <v>331</v>
+        <v>94</v>
       </c>
       <c r="B99">
         <v>18</v>
@@ -12449,7 +12885,7 @@
     </row>
     <row r="100" spans="1:24">
       <c r="A100" t="s">
-        <v>334</v>
+        <v>97</v>
       </c>
       <c r="B100">
         <v>19</v>
@@ -12523,7 +12959,7 @@
     </row>
     <row r="101" spans="1:24">
       <c r="A101" t="s">
-        <v>335</v>
+        <v>98</v>
       </c>
       <c r="B101">
         <v>19</v>
@@ -12597,7 +13033,7 @@
     </row>
     <row r="102" spans="1:24">
       <c r="A102" t="s">
-        <v>254</v>
+        <v>199</v>
       </c>
       <c r="B102">
         <v>19</v>
@@ -12671,7 +13107,7 @@
     </row>
     <row r="103" spans="1:24">
       <c r="A103" t="s">
-        <v>276</v>
+        <v>140</v>
       </c>
       <c r="B103">
         <v>16</v>
@@ -12745,7 +13181,7 @@
     </row>
     <row r="104" spans="1:24">
       <c r="A104" t="s">
-        <v>237</v>
+        <v>182</v>
       </c>
       <c r="B104">
         <v>19</v>
@@ -12819,7 +13255,7 @@
     </row>
     <row r="105" spans="1:24">
       <c r="A105" t="s">
-        <v>261</v>
+        <v>206</v>
       </c>
       <c r="B105">
         <v>19</v>
@@ -12893,7 +13329,7 @@
     </row>
     <row r="106" spans="1:24">
       <c r="A106" t="s">
-        <v>377</v>
+        <v>42</v>
       </c>
       <c r="B106">
         <v>29</v>
@@ -12967,7 +13403,7 @@
     </row>
     <row r="107" spans="1:24">
       <c r="A107" t="s">
-        <v>332</v>
+        <v>95</v>
       </c>
       <c r="B107">
         <v>19</v>
@@ -13041,7 +13477,7 @@
     </row>
     <row r="108" spans="1:24">
       <c r="A108" t="s">
-        <v>247</v>
+        <v>192</v>
       </c>
       <c r="B108">
         <v>22</v>
@@ -13115,7 +13551,7 @@
     </row>
     <row r="109" spans="1:24">
       <c r="A109" t="s">
-        <v>388</v>
+        <v>53</v>
       </c>
       <c r="B109">
         <v>24</v>
@@ -13189,7 +13625,7 @@
     </row>
     <row r="110" spans="1:24">
       <c r="A110" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
       <c r="B110">
         <v>23</v>
@@ -13263,7 +13699,7 @@
     </row>
     <row r="111" spans="1:24">
       <c r="A111" t="s">
-        <v>302</v>
+        <v>166</v>
       </c>
       <c r="B111">
         <v>30</v>
@@ -13337,7 +13773,7 @@
     </row>
     <row r="112" spans="1:24">
       <c r="A112" t="s">
-        <v>310</v>
+        <v>174</v>
       </c>
       <c r="B112">
         <v>19</v>
@@ -13411,7 +13847,7 @@
     </row>
     <row r="113" spans="1:24">
       <c r="A113" t="s">
-        <v>193</v>
+        <v>296</v>
       </c>
       <c r="B113">
         <v>24</v>
@@ -13485,7 +13921,7 @@
     </row>
     <row r="114" spans="1:24">
       <c r="A114" t="s">
-        <v>305</v>
+        <v>169</v>
       </c>
       <c r="B114">
         <v>24</v>
@@ -13559,7 +13995,7 @@
     </row>
     <row r="115" spans="1:24">
       <c r="A115" t="s">
-        <v>375</v>
+        <v>40</v>
       </c>
       <c r="B115">
         <v>27</v>
@@ -13633,7 +14069,7 @@
     </row>
     <row r="116" spans="1:24">
       <c r="A116" t="s">
-        <v>182</v>
+        <v>285</v>
       </c>
       <c r="B116">
         <v>22</v>
@@ -13707,7 +14143,7 @@
     </row>
     <row r="117" spans="1:24">
       <c r="A117" t="s">
-        <v>178</v>
+        <v>281</v>
       </c>
       <c r="B117">
         <v>23</v>
@@ -13781,7 +14217,7 @@
     </row>
     <row r="118" spans="1:24">
       <c r="A118" t="s">
-        <v>181</v>
+        <v>284</v>
       </c>
       <c r="B118">
         <v>25</v>
@@ -13855,7 +14291,7 @@
     </row>
     <row r="119" spans="1:24">
       <c r="A119" t="s">
-        <v>417</v>
+        <v>4</v>
       </c>
       <c r="B119">
         <v>30</v>
@@ -13929,7 +14365,7 @@
     </row>
     <row r="120" spans="1:24">
       <c r="A120" t="s">
-        <v>424</v>
+        <v>11</v>
       </c>
       <c r="B120">
         <v>29</v>
@@ -14003,7 +14439,7 @@
     </row>
     <row r="121" spans="1:24">
       <c r="A121" t="s">
-        <v>399</v>
+        <v>64</v>
       </c>
       <c r="B121">
         <v>25</v>
@@ -14077,7 +14513,7 @@
     </row>
     <row r="122" spans="1:24">
       <c r="A122" t="s">
-        <v>298</v>
+        <v>162</v>
       </c>
       <c r="B122">
         <v>28</v>
@@ -14151,7 +14587,7 @@
     </row>
     <row r="123" spans="1:24">
       <c r="A123" t="s">
-        <v>266</v>
+        <v>211</v>
       </c>
       <c r="B123">
         <v>24</v>
@@ -14225,7 +14661,7 @@
     </row>
     <row r="124" spans="1:24">
       <c r="A124" t="s">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="B124">
         <v>24</v>
@@ -14299,7 +14735,7 @@
     </row>
     <row r="125" spans="1:24">
       <c r="A125" t="s">
-        <v>13</v>
+        <v>427</v>
       </c>
       <c r="B125">
         <v>28</v>
@@ -14373,7 +14809,7 @@
     </row>
     <row r="126" spans="1:24">
       <c r="A126" t="s">
-        <v>384</v>
+        <v>49</v>
       </c>
       <c r="B126">
         <v>34</v>
@@ -14447,7 +14883,7 @@
     </row>
     <row r="127" spans="1:24">
       <c r="A127" t="s">
-        <v>405</v>
+        <v>70</v>
       </c>
       <c r="B127">
         <v>22</v>
@@ -14521,7 +14957,7 @@
     </row>
     <row r="128" spans="1:24">
       <c r="A128" t="s">
-        <v>296</v>
+        <v>160</v>
       </c>
       <c r="B128">
         <v>26</v>
@@ -14595,7 +15031,7 @@
     </row>
     <row r="129" spans="1:24">
       <c r="A129" t="s">
-        <v>365</v>
+        <v>128</v>
       </c>
       <c r="B129">
         <v>28</v>
@@ -14669,7 +15105,7 @@
     </row>
     <row r="130" spans="1:24">
       <c r="A130" t="s">
-        <v>239</v>
+        <v>184</v>
       </c>
       <c r="B130">
         <v>38</v>
@@ -14743,7 +15179,7 @@
     </row>
     <row r="131" spans="1:24">
       <c r="A131" t="s">
-        <v>338</v>
+        <v>101</v>
       </c>
       <c r="B131">
         <v>27</v>
@@ -14817,7 +15253,7 @@
     </row>
     <row r="132" spans="1:24">
       <c r="A132" t="s">
-        <v>190</v>
+        <v>293</v>
       </c>
       <c r="B132">
         <v>44</v>
@@ -14891,7 +15327,7 @@
     </row>
     <row r="133" spans="1:24">
       <c r="A133" t="s">
-        <v>402</v>
+        <v>67</v>
       </c>
       <c r="B133">
         <v>33</v>
@@ -14965,7 +15401,7 @@
     </row>
     <row r="134" spans="1:24">
       <c r="A134" t="s">
-        <v>432</v>
+        <v>19</v>
       </c>
       <c r="B134">
         <v>26</v>
@@ -15039,7 +15475,7 @@
     </row>
     <row r="135" spans="1:24">
       <c r="A135" t="s">
-        <v>259</v>
+        <v>204</v>
       </c>
       <c r="B135">
         <v>39</v>
@@ -15113,7 +15549,7 @@
     </row>
     <row r="136" spans="1:24">
       <c r="A136" t="s">
-        <v>392</v>
+        <v>57</v>
       </c>
       <c r="B136">
         <v>45</v>
@@ -15187,7 +15623,7 @@
     </row>
     <row r="137" spans="1:24">
       <c r="A137" t="s">
-        <v>414</v>
+        <v>1</v>
       </c>
       <c r="B137">
         <v>36</v>
@@ -15261,7 +15697,7 @@
     </row>
     <row r="138" spans="1:24">
       <c r="A138" t="s">
-        <v>428</v>
+        <v>15</v>
       </c>
       <c r="B138">
         <v>37</v>
@@ -15335,7 +15771,7 @@
     </row>
     <row r="139" spans="1:24">
       <c r="A139" t="s">
-        <v>175</v>
+        <v>278</v>
       </c>
       <c r="B139">
         <v>31</v>
@@ -15409,7 +15845,7 @@
     </row>
     <row r="140" spans="1:24">
       <c r="A140" t="s">
-        <v>282</v>
+        <v>146</v>
       </c>
       <c r="B140">
         <v>38</v>
@@ -15483,7 +15919,7 @@
     </row>
     <row r="141" spans="1:24">
       <c r="A141" t="s">
-        <v>287</v>
+        <v>151</v>
       </c>
       <c r="B141">
         <v>42</v>
@@ -15557,7 +15993,7 @@
     </row>
     <row r="142" spans="1:24">
       <c r="A142" t="s">
-        <v>281</v>
+        <v>145</v>
       </c>
       <c r="B142">
         <v>43</v>
@@ -15631,7 +16067,7 @@
     </row>
     <row r="143" spans="1:24">
       <c r="A143" t="s">
-        <v>416</v>
+        <v>3</v>
       </c>
       <c r="B143">
         <v>45</v>
@@ -15705,7 +16141,7 @@
     </row>
     <row r="144" spans="1:24">
       <c r="A144" t="s">
-        <v>214</v>
+        <v>238</v>
       </c>
       <c r="B144">
         <v>37</v>
@@ -15779,7 +16215,7 @@
     </row>
     <row r="145" spans="1:24">
       <c r="A145" t="s">
-        <v>427</v>
+        <v>14</v>
       </c>
       <c r="B145">
         <v>32</v>
@@ -15853,7 +16289,7 @@
     </row>
     <row r="146" spans="1:24">
       <c r="A146" t="s">
-        <v>255</v>
+        <v>200</v>
       </c>
       <c r="B146">
         <v>46</v>
@@ -15927,7 +16363,7 @@
     </row>
     <row r="147" spans="1:24">
       <c r="A147" t="s">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="B147">
         <v>39</v>
@@ -16001,7 +16437,7 @@
     </row>
     <row r="148" spans="1:24">
       <c r="A148" t="s">
-        <v>80</v>
+        <v>334</v>
       </c>
       <c r="B148">
         <v>44</v>
@@ -16075,7 +16511,7 @@
     </row>
     <row r="149" spans="1:24">
       <c r="A149" t="s">
-        <v>283</v>
+        <v>147</v>
       </c>
       <c r="B149">
         <v>48</v>
@@ -16149,7 +16585,7 @@
     </row>
     <row r="150" spans="1:24">
       <c r="A150" t="s">
-        <v>300</v>
+        <v>164</v>
       </c>
       <c r="B150">
         <v>52</v>
@@ -16223,7 +16659,7 @@
     </row>
     <row r="151" spans="1:24">
       <c r="A151" t="s">
-        <v>269</v>
+        <v>214</v>
       </c>
       <c r="B151">
         <v>43</v>
@@ -16297,7 +16733,7 @@
     </row>
     <row r="152" spans="1:24">
       <c r="A152" t="s">
-        <v>294</v>
+        <v>158</v>
       </c>
       <c r="B152">
         <v>40</v>
@@ -16371,7 +16807,7 @@
     </row>
     <row r="153" spans="1:24">
       <c r="A153" t="s">
-        <v>155</v>
+        <v>258</v>
       </c>
       <c r="B153">
         <v>49</v>
@@ -16445,7 +16881,7 @@
     </row>
     <row r="154" spans="1:24">
       <c r="A154" t="s">
-        <v>242</v>
+        <v>187</v>
       </c>
       <c r="B154">
         <v>53</v>
@@ -16519,7 +16955,7 @@
     </row>
     <row r="155" spans="1:24">
       <c r="A155" t="s">
-        <v>238</v>
+        <v>183</v>
       </c>
       <c r="B155">
         <v>51</v>
@@ -16593,7 +17029,7 @@
     </row>
     <row r="156" spans="1:24">
       <c r="A156" t="s">
-        <v>278</v>
+        <v>142</v>
       </c>
       <c r="B156">
         <v>51</v>
@@ -16667,7 +17103,7 @@
     </row>
     <row r="157" spans="1:24">
       <c r="A157" t="s">
-        <v>234</v>
+        <v>179</v>
       </c>
       <c r="B157">
         <v>63</v>
@@ -16741,7 +17177,7 @@
     </row>
     <row r="158" spans="1:24">
       <c r="A158" t="s">
-        <v>17</v>
+        <v>431</v>
       </c>
       <c r="B158">
         <v>42</v>
@@ -16815,7 +17251,7 @@
     </row>
     <row r="159" spans="1:24">
       <c r="A159" t="s">
-        <v>240</v>
+        <v>185</v>
       </c>
       <c r="B159">
         <v>57</v>
@@ -16889,7 +17325,7 @@
     </row>
     <row r="160" spans="1:24">
       <c r="A160" t="s">
-        <v>243</v>
+        <v>188</v>
       </c>
       <c r="B160">
         <v>58</v>
@@ -16963,7 +17399,7 @@
     </row>
     <row r="161" spans="1:24">
       <c r="A161" t="s">
-        <v>101</v>
+        <v>355</v>
       </c>
       <c r="B161">
         <v>53</v>
@@ -17037,7 +17473,7 @@
     </row>
     <row r="162" spans="1:24">
       <c r="A162" t="s">
-        <v>111</v>
+        <v>365</v>
       </c>
       <c r="B162">
         <v>47</v>
@@ -17111,7 +17547,7 @@
     </row>
     <row r="163" spans="1:24">
       <c r="A163" t="s">
-        <v>84</v>
+        <v>338</v>
       </c>
       <c r="B163">
         <v>55</v>
@@ -17185,7 +17621,7 @@
     </row>
     <row r="164" spans="1:24">
       <c r="A164" t="s">
-        <v>286</v>
+        <v>150</v>
       </c>
       <c r="B164">
         <v>54</v>
@@ -17259,7 +17695,7 @@
     </row>
     <row r="165" spans="1:24">
       <c r="A165" t="s">
-        <v>366</v>
+        <v>129</v>
       </c>
       <c r="B165">
         <v>47</v>
@@ -17333,7 +17769,7 @@
     </row>
     <row r="166" spans="1:24">
       <c r="A166" t="s">
-        <v>423</v>
+        <v>10</v>
       </c>
       <c r="B166">
         <v>57</v>
@@ -17407,7 +17843,7 @@
     </row>
     <row r="167" spans="1:24">
       <c r="A167" t="s">
-        <v>316</v>
+        <v>79</v>
       </c>
       <c r="B167">
         <v>46</v>
@@ -17481,7 +17917,7 @@
     </row>
     <row r="168" spans="1:24">
       <c r="A168" t="s">
-        <v>236</v>
+        <v>181</v>
       </c>
       <c r="B168">
         <v>62</v>
@@ -17555,7 +17991,7 @@
     </row>
     <row r="169" spans="1:24">
       <c r="A169" t="s">
-        <v>138</v>
+        <v>317</v>
       </c>
       <c r="B169">
         <v>54</v>
@@ -17629,7 +18065,7 @@
     </row>
     <row r="170" spans="1:24">
       <c r="A170" t="s">
-        <v>139</v>
+        <v>318</v>
       </c>
       <c r="B170">
         <v>65</v>
@@ -17703,7 +18139,7 @@
     </row>
     <row r="171" spans="1:24">
       <c r="A171" t="s">
-        <v>422</v>
+        <v>9</v>
       </c>
       <c r="B171">
         <v>82</v>
@@ -17777,7 +18213,7 @@
     </row>
     <row r="172" spans="1:24">
       <c r="A172" t="s">
-        <v>192</v>
+        <v>295</v>
       </c>
       <c r="B172">
         <v>56</v>
@@ -17851,7 +18287,7 @@
     </row>
     <row r="173" spans="1:24">
       <c r="A173" t="s">
-        <v>4</v>
+        <v>418</v>
       </c>
       <c r="B173">
         <v>56</v>
@@ -17925,7 +18361,7 @@
     </row>
     <row r="174" spans="1:24">
       <c r="A174" t="s">
-        <v>148</v>
+        <v>327</v>
       </c>
       <c r="B174">
         <v>56</v>
@@ -17999,7 +18435,7 @@
     </row>
     <row r="175" spans="1:24">
       <c r="A175" t="s">
-        <v>431</v>
+        <v>18</v>
       </c>
       <c r="B175">
         <v>69</v>
@@ -18073,7 +18509,7 @@
     </row>
     <row r="176" spans="1:24">
       <c r="A176" t="s">
-        <v>400</v>
+        <v>65</v>
       </c>
       <c r="B176">
         <v>42</v>
@@ -18147,7 +18583,7 @@
     </row>
     <row r="177" spans="1:24">
       <c r="A177" t="s">
-        <v>241</v>
+        <v>186</v>
       </c>
       <c r="B177">
         <v>77</v>
@@ -18221,7 +18657,7 @@
     </row>
     <row r="178" spans="1:24">
       <c r="A178" t="s">
-        <v>275</v>
+        <v>139</v>
       </c>
       <c r="B178">
         <v>62</v>
@@ -18295,7 +18731,7 @@
     </row>
     <row r="179" spans="1:24">
       <c r="A179" t="s">
-        <v>280</v>
+        <v>144</v>
       </c>
       <c r="B179">
         <v>69</v>
@@ -18369,7 +18805,7 @@
     </row>
     <row r="180" spans="1:24">
       <c r="A180" t="s">
-        <v>285</v>
+        <v>149</v>
       </c>
       <c r="B180">
         <v>73</v>
@@ -18443,7 +18879,7 @@
     </row>
     <row r="181" spans="1:24">
       <c r="A181" t="s">
-        <v>146</v>
+        <v>325</v>
       </c>
       <c r="B181">
         <v>60</v>
@@ -18517,7 +18953,7 @@
     </row>
     <row r="182" spans="1:24">
       <c r="A182" t="s">
-        <v>6</v>
+        <v>420</v>
       </c>
       <c r="B182">
         <v>55</v>
@@ -18591,7 +19027,7 @@
     </row>
     <row r="183" spans="1:24">
       <c r="A183" t="s">
-        <v>372</v>
+        <v>135</v>
       </c>
       <c r="B183">
         <v>49</v>
@@ -18665,7 +19101,7 @@
     </row>
     <row r="184" spans="1:24">
       <c r="A184" t="s">
-        <v>325</v>
+        <v>88</v>
       </c>
       <c r="B184">
         <v>47</v>
@@ -18739,7 +19175,7 @@
     </row>
     <row r="185" spans="1:24">
       <c r="A185" t="s">
-        <v>303</v>
+        <v>167</v>
       </c>
       <c r="B185">
         <v>89</v>
@@ -18813,7 +19249,7 @@
     </row>
     <row r="186" spans="1:24">
       <c r="A186" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="B186">
         <v>76</v>
@@ -18887,7 +19323,7 @@
     </row>
     <row r="187" spans="1:24">
       <c r="A187" t="s">
-        <v>120</v>
+        <v>299</v>
       </c>
       <c r="B187">
         <v>77</v>
@@ -18961,7 +19397,7 @@
     </row>
     <row r="188" spans="1:24">
       <c r="A188" t="s">
-        <v>421</v>
+        <v>8</v>
       </c>
       <c r="B188">
         <v>98</v>
@@ -19035,7 +19471,7 @@
     </row>
     <row r="189" spans="1:24">
       <c r="A189" t="s">
-        <v>279</v>
+        <v>143</v>
       </c>
       <c r="B189">
         <v>72</v>
@@ -19109,7 +19545,7 @@
     </row>
     <row r="190" spans="1:24">
       <c r="A190" t="s">
-        <v>20</v>
+        <v>434</v>
       </c>
       <c r="B190">
         <v>77</v>
@@ -19183,7 +19619,7 @@
     </row>
     <row r="191" spans="1:24">
       <c r="A191" t="s">
-        <v>314</v>
+        <v>178</v>
       </c>
       <c r="B191">
         <v>85</v>
@@ -19257,7 +19693,7 @@
     </row>
     <row r="192" spans="1:24">
       <c r="A192" t="s">
-        <v>258</v>
+        <v>203</v>
       </c>
       <c r="B192">
         <v>84</v>
@@ -19331,7 +19767,7 @@
     </row>
     <row r="193" spans="1:24">
       <c r="A193" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
       <c r="B193">
         <v>97</v>
@@ -19405,7 +19841,7 @@
     </row>
     <row r="194" spans="1:24">
       <c r="A194" t="s">
-        <v>14</v>
+        <v>428</v>
       </c>
       <c r="B194">
         <v>70</v>
@@ -19479,7 +19915,7 @@
     </row>
     <row r="195" spans="1:24">
       <c r="A195" t="s">
-        <v>328</v>
+        <v>91</v>
       </c>
       <c r="B195">
         <v>78</v>
@@ -19553,7 +19989,7 @@
     </row>
     <row r="196" spans="1:24">
       <c r="A196" t="s">
-        <v>312</v>
+        <v>176</v>
       </c>
       <c r="B196">
         <v>92</v>
@@ -19627,7 +20063,7 @@
     </row>
     <row r="197" spans="1:24">
       <c r="A197" t="s">
-        <v>151</v>
+        <v>330</v>
       </c>
       <c r="B197">
         <v>79</v>
@@ -19701,7 +20137,7 @@
     </row>
     <row r="198" spans="1:24">
       <c r="A198" t="s">
-        <v>191</v>
+        <v>294</v>
       </c>
       <c r="B198">
         <v>82</v>
@@ -19775,7 +20211,7 @@
     </row>
     <row r="199" spans="1:24">
       <c r="A199" t="s">
-        <v>289</v>
+        <v>153</v>
       </c>
       <c r="B199">
         <v>88</v>
@@ -19849,7 +20285,7 @@
     </row>
     <row r="200" spans="1:24">
       <c r="A200" t="s">
-        <v>130</v>
+        <v>309</v>
       </c>
       <c r="B200">
         <v>112</v>
@@ -19923,7 +20359,7 @@
     </row>
     <row r="201" spans="1:24">
       <c r="A201" t="s">
-        <v>390</v>
+        <v>55</v>
       </c>
       <c r="B201">
         <v>102</v>
@@ -19997,7 +20433,7 @@
     </row>
     <row r="202" spans="1:24">
       <c r="A202" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
       <c r="B202">
         <v>105</v>
@@ -20071,7 +20507,7 @@
     </row>
     <row r="203" spans="1:24">
       <c r="A203" t="s">
-        <v>251</v>
+        <v>196</v>
       </c>
       <c r="B203">
         <v>108</v>
@@ -20145,7 +20581,7 @@
     </row>
     <row r="204" spans="1:24">
       <c r="A204" t="s">
-        <v>168</v>
+        <v>271</v>
       </c>
       <c r="B204">
         <v>86</v>
@@ -20219,7 +20655,7 @@
     </row>
     <row r="205" spans="1:24">
       <c r="A205" t="s">
-        <v>337</v>
+        <v>100</v>
       </c>
       <c r="B205">
         <v>105</v>
@@ -20293,7 +20729,7 @@
     </row>
     <row r="206" spans="1:24">
       <c r="A206" t="s">
-        <v>154</v>
+        <v>333</v>
       </c>
       <c r="B206">
         <v>100</v>
@@ -20367,7 +20803,7 @@
     </row>
     <row r="207" spans="1:24">
       <c r="A207" t="s">
-        <v>87</v>
+        <v>341</v>
       </c>
       <c r="B207">
         <v>107</v>
@@ -20441,7 +20877,7 @@
     </row>
     <row r="208" spans="1:24">
       <c r="A208" t="s">
-        <v>166</v>
+        <v>269</v>
       </c>
       <c r="B208">
         <v>107</v>
@@ -20515,7 +20951,7 @@
     </row>
     <row r="209" spans="1:24">
       <c r="A209" t="s">
-        <v>333</v>
+        <v>96</v>
       </c>
       <c r="B209">
         <v>108</v>
@@ -20589,7 +21025,7 @@
     </row>
     <row r="210" spans="1:24">
       <c r="A210" t="s">
-        <v>5</v>
+        <v>419</v>
       </c>
       <c r="B210">
         <v>84</v>
@@ -20663,7 +21099,7 @@
     </row>
     <row r="211" spans="1:24">
       <c r="A211" t="s">
-        <v>73</v>
+        <v>407</v>
       </c>
       <c r="B211">
         <v>124</v>
@@ -20737,7 +21173,7 @@
     </row>
     <row r="212" spans="1:24">
       <c r="A212" t="s">
-        <v>186</v>
+        <v>289</v>
       </c>
       <c r="B212">
         <v>137</v>
@@ -20811,7 +21247,7 @@
     </row>
     <row r="213" spans="1:24">
       <c r="A213" t="s">
-        <v>150</v>
+        <v>329</v>
       </c>
       <c r="B213">
         <v>109</v>
@@ -20885,7 +21321,7 @@
     </row>
     <row r="214" spans="1:24">
       <c r="A214" t="s">
-        <v>199</v>
+        <v>223</v>
       </c>
       <c r="B214">
         <v>124</v>
@@ -20959,7 +21395,7 @@
     </row>
     <row r="215" spans="1:24">
       <c r="A215" t="s">
-        <v>153</v>
+        <v>332</v>
       </c>
       <c r="B215">
         <v>115</v>
@@ -21033,7 +21469,7 @@
     </row>
     <row r="216" spans="1:24">
       <c r="A216" t="s">
-        <v>161</v>
+        <v>264</v>
       </c>
       <c r="B216">
         <v>131</v>
@@ -21107,7 +21543,7 @@
     </row>
     <row r="217" spans="1:24">
       <c r="A217" t="s">
-        <v>64</v>
+        <v>398</v>
       </c>
       <c r="B217">
         <v>120</v>
@@ -21181,7 +21617,7 @@
     </row>
     <row r="218" spans="1:24">
       <c r="A218" t="s">
-        <v>196</v>
+        <v>220</v>
       </c>
       <c r="B218">
         <v>132</v>
@@ -21255,7 +21691,7 @@
     </row>
     <row r="219" spans="1:24">
       <c r="A219" t="s">
-        <v>67</v>
+        <v>401</v>
       </c>
       <c r="B219">
         <v>103</v>
@@ -21329,7 +21765,7 @@
     </row>
     <row r="220" spans="1:24">
       <c r="A220" t="s">
-        <v>433</v>
+        <v>20</v>
       </c>
       <c r="B220">
         <v>139</v>
@@ -21403,7 +21839,7 @@
     </row>
     <row r="221" spans="1:24">
       <c r="A221" t="s">
-        <v>113</v>
+        <v>367</v>
       </c>
       <c r="B221">
         <v>124</v>
@@ -21477,7 +21913,7 @@
     </row>
     <row r="222" spans="1:24">
       <c r="A222" t="s">
-        <v>143</v>
+        <v>322</v>
       </c>
       <c r="B222">
         <v>120</v>
@@ -21551,7 +21987,7 @@
     </row>
     <row r="223" spans="1:24">
       <c r="A223" t="s">
-        <v>284</v>
+        <v>148</v>
       </c>
       <c r="B223">
         <v>148</v>
@@ -21625,7 +22061,7 @@
     </row>
     <row r="224" spans="1:24">
       <c r="A224" t="s">
-        <v>147</v>
+        <v>326</v>
       </c>
       <c r="B224">
         <v>123</v>
@@ -21699,7 +22135,7 @@
     </row>
     <row r="225" spans="1:24">
       <c r="A225" t="s">
-        <v>114</v>
+        <v>368</v>
       </c>
       <c r="B225">
         <v>164</v>
@@ -21773,7 +22209,7 @@
     </row>
     <row r="226" spans="1:24">
       <c r="A226" t="s">
-        <v>115</v>
+        <v>369</v>
       </c>
       <c r="B226">
         <v>164</v>
@@ -21847,7 +22283,7 @@
     </row>
     <row r="227" spans="1:24">
       <c r="A227" t="s">
-        <v>162</v>
+        <v>265</v>
       </c>
       <c r="B227">
         <v>164</v>
@@ -21921,7 +22357,7 @@
     </row>
     <row r="228" spans="1:24">
       <c r="A228" t="s">
-        <v>68</v>
+        <v>402</v>
       </c>
       <c r="B228">
         <v>139</v>
@@ -21995,7 +22431,7 @@
     </row>
     <row r="229" spans="1:24">
       <c r="A229" t="s">
-        <v>295</v>
+        <v>159</v>
       </c>
       <c r="B229">
         <v>221</v>
@@ -22069,7 +22505,7 @@
     </row>
     <row r="230" spans="1:24">
       <c r="A230" t="s">
-        <v>222</v>
+        <v>246</v>
       </c>
       <c r="B230">
         <v>157</v>
@@ -22143,7 +22579,7 @@
     </row>
     <row r="231" spans="1:24">
       <c r="A231" t="s">
-        <v>197</v>
+        <v>221</v>
       </c>
       <c r="B231">
         <v>167</v>
@@ -22217,7 +22653,7 @@
     </row>
     <row r="232" spans="1:24">
       <c r="A232" t="s">
-        <v>16</v>
+        <v>430</v>
       </c>
       <c r="B232">
         <v>133</v>
@@ -22291,7 +22727,7 @@
     </row>
     <row r="233" spans="1:24">
       <c r="A233" t="s">
-        <v>180</v>
+        <v>283</v>
       </c>
       <c r="B233">
         <v>170</v>
@@ -22365,7 +22801,7 @@
     </row>
     <row r="234" spans="1:24">
       <c r="A234" t="s">
-        <v>112</v>
+        <v>366</v>
       </c>
       <c r="B234">
         <v>172</v>
@@ -22439,7 +22875,7 @@
     </row>
     <row r="235" spans="1:24">
       <c r="A235" t="s">
-        <v>72</v>
+        <v>406</v>
       </c>
       <c r="B235">
         <v>179</v>
@@ -22513,7 +22949,7 @@
     </row>
     <row r="236" spans="1:24">
       <c r="A236" t="s">
-        <v>30</v>
+        <v>444</v>
       </c>
       <c r="B236">
         <v>171</v>
@@ -22587,7 +23023,7 @@
     </row>
     <row r="237" spans="1:24">
       <c r="A237" t="s">
-        <v>108</v>
+        <v>362</v>
       </c>
       <c r="B237">
         <v>190</v>
@@ -22661,7 +23097,7 @@
     </row>
     <row r="238" spans="1:24">
       <c r="A238" t="s">
-        <v>137</v>
+        <v>316</v>
       </c>
       <c r="B238">
         <v>192</v>
@@ -22735,7 +23171,7 @@
     </row>
     <row r="239" spans="1:24">
       <c r="A239" t="s">
-        <v>418</v>
+        <v>5</v>
       </c>
       <c r="B239">
         <v>236</v>
@@ -22809,7 +23245,7 @@
     </row>
     <row r="240" spans="1:24">
       <c r="A240" t="s">
-        <v>70</v>
+        <v>404</v>
       </c>
       <c r="B240">
         <v>165</v>
@@ -22883,7 +23319,7 @@
     </row>
     <row r="241" spans="1:24">
       <c r="A241" t="s">
-        <v>157</v>
+        <v>260</v>
       </c>
       <c r="B241">
         <v>186</v>
@@ -22957,7 +23393,7 @@
     </row>
     <row r="242" spans="1:24">
       <c r="A242" t="s">
-        <v>171</v>
+        <v>274</v>
       </c>
       <c r="B242">
         <v>184</v>
@@ -23031,7 +23467,7 @@
     </row>
     <row r="243" spans="1:24">
       <c r="A243" t="s">
-        <v>273</v>
+        <v>137</v>
       </c>
       <c r="B243">
         <v>210</v>
@@ -23105,7 +23541,7 @@
     </row>
     <row r="244" spans="1:24">
       <c r="A244" t="s">
-        <v>290</v>
+        <v>154</v>
       </c>
       <c r="B244">
         <v>176</v>
@@ -23179,7 +23615,7 @@
     </row>
     <row r="245" spans="1:24">
       <c r="A245" t="s">
-        <v>187</v>
+        <v>290</v>
       </c>
       <c r="B245">
         <v>179</v>
@@ -23253,7 +23689,7 @@
     </row>
     <row r="246" spans="1:24">
       <c r="A246" t="s">
-        <v>183</v>
+        <v>286</v>
       </c>
       <c r="B246">
         <v>209</v>
@@ -23327,7 +23763,7 @@
     </row>
     <row r="247" spans="1:24">
       <c r="A247" t="s">
-        <v>336</v>
+        <v>99</v>
       </c>
       <c r="B247">
         <v>195</v>
@@ -23401,7 +23837,7 @@
     </row>
     <row r="248" spans="1:24">
       <c r="A248" t="s">
-        <v>252</v>
+        <v>197</v>
       </c>
       <c r="B248">
         <v>224</v>
@@ -23475,7 +23911,7 @@
     </row>
     <row r="249" spans="1:24">
       <c r="A249" t="s">
-        <v>144</v>
+        <v>323</v>
       </c>
       <c r="B249">
         <v>200</v>
@@ -23549,7 +23985,7 @@
     </row>
     <row r="250" spans="1:24">
       <c r="A250" t="s">
-        <v>230</v>
+        <v>254</v>
       </c>
       <c r="B250">
         <v>154</v>
@@ -23623,7 +24059,7 @@
     </row>
     <row r="251" spans="1:24">
       <c r="A251" t="s">
-        <v>170</v>
+        <v>273</v>
       </c>
       <c r="B251">
         <v>213</v>
@@ -23697,7 +24133,7 @@
     </row>
     <row r="252" spans="1:24">
       <c r="A252" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
       <c r="B252">
         <v>276</v>
@@ -23771,7 +24207,7 @@
     </row>
     <row r="253" spans="1:24">
       <c r="A253" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="B253">
         <v>236</v>
@@ -23845,7 +24281,7 @@
     </row>
     <row r="254" spans="1:24">
       <c r="A254" t="s">
-        <v>11</v>
+        <v>425</v>
       </c>
       <c r="B254">
         <v>178</v>
@@ -23919,7 +24355,7 @@
     </row>
     <row r="255" spans="1:24">
       <c r="A255" t="s">
-        <v>77</v>
+        <v>411</v>
       </c>
       <c r="B255">
         <v>247</v>
@@ -23993,7 +24429,7 @@
     </row>
     <row r="256" spans="1:24">
       <c r="A256" t="s">
-        <v>185</v>
+        <v>288</v>
       </c>
       <c r="B256">
         <v>226</v>
@@ -24067,7 +24503,7 @@
     </row>
     <row r="257" spans="1:24">
       <c r="A257" t="s">
-        <v>7</v>
+        <v>421</v>
       </c>
       <c r="B257">
         <v>184</v>
@@ -24141,7 +24577,7 @@
     </row>
     <row r="258" spans="1:24">
       <c r="A258" t="s">
-        <v>152</v>
+        <v>331</v>
       </c>
       <c r="B258">
         <v>249</v>
@@ -24215,7 +24651,7 @@
     </row>
     <row r="259" spans="1:24">
       <c r="A259" t="s">
-        <v>156</v>
+        <v>259</v>
       </c>
       <c r="B259">
         <v>216</v>
@@ -24289,7 +24725,7 @@
     </row>
     <row r="260" spans="1:24">
       <c r="A260" t="s">
-        <v>74</v>
+        <v>408</v>
       </c>
       <c r="B260">
         <v>231</v>
@@ -24363,7 +24799,7 @@
     </row>
     <row r="261" spans="1:24">
       <c r="A261" t="s">
-        <v>31</v>
+        <v>445</v>
       </c>
       <c r="B261">
         <v>210</v>
@@ -24437,7 +24873,7 @@
     </row>
     <row r="262" spans="1:24">
       <c r="A262" t="s">
-        <v>76</v>
+        <v>410</v>
       </c>
       <c r="B262">
         <v>246</v>
@@ -24511,7 +24947,7 @@
     </row>
     <row r="263" spans="1:24">
       <c r="A263" t="s">
-        <v>60</v>
+        <v>394</v>
       </c>
       <c r="B263">
         <v>222</v>
@@ -24585,7 +25021,7 @@
     </row>
     <row r="264" spans="1:24">
       <c r="A264" t="s">
-        <v>409</v>
+        <v>74</v>
       </c>
       <c r="B264">
         <v>340</v>
@@ -24659,7 +25095,7 @@
     </row>
     <row r="265" spans="1:24">
       <c r="A265" t="s">
-        <v>61</v>
+        <v>395</v>
       </c>
       <c r="B265">
         <v>189</v>
@@ -24733,7 +25169,7 @@
     </row>
     <row r="266" spans="1:24">
       <c r="A266" t="s">
-        <v>109</v>
+        <v>363</v>
       </c>
       <c r="B266">
         <v>293</v>
@@ -24807,7 +25243,7 @@
     </row>
     <row r="267" spans="1:24">
       <c r="A267" t="s">
-        <v>26</v>
+        <v>440</v>
       </c>
       <c r="B267">
         <v>272</v>
@@ -24881,7 +25317,7 @@
     </row>
     <row r="268" spans="1:24">
       <c r="A268" t="s">
-        <v>288</v>
+        <v>152</v>
       </c>
       <c r="B268">
         <v>312</v>
@@ -24955,7 +25391,7 @@
     </row>
     <row r="269" spans="1:24">
       <c r="A269" t="s">
-        <v>75</v>
+        <v>409</v>
       </c>
       <c r="B269">
         <v>238</v>
@@ -25029,7 +25465,7 @@
     </row>
     <row r="270" spans="1:24">
       <c r="A270" t="s">
-        <v>36</v>
+        <v>450</v>
       </c>
       <c r="B270">
         <v>230</v>
@@ -25103,7 +25539,7 @@
     </row>
     <row r="271" spans="1:24">
       <c r="A271" t="s">
-        <v>165</v>
+        <v>268</v>
       </c>
       <c r="B271">
         <v>310</v>
@@ -25177,7 +25613,7 @@
     </row>
     <row r="272" spans="1:24">
       <c r="A272" t="s">
-        <v>248</v>
+        <v>193</v>
       </c>
       <c r="B272">
         <v>276</v>
@@ -25251,7 +25687,7 @@
     </row>
     <row r="273" spans="1:24">
       <c r="A273" t="s">
-        <v>172</v>
+        <v>275</v>
       </c>
       <c r="B273">
         <v>310</v>
@@ -25325,7 +25761,7 @@
     </row>
     <row r="274" spans="1:24">
       <c r="A274" t="s">
-        <v>293</v>
+        <v>157</v>
       </c>
       <c r="B274">
         <v>267</v>
@@ -25399,7 +25835,7 @@
     </row>
     <row r="275" spans="1:24">
       <c r="A275" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="B275">
         <v>308</v>
@@ -25473,7 +25909,7 @@
     </row>
     <row r="276" spans="1:24">
       <c r="A276" t="s">
-        <v>82</v>
+        <v>336</v>
       </c>
       <c r="B276">
         <v>326</v>
@@ -25547,7 +25983,7 @@
     </row>
     <row r="277" spans="1:24">
       <c r="A277" t="s">
-        <v>15</v>
+        <v>429</v>
       </c>
       <c r="B277">
         <v>289</v>
@@ -25621,7 +26057,7 @@
     </row>
     <row r="278" spans="1:24">
       <c r="A278" t="s">
-        <v>244</v>
+        <v>189</v>
       </c>
       <c r="B278">
         <v>249</v>
@@ -25695,7 +26131,7 @@
     </row>
     <row r="279" spans="1:24">
       <c r="A279" t="s">
-        <v>81</v>
+        <v>335</v>
       </c>
       <c r="B279">
         <v>323</v>
@@ -25769,7 +26205,7 @@
     </row>
     <row r="280" spans="1:24">
       <c r="A280" t="s">
-        <v>163</v>
+        <v>266</v>
       </c>
       <c r="B280">
         <v>292</v>
@@ -25843,7 +26279,7 @@
     </row>
     <row r="281" spans="1:24">
       <c r="A281" t="s">
-        <v>136</v>
+        <v>315</v>
       </c>
       <c r="B281">
         <v>308</v>
@@ -25917,7 +26353,7 @@
     </row>
     <row r="282" spans="1:24">
       <c r="A282" t="s">
-        <v>419</v>
+        <v>6</v>
       </c>
       <c r="B282">
         <v>451</v>
@@ -25991,7 +26427,7 @@
     </row>
     <row r="283" spans="1:24">
       <c r="A283" t="s">
-        <v>9</v>
+        <v>423</v>
       </c>
       <c r="B283">
         <v>315</v>
@@ -26065,7 +26501,7 @@
     </row>
     <row r="284" spans="1:24">
       <c r="A284" t="s">
-        <v>99</v>
+        <v>353</v>
       </c>
       <c r="B284">
         <v>400</v>
@@ -26139,7 +26575,7 @@
     </row>
     <row r="285" spans="1:24">
       <c r="A285" t="s">
-        <v>37</v>
+        <v>451</v>
       </c>
       <c r="B285">
         <v>413</v>
@@ -26213,7 +26649,7 @@
     </row>
     <row r="286" spans="1:24">
       <c r="A286" t="s">
-        <v>128</v>
+        <v>307</v>
       </c>
       <c r="B286">
         <v>424</v>
@@ -26287,7 +26723,7 @@
     </row>
     <row r="287" spans="1:24">
       <c r="A287" t="s">
-        <v>291</v>
+        <v>155</v>
       </c>
       <c r="B287">
         <v>339</v>
@@ -26361,7 +26797,7 @@
     </row>
     <row r="288" spans="1:24">
       <c r="A288" t="s">
-        <v>245</v>
+        <v>190</v>
       </c>
       <c r="B288">
         <v>322</v>
@@ -26435,7 +26871,7 @@
     </row>
     <row r="289" spans="1:24">
       <c r="A289" t="s">
-        <v>83</v>
+        <v>337</v>
       </c>
       <c r="B289">
         <v>482</v>
@@ -26509,7 +26945,7 @@
     </row>
     <row r="290" spans="1:24">
       <c r="A290" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
       <c r="B290">
         <v>382</v>
@@ -26583,7 +27019,7 @@
     </row>
     <row r="291" spans="1:24">
       <c r="A291" t="s">
-        <v>100</v>
+        <v>354</v>
       </c>
       <c r="B291">
         <v>398</v>
@@ -26657,7 +27093,7 @@
     </row>
     <row r="292" spans="1:24">
       <c r="A292" t="s">
-        <v>174</v>
+        <v>277</v>
       </c>
       <c r="B292">
         <v>427</v>
@@ -26731,7 +27167,7 @@
     </row>
     <row r="293" spans="1:24">
       <c r="A293" t="s">
-        <v>145</v>
+        <v>324</v>
       </c>
       <c r="B293">
         <v>399</v>
@@ -26805,7 +27241,7 @@
     </row>
     <row r="294" spans="1:24">
       <c r="A294" t="s">
-        <v>159</v>
+        <v>262</v>
       </c>
       <c r="B294">
         <v>493</v>
@@ -26879,7 +27315,7 @@
     </row>
     <row r="295" spans="1:24">
       <c r="A295" t="s">
-        <v>62</v>
+        <v>396</v>
       </c>
       <c r="B295">
         <v>358</v>
@@ -26953,7 +27389,7 @@
     </row>
     <row r="296" spans="1:24">
       <c r="A296" t="s">
-        <v>10</v>
+        <v>424</v>
       </c>
       <c r="B296">
         <v>410</v>
@@ -27027,7 +27463,7 @@
     </row>
     <row r="297" spans="1:24">
       <c r="A297" t="s">
-        <v>38</v>
+        <v>372</v>
       </c>
       <c r="B297">
         <v>545</v>
@@ -27101,7 +27537,7 @@
     </row>
     <row r="298" spans="1:24">
       <c r="A298" t="s">
-        <v>110</v>
+        <v>364</v>
       </c>
       <c r="B298">
         <v>474</v>
@@ -27175,7 +27611,7 @@
     </row>
     <row r="299" spans="1:24">
       <c r="A299" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="B299">
         <v>523</v>
@@ -27249,7 +27685,7 @@
     </row>
     <row r="300" spans="1:24">
       <c r="A300" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c r="B300">
         <v>430</v>
@@ -27323,7 +27759,7 @@
     </row>
     <row r="301" spans="1:24">
       <c r="A301" t="s">
-        <v>149</v>
+        <v>328</v>
       </c>
       <c r="B301">
         <v>522</v>
@@ -27397,7 +27833,7 @@
     </row>
     <row r="302" spans="1:24">
       <c r="A302" t="s">
-        <v>66</v>
+        <v>400</v>
       </c>
       <c r="B302">
         <v>562</v>
@@ -27471,7 +27907,7 @@
     </row>
     <row r="303" spans="1:24">
       <c r="A303" t="s">
-        <v>330</v>
+        <v>93</v>
       </c>
       <c r="B303">
         <v>526</v>
@@ -27545,7 +27981,7 @@
     </row>
     <row r="304" spans="1:24">
       <c r="A304" t="s">
-        <v>250</v>
+        <v>195</v>
       </c>
       <c r="B304">
         <v>562</v>
@@ -27619,7 +28055,7 @@
     </row>
     <row r="305" spans="1:24">
       <c r="A305" t="s">
-        <v>34</v>
+        <v>448</v>
       </c>
       <c r="B305">
         <v>653</v>
@@ -27693,7 +28129,7 @@
     </row>
     <row r="306" spans="1:24">
       <c r="A306" t="s">
-        <v>78</v>
+        <v>412</v>
       </c>
       <c r="B306">
         <v>544</v>
@@ -27767,7 +28203,7 @@
     </row>
     <row r="307" spans="1:24">
       <c r="A307" t="s">
-        <v>142</v>
+        <v>321</v>
       </c>
       <c r="B307">
         <v>519</v>
@@ -27841,7 +28277,7 @@
     </row>
     <row r="308" spans="1:24">
       <c r="A308" t="s">
-        <v>215</v>
+        <v>239</v>
       </c>
       <c r="B308">
         <v>505</v>
@@ -27915,7 +28351,7 @@
     </row>
     <row r="309" spans="1:24">
       <c r="A309" t="s">
-        <v>8</v>
+        <v>422</v>
       </c>
       <c r="B309">
         <v>354</v>
@@ -27989,7 +28425,7 @@
     </row>
     <row r="310" spans="1:24">
       <c r="A310" t="s">
-        <v>132</v>
+        <v>311</v>
       </c>
       <c r="B310">
         <v>615</v>
@@ -28063,7 +28499,7 @@
     </row>
     <row r="311" spans="1:24">
       <c r="A311" t="s">
-        <v>65</v>
+        <v>399</v>
       </c>
       <c r="B311">
         <v>485</v>
@@ -28137,7 +28573,7 @@
     </row>
     <row r="312" spans="1:24">
       <c r="A312" t="s">
-        <v>179</v>
+        <v>282</v>
       </c>
       <c r="B312">
         <v>696</v>
@@ -28211,7 +28647,7 @@
     </row>
     <row r="313" spans="1:24">
       <c r="A313" t="s">
-        <v>12</v>
+        <v>426</v>
       </c>
       <c r="B313">
         <v>495</v>
@@ -28285,7 +28721,7 @@
     </row>
     <row r="314" spans="1:24">
       <c r="A314" t="s">
-        <v>32</v>
+        <v>446</v>
       </c>
       <c r="B314">
         <v>832</v>
@@ -28359,7 +28795,7 @@
     </row>
     <row r="315" spans="1:24">
       <c r="A315" t="s">
-        <v>141</v>
+        <v>320</v>
       </c>
       <c r="B315">
         <v>667</v>
@@ -28433,7 +28869,7 @@
     </row>
     <row r="316" spans="1:24">
       <c r="A316" t="s">
-        <v>35</v>
+        <v>449</v>
       </c>
       <c r="B316">
         <v>734</v>
@@ -28507,7 +28943,7 @@
     </row>
     <row r="317" spans="1:24">
       <c r="A317" t="s">
-        <v>292</v>
+        <v>156</v>
       </c>
       <c r="B317">
         <v>751</v>
@@ -28581,7 +29017,7 @@
     </row>
     <row r="318" spans="1:24">
       <c r="A318" t="s">
-        <v>177</v>
+        <v>280</v>
       </c>
       <c r="B318">
         <v>769</v>
@@ -28655,7 +29091,7 @@
     </row>
     <row r="319" spans="1:24">
       <c r="A319" t="s">
-        <v>121</v>
+        <v>300</v>
       </c>
       <c r="B319">
         <v>867</v>
@@ -28729,7 +29165,7 @@
     </row>
     <row r="320" spans="1:24">
       <c r="A320" t="s">
-        <v>24</v>
+        <v>438</v>
       </c>
       <c r="B320">
         <v>907</v>
@@ -28803,7 +29239,7 @@
     </row>
     <row r="321" spans="1:24">
       <c r="A321" t="s">
-        <v>140</v>
+        <v>319</v>
       </c>
       <c r="B321">
         <v>790</v>
@@ -28877,7 +29313,7 @@
     </row>
     <row r="322" spans="1:24">
       <c r="A322" t="s">
-        <v>79</v>
+        <v>413</v>
       </c>
       <c r="B322">
         <v>717</v>
@@ -28951,7 +29387,7 @@
     </row>
     <row r="323" spans="1:24">
       <c r="A323" t="s">
-        <v>86</v>
+        <v>340</v>
       </c>
       <c r="B323">
         <v>1112</v>
@@ -29025,7 +29461,7 @@
     </row>
     <row r="324" spans="1:24">
       <c r="A324" t="s">
-        <v>116</v>
+        <v>370</v>
       </c>
       <c r="B324">
         <v>1232</v>
@@ -29099,7 +29535,7 @@
     </row>
     <row r="325" spans="1:24">
       <c r="A325" t="s">
-        <v>207</v>
+        <v>231</v>
       </c>
       <c r="B325">
         <v>1208</v>
@@ -29173,7 +29609,7 @@
     </row>
     <row r="326" spans="1:24">
       <c r="A326" t="s">
-        <v>105</v>
+        <v>359</v>
       </c>
       <c r="B326">
         <v>1038</v>
@@ -29247,7 +29683,7 @@
     </row>
     <row r="327" spans="1:24">
       <c r="A327" t="s">
-        <v>63</v>
+        <v>397</v>
       </c>
       <c r="B327">
         <v>1131</v>
@@ -29321,7 +29757,7 @@
     </row>
     <row r="328" spans="1:24">
       <c r="A328" t="s">
-        <v>131</v>
+        <v>310</v>
       </c>
       <c r="B328">
         <v>1137</v>
@@ -29395,7 +29831,7 @@
     </row>
     <row r="329" spans="1:24">
       <c r="A329" t="s">
-        <v>94</v>
+        <v>348</v>
       </c>
       <c r="B329">
         <v>1167</v>
@@ -29469,7 +29905,7 @@
     </row>
     <row r="330" spans="1:24">
       <c r="A330" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="B330">
         <v>1124</v>
@@ -29543,7 +29979,7 @@
     </row>
     <row r="331" spans="1:24">
       <c r="A331" t="s">
-        <v>47</v>
+        <v>381</v>
       </c>
       <c r="B331">
         <v>1408</v>
@@ -29617,7 +30053,7 @@
     </row>
     <row r="332" spans="1:24">
       <c r="A332" t="s">
-        <v>125</v>
+        <v>304</v>
       </c>
       <c r="B332">
         <v>1361</v>
@@ -29691,7 +30127,7 @@
     </row>
     <row r="333" spans="1:24">
       <c r="A333" t="s">
-        <v>55</v>
+        <v>389</v>
       </c>
       <c r="B333">
         <v>1156</v>
@@ -29765,7 +30201,7 @@
     </row>
     <row r="334" spans="1:24">
       <c r="A334" t="s">
-        <v>71</v>
+        <v>405</v>
       </c>
       <c r="B334">
         <v>1311</v>
@@ -29839,7 +30275,7 @@
     </row>
     <row r="335" spans="1:24">
       <c r="A335" t="s">
-        <v>104</v>
+        <v>358</v>
       </c>
       <c r="B335">
         <v>1305</v>
@@ -29913,7 +30349,7 @@
     </row>
     <row r="336" spans="1:24">
       <c r="A336" t="s">
-        <v>122</v>
+        <v>301</v>
       </c>
       <c r="B336">
         <v>1608</v>
@@ -29987,7 +30423,7 @@
     </row>
     <row r="337" spans="1:24">
       <c r="A337" t="s">
-        <v>123</v>
+        <v>302</v>
       </c>
       <c r="B337">
         <v>1371</v>
@@ -30061,7 +30497,7 @@
     </row>
     <row r="338" spans="1:24">
       <c r="A338" t="s">
-        <v>249</v>
+        <v>194</v>
       </c>
       <c r="B338">
         <v>1368</v>
@@ -30135,7 +30571,7 @@
     </row>
     <row r="339" spans="1:24">
       <c r="A339" t="s">
-        <v>102</v>
+        <v>356</v>
       </c>
       <c r="B339">
         <v>1705</v>
@@ -30209,7 +30645,7 @@
     </row>
     <row r="340" spans="1:24">
       <c r="A340" t="s">
-        <v>69</v>
+        <v>403</v>
       </c>
       <c r="B340">
         <v>1341</v>
@@ -30283,7 +30719,7 @@
     </row>
     <row r="341" spans="1:24">
       <c r="A341" t="s">
-        <v>173</v>
+        <v>276</v>
       </c>
       <c r="B341">
         <v>1577</v>
@@ -30357,7 +30793,7 @@
     </row>
     <row r="342" spans="1:24">
       <c r="A342" t="s">
-        <v>40</v>
+        <v>374</v>
       </c>
       <c r="B342">
         <v>2203</v>
@@ -30431,7 +30867,7 @@
     </row>
     <row r="343" spans="1:24">
       <c r="A343" t="s">
-        <v>119</v>
+        <v>298</v>
       </c>
       <c r="B343">
         <v>1767</v>
@@ -30505,7 +30941,7 @@
     </row>
     <row r="344" spans="1:24">
       <c r="A344" t="s">
-        <v>246</v>
+        <v>191</v>
       </c>
       <c r="B344">
         <v>1798</v>
@@ -30579,7 +31015,7 @@
     </row>
     <row r="345" spans="1:24">
       <c r="A345" t="s">
-        <v>45</v>
+        <v>379</v>
       </c>
       <c r="B345">
         <v>2044</v>
@@ -30653,7 +31089,7 @@
     </row>
     <row r="346" spans="1:24">
       <c r="A346" t="s">
-        <v>200</v>
+        <v>224</v>
       </c>
       <c r="B346">
         <v>2561</v>
@@ -30727,7 +31163,7 @@
     </row>
     <row r="347" spans="1:24">
       <c r="A347" t="s">
-        <v>124</v>
+        <v>303</v>
       </c>
       <c r="B347">
         <v>2470</v>
@@ -30801,7 +31237,7 @@
     </row>
     <row r="348" spans="1:24">
       <c r="A348" t="s">
-        <v>59</v>
+        <v>393</v>
       </c>
       <c r="B348">
         <v>2336</v>
@@ -30875,7 +31311,7 @@
     </row>
     <row r="349" spans="1:24">
       <c r="A349" t="s">
-        <v>97</v>
+        <v>351</v>
       </c>
       <c r="B349">
         <v>2193</v>
@@ -30949,7 +31385,7 @@
     </row>
     <row r="350" spans="1:24">
       <c r="A350" t="s">
-        <v>127</v>
+        <v>306</v>
       </c>
       <c r="B350">
         <v>2684</v>
@@ -31023,7 +31459,7 @@
     </row>
     <row r="351" spans="1:24">
       <c r="A351" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="B351">
         <v>2778</v>
@@ -31097,7 +31533,7 @@
     </row>
     <row r="352" spans="1:24">
       <c r="A352" t="s">
-        <v>85</v>
+        <v>339</v>
       </c>
       <c r="B352">
         <v>3016</v>
@@ -31171,7 +31607,7 @@
     </row>
     <row r="353" spans="1:24">
       <c r="A353" t="s">
-        <v>33</v>
+        <v>447</v>
       </c>
       <c r="B353">
         <v>3116</v>
@@ -31245,7 +31681,7 @@
     </row>
     <row r="354" spans="1:24">
       <c r="A354" t="s">
-        <v>21</v>
+        <v>435</v>
       </c>
       <c r="B354">
         <v>2498</v>
@@ -31319,7 +31755,7 @@
     </row>
     <row r="355" spans="1:24">
       <c r="A355" t="s">
-        <v>204</v>
+        <v>228</v>
       </c>
       <c r="B355">
         <v>3631</v>
@@ -31393,7 +31829,7 @@
     </row>
     <row r="356" spans="1:24">
       <c r="A356" t="s">
-        <v>29</v>
+        <v>443</v>
       </c>
       <c r="B356">
         <v>3544</v>
@@ -31467,7 +31903,7 @@
     </row>
     <row r="357" spans="1:24">
       <c r="A357" t="s">
-        <v>88</v>
+        <v>342</v>
       </c>
       <c r="B357">
         <v>3963</v>
@@ -31541,7 +31977,7 @@
     </row>
     <row r="358" spans="1:24">
       <c r="A358" t="s">
-        <v>133</v>
+        <v>312</v>
       </c>
       <c r="B358">
         <v>3544</v>
@@ -31615,7 +32051,7 @@
     </row>
     <row r="359" spans="1:24">
       <c r="A359" t="s">
-        <v>52</v>
+        <v>386</v>
       </c>
       <c r="B359">
         <v>3799</v>
@@ -31689,7 +32125,7 @@
     </row>
     <row r="360" spans="1:24">
       <c r="A360" t="s">
-        <v>95</v>
+        <v>349</v>
       </c>
       <c r="B360">
         <v>3700</v>
@@ -31763,7 +32199,7 @@
     </row>
     <row r="361" spans="1:24">
       <c r="A361" t="s">
-        <v>117</v>
+        <v>371</v>
       </c>
       <c r="B361">
         <v>4686</v>
@@ -31837,7 +32273,7 @@
     </row>
     <row r="362" spans="1:24">
       <c r="A362" t="s">
-        <v>28</v>
+        <v>442</v>
       </c>
       <c r="B362">
         <v>4488</v>
@@ -31911,7 +32347,7 @@
     </row>
     <row r="363" spans="1:24">
       <c r="A363" t="s">
-        <v>167</v>
+        <v>270</v>
       </c>
       <c r="B363">
         <v>5016</v>
@@ -31985,7 +32421,7 @@
     </row>
     <row r="364" spans="1:24">
       <c r="A364" t="s">
-        <v>46</v>
+        <v>380</v>
       </c>
       <c r="B364">
         <v>4092</v>
@@ -32059,7 +32495,7 @@
     </row>
     <row r="365" spans="1:24">
       <c r="A365" t="s">
-        <v>126</v>
+        <v>305</v>
       </c>
       <c r="B365">
         <v>5152</v>
@@ -32133,7 +32569,7 @@
     </row>
     <row r="366" spans="1:24">
       <c r="A366" t="s">
-        <v>42</v>
+        <v>376</v>
       </c>
       <c r="B366">
         <v>4491</v>
@@ -32207,7 +32643,7 @@
     </row>
     <row r="367" spans="1:24">
       <c r="A367" t="s">
-        <v>129</v>
+        <v>308</v>
       </c>
       <c r="B367">
         <v>5371</v>
@@ -32281,7 +32717,7 @@
     </row>
     <row r="368" spans="1:24">
       <c r="A368" t="s">
-        <v>22</v>
+        <v>436</v>
       </c>
       <c r="B368">
         <v>4980</v>
@@ -32355,7 +32791,7 @@
     </row>
     <row r="369" spans="1:24">
       <c r="A369" t="s">
-        <v>106</v>
+        <v>360</v>
       </c>
       <c r="B369">
         <v>6389</v>
@@ -32429,7 +32865,7 @@
     </row>
     <row r="370" spans="1:24">
       <c r="A370" t="s">
-        <v>107</v>
+        <v>361</v>
       </c>
       <c r="B370">
         <v>6922</v>
@@ -32503,7 +32939,7 @@
     </row>
     <row r="371" spans="1:24">
       <c r="A371" t="s">
-        <v>118</v>
+        <v>297</v>
       </c>
       <c r="B371">
         <v>6401</v>
@@ -32577,7 +33013,7 @@
     </row>
     <row r="372" spans="1:24">
       <c r="A372" t="s">
-        <v>169</v>
+        <v>272</v>
       </c>
       <c r="B372">
         <v>6401</v>
@@ -32651,7 +33087,7 @@
     </row>
     <row r="373" spans="1:24">
       <c r="A373" t="s">
-        <v>48</v>
+        <v>382</v>
       </c>
       <c r="B373">
         <v>6780</v>
@@ -32725,7 +33161,7 @@
     </row>
     <row r="374" spans="1:24">
       <c r="A374" t="s">
-        <v>103</v>
+        <v>357</v>
       </c>
       <c r="B374">
         <v>7845</v>
@@ -32799,7 +33235,7 @@
     </row>
     <row r="375" spans="1:24">
       <c r="A375" t="s">
-        <v>160</v>
+        <v>263</v>
       </c>
       <c r="B375">
         <v>7648</v>
@@ -32873,7 +33309,7 @@
     </row>
     <row r="376" spans="1:24">
       <c r="A376" t="s">
-        <v>43</v>
+        <v>377</v>
       </c>
       <c r="B376">
         <v>6890</v>
@@ -32947,7 +33383,7 @@
     </row>
     <row r="377" spans="1:24">
       <c r="A377" t="s">
-        <v>90</v>
+        <v>344</v>
       </c>
       <c r="B377">
         <v>7007</v>
@@ -33021,7 +33457,7 @@
     </row>
     <row r="378" spans="1:24">
       <c r="A378" t="s">
-        <v>0</v>
+        <v>414</v>
       </c>
       <c r="B378">
         <v>8731</v>
@@ -33095,7 +33531,7 @@
     </row>
     <row r="379" spans="1:24">
       <c r="A379" t="s">
-        <v>54</v>
+        <v>388</v>
       </c>
       <c r="B379">
         <v>11164</v>
@@ -33169,7 +33605,7 @@
     </row>
     <row r="380" spans="1:24">
       <c r="A380" t="s">
-        <v>25</v>
+        <v>439</v>
       </c>
       <c r="B380">
         <v>10375</v>
@@ -33243,7 +33679,7 @@
     </row>
     <row r="381" spans="1:24">
       <c r="A381" t="s">
-        <v>98</v>
+        <v>352</v>
       </c>
       <c r="B381">
         <v>10855</v>
@@ -33317,7 +33753,7 @@
     </row>
     <row r="382" spans="1:24">
       <c r="A382" t="s">
-        <v>89</v>
+        <v>343</v>
       </c>
       <c r="B382">
         <v>11172</v>
@@ -33391,7 +33827,7 @@
     </row>
     <row r="383" spans="1:24">
       <c r="A383" t="s">
-        <v>235</v>
+        <v>180</v>
       </c>
       <c r="B383">
         <v>13489</v>
@@ -33465,7 +33901,7 @@
     </row>
     <row r="384" spans="1:24">
       <c r="A384" t="s">
-        <v>135</v>
+        <v>314</v>
       </c>
       <c r="B384">
         <v>15638</v>
@@ -33539,7 +33975,7 @@
     </row>
     <row r="385" spans="1:24">
       <c r="A385" t="s">
-        <v>96</v>
+        <v>350</v>
       </c>
       <c r="B385">
         <v>15448</v>
@@ -33613,7 +34049,7 @@
     </row>
     <row r="386" spans="1:24">
       <c r="A386" t="s">
-        <v>211</v>
+        <v>235</v>
       </c>
       <c r="B386">
         <v>15641</v>
@@ -33687,7 +34123,7 @@
     </row>
     <row r="387" spans="1:24">
       <c r="A387" t="s">
-        <v>27</v>
+        <v>441</v>
       </c>
       <c r="B387">
         <v>15611</v>
@@ -33761,7 +34197,7 @@
     </row>
     <row r="388" spans="1:24">
       <c r="A388" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="B388">
         <v>16326</v>
@@ -33835,7 +34271,7 @@
     </row>
     <row r="389" spans="1:24">
       <c r="A389" t="s">
-        <v>49</v>
+        <v>383</v>
       </c>
       <c r="B389">
         <v>19027</v>
@@ -33909,7 +34345,7 @@
     </row>
     <row r="390" spans="1:24">
       <c r="A390" t="s">
-        <v>1</v>
+        <v>415</v>
       </c>
       <c r="B390">
         <v>24530</v>
@@ -33983,7 +34419,7 @@
     </row>
     <row r="391" spans="1:24">
       <c r="A391" t="s">
-        <v>158</v>
+        <v>261</v>
       </c>
       <c r="B391">
         <v>30420</v>
@@ -34057,7 +34493,7 @@
     </row>
     <row r="392" spans="1:24">
       <c r="A392" t="s">
-        <v>134</v>
+        <v>313</v>
       </c>
       <c r="B392">
         <v>30612</v>
@@ -34131,7 +34567,7 @@
     </row>
     <row r="393" spans="1:24">
       <c r="A393" t="s">
-        <v>18</v>
+        <v>432</v>
       </c>
       <c r="B393">
         <v>32663</v>
@@ -34205,7 +34641,7 @@
     </row>
     <row r="394" spans="1:24">
       <c r="A394" t="s">
-        <v>93</v>
+        <v>347</v>
       </c>
       <c r="B394">
         <v>32658</v>
@@ -34279,7 +34715,7 @@
     </row>
     <row r="395" spans="1:24">
       <c r="A395" t="s">
-        <v>41</v>
+        <v>375</v>
       </c>
       <c r="B395">
         <v>33106</v>
@@ -34353,7 +34789,7 @@
     </row>
     <row r="396" spans="1:24">
       <c r="A396" t="s">
-        <v>56</v>
+        <v>390</v>
       </c>
       <c r="B396">
         <v>28943</v>
@@ -34427,7 +34863,7 @@
     </row>
     <row r="397" spans="1:24">
       <c r="A397" t="s">
-        <v>91</v>
+        <v>345</v>
       </c>
       <c r="B397">
         <v>45157</v>
@@ -34501,7 +34937,7 @@
     </row>
     <row r="398" spans="1:24">
       <c r="A398" t="s">
-        <v>23</v>
+        <v>437</v>
       </c>
       <c r="B398">
         <v>45033</v>
@@ -34575,7 +35011,7 @@
     </row>
     <row r="399" spans="1:24">
       <c r="A399" t="s">
-        <v>39</v>
+        <v>373</v>
       </c>
       <c r="B399">
         <v>44049</v>
@@ -34649,7 +35085,7 @@
     </row>
     <row r="400" spans="1:24">
       <c r="A400" t="s">
-        <v>19</v>
+        <v>433</v>
       </c>
       <c r="B400">
         <v>50521</v>
@@ -34723,7 +35159,7 @@
     </row>
     <row r="401" spans="1:24">
       <c r="A401" t="s">
-        <v>44</v>
+        <v>378</v>
       </c>
       <c r="B401">
         <v>45064</v>
@@ -34797,7 +35233,7 @@
     </row>
     <row r="402" spans="1:24">
       <c r="A402" t="s">
-        <v>58</v>
+        <v>392</v>
       </c>
       <c r="B402">
         <v>63506</v>
@@ -34871,7 +35307,7 @@
     </row>
     <row r="403" spans="1:24">
       <c r="A403" t="s">
-        <v>51</v>
+        <v>385</v>
       </c>
       <c r="B403">
         <v>69530</v>
@@ -34945,7 +35381,7 @@
     </row>
     <row r="404" spans="1:24">
       <c r="A404" t="s">
-        <v>92</v>
+        <v>346</v>
       </c>
       <c r="B404">
         <v>82370</v>
@@ -35019,7 +35455,7 @@
     </row>
     <row r="405" spans="1:24">
       <c r="A405" t="s">
-        <v>164</v>
+        <v>267</v>
       </c>
       <c r="B405">
         <v>103922</v>
@@ -35093,7 +35529,7 @@
     </row>
     <row r="406" spans="1:24">
       <c r="A406" t="s">
-        <v>50</v>
+        <v>384</v>
       </c>
       <c r="B406">
         <v>143432</v>
@@ -35167,7 +35603,7 @@
     </row>
     <row r="407" spans="1:24">
       <c r="A407" t="s">
-        <v>53</v>
+        <v>387</v>
       </c>
       <c r="B407">
         <v>213535</v>
@@ -35241,7 +35677,7 @@
     </row>
     <row r="408" spans="1:24">
       <c r="A408" t="s">
-        <v>57</v>
+        <v>391</v>
       </c>
       <c r="B408">
         <v>309310</v>
@@ -35314,7 +35750,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <sortState ref="A2:Y429">
     <sortCondition ref="C2:C429"/>
   </sortState>
@@ -35444,6 +35879,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData/>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
   <extLst>
@@ -35458,7 +35894,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:C99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -35469,18 +35905,18 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>422</v>
       </c>
       <c r="B2">
         <v>840</v>
@@ -35491,7 +35927,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>132</v>
+        <v>311</v>
       </c>
       <c r="B3">
         <v>849</v>
@@ -35502,7 +35938,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>399</v>
       </c>
       <c r="B4">
         <v>864</v>
@@ -35513,7 +35949,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>179</v>
+        <v>282</v>
       </c>
       <c r="B5">
         <v>912</v>
@@ -35524,7 +35960,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>426</v>
       </c>
       <c r="B6">
         <v>926</v>
@@ -35535,7 +35971,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>446</v>
       </c>
       <c r="B7">
         <v>943</v>
@@ -35546,7 +35982,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>141</v>
+        <v>320</v>
       </c>
       <c r="B8">
         <v>969</v>
@@ -35557,7 +35993,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>449</v>
       </c>
       <c r="B9">
         <v>1009</v>
@@ -35568,7 +36004,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>292</v>
+        <v>156</v>
       </c>
       <c r="B10">
         <v>1104</v>
@@ -35579,7 +36015,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>177</v>
+        <v>280</v>
       </c>
       <c r="B11">
         <v>1115</v>
@@ -35590,7 +36026,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>121</v>
+        <v>300</v>
       </c>
       <c r="B12">
         <v>1176</v>
@@ -35601,7 +36037,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>438</v>
       </c>
       <c r="B13">
         <v>1185</v>
@@ -35612,7 +36048,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>140</v>
+        <v>319</v>
       </c>
       <c r="B14">
         <v>1208</v>
@@ -35623,7 +36059,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>79</v>
+        <v>413</v>
       </c>
       <c r="B15">
         <v>1217</v>
@@ -35634,7 +36070,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>86</v>
+        <v>340</v>
       </c>
       <c r="B16">
         <v>1435</v>
@@ -35645,7 +36081,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>116</v>
+        <v>370</v>
       </c>
       <c r="B17">
         <v>1485</v>
@@ -35656,7 +36092,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>207</v>
+        <v>231</v>
       </c>
       <c r="B18">
         <v>1506</v>
@@ -35667,7 +36103,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>105</v>
+        <v>359</v>
       </c>
       <c r="B19">
         <v>1565</v>
@@ -35678,7 +36114,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>63</v>
+        <v>397</v>
       </c>
       <c r="B20">
         <v>1586</v>
@@ -35689,7 +36125,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>131</v>
+        <v>310</v>
       </c>
       <c r="B21">
         <v>1640</v>
@@ -35700,7 +36136,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>94</v>
+        <v>348</v>
       </c>
       <c r="B22">
         <v>1692</v>
@@ -35711,7 +36147,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="B23">
         <v>1776</v>
@@ -35722,7 +36158,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>125</v>
+        <v>304</v>
       </c>
       <c r="B24">
         <v>1786</v>
@@ -35733,7 +36169,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>55</v>
+        <v>389</v>
       </c>
       <c r="B25">
         <v>1853</v>
@@ -35744,7 +36180,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>71</v>
+        <v>405</v>
       </c>
       <c r="B26">
         <v>1894</v>
@@ -35755,7 +36191,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>104</v>
+        <v>358</v>
       </c>
       <c r="B27">
         <v>1903</v>
@@ -35766,7 +36202,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>122</v>
+        <v>301</v>
       </c>
       <c r="B28">
         <v>1949</v>
@@ -35777,7 +36213,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>123</v>
+        <v>302</v>
       </c>
       <c r="B29">
         <v>2038</v>
@@ -35788,7 +36224,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>249</v>
+        <v>194</v>
       </c>
       <c r="B30">
         <v>2146</v>
@@ -35799,7 +36235,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>102</v>
+        <v>356</v>
       </c>
       <c r="B31">
         <v>2244</v>
@@ -35810,7 +36246,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>69</v>
+        <v>403</v>
       </c>
       <c r="B32">
         <v>2268</v>
@@ -35821,7 +36257,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>173</v>
+        <v>276</v>
       </c>
       <c r="B33">
         <v>2358</v>
@@ -35832,7 +36268,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>40</v>
+        <v>374</v>
       </c>
       <c r="B34">
         <v>2666</v>
@@ -35843,7 +36279,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>119</v>
+        <v>298</v>
       </c>
       <c r="B35">
         <v>2724</v>
@@ -35854,7 +36290,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>246</v>
+        <v>191</v>
       </c>
       <c r="B36">
         <v>2767</v>
@@ -35865,7 +36301,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>45</v>
+        <v>379</v>
       </c>
       <c r="B37">
         <v>2854</v>
@@ -35876,7 +36312,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>200</v>
+        <v>224</v>
       </c>
       <c r="B38">
         <v>3120</v>
@@ -35887,7 +36323,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>124</v>
+        <v>303</v>
       </c>
       <c r="B39">
         <v>3193</v>
@@ -35898,7 +36334,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>59</v>
+        <v>393</v>
       </c>
       <c r="B40">
         <v>3293</v>
@@ -35909,7 +36345,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>97</v>
+        <v>351</v>
       </c>
       <c r="B41">
         <v>3320</v>
@@ -35920,7 +36356,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>127</v>
+        <v>306</v>
       </c>
       <c r="B42">
         <v>3445</v>
@@ -35931,7 +36367,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="B43">
         <v>3706</v>
@@ -35942,7 +36378,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>85</v>
+        <v>339</v>
       </c>
       <c r="B44">
         <v>3841</v>
@@ -35953,7 +36389,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>33</v>
+        <v>447</v>
       </c>
       <c r="B45">
         <v>4212</v>
@@ -35964,7 +36400,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>21</v>
+        <v>435</v>
       </c>
       <c r="B46">
         <v>4606</v>
@@ -35975,7 +36411,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>204</v>
+        <v>228</v>
       </c>
       <c r="B47">
         <v>4927</v>
@@ -35986,7 +36422,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>29</v>
+        <v>443</v>
       </c>
       <c r="B48">
         <v>5003</v>
@@ -35997,7 +36433,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>88</v>
+        <v>342</v>
       </c>
       <c r="B49">
         <v>5064</v>
@@ -36008,7 +36444,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>133</v>
+        <v>312</v>
       </c>
       <c r="B50">
         <v>5321</v>
@@ -36019,7 +36455,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>52</v>
+        <v>386</v>
       </c>
       <c r="B51">
         <v>5490</v>
@@ -36030,7 +36466,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>95</v>
+        <v>349</v>
       </c>
       <c r="B52">
         <v>5797</v>
@@ -36041,7 +36477,7 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>117</v>
+        <v>371</v>
       </c>
       <c r="B53">
         <v>5863</v>
@@ -36052,7 +36488,7 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>28</v>
+        <v>442</v>
       </c>
       <c r="B54">
         <v>6042</v>
@@ -36063,7 +36499,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>167</v>
+        <v>270</v>
       </c>
       <c r="B55">
         <v>6176</v>
@@ -36074,7 +36510,7 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>46</v>
+        <v>380</v>
       </c>
       <c r="B56">
         <v>6317</v>
@@ -36085,7 +36521,7 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>126</v>
+        <v>305</v>
       </c>
       <c r="B57">
         <v>6660</v>
@@ -36096,7 +36532,7 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>42</v>
+        <v>376</v>
       </c>
       <c r="B58">
         <v>6926</v>
@@ -36107,7 +36543,7 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>129</v>
+        <v>308</v>
       </c>
       <c r="B59">
         <v>6984</v>
@@ -36118,7 +36554,7 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>22</v>
+        <v>436</v>
       </c>
       <c r="B60">
         <v>7061</v>
@@ -36129,7 +36565,7 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>106</v>
+        <v>360</v>
       </c>
       <c r="B61">
         <v>7357</v>
@@ -36140,7 +36576,7 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>107</v>
+        <v>361</v>
       </c>
       <c r="B62">
         <v>7745</v>
@@ -36151,7 +36587,7 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>118</v>
+        <v>297</v>
       </c>
       <c r="B63">
         <v>7956</v>
@@ -36162,7 +36598,7 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>169</v>
+        <v>272</v>
       </c>
       <c r="B64">
         <v>7956</v>
@@ -36173,7 +36609,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>103</v>
+        <v>357</v>
       </c>
       <c r="B65">
         <v>9478</v>
@@ -36184,7 +36620,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>160</v>
+        <v>263</v>
       </c>
       <c r="B66">
         <v>9582</v>
@@ -36195,7 +36631,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>43</v>
+        <v>377</v>
       </c>
       <c r="B67">
         <v>10092</v>
@@ -36206,7 +36642,7 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>90</v>
+        <v>344</v>
       </c>
       <c r="B68">
         <v>10498</v>
@@ -36217,7 +36653,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>0</v>
+        <v>414</v>
       </c>
       <c r="B69">
         <v>12517</v>
@@ -36228,7 +36664,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>54</v>
+        <v>388</v>
       </c>
       <c r="B70">
         <v>14407</v>
@@ -36239,7 +36675,7 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>25</v>
+        <v>439</v>
       </c>
       <c r="B71">
         <v>14494</v>
@@ -36250,7 +36686,7 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>98</v>
+        <v>352</v>
       </c>
       <c r="B72">
         <v>16612</v>
@@ -36261,7 +36697,7 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>89</v>
+        <v>343</v>
       </c>
       <c r="B73">
         <v>18434</v>
@@ -36272,7 +36708,7 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>235</v>
+        <v>180</v>
       </c>
       <c r="B74">
         <v>22042</v>
@@ -36283,7 +36719,7 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>135</v>
+        <v>314</v>
       </c>
       <c r="B75">
         <v>22304</v>
@@ -36294,7 +36730,7 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>96</v>
+        <v>350</v>
       </c>
       <c r="B76">
         <v>22409</v>
@@ -36305,7 +36741,7 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>211</v>
+        <v>235</v>
       </c>
       <c r="B77">
         <v>22856</v>
@@ -36316,7 +36752,7 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>27</v>
+        <v>441</v>
       </c>
       <c r="B78">
         <v>24100</v>
@@ -36327,7 +36763,7 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="B79">
         <v>25243</v>
@@ -36338,7 +36774,7 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>1</v>
+        <v>415</v>
       </c>
       <c r="B80">
         <v>38409</v>
@@ -36349,7 +36785,7 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>158</v>
+        <v>261</v>
       </c>
       <c r="B81">
         <v>40259</v>
@@ -36360,7 +36796,7 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>134</v>
+        <v>313</v>
       </c>
       <c r="B82">
         <v>41695</v>
@@ -36371,7 +36807,7 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>18</v>
+        <v>432</v>
       </c>
       <c r="B83">
         <v>45299</v>
@@ -36382,7 +36818,7 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>93</v>
+        <v>347</v>
       </c>
       <c r="B84">
         <v>48806</v>
@@ -36393,7 +36829,7 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>41</v>
+        <v>375</v>
       </c>
       <c r="B85">
         <v>49504</v>
@@ -36404,7 +36840,7 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>56</v>
+        <v>390</v>
       </c>
       <c r="B86">
         <v>50095</v>
@@ -36415,7 +36851,7 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>91</v>
+        <v>345</v>
       </c>
       <c r="B87">
         <v>55312</v>
@@ -36426,7 +36862,7 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>23</v>
+        <v>437</v>
       </c>
       <c r="B88">
         <v>64438</v>
@@ -36437,7 +36873,7 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>39</v>
+        <v>373</v>
       </c>
       <c r="B89">
         <v>74219</v>
@@ -36448,7 +36884,7 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>19</v>
+        <v>433</v>
       </c>
       <c r="B90">
         <v>75328</v>
@@ -36459,7 +36895,7 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>44</v>
+        <v>378</v>
       </c>
       <c r="B91">
         <v>83230</v>
@@ -36470,7 +36906,7 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>58</v>
+        <v>392</v>
       </c>
       <c r="B92">
         <v>84846</v>
@@ -36481,7 +36917,7 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>51</v>
+        <v>385</v>
       </c>
       <c r="B93">
         <v>97494</v>
@@ -36492,7 +36928,7 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>92</v>
+        <v>346</v>
       </c>
       <c r="B94">
         <v>115372</v>
@@ -36503,7 +36939,7 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>164</v>
+        <v>267</v>
       </c>
       <c r="B95">
         <v>139552</v>
@@ -36514,7 +36950,7 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>53</v>
+        <v>387</v>
       </c>
       <c r="B96">
         <v>352423</v>
@@ -36525,7 +36961,7 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>57</v>
+        <v>391</v>
       </c>
       <c r="B97">
         <v>449442</v>
@@ -36569,4 +37005,229 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <dimension ref="A2:D20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetData>
+    <row r="2" spans="1:4">
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3">
+        <f ca="1">1+RAND()</f>
+        <v>1.8755151349387233</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:D3" ca="1" si="0">1+RAND()</f>
+        <v>1.5798408200917038</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.4399710114748814</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ref="B4:D12" ca="1" si="1">1+RAND()</f>
+        <v>1.7624161035600991</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.5655782615576754</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.3218772906357117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.6221768381210495</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.8945436161175166</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.0495156357774249</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.822448245531632</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.9772227923613344</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.0738349928442403</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.046305722179568</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.6031797955365619</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.3482596570274836</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.1213677350897342</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.8094110410984285</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.7348150347579576</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.3310191321097591</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.3389639230335888</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.6042424778925124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.7091093225408258</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.5626440549222025</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.5382412417029627</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.592777591596132</v>
+      </c>
+      <c r="C11">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.6861056368143181</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.8011406680116124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.9486216696714109</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.841001582581157</v>
+      </c>
+      <c r="D12">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.0128217784922526</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/doc/Manuscript/data/memory.xlsx
+++ b/doc/Manuscript/data/memory.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="-20" windowWidth="25540" windowHeight="13720" activeTab="1"/>
+    <workbookView xWindow="-20" yWindow="-20" windowWidth="21600" windowHeight="13580" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -64,6 +64,1277 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="456">
   <si>
+    <t>SingleSource/UnitTests/SignlessTypes/factor</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/SignlessTypes/ccc</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/SignlessTypes/cast-bug</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/Vector/sumarray</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/Vector/divides</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/Vector/multiplies</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/Vector/sumarray-dbl</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/Vector/build</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/Vector/build2</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/Vector/simple</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/Vector/SSE/sse.stepfft</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/Vector/SSE/sse.shift</t>
+  </si>
+  <si>
+    <t>h264ref</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>astar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xalancbmk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sjeng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mcf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>omnetpp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gcc gobmk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>libquantum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bzip2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hmmer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B/A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C/A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D/A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B = 16 iterations</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C = Jump Set Widening</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D = 16 iterations + Jump set widening</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A = Simple widening</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C++/2003-09-29-NonPODsByValue</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C++/fixups</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2003-05-12-MinIntProblem</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2003-07-06-IntOverflow</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2002-10-12-StructureArgsSimple</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2002-12-13-MishaTest</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2007-04-10-BitfieldTest</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2002-08-02-CastTest</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2003-08-05-CastFPToUint</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2003-08-20-FoldBug</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/vla</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2002-10-13-BadLoad</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C++/pointer_member</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C++/2003-08-20-EnumSizeProblem</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C++/short_circuit_dtor</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C++/2003-06-08-BaseType</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C++/global_ctor</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C++/EH/ConditionalExpr</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C++/EH/function_try_block</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C++/EH/exception_spec_test</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C++/EH/ctor_dtor_count-2</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C++/EH/simple_rethrow</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C++/EH/simple_throw</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C++/EH/throw_rethrow_test</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C++/EH/dead_try_block</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C++/EH/inlined_cleanup</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C++/EH/ctor_dtor_count</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C/uint64_to_float</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C/2003-05-22-LocalTypeTest</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C/sumarray</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C/2003-05-22-VarSizeArray</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C/PR640</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2006-01-23-UnionInit</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2002-05-19-DivTest</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2002-08-02-CastTest2</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2010-05-24-BitfieldTest</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2004-02-02-NegativeZero</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2002-05-02-CastTest3</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2003-10-13-SwitchTest</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2005-05-12-Int64ToFP</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2002-10-12-StructureArgs</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/stmtexpr</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/Threads/2010-12-08-tls</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C/PR491</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C/test_indvars</t>
+  </si>
+  <si>
+    <t>Memory (KB)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C/bigstack</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C/sumarraymalloc</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/SignlessTypes/Large/cast</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/SignlessTypes/rem</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/SignlessTypes/cast2</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/SignlessTypes/shr</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/SignlessTypes/div</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/Vector/SSE/sse.expandfft</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/Vector/SSE/sse.isamax</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/conditional-gnu-ext</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2006-02-04-DivRem</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Oprs</t>
+  </si>
+  <si>
+    <t>Vars</t>
+  </si>
+  <si>
+    <t>unk</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>cinf</t>
+  </si>
+  <si>
+    <t>cc</t>
+  </si>
+  <si>
+    <t>infc</t>
+  </si>
+  <si>
+    <t>maxrange</t>
+  </si>
+  <si>
+    <t>Insts</t>
+  </si>
+  <si>
+    <t>Init</t>
+  </si>
+  <si>
+    <t>Needed</t>
+  </si>
+  <si>
+    <t>Pct</t>
+  </si>
+  <si>
+    <t>SCCs</t>
+  </si>
+  <si>
+    <t>SCCs 1</t>
+  </si>
+  <si>
+    <t>largestSCC</t>
+  </si>
+  <si>
+    <t>maxvisited</t>
+  </si>
+  <si>
+    <t>vSSA</t>
+  </si>
+  <si>
+    <t>RangeAnalysis</t>
+  </si>
+  <si>
+    <t>BuildGraph</t>
+  </si>
+  <si>
+    <t>Nuutila</t>
+  </si>
+  <si>
+    <t>SCCs resolution</t>
+  </si>
+  <si>
+    <t>ComputeStats</t>
+  </si>
+  <si>
+    <t>Memory</t>
+  </si>
+  <si>
+    <t>|</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C++/2008-01-29-ParamAliasesReturn</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C++/pointer_method2</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C++/BuiltinTypeInfo</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C++/2011-03-28-Bitfield</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C++/2003-05-14-array-init</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C++/2003-06-08-VirtualFunctions</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C++/2003-06-13-Crasher</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C++/ofstream_ctor</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C++/pointer_method</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/initp1</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Shootout/random</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Shootout/objinst</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Shootout/strcat</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Shootout/matrix</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Shootout/heapsort</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Stanford/Towers</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Stanford/Queens</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Stanford/FloatMM</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Stanford/Perm</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Stanford/IntMM</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Stanford/Oscar</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Stanford/Quicksort</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/StructModifyTest</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2003-07-08-BitOpsTest</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2005-07-17-INT-To-FP</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2003-05-02-DependentPHI</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2005-05-11-Popcount-ffs-fls</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2002-05-02-CastTest2</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2002-05-02-CastTest</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2008-07-13-InlineSetjmp</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/conditional-gnu-ext-cxx</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2003-05-26-Shorts</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2003-05-31-CastToBool</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C/2004-02-03-AggregateCopy</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C/testtrace</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C/2004-08-12-InlinerAndAllocas</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C/matrixTranspose</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C/2003-05-23-TransparentUnion</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C/sumarray2d</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C/DuffsDevice</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C/2003-05-21-UnionTest</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C/callargs</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C/2005-05-06-LongLongSignedShift</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C/badidx</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C/2004-03-15-IndirectGoto</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C/2003-05-21-UnionBitfields</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C/globalrefs</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C/pointer_arithmetic</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C/2003-05-21-BitfieldHandling</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C/PR1386</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C/casts</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2003-07-09-SignedArgs</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Misc-C++-EH/spirit</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/BenchmarkGame/Large/fasta</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/BenchmarkGame/partialsums</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/BenchmarkGame/n-body</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/BenchmarkGame/nsieve-bits</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/BenchmarkGame/spectral-norm</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/BenchmarkGame/fannkuch</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/BenchmarkGame/recursive</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/BenchmarkGame/puzzle</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Misc-C++/Large/sphereflake</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/Threads/tls</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Misc/perlin</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Misc/flops-3</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Misc/ReedSolomon</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Misc/flops-7</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Misc/flops-4</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Misc/fbench</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Misc/flops-5</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Misc/flops-6</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Misc/dt</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Misc/flops-8</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Misc/lowercase</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2003-05-31-LongShifts</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/byval-alignment</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2009-04-16-BitfieldInitialization</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2002-05-03-NotTest</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2002-10-09-ArrayResolution</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/member-function-pointers</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/FloatPrecision</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2003-10-29-ScalarReplBug</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2007-01-04-KNR-Args</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2004-06-20-StaticBitfieldInit</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2008-04-18-LoopBug</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/DefaultInitDynArrays</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2005-05-13-SDivTwo</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2003-08-11-VaListArg</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2003-07-10-SignConversions</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2002-05-02-ManyArguments</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2006-12-04-DynAllocAndRestore</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Shootout/sieve</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/mediabench/jpeg/jpeg-6a/cjpeg</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/BitBench/five11/five11</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/BitBench/uuencode/uuencode</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/BitBench/drop3/drop3</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/BitBench/uudecode/uudecode</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Ptrdist/yacr2/yacr2</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Ptrdist/ks/ks</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Ptrdist/anagram/anagram</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Ptrdist/ft/ft</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Ptrdist/bc/bc</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/VersaBench/dbms/dbms</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Stanford/Bubblesort</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Stanford/RealMM</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Stanford/Puzzle</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Stanford/Treesort</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Shootout-C++/ary</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Shootout-C++/lists1</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Shootout-C++/hash2</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Shootout-C++/lists</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Shootout-C++/hello</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Shootout-C++/fibo</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Shootout-C++/spellcheck</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2005-07-15-Bitfield-ABI</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2007-04-25-weak</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2005-11-29-LongSwitch</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2008-04-20-LoopBug2</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/AtomicOps</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2002-04-17-PrintfChar</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2003-07-09-LoadShorts</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2002-05-02-CastTest1</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/TestLoop</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2006-12-07-Compare64BitConstant</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2009-12-07-StructReturn</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2003-05-07-VarArgs</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/printargs</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2003-09-18-BitFieldTest</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2006-12-11-LoadConstants</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2003-04-22-Switch</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2002-05-02-ArgumentTest</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2004-11-28-GlobalBoolLayout</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Shootout-C++/heapsort</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Olden/power/power</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Olden/bisort/bisort</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/mafft/pairlocalalign</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Fhourstones-3.1/fhourstones3.1</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/PAQ8p/paq8p</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/MiBench/telecomm-FFT/telecomm-fft</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/MiBench/telecomm-adpcm/telecomm-adpcm</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/MiBench/network-patricia/network-patricia</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/MiBench/consumer-typeset/consumer-typeset</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Misc-C++/Large/ray</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Misc-C++/stepanov_container</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Misc-C++/mandel-text</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Misc-C++/oopack_v1p8</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Misc-C++/bigfib</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Misc-C++/stepanov_v1p2</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/McGill/queens</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/McGill/exptree</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/MiBench/security-sha/security-sha</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/McGill/misr</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/McGill/chomp</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Adobe-C++/stepanov_vector</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Misc/salsa20</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Misc/mandel-2</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Misc/pi</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Misc/himenobmtxpa</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Misc/mandel</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Misc/oourafft</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Misc/flops</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Misc/flops-2</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Misc/flops-1</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Misc/whetstone</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Misc/fp-convert</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Misc/richards_benchmark</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Misc/ffbench</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Shootout/lists</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Shootout/ackermann</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Shootout/fib2</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Shootout/nestedloop</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Shootout/hash</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Shootout/methcall</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Shootout/ary3</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/mediabench/gsm/toast/toast</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Prolangs-C/archie-client/archie</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Prolangs-C/allroots/allroots</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Prolangs-C/compiler/compiler</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Prolangs-C/gnugo/gnugo</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Prolangs-C/unix-smail/unix-smail</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Prolangs-C/simulator/simulator</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Prolangs-C/assembler/assembler</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Prolangs-C/bison/mybison</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/VersaBench/8b10b/8b10b</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/VersaBench/ecbdes/ecbdes</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/VersaBench/beamformer/beamformer</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/VersaBench/bmm/bmm</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/SciMark2-C/scimark2</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/MallocBench/gs/gs</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/MallocBench/cfrac/cfrac</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Prolangs-C/TimberWolfMC/timberwolfmc</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/MallocBench/espresso/espresso</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/ASC_Sequoia/IRSmk/IRSmk</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/ASC_Sequoia/CrystalMk/CrystalMk</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Shootout-C++/ackermann</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Shootout-C++/nestedloop</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Shootout-C++/wordfreq</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Shootout-C++/hash</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Shootout-C++/reversefile</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Shootout-C++/methcall</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Shootout-C++/ary3</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Shootout-C++/sieve</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Shootout-C++/random</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Shootout-C++/objinst</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Shootout-C++/sumcol</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Shootout-C++/moments</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Shootout-C++/strcat</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Shootout-C++/except</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Shootout-C++/ary2</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Shootout-C++/matrix</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Shootout-C++/wc</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Olden/treeadd/treeadd</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Olden/em3d/em3d</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Trimaran/netbench-url/netbench-url</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Trimaran/enc-pc1/enc-pc1</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Trimaran/netbench-crc/netbench-crc</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Trimaran/enc-3des/enc-3des</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Trimaran/enc-md5/enc-md5</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/llubenchmark/llu</t>
+  </si>
+  <si>
+    <t>MultiSource/Applications/obsequi/Obsequi</t>
+  </si>
+  <si>
+    <t>MultiSource/Applications/d/make_dparser</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/MiBench/office-stringsearch/office-stringsearch</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/MiBench/network-dijkstra/network-dijkstra</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/MiBench/automotive-susan/automotive-susan</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/MiBench/automotive-basicmath/automotive-basicmath</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/MiBench/telecomm-gsm/telecomm-gsm</t>
+  </si>
+  <si>
+    <t>MultiSource/Applications/aha/aha</t>
+  </si>
+  <si>
+    <t>MultiSource/Applications/viterbi/viterbi</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/MiBench/telecomm-CRC32/telecomm-CRC32</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/MiBench/security-blowfish/security-blowfish</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Adobe-C++/simple_types_constant_folding</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Adobe-C++/stepanov_abstraction</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Adobe-C++/functionobjects</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Adobe-C++/simple_types_loop_invariant</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Adobe-C++/loop_unroll</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/CoyoteBench/lpbench</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/CoyoteBench/huffbench</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/CoyoteBench/fftbench</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/CoyoteBench/almabench</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Dhrystone/dry</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Dhrystone/fldry</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/mediabench/adpcm/rawdaudio/rawdaudio</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/mediabench/adpcm/rawcaudio/rawcaudio</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/mediabench/g721/g721encode/encode</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/mediabench/mpeg2/mpeg2dec/mpeg2decode</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Fhourstones/fhourstones</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Bullet/bullet</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/sim/sim</t>
+  </si>
+  <si>
+    <t>MultiSource/Applications/sqlite3/sqlite3</t>
+  </si>
+  <si>
+    <t>MultiSource/Applications/lemon/lemon</t>
+  </si>
+  <si>
+    <t>MultiSource/Applications/siod/siod</t>
+  </si>
+  <si>
+    <t>MultiSource/Applications/kimwitu++/kc</t>
+  </si>
+  <si>
+    <t>MultiSource/Applications/spiff/spiff</t>
+  </si>
+  <si>
+    <t>MultiSource/Applications/Burg/burg</t>
+  </si>
+  <si>
+    <t>External/SPEC/CFP2006/470.lbm/470.lbm</t>
+  </si>
+  <si>
+    <t>External/SPEC/CFP2006/433.milc/433.milc</t>
+  </si>
+  <si>
+    <t>External/SPEC/CFP2006/444.namd/444.namd</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Prolangs-C/unix-tbl/unix-tbl</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Prolangs-C/plot2fig/plot2fig</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Prolangs-C/agrep/agrep</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Prolangs-C/fixoutput/fixoutput</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Prolangs-C/cdecl/cdecl</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Prolangs-C/loader/loader</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Prolangs-C/football/football</t>
+  </si>
+  <si>
+    <t>External/SPEC/CINT2006/403.gcc/403.gcc</t>
+  </si>
+  <si>
+    <t>External/SPEC/CINT2006/445.gobmk/445.gobmk</t>
+  </si>
+  <si>
+    <t>External/SPEC/CINT2006/462.libquantum/462.libquantum</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Prolangs-C++/simul/simul</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Prolangs-C++/deriv1/deriv1</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Prolangs-C++/shapes/shapes</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/ASC_Sequoia/AMGmk/AMGmk</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/McCat/17-bintr/bintr</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/McCat/08-main/main</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/McCat/05-eks/eks</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/McCat/15-trie/trie</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/McCat/03-testtrie/testtrie</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/McCat/09-vor/vor</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/McCat/01-qbsort/qbsort</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/McCat/18-imp/imp</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/McCat/12-IOtest/iotest</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/McCat/04-bisect/bisect</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Olden/tsp/tsp</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Olden/health/health</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Olden/mst/mst</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Olden/perimeter/perimeter</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Olden/bh/bh</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Olden/voronoi/voronoi</t>
+  </si>
+  <si>
+    <t>External/SPEC/CINT2006/401.bzip2/401.bzip2</t>
+  </si>
+  <si>
+    <t>External/SPEC/CINT2006/456.hmmer/456.hmmer</t>
+  </si>
+  <si>
+    <t>Benchmark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vars</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Prolangs-C++/vcirc/vcirc</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Prolangs-C++/garage/garage</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Prolangs-C++/family/family</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Prolangs-C++/trees/trees</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Prolangs-C++/deriv2/deriv2</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Prolangs-C++/objects/objects</t>
+  </si>
+  <si>
+    <t>MultiSource/Applications/treecc/treecc</t>
+  </si>
+  <si>
+    <t>MultiSource/Applications/SPASS/SPASS</t>
+  </si>
+  <si>
+    <t>MultiSource/Applications/JM/lencod/lencod</t>
+  </si>
+  <si>
+    <t>MultiSource/Applications/JM/ldecod/ldecod</t>
+  </si>
+  <si>
+    <t>MultiSource/Applications/hexxagon/hexxagon</t>
+  </si>
+  <si>
+    <t>MultiSource/Applications/hbd/hbd</t>
+  </si>
+  <si>
+    <t>MultiSource/Applications/oggenc/oggenc</t>
+  </si>
+  <si>
+    <t>MultiSource/Applications/minisat/minisat</t>
+  </si>
+  <si>
+    <t>MultiSource/Applications/lua/lua</t>
+  </si>
+  <si>
     <t>MultiSource/Benchmarks/Prolangs-C++/ocean/ocean</t>
   </si>
   <si>
@@ -183,1289 +1454,12 @@
   </si>
   <si>
     <t>External/SPEC/CINT2006/471.omnetpp/471.omnetpp</t>
-  </si>
-  <si>
-    <t>External/SPEC/CINT2006/403.gcc/403.gcc</t>
-  </si>
-  <si>
-    <t>External/SPEC/CINT2006/445.gobmk/445.gobmk</t>
-  </si>
-  <si>
-    <t>External/SPEC/CINT2006/462.libquantum/462.libquantum</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Prolangs-C++/simul/simul</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Prolangs-C++/deriv1/deriv1</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Prolangs-C++/shapes/shapes</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/ASC_Sequoia/AMGmk/AMGmk</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/McCat/17-bintr/bintr</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/McCat/08-main/main</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/McCat/05-eks/eks</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/McCat/15-trie/trie</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/McCat/03-testtrie/testtrie</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/McCat/09-vor/vor</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/McCat/01-qbsort/qbsort</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/McCat/18-imp/imp</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/McCat/12-IOtest/iotest</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/McCat/04-bisect/bisect</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Olden/tsp/tsp</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Olden/health/health</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Olden/mst/mst</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Olden/perimeter/perimeter</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Olden/bh/bh</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Olden/voronoi/voronoi</t>
-  </si>
-  <si>
-    <t>External/SPEC/CINT2006/401.bzip2/401.bzip2</t>
-  </si>
-  <si>
-    <t>External/SPEC/CINT2006/456.hmmer/456.hmmer</t>
-  </si>
-  <si>
-    <t>Benchmark</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Vars</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Prolangs-C++/vcirc/vcirc</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Prolangs-C++/garage/garage</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Prolangs-C++/family/family</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Prolangs-C++/trees/trees</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Prolangs-C++/deriv2/deriv2</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Prolangs-C++/objects/objects</t>
-  </si>
-  <si>
-    <t>MultiSource/Applications/treecc/treecc</t>
-  </si>
-  <si>
-    <t>MultiSource/Applications/SPASS/SPASS</t>
-  </si>
-  <si>
-    <t>MultiSource/Applications/JM/lencod/lencod</t>
-  </si>
-  <si>
-    <t>MultiSource/Applications/JM/ldecod/ldecod</t>
-  </si>
-  <si>
-    <t>MultiSource/Applications/hexxagon/hexxagon</t>
-  </si>
-  <si>
-    <t>MultiSource/Applications/hbd/hbd</t>
-  </si>
-  <si>
-    <t>MultiSource/Applications/oggenc/oggenc</t>
-  </si>
-  <si>
-    <t>MultiSource/Applications/minisat/minisat</t>
-  </si>
-  <si>
-    <t>MultiSource/Applications/lua/lua</t>
-  </si>
-  <si>
-    <t>MultiSource/Applications/aha/aha</t>
-  </si>
-  <si>
-    <t>MultiSource/Applications/viterbi/viterbi</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/MiBench/telecomm-CRC32/telecomm-CRC32</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/MiBench/security-blowfish/security-blowfish</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Adobe-C++/simple_types_constant_folding</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Adobe-C++/stepanov_abstraction</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Adobe-C++/functionobjects</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Adobe-C++/simple_types_loop_invariant</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Adobe-C++/loop_unroll</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/CoyoteBench/lpbench</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/CoyoteBench/huffbench</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/CoyoteBench/fftbench</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/CoyoteBench/almabench</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Dhrystone/dry</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Dhrystone/fldry</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/mediabench/adpcm/rawdaudio/rawdaudio</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/mediabench/adpcm/rawcaudio/rawcaudio</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/mediabench/g721/g721encode/encode</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/mediabench/mpeg2/mpeg2dec/mpeg2decode</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Fhourstones/fhourstones</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Bullet/bullet</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/sim/sim</t>
-  </si>
-  <si>
-    <t>MultiSource/Applications/sqlite3/sqlite3</t>
-  </si>
-  <si>
-    <t>MultiSource/Applications/lemon/lemon</t>
-  </si>
-  <si>
-    <t>MultiSource/Applications/siod/siod</t>
-  </si>
-  <si>
-    <t>MultiSource/Applications/kimwitu++/kc</t>
-  </si>
-  <si>
-    <t>MultiSource/Applications/spiff/spiff</t>
-  </si>
-  <si>
-    <t>MultiSource/Applications/Burg/burg</t>
-  </si>
-  <si>
-    <t>External/SPEC/CFP2006/470.lbm/470.lbm</t>
-  </si>
-  <si>
-    <t>External/SPEC/CFP2006/433.milc/433.milc</t>
-  </si>
-  <si>
-    <t>External/SPEC/CFP2006/444.namd/444.namd</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Prolangs-C/unix-tbl/unix-tbl</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Prolangs-C/plot2fig/plot2fig</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Prolangs-C/agrep/agrep</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Prolangs-C/fixoutput/fixoutput</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Prolangs-C/cdecl/cdecl</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Prolangs-C/loader/loader</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Prolangs-C/football/football</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Prolangs-C/TimberWolfMC/timberwolfmc</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/MallocBench/espresso/espresso</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/ASC_Sequoia/IRSmk/IRSmk</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/ASC_Sequoia/CrystalMk/CrystalMk</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Shootout-C++/ackermann</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Shootout-C++/nestedloop</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Shootout-C++/wordfreq</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Shootout-C++/hash</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Shootout-C++/reversefile</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Shootout-C++/methcall</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Shootout-C++/ary3</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Shootout-C++/sieve</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Shootout-C++/random</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Shootout-C++/objinst</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Shootout-C++/sumcol</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Shootout-C++/moments</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Shootout-C++/strcat</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Shootout-C++/except</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Shootout-C++/ary2</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Shootout-C++/matrix</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Shootout-C++/wc</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Olden/treeadd/treeadd</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Olden/em3d/em3d</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Trimaran/netbench-url/netbench-url</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Trimaran/enc-pc1/enc-pc1</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Trimaran/netbench-crc/netbench-crc</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Trimaran/enc-3des/enc-3des</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Trimaran/enc-md5/enc-md5</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/llubenchmark/llu</t>
-  </si>
-  <si>
-    <t>MultiSource/Applications/obsequi/Obsequi</t>
-  </si>
-  <si>
-    <t>MultiSource/Applications/d/make_dparser</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/MiBench/office-stringsearch/office-stringsearch</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/MiBench/network-dijkstra/network-dijkstra</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/MiBench/automotive-susan/automotive-susan</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/MiBench/automotive-basicmath/automotive-basicmath</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/MiBench/telecomm-gsm/telecomm-gsm</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/MiBench/security-sha/security-sha</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/McGill/misr</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/McGill/chomp</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Adobe-C++/stepanov_vector</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Misc/salsa20</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Misc/mandel-2</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Misc/pi</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Misc/himenobmtxpa</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Misc/mandel</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Misc/oourafft</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Misc/flops</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Misc/flops-2</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Misc/flops-1</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Misc/whetstone</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Misc/fp-convert</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Misc/richards_benchmark</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Misc/ffbench</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Shootout/lists</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Shootout/ackermann</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Shootout/fib2</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Shootout/nestedloop</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Shootout/hash</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Shootout/methcall</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Shootout/ary3</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/mediabench/gsm/toast/toast</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Prolangs-C/archie-client/archie</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Prolangs-C/allroots/allroots</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Prolangs-C/compiler/compiler</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Prolangs-C/gnugo/gnugo</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Prolangs-C/unix-smail/unix-smail</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Prolangs-C/simulator/simulator</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Prolangs-C/assembler/assembler</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Prolangs-C/bison/mybison</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/VersaBench/8b10b/8b10b</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/VersaBench/ecbdes/ecbdes</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/VersaBench/beamformer/beamformer</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/VersaBench/bmm/bmm</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/SciMark2-C/scimark2</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/MallocBench/gs/gs</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/MallocBench/cfrac/cfrac</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Shootout-C++/hello</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Shootout-C++/fibo</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Shootout-C++/spellcheck</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2005-07-15-Bitfield-ABI</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2007-04-25-weak</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2005-11-29-LongSwitch</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2008-04-20-LoopBug2</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/AtomicOps</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2002-04-17-PrintfChar</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2003-07-09-LoadShorts</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2002-05-02-CastTest1</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/TestLoop</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2006-12-07-Compare64BitConstant</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2009-12-07-StructReturn</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2003-05-07-VarArgs</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/printargs</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2003-09-18-BitFieldTest</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2006-12-11-LoadConstants</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2003-04-22-Switch</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2002-05-02-ArgumentTest</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2004-11-28-GlobalBoolLayout</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Shootout-C++/heapsort</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Olden/power/power</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Olden/bisort/bisort</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/mafft/pairlocalalign</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Fhourstones-3.1/fhourstones3.1</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/PAQ8p/paq8p</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/MiBench/telecomm-FFT/telecomm-fft</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/MiBench/telecomm-adpcm/telecomm-adpcm</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/MiBench/network-patricia/network-patricia</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/MiBench/consumer-typeset/consumer-typeset</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Misc-C++/Large/ray</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Misc-C++/stepanov_container</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Misc-C++/mandel-text</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Misc-C++/oopack_v1p8</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Misc-C++/bigfib</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Misc-C++/stepanov_v1p2</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/McGill/queens</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/McGill/exptree</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Misc/dt</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Misc/flops-8</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Misc/lowercase</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2003-05-31-LongShifts</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/byval-alignment</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2009-04-16-BitfieldInitialization</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2002-05-03-NotTest</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2002-10-09-ArrayResolution</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/member-function-pointers</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/FloatPrecision</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2003-10-29-ScalarReplBug</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2007-01-04-KNR-Args</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2004-06-20-StaticBitfieldInit</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2008-04-18-LoopBug</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/DefaultInitDynArrays</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2005-05-13-SDivTwo</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2003-08-11-VaListArg</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2003-07-10-SignConversions</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2002-05-02-ManyArguments</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2006-12-04-DynAllocAndRestore</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Shootout/sieve</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/mediabench/jpeg/jpeg-6a/cjpeg</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/BitBench/five11/five11</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/BitBench/uuencode/uuencode</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/BitBench/drop3/drop3</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/BitBench/uudecode/uudecode</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Ptrdist/yacr2/yacr2</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Ptrdist/ks/ks</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Ptrdist/anagram/anagram</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Ptrdist/ft/ft</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Ptrdist/bc/bc</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/VersaBench/dbms/dbms</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Stanford/Bubblesort</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Stanford/RealMM</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Stanford/Puzzle</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Stanford/Treesort</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Shootout-C++/ary</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Shootout-C++/lists1</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Shootout-C++/hash2</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Shootout-C++/lists</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/conditional-gnu-ext-cxx</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2003-05-26-Shorts</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2003-05-31-CastToBool</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C/2004-02-03-AggregateCopy</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C/testtrace</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C/2004-08-12-InlinerAndAllocas</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C/matrixTranspose</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C/2003-05-23-TransparentUnion</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C/sumarray2d</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C/DuffsDevice</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C/2003-05-21-UnionTest</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C/callargs</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C/2005-05-06-LongLongSignedShift</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C/badidx</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C/2004-03-15-IndirectGoto</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C/2003-05-21-UnionBitfields</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C/globalrefs</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C/pointer_arithmetic</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C/2003-05-21-BitfieldHandling</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C/PR1386</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C/casts</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2003-07-09-SignedArgs</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Misc-C++-EH/spirit</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/BenchmarkGame/Large/fasta</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/BenchmarkGame/partialsums</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/BenchmarkGame/n-body</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/BenchmarkGame/nsieve-bits</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/BenchmarkGame/spectral-norm</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/BenchmarkGame/fannkuch</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/BenchmarkGame/recursive</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/BenchmarkGame/puzzle</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Misc-C++/Large/sphereflake</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/Threads/tls</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Misc/perlin</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Misc/flops-3</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Misc/ReedSolomon</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Misc/flops-7</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Misc/flops-4</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Misc/fbench</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Misc/flops-5</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Misc/flops-6</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/Vector/SSE/sse.expandfft</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/Vector/SSE/sse.isamax</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/conditional-gnu-ext</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2006-02-04-DivRem</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Oprs</t>
-  </si>
-  <si>
-    <t>Vars</t>
-  </si>
-  <si>
-    <t>unk</t>
-  </si>
-  <si>
-    <t>empty</t>
-  </si>
-  <si>
-    <t>cinf</t>
-  </si>
-  <si>
-    <t>cc</t>
-  </si>
-  <si>
-    <t>infc</t>
-  </si>
-  <si>
-    <t>maxrange</t>
-  </si>
-  <si>
-    <t>Insts</t>
-  </si>
-  <si>
-    <t>Init</t>
-  </si>
-  <si>
-    <t>Needed</t>
-  </si>
-  <si>
-    <t>Pct</t>
-  </si>
-  <si>
-    <t>SCCs</t>
-  </si>
-  <si>
-    <t>SCCs 1</t>
-  </si>
-  <si>
-    <t>largestSCC</t>
-  </si>
-  <si>
-    <t>maxvisited</t>
-  </si>
-  <si>
-    <t>vSSA</t>
-  </si>
-  <si>
-    <t>RangeAnalysis</t>
-  </si>
-  <si>
-    <t>BuildGraph</t>
-  </si>
-  <si>
-    <t>Nuutila</t>
-  </si>
-  <si>
-    <t>SCCs resolution</t>
-  </si>
-  <si>
-    <t>ComputeStats</t>
-  </si>
-  <si>
-    <t>Memory</t>
-  </si>
-  <si>
-    <t>|</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C++/2008-01-29-ParamAliasesReturn</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C++/pointer_method2</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C++/BuiltinTypeInfo</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C++/2011-03-28-Bitfield</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C++/2003-05-14-array-init</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C++/2003-06-08-VirtualFunctions</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C++/2003-06-13-Crasher</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C++/ofstream_ctor</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C++/pointer_method</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/initp1</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Shootout/random</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Shootout/objinst</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Shootout/strcat</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Shootout/matrix</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Shootout/heapsort</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Stanford/Towers</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Stanford/Queens</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Stanford/FloatMM</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Stanford/Perm</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Stanford/IntMM</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Stanford/Oscar</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Stanford/Quicksort</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/StructModifyTest</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2003-07-08-BitOpsTest</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2005-07-17-INT-To-FP</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2003-05-02-DependentPHI</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2005-05-11-Popcount-ffs-fls</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2002-05-02-CastTest2</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2002-05-02-CastTest</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2008-07-13-InlineSetjmp</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C++/pointer_member</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C++/2003-08-20-EnumSizeProblem</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C++/short_circuit_dtor</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C++/2003-06-08-BaseType</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C++/global_ctor</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C++/EH/ConditionalExpr</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C++/EH/function_try_block</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C++/EH/exception_spec_test</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C++/EH/ctor_dtor_count-2</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C++/EH/simple_rethrow</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C++/EH/simple_throw</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C++/EH/throw_rethrow_test</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C++/EH/dead_try_block</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C++/EH/inlined_cleanup</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C++/EH/ctor_dtor_count</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C/uint64_to_float</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C/2003-05-22-LocalTypeTest</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C/sumarray</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C/2003-05-22-VarSizeArray</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C/PR640</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2006-01-23-UnionInit</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2002-05-19-DivTest</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2002-08-02-CastTest2</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2010-05-24-BitfieldTest</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2004-02-02-NegativeZero</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2002-05-02-CastTest3</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2003-10-13-SwitchTest</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2005-05-12-Int64ToFP</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2002-10-12-StructureArgs</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/stmtexpr</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/Threads/2010-12-08-tls</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C/PR491</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C/test_indvars</t>
-  </si>
-  <si>
-    <t>Memory (KB)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C/bigstack</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C/sumarraymalloc</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/SignlessTypes/Large/cast</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/SignlessTypes/rem</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/SignlessTypes/cast2</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/SignlessTypes/shr</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/SignlessTypes/div</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/SignlessTypes/factor</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/SignlessTypes/ccc</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/SignlessTypes/cast-bug</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/Vector/sumarray</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/Vector/divides</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/Vector/multiplies</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/Vector/sumarray-dbl</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/Vector/build</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/Vector/build2</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/Vector/simple</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/Vector/SSE/sse.stepfft</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/Vector/SSE/sse.shift</t>
-  </si>
-  <si>
-    <t>h264ref</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>astar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xalancbmk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sjeng</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mcf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>omnetpp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gcc gobmk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>libquantum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bzip2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hmmer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B/A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C/A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D/A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B = 16 iterations</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C = Jump Set Widening</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D = 16 iterations + Jump set widening</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A = Simple widening</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C++/2003-09-29-NonPODsByValue</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C++/fixups</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2003-05-12-MinIntProblem</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2003-07-06-IntOverflow</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2002-10-12-StructureArgsSimple</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2002-12-13-MishaTest</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2007-04-10-BitfieldTest</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2002-08-02-CastTest</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2003-08-05-CastFPToUint</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2003-08-20-FoldBug</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/vla</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2002-10-13-BadLoad</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -2837,11 +2831,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="459523224"/>
-        <c:axId val="460176200"/>
+        <c:axId val="505660184"/>
+        <c:axId val="505665688"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="459523224"/>
+        <c:axId val="505660184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -2849,12 +2843,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="460176200"/>
+        <c:crossAx val="505665688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="460176200"/>
+        <c:axId val="505665688"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -2863,7 +2857,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.E+00" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="459523224"/>
+        <c:crossAx val="505660184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4212,11 +4206,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="459497640"/>
-        <c:axId val="486633880"/>
+        <c:axId val="505720072"/>
+        <c:axId val="505725688"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="459497640"/>
+        <c:axId val="505720072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -4224,12 +4218,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="486633880"/>
+        <c:crossAx val="505725688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="486633880"/>
+        <c:axId val="505725688"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -4239,7 +4233,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.E+00" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="459497640"/>
+        <c:crossAx val="505720072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4938,11 +4932,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="526814296"/>
-        <c:axId val="526816904"/>
+        <c:axId val="505762520"/>
+        <c:axId val="505767512"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="526814296"/>
+        <c:axId val="505762520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="98.0"/>
@@ -4952,12 +4946,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="526816904"/>
+        <c:crossAx val="505767512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="526816904"/>
+        <c:axId val="505767512"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -4967,14 +4961,13 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.E+00" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="526814296"/>
+        <c:crossAx val="505762520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -5065,34 +5058,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.003410709597119</c:v>
+                  <c:v>1.46767892794287</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.599231849610078</c:v>
+                  <c:v>1.543792327637675</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.042360262916191</c:v>
+                  <c:v>1.349720017886312</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.320678894905541</c:v>
+                  <c:v>1.483460408571773</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.925321517157499</c:v>
+                  <c:v>1.732095040691092</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.195224307496574</c:v>
+                  <c:v>1.489084588978585</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.873336657739856</c:v>
+                  <c:v>1.661288413065449</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.491976863027958</c:v>
+                  <c:v>1.493930117079799</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.106186115993296</c:v>
+                  <c:v>1.72573286153147</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.644300197121993</c:v>
+                  <c:v>1.087985849335382</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5157,34 +5150,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.037901427121142</c:v>
+                  <c:v>1.618478082627007</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.762951589646946</c:v>
+                  <c:v>1.43885585431417</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.822459774449271</c:v>
+                  <c:v>1.256069239470889</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.631381096590303</c:v>
+                  <c:v>1.9273937815924</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.347410088723336</c:v>
+                  <c:v>1.232914135018291</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.050094930549676</c:v>
+                  <c:v>1.226992541509389</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.609224347690542</c:v>
+                  <c:v>1.857933238514306</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.8407484345189</c:v>
+                  <c:v>1.742124830278954</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.403258770331377</c:v>
+                  <c:v>1.916808605132246</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.52065144192602</c:v>
+                  <c:v>1.926264220051053</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5249,57 +5242,57 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.559799315818964</c:v>
+                  <c:v>1.828595523282274</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.728956611475951</c:v>
+                  <c:v>1.374260794825204</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.418539629907173</c:v>
+                  <c:v>1.145570264755406</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.430408742367945</c:v>
+                  <c:v>1.976104899752499</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.57369434202792</c:v>
+                  <c:v>1.362950536648896</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.009873563317342</c:v>
+                  <c:v>1.651406805055558</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.534383450341011</c:v>
+                  <c:v>1.078252149700347</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.133527034659892</c:v>
+                  <c:v>1.549576047422306</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.668010281588977</c:v>
+                  <c:v>1.456789525473141</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.830443866713722</c:v>
+                  <c:v>1.887988125245101</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="526812136"/>
-        <c:axId val="526634776"/>
+        <c:axId val="505782504"/>
+        <c:axId val="505785560"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="526812136"/>
+        <c:axId val="505782504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="526634776"/>
+        <c:crossAx val="505785560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="526634776"/>
+        <c:axId val="505785560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.0"/>
@@ -5309,14 +5302,13 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="526812136"/>
+        <c:crossAx val="505782504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -5334,8 +5326,8 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
@@ -5364,8 +5356,8 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
@@ -5788,84 +5780,84 @@
   <sheetData>
     <row r="1" spans="1:25">
       <c r="A1" t="s">
-        <v>319</v>
+        <v>86</v>
       </c>
       <c r="B1" t="s">
-        <v>320</v>
+        <v>87</v>
       </c>
       <c r="C1" t="s">
-        <v>321</v>
+        <v>88</v>
       </c>
       <c r="D1" t="s">
-        <v>322</v>
+        <v>89</v>
       </c>
       <c r="E1" t="s">
-        <v>323</v>
+        <v>90</v>
       </c>
       <c r="F1" t="s">
-        <v>324</v>
+        <v>91</v>
       </c>
       <c r="G1" t="s">
-        <v>325</v>
+        <v>92</v>
       </c>
       <c r="H1" t="s">
-        <v>326</v>
+        <v>93</v>
       </c>
       <c r="I1" t="s">
-        <v>327</v>
+        <v>94</v>
       </c>
       <c r="J1" t="s">
-        <v>328</v>
+        <v>95</v>
       </c>
       <c r="K1" t="s">
-        <v>329</v>
+        <v>96</v>
       </c>
       <c r="L1" t="s">
-        <v>330</v>
+        <v>97</v>
       </c>
       <c r="M1" t="s">
-        <v>331</v>
+        <v>98</v>
       </c>
       <c r="N1" t="s">
-        <v>332</v>
+        <v>99</v>
       </c>
       <c r="O1" t="s">
-        <v>333</v>
+        <v>100</v>
       </c>
       <c r="P1" t="s">
-        <v>334</v>
+        <v>101</v>
       </c>
       <c r="Q1" t="s">
-        <v>335</v>
+        <v>102</v>
       </c>
       <c r="R1" t="s">
-        <v>336</v>
+        <v>103</v>
       </c>
       <c r="S1" t="s">
-        <v>337</v>
+        <v>104</v>
       </c>
       <c r="T1" t="s">
-        <v>338</v>
+        <v>105</v>
       </c>
       <c r="U1" t="s">
-        <v>339</v>
+        <v>106</v>
       </c>
       <c r="V1" t="s">
-        <v>340</v>
+        <v>107</v>
       </c>
       <c r="W1" t="s">
-        <v>341</v>
+        <v>108</v>
       </c>
       <c r="X1" t="s">
-        <v>342</v>
+        <v>109</v>
       </c>
       <c r="Y1" t="s">
-        <v>343</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:25">
       <c r="A2" t="s">
-        <v>350</v>
+        <v>117</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -5939,7 +5931,7 @@
     </row>
     <row r="3" spans="1:25">
       <c r="A3" t="s">
-        <v>386</v>
+        <v>53</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -6013,7 +6005,7 @@
     </row>
     <row r="4" spans="1:25">
       <c r="A4" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -6087,7 +6079,7 @@
     </row>
     <row r="5" spans="1:25">
       <c r="A5" t="s">
-        <v>375</v>
+        <v>42</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -6161,7 +6153,7 @@
     </row>
     <row r="6" spans="1:25">
       <c r="A6" t="s">
-        <v>377</v>
+        <v>44</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -6235,7 +6227,7 @@
     </row>
     <row r="7" spans="1:25">
       <c r="A7" t="s">
-        <v>455</v>
+        <v>40</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -6309,7 +6301,7 @@
     </row>
     <row r="8" spans="1:25">
       <c r="A8" t="s">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -6383,7 +6375,7 @@
     </row>
     <row r="9" spans="1:25">
       <c r="A9" t="s">
-        <v>398</v>
+        <v>65</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -6457,7 +6449,7 @@
     </row>
     <row r="10" spans="1:25">
       <c r="A10" t="s">
-        <v>404</v>
+        <v>71</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -6531,7 +6523,7 @@
     </row>
     <row r="11" spans="1:25">
       <c r="A11" t="s">
-        <v>396</v>
+        <v>63</v>
       </c>
       <c r="B11">
         <v>3</v>
@@ -6605,7 +6597,7 @@
     </row>
     <row r="12" spans="1:25">
       <c r="A12" t="s">
-        <v>291</v>
+        <v>158</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -6679,7 +6671,7 @@
     </row>
     <row r="13" spans="1:25">
       <c r="A13" t="s">
-        <v>243</v>
+        <v>191</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -6753,7 +6745,7 @@
     </row>
     <row r="14" spans="1:25">
       <c r="A14" t="s">
-        <v>400</v>
+        <v>67</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -6827,7 +6819,7 @@
     </row>
     <row r="15" spans="1:25">
       <c r="A15" t="s">
-        <v>384</v>
+        <v>51</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -6901,7 +6893,7 @@
     </row>
     <row r="16" spans="1:25">
       <c r="A16" t="s">
-        <v>446</v>
+        <v>31</v>
       </c>
       <c r="B16">
         <v>2</v>
@@ -6975,7 +6967,7 @@
     </row>
     <row r="17" spans="1:24">
       <c r="A17" t="s">
-        <v>451</v>
+        <v>36</v>
       </c>
       <c r="B17">
         <v>4</v>
@@ -7049,7 +7041,7 @@
     </row>
     <row r="18" spans="1:24">
       <c r="A18" t="s">
-        <v>286</v>
+        <v>153</v>
       </c>
       <c r="B18">
         <v>3</v>
@@ -7123,7 +7115,7 @@
     </row>
     <row r="19" spans="1:24">
       <c r="A19" t="s">
-        <v>453</v>
+        <v>38</v>
       </c>
       <c r="B19">
         <v>3</v>
@@ -7197,7 +7189,7 @@
     </row>
     <row r="20" spans="1:24">
       <c r="A20" t="s">
-        <v>401</v>
+        <v>68</v>
       </c>
       <c r="B20">
         <v>4</v>
@@ -7271,7 +7263,7 @@
     </row>
     <row r="21" spans="1:24">
       <c r="A21" t="s">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="B21">
         <v>5</v>
@@ -7345,7 +7337,7 @@
     </row>
     <row r="22" spans="1:24">
       <c r="A22" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="B22">
         <v>3</v>
@@ -7419,7 +7411,7 @@
     </row>
     <row r="23" spans="1:24">
       <c r="A23" t="s">
-        <v>392</v>
+        <v>59</v>
       </c>
       <c r="B23">
         <v>4</v>
@@ -7493,7 +7485,7 @@
     </row>
     <row r="24" spans="1:24">
       <c r="A24" t="s">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="B24">
         <v>3</v>
@@ -7567,7 +7559,7 @@
     </row>
     <row r="25" spans="1:24">
       <c r="A25" t="s">
-        <v>277</v>
+        <v>144</v>
       </c>
       <c r="B25">
         <v>4</v>
@@ -7641,7 +7633,7 @@
     </row>
     <row r="26" spans="1:24">
       <c r="A26" t="s">
-        <v>238</v>
+        <v>186</v>
       </c>
       <c r="B26">
         <v>4</v>
@@ -7715,7 +7707,7 @@
     </row>
     <row r="27" spans="1:24">
       <c r="A27" t="s">
-        <v>450</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>4</v>
@@ -7789,7 +7781,7 @@
     </row>
     <row r="28" spans="1:24">
       <c r="A28" t="s">
-        <v>399</v>
+        <v>66</v>
       </c>
       <c r="B28">
         <v>5</v>
@@ -7863,7 +7855,7 @@
     </row>
     <row r="29" spans="1:24">
       <c r="A29" t="s">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="B29">
         <v>4</v>
@@ -7937,7 +7929,7 @@
     </row>
     <row r="30" spans="1:24">
       <c r="A30" t="s">
-        <v>210</v>
+        <v>237</v>
       </c>
       <c r="B30">
         <v>5</v>
@@ -8011,7 +8003,7 @@
     </row>
     <row r="31" spans="1:24">
       <c r="A31" t="s">
-        <v>288</v>
+        <v>155</v>
       </c>
       <c r="B31">
         <v>6</v>
@@ -8085,7 +8077,7 @@
     </row>
     <row r="32" spans="1:24">
       <c r="A32" t="s">
-        <v>373</v>
+        <v>140</v>
       </c>
       <c r="B32">
         <v>5</v>
@@ -8159,7 +8151,7 @@
     </row>
     <row r="33" spans="1:24">
       <c r="A33" t="s">
-        <v>348</v>
+        <v>115</v>
       </c>
       <c r="B33">
         <v>5</v>
@@ -8233,7 +8225,7 @@
     </row>
     <row r="34" spans="1:24">
       <c r="A34" t="s">
-        <v>397</v>
+        <v>64</v>
       </c>
       <c r="B34">
         <v>5</v>
@@ -8307,7 +8299,7 @@
     </row>
     <row r="35" spans="1:24">
       <c r="A35" t="s">
-        <v>241</v>
+        <v>189</v>
       </c>
       <c r="B35">
         <v>5</v>
@@ -8381,7 +8373,7 @@
     </row>
     <row r="36" spans="1:24">
       <c r="A36" t="s">
-        <v>452</v>
+        <v>37</v>
       </c>
       <c r="B36">
         <v>5</v>
@@ -8455,7 +8447,7 @@
     </row>
     <row r="37" spans="1:24">
       <c r="A37" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="B37">
         <v>5</v>
@@ -8529,7 +8521,7 @@
     </row>
     <row r="38" spans="1:24">
       <c r="A38" t="s">
-        <v>249</v>
+        <v>197</v>
       </c>
       <c r="B38">
         <v>6</v>
@@ -8603,7 +8595,7 @@
     </row>
     <row r="39" spans="1:24">
       <c r="A39" t="s">
-        <v>346</v>
+        <v>113</v>
       </c>
       <c r="B39">
         <v>6</v>
@@ -8677,7 +8669,7 @@
     </row>
     <row r="40" spans="1:24">
       <c r="A40" t="s">
-        <v>284</v>
+        <v>151</v>
       </c>
       <c r="B40">
         <v>6</v>
@@ -8751,7 +8743,7 @@
     </row>
     <row r="41" spans="1:24">
       <c r="A41" t="s">
-        <v>412</v>
+        <v>79</v>
       </c>
       <c r="B41">
         <v>6</v>
@@ -8825,7 +8817,7 @@
     </row>
     <row r="42" spans="1:24">
       <c r="A42" t="s">
-        <v>371</v>
+        <v>138</v>
       </c>
       <c r="B42">
         <v>6</v>
@@ -8899,7 +8891,7 @@
     </row>
     <row r="43" spans="1:24">
       <c r="A43" t="s">
-        <v>349</v>
+        <v>116</v>
       </c>
       <c r="B43">
         <v>6</v>
@@ -8973,7 +8965,7 @@
     </row>
     <row r="44" spans="1:24">
       <c r="A44" t="s">
-        <v>369</v>
+        <v>136</v>
       </c>
       <c r="B44">
         <v>6</v>
@@ -9047,7 +9039,7 @@
     </row>
     <row r="45" spans="1:24">
       <c r="A45" t="s">
-        <v>422</v>
+        <v>7</v>
       </c>
       <c r="B45">
         <v>5</v>
@@ -9121,7 +9113,7 @@
     </row>
     <row r="46" spans="1:24">
       <c r="A46" t="s">
-        <v>448</v>
+        <v>33</v>
       </c>
       <c r="B46">
         <v>6</v>
@@ -9195,7 +9187,7 @@
     </row>
     <row r="47" spans="1:24">
       <c r="A47" t="s">
-        <v>244</v>
+        <v>192</v>
       </c>
       <c r="B47">
         <v>7</v>
@@ -9269,7 +9261,7 @@
     </row>
     <row r="48" spans="1:24">
       <c r="A48" t="s">
-        <v>246</v>
+        <v>194</v>
       </c>
       <c r="B48">
         <v>8</v>
@@ -9343,7 +9335,7 @@
     </row>
     <row r="49" spans="1:24">
       <c r="A49" t="s">
-        <v>248</v>
+        <v>196</v>
       </c>
       <c r="B49">
         <v>7</v>
@@ -9417,7 +9409,7 @@
     </row>
     <row r="50" spans="1:24">
       <c r="A50" t="s">
-        <v>281</v>
+        <v>148</v>
       </c>
       <c r="B50">
         <v>7</v>
@@ -9491,7 +9483,7 @@
     </row>
     <row r="51" spans="1:24">
       <c r="A51" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="B51">
         <v>9</v>
@@ -9565,7 +9557,7 @@
     </row>
     <row r="52" spans="1:24">
       <c r="A52" t="s">
-        <v>390</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>9</v>
@@ -9639,7 +9631,7 @@
     </row>
     <row r="53" spans="1:24">
       <c r="A53" t="s">
-        <v>214</v>
+        <v>241</v>
       </c>
       <c r="B53">
         <v>8</v>
@@ -9713,7 +9705,7 @@
     </row>
     <row r="54" spans="1:24">
       <c r="A54" t="s">
-        <v>306</v>
+        <v>173</v>
       </c>
       <c r="B54">
         <v>9</v>
@@ -9787,7 +9779,7 @@
     </row>
     <row r="55" spans="1:24">
       <c r="A55" t="s">
-        <v>213</v>
+        <v>240</v>
       </c>
       <c r="B55">
         <v>8</v>
@@ -9861,7 +9853,7 @@
     </row>
     <row r="56" spans="1:24">
       <c r="A56" t="s">
-        <v>215</v>
+        <v>242</v>
       </c>
       <c r="B56">
         <v>10</v>
@@ -9935,7 +9927,7 @@
     </row>
     <row r="57" spans="1:24">
       <c r="A57" t="s">
-        <v>279</v>
+        <v>146</v>
       </c>
       <c r="B57">
         <v>11</v>
@@ -10009,7 +10001,7 @@
     </row>
     <row r="58" spans="1:24">
       <c r="A58" t="s">
-        <v>417</v>
+        <v>2</v>
       </c>
       <c r="B58">
         <v>9</v>
@@ -10083,7 +10075,7 @@
     </row>
     <row r="59" spans="1:24">
       <c r="A59" t="s">
-        <v>421</v>
+        <v>6</v>
       </c>
       <c r="B59">
         <v>9</v>
@@ -10157,7 +10149,7 @@
     </row>
     <row r="60" spans="1:24">
       <c r="A60" t="s">
-        <v>374</v>
+        <v>41</v>
       </c>
       <c r="B60">
         <v>8</v>
@@ -10231,7 +10223,7 @@
     </row>
     <row r="61" spans="1:24">
       <c r="A61" t="s">
-        <v>444</v>
+        <v>29</v>
       </c>
       <c r="B61">
         <v>8</v>
@@ -10305,7 +10297,7 @@
     </row>
     <row r="62" spans="1:24">
       <c r="A62" t="s">
-        <v>387</v>
+        <v>54</v>
       </c>
       <c r="B62">
         <v>8</v>
@@ -10379,7 +10371,7 @@
     </row>
     <row r="63" spans="1:24">
       <c r="A63" t="s">
-        <v>418</v>
+        <v>3</v>
       </c>
       <c r="B63">
         <v>9</v>
@@ -10453,7 +10445,7 @@
     </row>
     <row r="64" spans="1:24">
       <c r="A64" t="s">
-        <v>383</v>
+        <v>50</v>
       </c>
       <c r="B64">
         <v>8</v>
@@ -10527,7 +10519,7 @@
     </row>
     <row r="65" spans="1:24">
       <c r="A65" t="s">
-        <v>174</v>
+        <v>280</v>
       </c>
       <c r="B65">
         <v>11</v>
@@ -10601,7 +10593,7 @@
     </row>
     <row r="66" spans="1:24">
       <c r="A66" t="s">
-        <v>393</v>
+        <v>60</v>
       </c>
       <c r="B66">
         <v>11</v>
@@ -10675,7 +10667,7 @@
     </row>
     <row r="67" spans="1:24">
       <c r="A67" t="s">
-        <v>287</v>
+        <v>154</v>
       </c>
       <c r="B67">
         <v>12</v>
@@ -10749,7 +10741,7 @@
     </row>
     <row r="68" spans="1:24">
       <c r="A68" t="s">
-        <v>237</v>
+        <v>185</v>
       </c>
       <c r="B68">
         <v>14</v>
@@ -10823,7 +10815,7 @@
     </row>
     <row r="69" spans="1:24">
       <c r="A69" t="s">
-        <v>347</v>
+        <v>114</v>
       </c>
       <c r="B69">
         <v>13</v>
@@ -10897,7 +10889,7 @@
     </row>
     <row r="70" spans="1:24">
       <c r="A70" t="s">
-        <v>211</v>
+        <v>238</v>
       </c>
       <c r="B70">
         <v>13</v>
@@ -10971,7 +10963,7 @@
     </row>
     <row r="71" spans="1:24">
       <c r="A71" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="B71">
         <v>13</v>
@@ -11045,7 +11037,7 @@
     </row>
     <row r="72" spans="1:24">
       <c r="A72" t="s">
-        <v>251</v>
+        <v>199</v>
       </c>
       <c r="B72">
         <v>22</v>
@@ -11119,7 +11111,7 @@
     </row>
     <row r="73" spans="1:24">
       <c r="A73" t="s">
-        <v>252</v>
+        <v>200</v>
       </c>
       <c r="B73">
         <v>13</v>
@@ -11193,7 +11185,7 @@
     </row>
     <row r="74" spans="1:24">
       <c r="A74" t="s">
-        <v>366</v>
+        <v>133</v>
       </c>
       <c r="B74">
         <v>11</v>
@@ -11267,7 +11259,7 @@
     </row>
     <row r="75" spans="1:24">
       <c r="A75" t="s">
-        <v>402</v>
+        <v>69</v>
       </c>
       <c r="B75">
         <v>12</v>
@@ -11341,7 +11333,7 @@
     </row>
     <row r="76" spans="1:24">
       <c r="A76" t="s">
-        <v>289</v>
+        <v>156</v>
       </c>
       <c r="B76">
         <v>12</v>
@@ -11415,7 +11407,7 @@
     </row>
     <row r="77" spans="1:24">
       <c r="A77" t="s">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c r="B77">
         <v>16</v>
@@ -11489,7 +11481,7 @@
     </row>
     <row r="78" spans="1:24">
       <c r="A78" t="s">
-        <v>161</v>
+        <v>267</v>
       </c>
       <c r="B78">
         <v>17</v>
@@ -11563,7 +11555,7 @@
     </row>
     <row r="79" spans="1:24">
       <c r="A79" t="s">
-        <v>173</v>
+        <v>279</v>
       </c>
       <c r="B79">
         <v>17</v>
@@ -11637,7 +11629,7 @@
     </row>
     <row r="80" spans="1:24">
       <c r="A80" t="s">
-        <v>395</v>
+        <v>62</v>
       </c>
       <c r="B80">
         <v>14</v>
@@ -11711,7 +11703,7 @@
     </row>
     <row r="81" spans="1:24">
       <c r="A81" t="s">
-        <v>169</v>
+        <v>275</v>
       </c>
       <c r="B81">
         <v>16</v>
@@ -11785,7 +11777,7 @@
     </row>
     <row r="82" spans="1:24">
       <c r="A82" t="s">
-        <v>318</v>
+        <v>85</v>
       </c>
       <c r="B82">
         <v>19</v>
@@ -11859,7 +11851,7 @@
     </row>
     <row r="83" spans="1:24">
       <c r="A83" t="s">
-        <v>378</v>
+        <v>45</v>
       </c>
       <c r="B83">
         <v>17</v>
@@ -11933,7 +11925,7 @@
     </row>
     <row r="84" spans="1:24">
       <c r="A84" t="s">
-        <v>367</v>
+        <v>134</v>
       </c>
       <c r="B84">
         <v>23</v>
@@ -12007,7 +11999,7 @@
     </row>
     <row r="85" spans="1:24">
       <c r="A85" t="s">
-        <v>376</v>
+        <v>43</v>
       </c>
       <c r="B85">
         <v>16</v>
@@ -12081,7 +12073,7 @@
     </row>
     <row r="86" spans="1:24">
       <c r="A86" t="s">
-        <v>234</v>
+        <v>182</v>
       </c>
       <c r="B86">
         <v>20</v>
@@ -12155,7 +12147,7 @@
     </row>
     <row r="87" spans="1:24">
       <c r="A87" t="s">
-        <v>352</v>
+        <v>119</v>
       </c>
       <c r="B87">
         <v>15</v>
@@ -12229,7 +12221,7 @@
     </row>
     <row r="88" spans="1:24">
       <c r="A88" t="s">
-        <v>354</v>
+        <v>121</v>
       </c>
       <c r="B88">
         <v>16</v>
@@ -12303,7 +12295,7 @@
     </row>
     <row r="89" spans="1:24">
       <c r="A89" t="s">
-        <v>391</v>
+        <v>58</v>
       </c>
       <c r="B89">
         <v>20</v>
@@ -12377,7 +12369,7 @@
     </row>
     <row r="90" spans="1:24">
       <c r="A90" t="s">
-        <v>293</v>
+        <v>160</v>
       </c>
       <c r="B90">
         <v>19</v>
@@ -12451,7 +12443,7 @@
     </row>
     <row r="91" spans="1:24">
       <c r="A91" t="s">
-        <v>308</v>
+        <v>175</v>
       </c>
       <c r="B91">
         <v>17</v>
@@ -12525,7 +12517,7 @@
     </row>
     <row r="92" spans="1:24">
       <c r="A92" t="s">
-        <v>426</v>
+        <v>11</v>
       </c>
       <c r="B92">
         <v>18</v>
@@ -12599,7 +12591,7 @@
     </row>
     <row r="93" spans="1:24">
       <c r="A93" t="s">
-        <v>381</v>
+        <v>48</v>
       </c>
       <c r="B93">
         <v>14</v>
@@ -12673,7 +12665,7 @@
     </row>
     <row r="94" spans="1:24">
       <c r="A94" t="s">
-        <v>245</v>
+        <v>193</v>
       </c>
       <c r="B94">
         <v>23</v>
@@ -12747,7 +12739,7 @@
     </row>
     <row r="95" spans="1:24">
       <c r="A95" t="s">
-        <v>388</v>
+        <v>55</v>
       </c>
       <c r="B95">
         <v>19</v>
@@ -12821,7 +12813,7 @@
     </row>
     <row r="96" spans="1:24">
       <c r="A96" t="s">
-        <v>313</v>
+        <v>180</v>
       </c>
       <c r="B96">
         <v>19</v>
@@ -12895,7 +12887,7 @@
     </row>
     <row r="97" spans="1:24">
       <c r="A97" t="s">
-        <v>314</v>
+        <v>181</v>
       </c>
       <c r="B97">
         <v>19</v>
@@ -12969,7 +12961,7 @@
     </row>
     <row r="98" spans="1:24">
       <c r="A98" t="s">
-        <v>449</v>
+        <v>34</v>
       </c>
       <c r="B98">
         <v>25</v>
@@ -13043,7 +13035,7 @@
     </row>
     <row r="99" spans="1:24">
       <c r="A99" t="s">
-        <v>356</v>
+        <v>123</v>
       </c>
       <c r="B99">
         <v>16</v>
@@ -13117,7 +13109,7 @@
     </row>
     <row r="100" spans="1:24">
       <c r="A100" t="s">
-        <v>310</v>
+        <v>177</v>
       </c>
       <c r="B100">
         <v>18</v>
@@ -13191,7 +13183,7 @@
     </row>
     <row r="101" spans="1:24">
       <c r="A101" t="s">
-        <v>405</v>
+        <v>72</v>
       </c>
       <c r="B101">
         <v>18</v>
@@ -13265,7 +13257,7 @@
     </row>
     <row r="102" spans="1:24">
       <c r="A102" t="s">
-        <v>253</v>
+        <v>201</v>
       </c>
       <c r="B102">
         <v>23</v>
@@ -13339,7 +13331,7 @@
     </row>
     <row r="103" spans="1:24">
       <c r="A103" t="s">
-        <v>235</v>
+        <v>183</v>
       </c>
       <c r="B103">
         <v>19</v>
@@ -13413,7 +13405,7 @@
     </row>
     <row r="104" spans="1:24">
       <c r="A104" t="s">
-        <v>298</v>
+        <v>165</v>
       </c>
       <c r="B104">
         <v>19</v>
@@ -13487,7 +13479,7 @@
     </row>
     <row r="105" spans="1:24">
       <c r="A105" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
       <c r="B105">
         <v>22</v>
@@ -13561,7 +13553,7 @@
     </row>
     <row r="106" spans="1:24">
       <c r="A106" t="s">
-        <v>242</v>
+        <v>190</v>
       </c>
       <c r="B106">
         <v>19</v>
@@ -13635,7 +13627,7 @@
     </row>
     <row r="107" spans="1:24">
       <c r="A107" t="s">
-        <v>447</v>
+        <v>32</v>
       </c>
       <c r="B107">
         <v>29</v>
@@ -13709,7 +13701,7 @@
     </row>
     <row r="108" spans="1:24">
       <c r="A108" t="s">
-        <v>311</v>
+        <v>178</v>
       </c>
       <c r="B108">
         <v>19</v>
@@ -13783,7 +13775,7 @@
     </row>
     <row r="109" spans="1:24">
       <c r="A109" t="s">
-        <v>368</v>
+        <v>135</v>
       </c>
       <c r="B109">
         <v>24</v>
@@ -13857,7 +13849,7 @@
     </row>
     <row r="110" spans="1:24">
       <c r="A110" t="s">
-        <v>254</v>
+        <v>202</v>
       </c>
       <c r="B110">
         <v>23</v>
@@ -13931,7 +13923,7 @@
     </row>
     <row r="111" spans="1:24">
       <c r="A111" t="s">
-        <v>282</v>
+        <v>149</v>
       </c>
       <c r="B111">
         <v>30</v>
@@ -14005,7 +13997,7 @@
     </row>
     <row r="112" spans="1:24">
       <c r="A112" t="s">
-        <v>290</v>
+        <v>157</v>
       </c>
       <c r="B112">
         <v>19</v>
@@ -14079,7 +14071,7 @@
     </row>
     <row r="113" spans="1:24">
       <c r="A113" t="s">
-        <v>178</v>
+        <v>284</v>
       </c>
       <c r="B113">
         <v>24</v>
@@ -14153,7 +14145,7 @@
     </row>
     <row r="114" spans="1:24">
       <c r="A114" t="s">
-        <v>285</v>
+        <v>152</v>
       </c>
       <c r="B114">
         <v>24</v>
@@ -14227,7 +14219,7 @@
     </row>
     <row r="115" spans="1:24">
       <c r="A115" t="s">
-        <v>167</v>
+        <v>273</v>
       </c>
       <c r="B115">
         <v>22</v>
@@ -14301,7 +14293,7 @@
     </row>
     <row r="116" spans="1:24">
       <c r="A116" t="s">
-        <v>445</v>
+        <v>30</v>
       </c>
       <c r="B116">
         <v>27</v>
@@ -14375,7 +14367,7 @@
     </row>
     <row r="117" spans="1:24">
       <c r="A117" t="s">
-        <v>163</v>
+        <v>269</v>
       </c>
       <c r="B117">
         <v>23</v>
@@ -14449,7 +14441,7 @@
     </row>
     <row r="118" spans="1:24">
       <c r="A118" t="s">
-        <v>166</v>
+        <v>272</v>
       </c>
       <c r="B118">
         <v>25</v>
@@ -14523,7 +14515,7 @@
     </row>
     <row r="119" spans="1:24">
       <c r="A119" t="s">
-        <v>409</v>
+        <v>76</v>
       </c>
       <c r="B119">
         <v>30</v>
@@ -14597,7 +14589,7 @@
     </row>
     <row r="120" spans="1:24">
       <c r="A120" t="s">
-        <v>416</v>
+        <v>1</v>
       </c>
       <c r="B120">
         <v>29</v>
@@ -14671,7 +14663,7 @@
     </row>
     <row r="121" spans="1:24">
       <c r="A121" t="s">
-        <v>379</v>
+        <v>46</v>
       </c>
       <c r="B121">
         <v>25</v>
@@ -14745,7 +14737,7 @@
     </row>
     <row r="122" spans="1:24">
       <c r="A122" t="s">
-        <v>278</v>
+        <v>145</v>
       </c>
       <c r="B122">
         <v>28</v>
@@ -14819,7 +14811,7 @@
     </row>
     <row r="123" spans="1:24">
       <c r="A123" t="s">
-        <v>201</v>
+        <v>228</v>
       </c>
       <c r="B123">
         <v>24</v>
@@ -14893,7 +14885,7 @@
     </row>
     <row r="124" spans="1:24">
       <c r="A124" t="s">
-        <v>3</v>
+        <v>420</v>
       </c>
       <c r="B124">
         <v>28</v>
@@ -14967,7 +14959,7 @@
     </row>
     <row r="125" spans="1:24">
       <c r="A125" t="s">
-        <v>247</v>
+        <v>195</v>
       </c>
       <c r="B125">
         <v>24</v>
@@ -15041,7 +15033,7 @@
     </row>
     <row r="126" spans="1:24">
       <c r="A126" t="s">
-        <v>454</v>
+        <v>39</v>
       </c>
       <c r="B126">
         <v>34</v>
@@ -15115,7 +15107,7 @@
     </row>
     <row r="127" spans="1:24">
       <c r="A127" t="s">
-        <v>385</v>
+        <v>52</v>
       </c>
       <c r="B127">
         <v>22</v>
@@ -15189,7 +15181,7 @@
     </row>
     <row r="128" spans="1:24">
       <c r="A128" t="s">
-        <v>276</v>
+        <v>143</v>
       </c>
       <c r="B128">
         <v>26</v>
@@ -15263,7 +15255,7 @@
     </row>
     <row r="129" spans="1:24">
       <c r="A129" t="s">
-        <v>344</v>
+        <v>111</v>
       </c>
       <c r="B129">
         <v>28</v>
@@ -15337,7 +15329,7 @@
     </row>
     <row r="130" spans="1:24">
       <c r="A130" t="s">
-        <v>300</v>
+        <v>167</v>
       </c>
       <c r="B130">
         <v>38</v>
@@ -15411,7 +15403,7 @@
     </row>
     <row r="131" spans="1:24">
       <c r="A131" t="s">
-        <v>175</v>
+        <v>281</v>
       </c>
       <c r="B131">
         <v>44</v>
@@ -15485,7 +15477,7 @@
     </row>
     <row r="132" spans="1:24">
       <c r="A132" t="s">
-        <v>317</v>
+        <v>84</v>
       </c>
       <c r="B132">
         <v>27</v>
@@ -15559,7 +15551,7 @@
     </row>
     <row r="133" spans="1:24">
       <c r="A133" t="s">
-        <v>382</v>
+        <v>49</v>
       </c>
       <c r="B133">
         <v>33</v>
@@ -15633,7 +15625,7 @@
     </row>
     <row r="134" spans="1:24">
       <c r="A134" t="s">
-        <v>424</v>
+        <v>9</v>
       </c>
       <c r="B134">
         <v>26</v>
@@ -15707,7 +15699,7 @@
     </row>
     <row r="135" spans="1:24">
       <c r="A135" t="s">
-        <v>240</v>
+        <v>188</v>
       </c>
       <c r="B135">
         <v>39</v>
@@ -15781,7 +15773,7 @@
     </row>
     <row r="136" spans="1:24">
       <c r="A136" t="s">
-        <v>372</v>
+        <v>139</v>
       </c>
       <c r="B136">
         <v>45</v>
@@ -15855,7 +15847,7 @@
     </row>
     <row r="137" spans="1:24">
       <c r="A137" t="s">
-        <v>406</v>
+        <v>73</v>
       </c>
       <c r="B137">
         <v>36</v>
@@ -15929,7 +15921,7 @@
     </row>
     <row r="138" spans="1:24">
       <c r="A138" t="s">
-        <v>160</v>
+        <v>266</v>
       </c>
       <c r="B138">
         <v>31</v>
@@ -16003,7 +15995,7 @@
     </row>
     <row r="139" spans="1:24">
       <c r="A139" t="s">
-        <v>362</v>
+        <v>129</v>
       </c>
       <c r="B139">
         <v>38</v>
@@ -16077,7 +16069,7 @@
     </row>
     <row r="140" spans="1:24">
       <c r="A140" t="s">
-        <v>420</v>
+        <v>5</v>
       </c>
       <c r="B140">
         <v>37</v>
@@ -16151,7 +16143,7 @@
     </row>
     <row r="141" spans="1:24">
       <c r="A141" t="s">
-        <v>267</v>
+        <v>215</v>
       </c>
       <c r="B141">
         <v>42</v>
@@ -16225,7 +16217,7 @@
     </row>
     <row r="142" spans="1:24">
       <c r="A142" t="s">
-        <v>361</v>
+        <v>128</v>
       </c>
       <c r="B142">
         <v>43</v>
@@ -16299,7 +16291,7 @@
     </row>
     <row r="143" spans="1:24">
       <c r="A143" t="s">
-        <v>408</v>
+        <v>75</v>
       </c>
       <c r="B143">
         <v>45</v>
@@ -16373,7 +16365,7 @@
     </row>
     <row r="144" spans="1:24">
       <c r="A144" t="s">
-        <v>196</v>
+        <v>223</v>
       </c>
       <c r="B144">
         <v>37</v>
@@ -16447,7 +16439,7 @@
     </row>
     <row r="145" spans="1:24">
       <c r="A145" t="s">
-        <v>419</v>
+        <v>4</v>
       </c>
       <c r="B145">
         <v>32</v>
@@ -16521,7 +16513,7 @@
     </row>
     <row r="146" spans="1:24">
       <c r="A146" t="s">
-        <v>236</v>
+        <v>184</v>
       </c>
       <c r="B146">
         <v>46</v>
@@ -16595,7 +16587,7 @@
     </row>
     <row r="147" spans="1:24">
       <c r="A147" t="s">
-        <v>195</v>
+        <v>222</v>
       </c>
       <c r="B147">
         <v>39</v>
@@ -16669,7 +16661,7 @@
     </row>
     <row r="148" spans="1:24">
       <c r="A148" t="s">
-        <v>140</v>
+        <v>322</v>
       </c>
       <c r="B148">
         <v>44</v>
@@ -16743,7 +16735,7 @@
     </row>
     <row r="149" spans="1:24">
       <c r="A149" t="s">
-        <v>363</v>
+        <v>130</v>
       </c>
       <c r="B149">
         <v>48</v>
@@ -16817,7 +16809,7 @@
     </row>
     <row r="150" spans="1:24">
       <c r="A150" t="s">
-        <v>280</v>
+        <v>147</v>
       </c>
       <c r="B150">
         <v>52</v>
@@ -16891,7 +16883,7 @@
     </row>
     <row r="151" spans="1:24">
       <c r="A151" t="s">
-        <v>250</v>
+        <v>198</v>
       </c>
       <c r="B151">
         <v>43</v>
@@ -16965,7 +16957,7 @@
     </row>
     <row r="152" spans="1:24">
       <c r="A152" t="s">
-        <v>274</v>
+        <v>141</v>
       </c>
       <c r="B152">
         <v>40</v>
@@ -17039,7 +17031,7 @@
     </row>
     <row r="153" spans="1:24">
       <c r="A153" t="s">
-        <v>216</v>
+        <v>243</v>
       </c>
       <c r="B153">
         <v>49</v>
@@ -17113,7 +17105,7 @@
     </row>
     <row r="154" spans="1:24">
       <c r="A154" t="s">
-        <v>303</v>
+        <v>170</v>
       </c>
       <c r="B154">
         <v>53</v>
@@ -17187,7 +17179,7 @@
     </row>
     <row r="155" spans="1:24">
       <c r="A155" t="s">
-        <v>299</v>
+        <v>166</v>
       </c>
       <c r="B155">
         <v>51</v>
@@ -17261,7 +17253,7 @@
     </row>
     <row r="156" spans="1:24">
       <c r="A156" t="s">
-        <v>358</v>
+        <v>125</v>
       </c>
       <c r="B156">
         <v>51</v>
@@ -17335,7 +17327,7 @@
     </row>
     <row r="157" spans="1:24">
       <c r="A157" t="s">
-        <v>295</v>
+        <v>162</v>
       </c>
       <c r="B157">
         <v>63</v>
@@ -17409,7 +17401,7 @@
     </row>
     <row r="158" spans="1:24">
       <c r="A158" t="s">
-        <v>7</v>
+        <v>424</v>
       </c>
       <c r="B158">
         <v>42</v>
@@ -17483,7 +17475,7 @@
     </row>
     <row r="159" spans="1:24">
       <c r="A159" t="s">
-        <v>301</v>
+        <v>168</v>
       </c>
       <c r="B159">
         <v>57</v>
@@ -17557,7 +17549,7 @@
     </row>
     <row r="160" spans="1:24">
       <c r="A160" t="s">
-        <v>83</v>
+        <v>339</v>
       </c>
       <c r="B160">
         <v>53</v>
@@ -17631,7 +17623,7 @@
     </row>
     <row r="161" spans="1:24">
       <c r="A161" t="s">
-        <v>304</v>
+        <v>171</v>
       </c>
       <c r="B161">
         <v>58</v>
@@ -17705,7 +17697,7 @@
     </row>
     <row r="162" spans="1:24">
       <c r="A162" t="s">
-        <v>93</v>
+        <v>349</v>
       </c>
       <c r="B162">
         <v>47</v>
@@ -17779,7 +17771,7 @@
     </row>
     <row r="163" spans="1:24">
       <c r="A163" t="s">
-        <v>144</v>
+        <v>326</v>
       </c>
       <c r="B163">
         <v>55</v>
@@ -17853,7 +17845,7 @@
     </row>
     <row r="164" spans="1:24">
       <c r="A164" t="s">
-        <v>266</v>
+        <v>214</v>
       </c>
       <c r="B164">
         <v>54</v>
@@ -17927,7 +17919,7 @@
     </row>
     <row r="165" spans="1:24">
       <c r="A165" t="s">
-        <v>345</v>
+        <v>112</v>
       </c>
       <c r="B165">
         <v>47</v>
@@ -18001,7 +17993,7 @@
     </row>
     <row r="166" spans="1:24">
       <c r="A166" t="s">
-        <v>415</v>
+        <v>0</v>
       </c>
       <c r="B166">
         <v>57</v>
@@ -18075,7 +18067,7 @@
     </row>
     <row r="167" spans="1:24">
       <c r="A167" t="s">
-        <v>394</v>
+        <v>61</v>
       </c>
       <c r="B167">
         <v>46</v>
@@ -18149,7 +18141,7 @@
     </row>
     <row r="168" spans="1:24">
       <c r="A168" t="s">
-        <v>297</v>
+        <v>164</v>
       </c>
       <c r="B168">
         <v>62</v>
@@ -18223,7 +18215,7 @@
     </row>
     <row r="169" spans="1:24">
       <c r="A169" t="s">
-        <v>123</v>
+        <v>305</v>
       </c>
       <c r="B169">
         <v>54</v>
@@ -18297,7 +18289,7 @@
     </row>
     <row r="170" spans="1:24">
       <c r="A170" t="s">
-        <v>124</v>
+        <v>306</v>
       </c>
       <c r="B170">
         <v>65</v>
@@ -18371,7 +18363,7 @@
     </row>
     <row r="171" spans="1:24">
       <c r="A171" t="s">
-        <v>414</v>
+        <v>81</v>
       </c>
       <c r="B171">
         <v>82</v>
@@ -18445,7 +18437,7 @@
     </row>
     <row r="172" spans="1:24">
       <c r="A172" t="s">
-        <v>177</v>
+        <v>283</v>
       </c>
       <c r="B172">
         <v>56</v>
@@ -18519,7 +18511,7 @@
     </row>
     <row r="173" spans="1:24">
       <c r="A173" t="s">
-        <v>66</v>
+        <v>402</v>
       </c>
       <c r="B173">
         <v>56</v>
@@ -18593,7 +18585,7 @@
     </row>
     <row r="174" spans="1:24">
       <c r="A174" t="s">
-        <v>133</v>
+        <v>315</v>
       </c>
       <c r="B174">
         <v>56</v>
@@ -18667,7 +18659,7 @@
     </row>
     <row r="175" spans="1:24">
       <c r="A175" t="s">
-        <v>423</v>
+        <v>8</v>
       </c>
       <c r="B175">
         <v>69</v>
@@ -18741,7 +18733,7 @@
     </row>
     <row r="176" spans="1:24">
       <c r="A176" t="s">
-        <v>380</v>
+        <v>47</v>
       </c>
       <c r="B176">
         <v>42</v>
@@ -18815,7 +18807,7 @@
     </row>
     <row r="177" spans="1:24">
       <c r="A177" t="s">
-        <v>302</v>
+        <v>169</v>
       </c>
       <c r="B177">
         <v>77</v>
@@ -18889,7 +18881,7 @@
     </row>
     <row r="178" spans="1:24">
       <c r="A178" t="s">
-        <v>360</v>
+        <v>127</v>
       </c>
       <c r="B178">
         <v>69</v>
@@ -18963,7 +18955,7 @@
     </row>
     <row r="179" spans="1:24">
       <c r="A179" t="s">
-        <v>355</v>
+        <v>122</v>
       </c>
       <c r="B179">
         <v>62</v>
@@ -19037,7 +19029,7 @@
     </row>
     <row r="180" spans="1:24">
       <c r="A180" t="s">
-        <v>365</v>
+        <v>132</v>
       </c>
       <c r="B180">
         <v>73</v>
@@ -19111,7 +19103,7 @@
     </row>
     <row r="181" spans="1:24">
       <c r="A181" t="s">
-        <v>131</v>
+        <v>313</v>
       </c>
       <c r="B181">
         <v>60</v>
@@ -19185,7 +19177,7 @@
     </row>
     <row r="182" spans="1:24">
       <c r="A182" t="s">
-        <v>68</v>
+        <v>404</v>
       </c>
       <c r="B182">
         <v>55</v>
@@ -19259,7 +19251,7 @@
     </row>
     <row r="183" spans="1:24">
       <c r="A183" t="s">
-        <v>351</v>
+        <v>118</v>
       </c>
       <c r="B183">
         <v>49</v>
@@ -19333,7 +19325,7 @@
     </row>
     <row r="184" spans="1:24">
       <c r="A184" t="s">
-        <v>403</v>
+        <v>70</v>
       </c>
       <c r="B184">
         <v>47</v>
@@ -19407,7 +19399,7 @@
     </row>
     <row r="185" spans="1:24">
       <c r="A185" t="s">
-        <v>283</v>
+        <v>150</v>
       </c>
       <c r="B185">
         <v>89</v>
@@ -19481,7 +19473,7 @@
     </row>
     <row r="186" spans="1:24">
       <c r="A186" t="s">
-        <v>181</v>
+        <v>287</v>
       </c>
       <c r="B186">
         <v>77</v>
@@ -19555,7 +19547,7 @@
     </row>
     <row r="187" spans="1:24">
       <c r="A187" t="s">
-        <v>357</v>
+        <v>124</v>
       </c>
       <c r="B187">
         <v>76</v>
@@ -19629,7 +19621,7 @@
     </row>
     <row r="188" spans="1:24">
       <c r="A188" t="s">
-        <v>359</v>
+        <v>126</v>
       </c>
       <c r="B188">
         <v>72</v>
@@ -19703,7 +19695,7 @@
     </row>
     <row r="189" spans="1:24">
       <c r="A189" t="s">
-        <v>413</v>
+        <v>80</v>
       </c>
       <c r="B189">
         <v>98</v>
@@ -19777,7 +19769,7 @@
     </row>
     <row r="190" spans="1:24">
       <c r="A190" t="s">
-        <v>10</v>
+        <v>427</v>
       </c>
       <c r="B190">
         <v>77</v>
@@ -19851,7 +19843,7 @@
     </row>
     <row r="191" spans="1:24">
       <c r="A191" t="s">
-        <v>294</v>
+        <v>161</v>
       </c>
       <c r="B191">
         <v>85</v>
@@ -19925,7 +19917,7 @@
     </row>
     <row r="192" spans="1:24">
       <c r="A192" t="s">
-        <v>191</v>
+        <v>297</v>
       </c>
       <c r="B192">
         <v>97</v>
@@ -19999,7 +19991,7 @@
     </row>
     <row r="193" spans="1:24">
       <c r="A193" t="s">
-        <v>239</v>
+        <v>187</v>
       </c>
       <c r="B193">
         <v>84</v>
@@ -20073,7 +20065,7 @@
     </row>
     <row r="194" spans="1:24">
       <c r="A194" t="s">
-        <v>4</v>
+        <v>421</v>
       </c>
       <c r="B194">
         <v>70</v>
@@ -20147,7 +20139,7 @@
     </row>
     <row r="195" spans="1:24">
       <c r="A195" t="s">
-        <v>307</v>
+        <v>174</v>
       </c>
       <c r="B195">
         <v>78</v>
@@ -20221,7 +20213,7 @@
     </row>
     <row r="196" spans="1:24">
       <c r="A196" t="s">
-        <v>292</v>
+        <v>159</v>
       </c>
       <c r="B196">
         <v>92</v>
@@ -20295,7 +20287,7 @@
     </row>
     <row r="197" spans="1:24">
       <c r="A197" t="s">
-        <v>136</v>
+        <v>318</v>
       </c>
       <c r="B197">
         <v>79</v>
@@ -20369,7 +20361,7 @@
     </row>
     <row r="198" spans="1:24">
       <c r="A198" t="s">
-        <v>269</v>
+        <v>217</v>
       </c>
       <c r="B198">
         <v>88</v>
@@ -20443,7 +20435,7 @@
     </row>
     <row r="199" spans="1:24">
       <c r="A199" t="s">
-        <v>176</v>
+        <v>282</v>
       </c>
       <c r="B199">
         <v>82</v>
@@ -20517,7 +20509,7 @@
     </row>
     <row r="200" spans="1:24">
       <c r="A200" t="s">
-        <v>115</v>
+        <v>371</v>
       </c>
       <c r="B200">
         <v>112</v>
@@ -20591,7 +20583,7 @@
     </row>
     <row r="201" spans="1:24">
       <c r="A201" t="s">
-        <v>370</v>
+        <v>137</v>
       </c>
       <c r="B201">
         <v>102</v>
@@ -20665,7 +20657,7 @@
     </row>
     <row r="202" spans="1:24">
       <c r="A202" t="s">
-        <v>188</v>
+        <v>294</v>
       </c>
       <c r="B202">
         <v>105</v>
@@ -20739,7 +20731,7 @@
     </row>
     <row r="203" spans="1:24">
       <c r="A203" t="s">
-        <v>232</v>
+        <v>259</v>
       </c>
       <c r="B203">
         <v>108</v>
@@ -20813,7 +20805,7 @@
     </row>
     <row r="204" spans="1:24">
       <c r="A204" t="s">
-        <v>153</v>
+        <v>335</v>
       </c>
       <c r="B204">
         <v>86</v>
@@ -20887,7 +20879,7 @@
     </row>
     <row r="205" spans="1:24">
       <c r="A205" t="s">
-        <v>316</v>
+        <v>83</v>
       </c>
       <c r="B205">
         <v>105</v>
@@ -20961,7 +20953,7 @@
     </row>
     <row r="206" spans="1:24">
       <c r="A206" t="s">
-        <v>139</v>
+        <v>321</v>
       </c>
       <c r="B206">
         <v>100</v>
@@ -21035,7 +21027,7 @@
     </row>
     <row r="207" spans="1:24">
       <c r="A207" t="s">
-        <v>147</v>
+        <v>329</v>
       </c>
       <c r="B207">
         <v>107</v>
@@ -21109,7 +21101,7 @@
     </row>
     <row r="208" spans="1:24">
       <c r="A208" t="s">
-        <v>151</v>
+        <v>333</v>
       </c>
       <c r="B208">
         <v>107</v>
@@ -21183,7 +21175,7 @@
     </row>
     <row r="209" spans="1:24">
       <c r="A209" t="s">
-        <v>312</v>
+        <v>179</v>
       </c>
       <c r="B209">
         <v>108</v>
@@ -21257,7 +21249,7 @@
     </row>
     <row r="210" spans="1:24">
       <c r="A210" t="s">
-        <v>67</v>
+        <v>403</v>
       </c>
       <c r="B210">
         <v>84</v>
@@ -21331,7 +21323,7 @@
     </row>
     <row r="211" spans="1:24">
       <c r="A211" t="s">
-        <v>55</v>
+        <v>391</v>
       </c>
       <c r="B211">
         <v>124</v>
@@ -21405,7 +21397,7 @@
     </row>
     <row r="212" spans="1:24">
       <c r="A212" t="s">
-        <v>171</v>
+        <v>277</v>
       </c>
       <c r="B212">
         <v>137</v>
@@ -21479,7 +21471,7 @@
     </row>
     <row r="213" spans="1:24">
       <c r="A213" t="s">
-        <v>135</v>
+        <v>317</v>
       </c>
       <c r="B213">
         <v>109</v>
@@ -21553,7 +21545,7 @@
     </row>
     <row r="214" spans="1:24">
       <c r="A214" t="s">
-        <v>259</v>
+        <v>207</v>
       </c>
       <c r="B214">
         <v>124</v>
@@ -21627,7 +21619,7 @@
     </row>
     <row r="215" spans="1:24">
       <c r="A215" t="s">
-        <v>138</v>
+        <v>320</v>
       </c>
       <c r="B215">
         <v>115</v>
@@ -21701,7 +21693,7 @@
     </row>
     <row r="216" spans="1:24">
       <c r="A216" t="s">
-        <v>222</v>
+        <v>249</v>
       </c>
       <c r="B216">
         <v>131</v>
@@ -21775,7 +21767,7 @@
     </row>
     <row r="217" spans="1:24">
       <c r="A217" t="s">
-        <v>46</v>
+        <v>382</v>
       </c>
       <c r="B217">
         <v>120</v>
@@ -21849,7 +21841,7 @@
     </row>
     <row r="218" spans="1:24">
       <c r="A218" t="s">
-        <v>256</v>
+        <v>204</v>
       </c>
       <c r="B218">
         <v>132</v>
@@ -21923,7 +21915,7 @@
     </row>
     <row r="219" spans="1:24">
       <c r="A219" t="s">
-        <v>49</v>
+        <v>385</v>
       </c>
       <c r="B219">
         <v>103</v>
@@ -21997,7 +21989,7 @@
     </row>
     <row r="220" spans="1:24">
       <c r="A220" t="s">
-        <v>425</v>
+        <v>10</v>
       </c>
       <c r="B220">
         <v>139</v>
@@ -22071,7 +22063,7 @@
     </row>
     <row r="221" spans="1:24">
       <c r="A221" t="s">
-        <v>95</v>
+        <v>351</v>
       </c>
       <c r="B221">
         <v>124</v>
@@ -22145,7 +22137,7 @@
     </row>
     <row r="222" spans="1:24">
       <c r="A222" t="s">
-        <v>128</v>
+        <v>310</v>
       </c>
       <c r="B222">
         <v>120</v>
@@ -22219,7 +22211,7 @@
     </row>
     <row r="223" spans="1:24">
       <c r="A223" t="s">
-        <v>364</v>
+        <v>131</v>
       </c>
       <c r="B223">
         <v>148</v>
@@ -22293,7 +22285,7 @@
     </row>
     <row r="224" spans="1:24">
       <c r="A224" t="s">
-        <v>132</v>
+        <v>314</v>
       </c>
       <c r="B224">
         <v>123</v>
@@ -22367,7 +22359,7 @@
     </row>
     <row r="225" spans="1:24">
       <c r="A225" t="s">
-        <v>96</v>
+        <v>352</v>
       </c>
       <c r="B225">
         <v>164</v>
@@ -22441,7 +22433,7 @@
     </row>
     <row r="226" spans="1:24">
       <c r="A226" t="s">
-        <v>97</v>
+        <v>353</v>
       </c>
       <c r="B226">
         <v>164</v>
@@ -22515,7 +22507,7 @@
     </row>
     <row r="227" spans="1:24">
       <c r="A227" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="B227">
         <v>164</v>
@@ -22589,7 +22581,7 @@
     </row>
     <row r="228" spans="1:24">
       <c r="A228" t="s">
-        <v>50</v>
+        <v>386</v>
       </c>
       <c r="B228">
         <v>139</v>
@@ -22663,7 +22655,7 @@
     </row>
     <row r="229" spans="1:24">
       <c r="A229" t="s">
-        <v>275</v>
+        <v>142</v>
       </c>
       <c r="B229">
         <v>221</v>
@@ -22737,7 +22729,7 @@
     </row>
     <row r="230" spans="1:24">
       <c r="A230" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="B230">
         <v>157</v>
@@ -22811,7 +22803,7 @@
     </row>
     <row r="231" spans="1:24">
       <c r="A231" t="s">
-        <v>257</v>
+        <v>205</v>
       </c>
       <c r="B231">
         <v>167</v>
@@ -22885,7 +22877,7 @@
     </row>
     <row r="232" spans="1:24">
       <c r="A232" t="s">
-        <v>6</v>
+        <v>423</v>
       </c>
       <c r="B232">
         <v>133</v>
@@ -22959,7 +22951,7 @@
     </row>
     <row r="233" spans="1:24">
       <c r="A233" t="s">
-        <v>165</v>
+        <v>271</v>
       </c>
       <c r="B233">
         <v>170</v>
@@ -23033,7 +23025,7 @@
     </row>
     <row r="234" spans="1:24">
       <c r="A234" t="s">
-        <v>94</v>
+        <v>350</v>
       </c>
       <c r="B234">
         <v>172</v>
@@ -23107,7 +23099,7 @@
     </row>
     <row r="235" spans="1:24">
       <c r="A235" t="s">
-        <v>54</v>
+        <v>390</v>
       </c>
       <c r="B235">
         <v>179</v>
@@ -23181,7 +23173,7 @@
     </row>
     <row r="236" spans="1:24">
       <c r="A236" t="s">
-        <v>20</v>
+        <v>437</v>
       </c>
       <c r="B236">
         <v>171</v>
@@ -23255,7 +23247,7 @@
     </row>
     <row r="237" spans="1:24">
       <c r="A237" t="s">
-        <v>90</v>
+        <v>346</v>
       </c>
       <c r="B237">
         <v>190</v>
@@ -23329,7 +23321,7 @@
     </row>
     <row r="238" spans="1:24">
       <c r="A238" t="s">
-        <v>122</v>
+        <v>304</v>
       </c>
       <c r="B238">
         <v>192</v>
@@ -23403,7 +23395,7 @@
     </row>
     <row r="239" spans="1:24">
       <c r="A239" t="s">
-        <v>410</v>
+        <v>77</v>
       </c>
       <c r="B239">
         <v>236</v>
@@ -23477,7 +23469,7 @@
     </row>
     <row r="240" spans="1:24">
       <c r="A240" t="s">
-        <v>52</v>
+        <v>388</v>
       </c>
       <c r="B240">
         <v>165</v>
@@ -23551,7 +23543,7 @@
     </row>
     <row r="241" spans="1:24">
       <c r="A241" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="B241">
         <v>186</v>
@@ -23625,7 +23617,7 @@
     </row>
     <row r="242" spans="1:24">
       <c r="A242" t="s">
-        <v>156</v>
+        <v>262</v>
       </c>
       <c r="B242">
         <v>184</v>
@@ -23699,7 +23691,7 @@
     </row>
     <row r="243" spans="1:24">
       <c r="A243" t="s">
-        <v>353</v>
+        <v>120</v>
       </c>
       <c r="B243">
         <v>210</v>
@@ -23773,7 +23765,7 @@
     </row>
     <row r="244" spans="1:24">
       <c r="A244" t="s">
-        <v>270</v>
+        <v>218</v>
       </c>
       <c r="B244">
         <v>176</v>
@@ -23847,7 +23839,7 @@
     </row>
     <row r="245" spans="1:24">
       <c r="A245" t="s">
-        <v>172</v>
+        <v>278</v>
       </c>
       <c r="B245">
         <v>179</v>
@@ -23921,7 +23913,7 @@
     </row>
     <row r="246" spans="1:24">
       <c r="A246" t="s">
-        <v>168</v>
+        <v>274</v>
       </c>
       <c r="B246">
         <v>209</v>
@@ -23995,7 +23987,7 @@
     </row>
     <row r="247" spans="1:24">
       <c r="A247" t="s">
-        <v>315</v>
+        <v>82</v>
       </c>
       <c r="B247">
         <v>195</v>
@@ -24069,7 +24061,7 @@
     </row>
     <row r="248" spans="1:24">
       <c r="A248" t="s">
-        <v>233</v>
+        <v>260</v>
       </c>
       <c r="B248">
         <v>224</v>
@@ -24143,7 +24135,7 @@
     </row>
     <row r="249" spans="1:24">
       <c r="A249" t="s">
-        <v>129</v>
+        <v>311</v>
       </c>
       <c r="B249">
         <v>200</v>
@@ -24217,7 +24209,7 @@
     </row>
     <row r="250" spans="1:24">
       <c r="A250" t="s">
-        <v>212</v>
+        <v>239</v>
       </c>
       <c r="B250">
         <v>154</v>
@@ -24291,7 +24283,7 @@
     </row>
     <row r="251" spans="1:24">
       <c r="A251" t="s">
-        <v>155</v>
+        <v>261</v>
       </c>
       <c r="B251">
         <v>213</v>
@@ -24365,7 +24357,7 @@
     </row>
     <row r="252" spans="1:24">
       <c r="A252" t="s">
-        <v>258</v>
+        <v>206</v>
       </c>
       <c r="B252">
         <v>276</v>
@@ -24439,7 +24431,7 @@
     </row>
     <row r="253" spans="1:24">
       <c r="A253" t="s">
-        <v>190</v>
+        <v>296</v>
       </c>
       <c r="B253">
         <v>236</v>
@@ -24513,7 +24505,7 @@
     </row>
     <row r="254" spans="1:24">
       <c r="A254" t="s">
-        <v>1</v>
+        <v>418</v>
       </c>
       <c r="B254">
         <v>178</v>
@@ -24587,7 +24579,7 @@
     </row>
     <row r="255" spans="1:24">
       <c r="A255" t="s">
-        <v>59</v>
+        <v>395</v>
       </c>
       <c r="B255">
         <v>247</v>
@@ -24661,7 +24653,7 @@
     </row>
     <row r="256" spans="1:24">
       <c r="A256" t="s">
-        <v>170</v>
+        <v>276</v>
       </c>
       <c r="B256">
         <v>226</v>
@@ -24735,7 +24727,7 @@
     </row>
     <row r="257" spans="1:24">
       <c r="A257" t="s">
-        <v>69</v>
+        <v>405</v>
       </c>
       <c r="B257">
         <v>184</v>
@@ -24809,7 +24801,7 @@
     </row>
     <row r="258" spans="1:24">
       <c r="A258" t="s">
-        <v>137</v>
+        <v>319</v>
       </c>
       <c r="B258">
         <v>249</v>
@@ -24883,7 +24875,7 @@
     </row>
     <row r="259" spans="1:24">
       <c r="A259" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="B259">
         <v>216</v>
@@ -24957,7 +24949,7 @@
     </row>
     <row r="260" spans="1:24">
       <c r="A260" t="s">
-        <v>56</v>
+        <v>392</v>
       </c>
       <c r="B260">
         <v>231</v>
@@ -25031,7 +25023,7 @@
     </row>
     <row r="261" spans="1:24">
       <c r="A261" t="s">
-        <v>21</v>
+        <v>438</v>
       </c>
       <c r="B261">
         <v>210</v>
@@ -25105,7 +25097,7 @@
     </row>
     <row r="262" spans="1:24">
       <c r="A262" t="s">
-        <v>58</v>
+        <v>394</v>
       </c>
       <c r="B262">
         <v>246</v>
@@ -25179,7 +25171,7 @@
     </row>
     <row r="263" spans="1:24">
       <c r="A263" t="s">
-        <v>42</v>
+        <v>378</v>
       </c>
       <c r="B263">
         <v>222</v>
@@ -25253,7 +25245,7 @@
     </row>
     <row r="264" spans="1:24">
       <c r="A264" t="s">
-        <v>389</v>
+        <v>56</v>
       </c>
       <c r="B264">
         <v>340</v>
@@ -25327,7 +25319,7 @@
     </row>
     <row r="265" spans="1:24">
       <c r="A265" t="s">
-        <v>43</v>
+        <v>379</v>
       </c>
       <c r="B265">
         <v>189</v>
@@ -25401,7 +25393,7 @@
     </row>
     <row r="266" spans="1:24">
       <c r="A266" t="s">
-        <v>91</v>
+        <v>347</v>
       </c>
       <c r="B266">
         <v>293</v>
@@ -25475,7 +25467,7 @@
     </row>
     <row r="267" spans="1:24">
       <c r="A267" t="s">
-        <v>16</v>
+        <v>433</v>
       </c>
       <c r="B267">
         <v>272</v>
@@ -25549,7 +25541,7 @@
     </row>
     <row r="268" spans="1:24">
       <c r="A268" t="s">
-        <v>268</v>
+        <v>216</v>
       </c>
       <c r="B268">
         <v>312</v>
@@ -25623,7 +25615,7 @@
     </row>
     <row r="269" spans="1:24">
       <c r="A269" t="s">
-        <v>57</v>
+        <v>393</v>
       </c>
       <c r="B269">
         <v>238</v>
@@ -25697,7 +25689,7 @@
     </row>
     <row r="270" spans="1:24">
       <c r="A270" t="s">
-        <v>26</v>
+        <v>443</v>
       </c>
       <c r="B270">
         <v>230</v>
@@ -25771,7 +25763,7 @@
     </row>
     <row r="271" spans="1:24">
       <c r="A271" t="s">
-        <v>150</v>
+        <v>332</v>
       </c>
       <c r="B271">
         <v>310</v>
@@ -25845,7 +25837,7 @@
     </row>
     <row r="272" spans="1:24">
       <c r="A272" t="s">
-        <v>229</v>
+        <v>256</v>
       </c>
       <c r="B272">
         <v>276</v>
@@ -25919,7 +25911,7 @@
     </row>
     <row r="273" spans="1:24">
       <c r="A273" t="s">
-        <v>157</v>
+        <v>263</v>
       </c>
       <c r="B273">
         <v>310</v>
@@ -25993,7 +25985,7 @@
     </row>
     <row r="274" spans="1:24">
       <c r="A274" t="s">
-        <v>273</v>
+        <v>221</v>
       </c>
       <c r="B274">
         <v>267</v>
@@ -26067,7 +26059,7 @@
     </row>
     <row r="275" spans="1:24">
       <c r="A275" t="s">
-        <v>262</v>
+        <v>210</v>
       </c>
       <c r="B275">
         <v>308</v>
@@ -26141,7 +26133,7 @@
     </row>
     <row r="276" spans="1:24">
       <c r="A276" t="s">
-        <v>142</v>
+        <v>324</v>
       </c>
       <c r="B276">
         <v>326</v>
@@ -26215,7 +26207,7 @@
     </row>
     <row r="277" spans="1:24">
       <c r="A277" t="s">
-        <v>5</v>
+        <v>422</v>
       </c>
       <c r="B277">
         <v>289</v>
@@ -26289,7 +26281,7 @@
     </row>
     <row r="278" spans="1:24">
       <c r="A278" t="s">
-        <v>305</v>
+        <v>172</v>
       </c>
       <c r="B278">
         <v>249</v>
@@ -26363,7 +26355,7 @@
     </row>
     <row r="279" spans="1:24">
       <c r="A279" t="s">
-        <v>141</v>
+        <v>323</v>
       </c>
       <c r="B279">
         <v>323</v>
@@ -26437,7 +26429,7 @@
     </row>
     <row r="280" spans="1:24">
       <c r="A280" t="s">
-        <v>224</v>
+        <v>251</v>
       </c>
       <c r="B280">
         <v>292</v>
@@ -26511,7 +26503,7 @@
     </row>
     <row r="281" spans="1:24">
       <c r="A281" t="s">
-        <v>121</v>
+        <v>303</v>
       </c>
       <c r="B281">
         <v>308</v>
@@ -26585,7 +26577,7 @@
     </row>
     <row r="282" spans="1:24">
       <c r="A282" t="s">
-        <v>411</v>
+        <v>78</v>
       </c>
       <c r="B282">
         <v>451</v>
@@ -26659,7 +26651,7 @@
     </row>
     <row r="283" spans="1:24">
       <c r="A283" t="s">
-        <v>71</v>
+        <v>407</v>
       </c>
       <c r="B283">
         <v>315</v>
@@ -26733,7 +26725,7 @@
     </row>
     <row r="284" spans="1:24">
       <c r="A284" t="s">
-        <v>81</v>
+        <v>337</v>
       </c>
       <c r="B284">
         <v>400</v>
@@ -26807,7 +26799,7 @@
     </row>
     <row r="285" spans="1:24">
       <c r="A285" t="s">
-        <v>113</v>
+        <v>369</v>
       </c>
       <c r="B285">
         <v>424</v>
@@ -26881,7 +26873,7 @@
     </row>
     <row r="286" spans="1:24">
       <c r="A286" t="s">
-        <v>27</v>
+        <v>444</v>
       </c>
       <c r="B286">
         <v>413</v>
@@ -26955,7 +26947,7 @@
     </row>
     <row r="287" spans="1:24">
       <c r="A287" t="s">
-        <v>271</v>
+        <v>219</v>
       </c>
       <c r="B287">
         <v>339</v>
@@ -27029,7 +27021,7 @@
     </row>
     <row r="288" spans="1:24">
       <c r="A288" t="s">
-        <v>226</v>
+        <v>253</v>
       </c>
       <c r="B288">
         <v>322</v>
@@ -27103,7 +27095,7 @@
     </row>
     <row r="289" spans="1:24">
       <c r="A289" t="s">
-        <v>143</v>
+        <v>325</v>
       </c>
       <c r="B289">
         <v>482</v>
@@ -27177,7 +27169,7 @@
     </row>
     <row r="290" spans="1:24">
       <c r="A290" t="s">
-        <v>261</v>
+        <v>209</v>
       </c>
       <c r="B290">
         <v>382</v>
@@ -27251,7 +27243,7 @@
     </row>
     <row r="291" spans="1:24">
       <c r="A291" t="s">
-        <v>82</v>
+        <v>338</v>
       </c>
       <c r="B291">
         <v>398</v>
@@ -27325,7 +27317,7 @@
     </row>
     <row r="292" spans="1:24">
       <c r="A292" t="s">
-        <v>159</v>
+        <v>265</v>
       </c>
       <c r="B292">
         <v>427</v>
@@ -27399,7 +27391,7 @@
     </row>
     <row r="293" spans="1:24">
       <c r="A293" t="s">
-        <v>220</v>
+        <v>247</v>
       </c>
       <c r="B293">
         <v>493</v>
@@ -27473,7 +27465,7 @@
     </row>
     <row r="294" spans="1:24">
       <c r="A294" t="s">
-        <v>130</v>
+        <v>312</v>
       </c>
       <c r="B294">
         <v>399</v>
@@ -27547,7 +27539,7 @@
     </row>
     <row r="295" spans="1:24">
       <c r="A295" t="s">
-        <v>44</v>
+        <v>380</v>
       </c>
       <c r="B295">
         <v>358</v>
@@ -27621,7 +27613,7 @@
     </row>
     <row r="296" spans="1:24">
       <c r="A296" t="s">
-        <v>0</v>
+        <v>417</v>
       </c>
       <c r="B296">
         <v>410</v>
@@ -27695,7 +27687,7 @@
     </row>
     <row r="297" spans="1:24">
       <c r="A297" t="s">
-        <v>100</v>
+        <v>356</v>
       </c>
       <c r="B297">
         <v>545</v>
@@ -27769,7 +27761,7 @@
     </row>
     <row r="298" spans="1:24">
       <c r="A298" t="s">
-        <v>92</v>
+        <v>348</v>
       </c>
       <c r="B298">
         <v>474</v>
@@ -27843,7 +27835,7 @@
     </row>
     <row r="299" spans="1:24">
       <c r="A299" t="s">
-        <v>192</v>
+        <v>298</v>
       </c>
       <c r="B299">
         <v>523</v>
@@ -27917,7 +27909,7 @@
     </row>
     <row r="300" spans="1:24">
       <c r="A300" t="s">
-        <v>263</v>
+        <v>211</v>
       </c>
       <c r="B300">
         <v>430</v>
@@ -27991,7 +27983,7 @@
     </row>
     <row r="301" spans="1:24">
       <c r="A301" t="s">
-        <v>134</v>
+        <v>316</v>
       </c>
       <c r="B301">
         <v>522</v>
@@ -28065,7 +28057,7 @@
     </row>
     <row r="302" spans="1:24">
       <c r="A302" t="s">
-        <v>48</v>
+        <v>384</v>
       </c>
       <c r="B302">
         <v>562</v>
@@ -28139,7 +28131,7 @@
     </row>
     <row r="303" spans="1:24">
       <c r="A303" t="s">
-        <v>309</v>
+        <v>176</v>
       </c>
       <c r="B303">
         <v>526</v>
@@ -28213,7 +28205,7 @@
     </row>
     <row r="304" spans="1:24">
       <c r="A304" t="s">
-        <v>231</v>
+        <v>258</v>
       </c>
       <c r="B304">
         <v>562</v>
@@ -28287,7 +28279,7 @@
     </row>
     <row r="305" spans="1:24">
       <c r="A305" t="s">
-        <v>24</v>
+        <v>441</v>
       </c>
       <c r="B305">
         <v>653</v>
@@ -28361,7 +28353,7 @@
     </row>
     <row r="306" spans="1:24">
       <c r="A306" t="s">
-        <v>60</v>
+        <v>396</v>
       </c>
       <c r="B306">
         <v>544</v>
@@ -28435,7 +28427,7 @@
     </row>
     <row r="307" spans="1:24">
       <c r="A307" t="s">
-        <v>127</v>
+        <v>309</v>
       </c>
       <c r="B307">
         <v>519</v>
@@ -28509,7 +28501,7 @@
     </row>
     <row r="308" spans="1:24">
       <c r="A308" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="B308">
         <v>505</v>
@@ -28583,7 +28575,7 @@
     </row>
     <row r="309" spans="1:24">
       <c r="A309" t="s">
-        <v>70</v>
+        <v>406</v>
       </c>
       <c r="B309">
         <v>354</v>
@@ -28657,7 +28649,7 @@
     </row>
     <row r="310" spans="1:24">
       <c r="A310" t="s">
-        <v>117</v>
+        <v>373</v>
       </c>
       <c r="B310">
         <v>615</v>
@@ -28731,7 +28723,7 @@
     </row>
     <row r="311" spans="1:24">
       <c r="A311" t="s">
-        <v>47</v>
+        <v>383</v>
       </c>
       <c r="B311">
         <v>485</v>
@@ -28805,7 +28797,7 @@
     </row>
     <row r="312" spans="1:24">
       <c r="A312" t="s">
-        <v>164</v>
+        <v>270</v>
       </c>
       <c r="B312">
         <v>696</v>
@@ -28879,7 +28871,7 @@
     </row>
     <row r="313" spans="1:24">
       <c r="A313" t="s">
-        <v>2</v>
+        <v>419</v>
       </c>
       <c r="B313">
         <v>495</v>
@@ -28953,7 +28945,7 @@
     </row>
     <row r="314" spans="1:24">
       <c r="A314" t="s">
-        <v>22</v>
+        <v>439</v>
       </c>
       <c r="B314">
         <v>832</v>
@@ -29027,7 +29019,7 @@
     </row>
     <row r="315" spans="1:24">
       <c r="A315" t="s">
-        <v>126</v>
+        <v>308</v>
       </c>
       <c r="B315">
         <v>667</v>
@@ -29101,7 +29093,7 @@
     </row>
     <row r="316" spans="1:24">
       <c r="A316" t="s">
-        <v>25</v>
+        <v>442</v>
       </c>
       <c r="B316">
         <v>734</v>
@@ -29175,7 +29167,7 @@
     </row>
     <row r="317" spans="1:24">
       <c r="A317" t="s">
-        <v>272</v>
+        <v>220</v>
       </c>
       <c r="B317">
         <v>751</v>
@@ -29249,7 +29241,7 @@
     </row>
     <row r="318" spans="1:24">
       <c r="A318" t="s">
-        <v>162</v>
+        <v>268</v>
       </c>
       <c r="B318">
         <v>769</v>
@@ -29323,7 +29315,7 @@
     </row>
     <row r="319" spans="1:24">
       <c r="A319" t="s">
-        <v>182</v>
+        <v>288</v>
       </c>
       <c r="B319">
         <v>867</v>
@@ -29397,7 +29389,7 @@
     </row>
     <row r="320" spans="1:24">
       <c r="A320" t="s">
-        <v>14</v>
+        <v>431</v>
       </c>
       <c r="B320">
         <v>907</v>
@@ -29471,7 +29463,7 @@
     </row>
     <row r="321" spans="1:24">
       <c r="A321" t="s">
-        <v>125</v>
+        <v>307</v>
       </c>
       <c r="B321">
         <v>790</v>
@@ -29545,7 +29537,7 @@
     </row>
     <row r="322" spans="1:24">
       <c r="A322" t="s">
-        <v>61</v>
+        <v>397</v>
       </c>
       <c r="B322">
         <v>717</v>
@@ -29619,7 +29611,7 @@
     </row>
     <row r="323" spans="1:24">
       <c r="A323" t="s">
-        <v>146</v>
+        <v>328</v>
       </c>
       <c r="B323">
         <v>1112</v>
@@ -29693,7 +29685,7 @@
     </row>
     <row r="324" spans="1:24">
       <c r="A324" t="s">
-        <v>98</v>
+        <v>354</v>
       </c>
       <c r="B324">
         <v>1232</v>
@@ -29767,7 +29759,7 @@
     </row>
     <row r="325" spans="1:24">
       <c r="A325" t="s">
-        <v>189</v>
+        <v>295</v>
       </c>
       <c r="B325">
         <v>1208</v>
@@ -29841,7 +29833,7 @@
     </row>
     <row r="326" spans="1:24">
       <c r="A326" t="s">
-        <v>87</v>
+        <v>343</v>
       </c>
       <c r="B326">
         <v>1038</v>
@@ -29915,7 +29907,7 @@
     </row>
     <row r="327" spans="1:24">
       <c r="A327" t="s">
-        <v>45</v>
+        <v>381</v>
       </c>
       <c r="B327">
         <v>1131</v>
@@ -29989,7 +29981,7 @@
     </row>
     <row r="328" spans="1:24">
       <c r="A328" t="s">
-        <v>116</v>
+        <v>372</v>
       </c>
       <c r="B328">
         <v>1137</v>
@@ -30063,7 +30055,7 @@
     </row>
     <row r="329" spans="1:24">
       <c r="A329" t="s">
-        <v>76</v>
+        <v>412</v>
       </c>
       <c r="B329">
         <v>1167</v>
@@ -30137,7 +30129,7 @@
     </row>
     <row r="330" spans="1:24">
       <c r="A330" t="s">
-        <v>265</v>
+        <v>213</v>
       </c>
       <c r="B330">
         <v>1124</v>
@@ -30211,7 +30203,7 @@
     </row>
     <row r="331" spans="1:24">
       <c r="A331" t="s">
-        <v>109</v>
+        <v>365</v>
       </c>
       <c r="B331">
         <v>1408</v>
@@ -30285,7 +30277,7 @@
     </row>
     <row r="332" spans="1:24">
       <c r="A332" t="s">
-        <v>186</v>
+        <v>292</v>
       </c>
       <c r="B332">
         <v>1361</v>
@@ -30359,7 +30351,7 @@
     </row>
     <row r="333" spans="1:24">
       <c r="A333" t="s">
-        <v>37</v>
+        <v>454</v>
       </c>
       <c r="B333">
         <v>1156</v>
@@ -30433,7 +30425,7 @@
     </row>
     <row r="334" spans="1:24">
       <c r="A334" t="s">
-        <v>53</v>
+        <v>389</v>
       </c>
       <c r="B334">
         <v>1311</v>
@@ -30507,7 +30499,7 @@
     </row>
     <row r="335" spans="1:24">
       <c r="A335" t="s">
-        <v>86</v>
+        <v>342</v>
       </c>
       <c r="B335">
         <v>1305</v>
@@ -30581,7 +30573,7 @@
     </row>
     <row r="336" spans="1:24">
       <c r="A336" t="s">
-        <v>183</v>
+        <v>289</v>
       </c>
       <c r="B336">
         <v>1608</v>
@@ -30655,7 +30647,7 @@
     </row>
     <row r="337" spans="1:24">
       <c r="A337" t="s">
-        <v>184</v>
+        <v>290</v>
       </c>
       <c r="B337">
         <v>1371</v>
@@ -30729,7 +30721,7 @@
     </row>
     <row r="338" spans="1:24">
       <c r="A338" t="s">
-        <v>230</v>
+        <v>257</v>
       </c>
       <c r="B338">
         <v>1368</v>
@@ -30803,7 +30795,7 @@
     </row>
     <row r="339" spans="1:24">
       <c r="A339" t="s">
-        <v>84</v>
+        <v>340</v>
       </c>
       <c r="B339">
         <v>1705</v>
@@ -30877,7 +30869,7 @@
     </row>
     <row r="340" spans="1:24">
       <c r="A340" t="s">
-        <v>51</v>
+        <v>387</v>
       </c>
       <c r="B340">
         <v>1341</v>
@@ -30951,7 +30943,7 @@
     </row>
     <row r="341" spans="1:24">
       <c r="A341" t="s">
-        <v>158</v>
+        <v>264</v>
       </c>
       <c r="B341">
         <v>1577</v>
@@ -31025,7 +31017,7 @@
     </row>
     <row r="342" spans="1:24">
       <c r="A342" t="s">
-        <v>102</v>
+        <v>358</v>
       </c>
       <c r="B342">
         <v>2203</v>
@@ -31099,7 +31091,7 @@
     </row>
     <row r="343" spans="1:24">
       <c r="A343" t="s">
-        <v>180</v>
+        <v>286</v>
       </c>
       <c r="B343">
         <v>1767</v>
@@ -31173,7 +31165,7 @@
     </row>
     <row r="344" spans="1:24">
       <c r="A344" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="B344">
         <v>1798</v>
@@ -31247,7 +31239,7 @@
     </row>
     <row r="345" spans="1:24">
       <c r="A345" t="s">
-        <v>107</v>
+        <v>363</v>
       </c>
       <c r="B345">
         <v>2044</v>
@@ -31321,7 +31313,7 @@
     </row>
     <row r="346" spans="1:24">
       <c r="A346" t="s">
-        <v>260</v>
+        <v>208</v>
       </c>
       <c r="B346">
         <v>2561</v>
@@ -31395,7 +31387,7 @@
     </row>
     <row r="347" spans="1:24">
       <c r="A347" t="s">
-        <v>185</v>
+        <v>291</v>
       </c>
       <c r="B347">
         <v>2470</v>
@@ -31469,7 +31461,7 @@
     </row>
     <row r="348" spans="1:24">
       <c r="A348" t="s">
-        <v>41</v>
+        <v>377</v>
       </c>
       <c r="B348">
         <v>2336</v>
@@ -31543,7 +31535,7 @@
     </row>
     <row r="349" spans="1:24">
       <c r="A349" t="s">
-        <v>79</v>
+        <v>415</v>
       </c>
       <c r="B349">
         <v>2193</v>
@@ -31617,7 +31609,7 @@
     </row>
     <row r="350" spans="1:24">
       <c r="A350" t="s">
-        <v>112</v>
+        <v>368</v>
       </c>
       <c r="B350">
         <v>2684</v>
@@ -31691,7 +31683,7 @@
     </row>
     <row r="351" spans="1:24">
       <c r="A351" t="s">
-        <v>194</v>
+        <v>300</v>
       </c>
       <c r="B351">
         <v>2778</v>
@@ -31765,7 +31757,7 @@
     </row>
     <row r="352" spans="1:24">
       <c r="A352" t="s">
-        <v>145</v>
+        <v>327</v>
       </c>
       <c r="B352">
         <v>3016</v>
@@ -31839,7 +31831,7 @@
     </row>
     <row r="353" spans="1:24">
       <c r="A353" t="s">
-        <v>23</v>
+        <v>440</v>
       </c>
       <c r="B353">
         <v>3116</v>
@@ -31913,7 +31905,7 @@
     </row>
     <row r="354" spans="1:24">
       <c r="A354" t="s">
-        <v>11</v>
+        <v>428</v>
       </c>
       <c r="B354">
         <v>2498</v>
@@ -31987,7 +31979,7 @@
     </row>
     <row r="355" spans="1:24">
       <c r="A355" t="s">
-        <v>264</v>
+        <v>212</v>
       </c>
       <c r="B355">
         <v>3631</v>
@@ -32061,7 +32053,7 @@
     </row>
     <row r="356" spans="1:24">
       <c r="A356" t="s">
-        <v>19</v>
+        <v>436</v>
       </c>
       <c r="B356">
         <v>3544</v>
@@ -32135,7 +32127,7 @@
     </row>
     <row r="357" spans="1:24">
       <c r="A357" t="s">
-        <v>148</v>
+        <v>330</v>
       </c>
       <c r="B357">
         <v>3963</v>
@@ -32209,7 +32201,7 @@
     </row>
     <row r="358" spans="1:24">
       <c r="A358" t="s">
-        <v>118</v>
+        <v>374</v>
       </c>
       <c r="B358">
         <v>3544</v>
@@ -32283,7 +32275,7 @@
     </row>
     <row r="359" spans="1:24">
       <c r="A359" t="s">
-        <v>34</v>
+        <v>451</v>
       </c>
       <c r="B359">
         <v>3799</v>
@@ -32357,7 +32349,7 @@
     </row>
     <row r="360" spans="1:24">
       <c r="A360" t="s">
-        <v>77</v>
+        <v>413</v>
       </c>
       <c r="B360">
         <v>3700</v>
@@ -32431,7 +32423,7 @@
     </row>
     <row r="361" spans="1:24">
       <c r="A361" t="s">
-        <v>99</v>
+        <v>355</v>
       </c>
       <c r="B361">
         <v>4686</v>
@@ -32505,7 +32497,7 @@
     </row>
     <row r="362" spans="1:24">
       <c r="A362" t="s">
-        <v>18</v>
+        <v>435</v>
       </c>
       <c r="B362">
         <v>4488</v>
@@ -32579,7 +32571,7 @@
     </row>
     <row r="363" spans="1:24">
       <c r="A363" t="s">
-        <v>152</v>
+        <v>334</v>
       </c>
       <c r="B363">
         <v>5016</v>
@@ -32653,7 +32645,7 @@
     </row>
     <row r="364" spans="1:24">
       <c r="A364" t="s">
-        <v>108</v>
+        <v>364</v>
       </c>
       <c r="B364">
         <v>4092</v>
@@ -32727,7 +32719,7 @@
     </row>
     <row r="365" spans="1:24">
       <c r="A365" t="s">
-        <v>187</v>
+        <v>293</v>
       </c>
       <c r="B365">
         <v>5152</v>
@@ -32801,7 +32793,7 @@
     </row>
     <row r="366" spans="1:24">
       <c r="A366" t="s">
-        <v>104</v>
+        <v>360</v>
       </c>
       <c r="B366">
         <v>4491</v>
@@ -32875,7 +32867,7 @@
     </row>
     <row r="367" spans="1:24">
       <c r="A367" t="s">
-        <v>114</v>
+        <v>370</v>
       </c>
       <c r="B367">
         <v>5371</v>
@@ -32949,7 +32941,7 @@
     </row>
     <row r="368" spans="1:24">
       <c r="A368" t="s">
-        <v>12</v>
+        <v>429</v>
       </c>
       <c r="B368">
         <v>4980</v>
@@ -33023,7 +33015,7 @@
     </row>
     <row r="369" spans="1:24">
       <c r="A369" t="s">
-        <v>88</v>
+        <v>344</v>
       </c>
       <c r="B369">
         <v>6389</v>
@@ -33097,7 +33089,7 @@
     </row>
     <row r="370" spans="1:24">
       <c r="A370" t="s">
-        <v>89</v>
+        <v>345</v>
       </c>
       <c r="B370">
         <v>6922</v>
@@ -33171,7 +33163,7 @@
     </row>
     <row r="371" spans="1:24">
       <c r="A371" t="s">
-        <v>154</v>
+        <v>336</v>
       </c>
       <c r="B371">
         <v>6401</v>
@@ -33245,7 +33237,7 @@
     </row>
     <row r="372" spans="1:24">
       <c r="A372" t="s">
-        <v>179</v>
+        <v>285</v>
       </c>
       <c r="B372">
         <v>6401</v>
@@ -33319,7 +33311,7 @@
     </row>
     <row r="373" spans="1:24">
       <c r="A373" t="s">
-        <v>110</v>
+        <v>366</v>
       </c>
       <c r="B373">
         <v>6780</v>
@@ -33393,7 +33385,7 @@
     </row>
     <row r="374" spans="1:24">
       <c r="A374" t="s">
-        <v>85</v>
+        <v>341</v>
       </c>
       <c r="B374">
         <v>7845</v>
@@ -33467,7 +33459,7 @@
     </row>
     <row r="375" spans="1:24">
       <c r="A375" t="s">
-        <v>221</v>
+        <v>248</v>
       </c>
       <c r="B375">
         <v>7648</v>
@@ -33541,7 +33533,7 @@
     </row>
     <row r="376" spans="1:24">
       <c r="A376" t="s">
-        <v>105</v>
+        <v>361</v>
       </c>
       <c r="B376">
         <v>6890</v>
@@ -33615,7 +33607,7 @@
     </row>
     <row r="377" spans="1:24">
       <c r="A377" t="s">
-        <v>72</v>
+        <v>408</v>
       </c>
       <c r="B377">
         <v>7007</v>
@@ -33689,7 +33681,7 @@
     </row>
     <row r="378" spans="1:24">
       <c r="A378" t="s">
-        <v>62</v>
+        <v>398</v>
       </c>
       <c r="B378">
         <v>8731</v>
@@ -33763,7 +33755,7 @@
     </row>
     <row r="379" spans="1:24">
       <c r="A379" t="s">
-        <v>36</v>
+        <v>453</v>
       </c>
       <c r="B379">
         <v>11164</v>
@@ -33837,7 +33829,7 @@
     </row>
     <row r="380" spans="1:24">
       <c r="A380" t="s">
-        <v>15</v>
+        <v>432</v>
       </c>
       <c r="B380">
         <v>10375</v>
@@ -33911,7 +33903,7 @@
     </row>
     <row r="381" spans="1:24">
       <c r="A381" t="s">
-        <v>80</v>
+        <v>416</v>
       </c>
       <c r="B381">
         <v>10855</v>
@@ -33985,7 +33977,7 @@
     </row>
     <row r="382" spans="1:24">
       <c r="A382" t="s">
-        <v>149</v>
+        <v>331</v>
       </c>
       <c r="B382">
         <v>11172</v>
@@ -34059,7 +34051,7 @@
     </row>
     <row r="383" spans="1:24">
       <c r="A383" t="s">
-        <v>296</v>
+        <v>163</v>
       </c>
       <c r="B383">
         <v>13489</v>
@@ -34133,7 +34125,7 @@
     </row>
     <row r="384" spans="1:24">
       <c r="A384" t="s">
-        <v>120</v>
+        <v>302</v>
       </c>
       <c r="B384">
         <v>15638</v>
@@ -34207,7 +34199,7 @@
     </row>
     <row r="385" spans="1:24">
       <c r="A385" t="s">
-        <v>78</v>
+        <v>414</v>
       </c>
       <c r="B385">
         <v>15448</v>
@@ -34281,7 +34273,7 @@
     </row>
     <row r="386" spans="1:24">
       <c r="A386" t="s">
-        <v>193</v>
+        <v>299</v>
       </c>
       <c r="B386">
         <v>15641</v>
@@ -34355,7 +34347,7 @@
     </row>
     <row r="387" spans="1:24">
       <c r="A387" t="s">
-        <v>17</v>
+        <v>434</v>
       </c>
       <c r="B387">
         <v>15611</v>
@@ -34429,7 +34421,7 @@
     </row>
     <row r="388" spans="1:24">
       <c r="A388" t="s">
-        <v>255</v>
+        <v>203</v>
       </c>
       <c r="B388">
         <v>16326</v>
@@ -34503,7 +34495,7 @@
     </row>
     <row r="389" spans="1:24">
       <c r="A389" t="s">
-        <v>111</v>
+        <v>367</v>
       </c>
       <c r="B389">
         <v>19027</v>
@@ -34577,7 +34569,7 @@
     </row>
     <row r="390" spans="1:24">
       <c r="A390" t="s">
-        <v>63</v>
+        <v>399</v>
       </c>
       <c r="B390">
         <v>24530</v>
@@ -34651,7 +34643,7 @@
     </row>
     <row r="391" spans="1:24">
       <c r="A391" t="s">
-        <v>219</v>
+        <v>246</v>
       </c>
       <c r="B391">
         <v>30420</v>
@@ -34725,7 +34717,7 @@
     </row>
     <row r="392" spans="1:24">
       <c r="A392" t="s">
-        <v>119</v>
+        <v>301</v>
       </c>
       <c r="B392">
         <v>30612</v>
@@ -34799,7 +34791,7 @@
     </row>
     <row r="393" spans="1:24">
       <c r="A393" t="s">
-        <v>8</v>
+        <v>425</v>
       </c>
       <c r="B393">
         <v>32663</v>
@@ -34873,7 +34865,7 @@
     </row>
     <row r="394" spans="1:24">
       <c r="A394" t="s">
-        <v>75</v>
+        <v>411</v>
       </c>
       <c r="B394">
         <v>32658</v>
@@ -34947,7 +34939,7 @@
     </row>
     <row r="395" spans="1:24">
       <c r="A395" t="s">
-        <v>103</v>
+        <v>359</v>
       </c>
       <c r="B395">
         <v>33106</v>
@@ -35021,7 +35013,7 @@
     </row>
     <row r="396" spans="1:24">
       <c r="A396" t="s">
-        <v>38</v>
+        <v>455</v>
       </c>
       <c r="B396">
         <v>28943</v>
@@ -35095,7 +35087,7 @@
     </row>
     <row r="397" spans="1:24">
       <c r="A397" t="s">
-        <v>73</v>
+        <v>409</v>
       </c>
       <c r="B397">
         <v>45157</v>
@@ -35169,7 +35161,7 @@
     </row>
     <row r="398" spans="1:24">
       <c r="A398" t="s">
-        <v>13</v>
+        <v>430</v>
       </c>
       <c r="B398">
         <v>45033</v>
@@ -35243,7 +35235,7 @@
     </row>
     <row r="399" spans="1:24">
       <c r="A399" t="s">
-        <v>101</v>
+        <v>357</v>
       </c>
       <c r="B399">
         <v>44049</v>
@@ -35317,7 +35309,7 @@
     </row>
     <row r="400" spans="1:24">
       <c r="A400" t="s">
-        <v>9</v>
+        <v>426</v>
       </c>
       <c r="B400">
         <v>50521</v>
@@ -35391,7 +35383,7 @@
     </row>
     <row r="401" spans="1:24">
       <c r="A401" t="s">
-        <v>106</v>
+        <v>362</v>
       </c>
       <c r="B401">
         <v>45064</v>
@@ -35465,7 +35457,7 @@
     </row>
     <row r="402" spans="1:24">
       <c r="A402" t="s">
-        <v>40</v>
+        <v>376</v>
       </c>
       <c r="B402">
         <v>63506</v>
@@ -35539,7 +35531,7 @@
     </row>
     <row r="403" spans="1:24">
       <c r="A403" t="s">
-        <v>33</v>
+        <v>450</v>
       </c>
       <c r="B403">
         <v>69530</v>
@@ -35613,7 +35605,7 @@
     </row>
     <row r="404" spans="1:24">
       <c r="A404" t="s">
-        <v>74</v>
+        <v>410</v>
       </c>
       <c r="B404">
         <v>82370</v>
@@ -35687,7 +35679,7 @@
     </row>
     <row r="405" spans="1:24">
       <c r="A405" t="s">
-        <v>225</v>
+        <v>252</v>
       </c>
       <c r="B405">
         <v>103922</v>
@@ -35761,7 +35753,7 @@
     </row>
     <row r="406" spans="1:24">
       <c r="A406" t="s">
-        <v>32</v>
+        <v>449</v>
       </c>
       <c r="B406">
         <v>143432</v>
@@ -35835,7 +35827,7 @@
     </row>
     <row r="407" spans="1:24">
       <c r="A407" t="s">
-        <v>35</v>
+        <v>452</v>
       </c>
       <c r="B407">
         <v>213535</v>
@@ -35909,7 +35901,7 @@
     </row>
     <row r="408" spans="1:24">
       <c r="A408" t="s">
-        <v>39</v>
+        <v>375</v>
       </c>
       <c r="B408">
         <v>309310</v>
@@ -35988,7 +35980,6 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -36115,19 +36106,19 @@
   <sheetData>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>447</v>
       </c>
       <c r="B2" t="s">
-        <v>321</v>
+        <v>88</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>445</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>446</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>448</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -37949,10 +37940,8 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
@@ -38003,18 +37992,18 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>400</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>401</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>407</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>406</v>
       </c>
       <c r="B2">
         <v>840</v>
@@ -38025,7 +38014,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>117</v>
+        <v>373</v>
       </c>
       <c r="B3">
         <v>849</v>
@@ -38036,7 +38025,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>383</v>
       </c>
       <c r="B4">
         <v>864</v>
@@ -38047,7 +38036,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>164</v>
+        <v>270</v>
       </c>
       <c r="B5">
         <v>912</v>
@@ -38058,7 +38047,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>419</v>
       </c>
       <c r="B6">
         <v>926</v>
@@ -38069,7 +38058,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>439</v>
       </c>
       <c r="B7">
         <v>943</v>
@@ -38080,7 +38069,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>126</v>
+        <v>308</v>
       </c>
       <c r="B8">
         <v>969</v>
@@ -38091,7 +38080,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>442</v>
       </c>
       <c r="B9">
         <v>1009</v>
@@ -38102,7 +38091,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>272</v>
+        <v>220</v>
       </c>
       <c r="B10">
         <v>1104</v>
@@ -38113,7 +38102,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>162</v>
+        <v>268</v>
       </c>
       <c r="B11">
         <v>1115</v>
@@ -38124,7 +38113,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>182</v>
+        <v>288</v>
       </c>
       <c r="B12">
         <v>1176</v>
@@ -38135,7 +38124,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>431</v>
       </c>
       <c r="B13">
         <v>1185</v>
@@ -38146,7 +38135,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>125</v>
+        <v>307</v>
       </c>
       <c r="B14">
         <v>1208</v>
@@ -38157,7 +38146,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>61</v>
+        <v>397</v>
       </c>
       <c r="B15">
         <v>1217</v>
@@ -38168,7 +38157,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>146</v>
+        <v>328</v>
       </c>
       <c r="B16">
         <v>1435</v>
@@ -38179,7 +38168,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>98</v>
+        <v>354</v>
       </c>
       <c r="B17">
         <v>1485</v>
@@ -38190,7 +38179,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>189</v>
+        <v>295</v>
       </c>
       <c r="B18">
         <v>1506</v>
@@ -38201,7 +38190,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>87</v>
+        <v>343</v>
       </c>
       <c r="B19">
         <v>1565</v>
@@ -38212,7 +38201,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>381</v>
       </c>
       <c r="B20">
         <v>1586</v>
@@ -38223,7 +38212,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>116</v>
+        <v>372</v>
       </c>
       <c r="B21">
         <v>1640</v>
@@ -38234,7 +38223,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>76</v>
+        <v>412</v>
       </c>
       <c r="B22">
         <v>1692</v>
@@ -38245,7 +38234,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>265</v>
+        <v>213</v>
       </c>
       <c r="B23">
         <v>1776</v>
@@ -38256,7 +38245,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>186</v>
+        <v>292</v>
       </c>
       <c r="B24">
         <v>1786</v>
@@ -38267,7 +38256,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>454</v>
       </c>
       <c r="B25">
         <v>1853</v>
@@ -38278,7 +38267,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>53</v>
+        <v>389</v>
       </c>
       <c r="B26">
         <v>1894</v>
@@ -38289,7 +38278,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>86</v>
+        <v>342</v>
       </c>
       <c r="B27">
         <v>1903</v>
@@ -38300,7 +38289,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>183</v>
+        <v>289</v>
       </c>
       <c r="B28">
         <v>1949</v>
@@ -38311,7 +38300,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>184</v>
+        <v>290</v>
       </c>
       <c r="B29">
         <v>2038</v>
@@ -38322,7 +38311,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>230</v>
+        <v>257</v>
       </c>
       <c r="B30">
         <v>2146</v>
@@ -38333,7 +38322,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>84</v>
+        <v>340</v>
       </c>
       <c r="B31">
         <v>2244</v>
@@ -38344,7 +38333,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>51</v>
+        <v>387</v>
       </c>
       <c r="B32">
         <v>2268</v>
@@ -38355,7 +38344,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>158</v>
+        <v>264</v>
       </c>
       <c r="B33">
         <v>2358</v>
@@ -38366,7 +38355,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>102</v>
+        <v>358</v>
       </c>
       <c r="B34">
         <v>2666</v>
@@ -38377,7 +38366,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>180</v>
+        <v>286</v>
       </c>
       <c r="B35">
         <v>2724</v>
@@ -38388,7 +38377,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="B36">
         <v>2767</v>
@@ -38399,7 +38388,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>107</v>
+        <v>363</v>
       </c>
       <c r="B37">
         <v>2854</v>
@@ -38410,7 +38399,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>260</v>
+        <v>208</v>
       </c>
       <c r="B38">
         <v>3120</v>
@@ -38421,7 +38410,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>185</v>
+        <v>291</v>
       </c>
       <c r="B39">
         <v>3193</v>
@@ -38432,7 +38421,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>377</v>
       </c>
       <c r="B40">
         <v>3293</v>
@@ -38443,7 +38432,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>79</v>
+        <v>415</v>
       </c>
       <c r="B41">
         <v>3320</v>
@@ -38454,7 +38443,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>112</v>
+        <v>368</v>
       </c>
       <c r="B42">
         <v>3445</v>
@@ -38465,7 +38454,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>194</v>
+        <v>300</v>
       </c>
       <c r="B43">
         <v>3706</v>
@@ -38476,7 +38465,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>145</v>
+        <v>327</v>
       </c>
       <c r="B44">
         <v>3841</v>
@@ -38487,7 +38476,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>23</v>
+        <v>440</v>
       </c>
       <c r="B45">
         <v>4212</v>
@@ -38498,7 +38487,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>11</v>
+        <v>428</v>
       </c>
       <c r="B46">
         <v>4606</v>
@@ -38509,7 +38498,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>264</v>
+        <v>212</v>
       </c>
       <c r="B47">
         <v>4927</v>
@@ -38520,7 +38509,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>19</v>
+        <v>436</v>
       </c>
       <c r="B48">
         <v>5003</v>
@@ -38531,7 +38520,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>148</v>
+        <v>330</v>
       </c>
       <c r="B49">
         <v>5064</v>
@@ -38542,7 +38531,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>118</v>
+        <v>374</v>
       </c>
       <c r="B50">
         <v>5321</v>
@@ -38553,7 +38542,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>34</v>
+        <v>451</v>
       </c>
       <c r="B51">
         <v>5490</v>
@@ -38564,7 +38553,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>77</v>
+        <v>413</v>
       </c>
       <c r="B52">
         <v>5797</v>
@@ -38575,7 +38564,7 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>99</v>
+        <v>355</v>
       </c>
       <c r="B53">
         <v>5863</v>
@@ -38586,7 +38575,7 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>18</v>
+        <v>435</v>
       </c>
       <c r="B54">
         <v>6042</v>
@@ -38597,7 +38586,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>152</v>
+        <v>334</v>
       </c>
       <c r="B55">
         <v>6176</v>
@@ -38608,7 +38597,7 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>108</v>
+        <v>364</v>
       </c>
       <c r="B56">
         <v>6317</v>
@@ -38619,7 +38608,7 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>187</v>
+        <v>293</v>
       </c>
       <c r="B57">
         <v>6660</v>
@@ -38630,7 +38619,7 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>104</v>
+        <v>360</v>
       </c>
       <c r="B58">
         <v>6926</v>
@@ -38641,7 +38630,7 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>114</v>
+        <v>370</v>
       </c>
       <c r="B59">
         <v>6984</v>
@@ -38652,7 +38641,7 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>12</v>
+        <v>429</v>
       </c>
       <c r="B60">
         <v>7061</v>
@@ -38663,7 +38652,7 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>88</v>
+        <v>344</v>
       </c>
       <c r="B61">
         <v>7357</v>
@@ -38674,7 +38663,7 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>89</v>
+        <v>345</v>
       </c>
       <c r="B62">
         <v>7745</v>
@@ -38685,7 +38674,7 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>179</v>
+        <v>285</v>
       </c>
       <c r="B63">
         <v>7956</v>
@@ -38696,7 +38685,7 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>154</v>
+        <v>336</v>
       </c>
       <c r="B64">
         <v>7956</v>
@@ -38707,7 +38696,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>85</v>
+        <v>341</v>
       </c>
       <c r="B65">
         <v>9478</v>
@@ -38718,7 +38707,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>221</v>
+        <v>248</v>
       </c>
       <c r="B66">
         <v>9582</v>
@@ -38729,7 +38718,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>105</v>
+        <v>361</v>
       </c>
       <c r="B67">
         <v>10092</v>
@@ -38740,7 +38729,7 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>72</v>
+        <v>408</v>
       </c>
       <c r="B68">
         <v>10498</v>
@@ -38751,7 +38740,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>62</v>
+        <v>398</v>
       </c>
       <c r="B69">
         <v>12517</v>
@@ -38762,7 +38751,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>36</v>
+        <v>453</v>
       </c>
       <c r="B70">
         <v>14407</v>
@@ -38773,7 +38762,7 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>15</v>
+        <v>432</v>
       </c>
       <c r="B71">
         <v>14494</v>
@@ -38784,7 +38773,7 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>80</v>
+        <v>416</v>
       </c>
       <c r="B72">
         <v>16612</v>
@@ -38795,7 +38784,7 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>149</v>
+        <v>331</v>
       </c>
       <c r="B73">
         <v>18434</v>
@@ -38806,7 +38795,7 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>296</v>
+        <v>163</v>
       </c>
       <c r="B74">
         <v>22042</v>
@@ -38817,7 +38806,7 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>120</v>
+        <v>302</v>
       </c>
       <c r="B75">
         <v>22304</v>
@@ -38828,7 +38817,7 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>78</v>
+        <v>414</v>
       </c>
       <c r="B76">
         <v>22409</v>
@@ -38839,7 +38828,7 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>193</v>
+        <v>299</v>
       </c>
       <c r="B77">
         <v>22856</v>
@@ -38850,7 +38839,7 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>17</v>
+        <v>434</v>
       </c>
       <c r="B78">
         <v>24100</v>
@@ -38861,7 +38850,7 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>255</v>
+        <v>203</v>
       </c>
       <c r="B79">
         <v>25243</v>
@@ -38872,7 +38861,7 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>63</v>
+        <v>399</v>
       </c>
       <c r="B80">
         <v>38409</v>
@@ -38883,7 +38872,7 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>219</v>
+        <v>246</v>
       </c>
       <c r="B81">
         <v>40259</v>
@@ -38894,7 +38883,7 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>119</v>
+        <v>301</v>
       </c>
       <c r="B82">
         <v>41695</v>
@@ -38905,7 +38894,7 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>8</v>
+        <v>425</v>
       </c>
       <c r="B83">
         <v>45299</v>
@@ -38916,7 +38905,7 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>75</v>
+        <v>411</v>
       </c>
       <c r="B84">
         <v>48806</v>
@@ -38927,7 +38916,7 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>103</v>
+        <v>359</v>
       </c>
       <c r="B85">
         <v>49504</v>
@@ -38938,7 +38927,7 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>38</v>
+        <v>455</v>
       </c>
       <c r="B86">
         <v>50095</v>
@@ -38949,7 +38938,7 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>73</v>
+        <v>409</v>
       </c>
       <c r="B87">
         <v>55312</v>
@@ -38960,7 +38949,7 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>13</v>
+        <v>430</v>
       </c>
       <c r="B88">
         <v>64438</v>
@@ -38971,7 +38960,7 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>101</v>
+        <v>357</v>
       </c>
       <c r="B89">
         <v>74219</v>
@@ -38982,7 +38971,7 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>9</v>
+        <v>426</v>
       </c>
       <c r="B90">
         <v>75328</v>
@@ -38993,7 +38982,7 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>106</v>
+        <v>362</v>
       </c>
       <c r="B91">
         <v>83230</v>
@@ -39004,7 +38993,7 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>40</v>
+        <v>376</v>
       </c>
       <c r="B92">
         <v>84846</v>
@@ -39015,7 +39004,7 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>33</v>
+        <v>450</v>
       </c>
       <c r="B93">
         <v>97494</v>
@@ -39026,7 +39015,7 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>74</v>
+        <v>410</v>
       </c>
       <c r="B94">
         <v>115372</v>
@@ -39037,7 +39026,7 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>225</v>
+        <v>252</v>
       </c>
       <c r="B95">
         <v>139552</v>
@@ -39048,7 +39037,7 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>35</v>
+        <v>452</v>
       </c>
       <c r="B96">
         <v>352423</v>
@@ -39059,7 +39048,7 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>39</v>
+        <v>375</v>
       </c>
       <c r="B97">
         <v>449442</v>
@@ -39075,7 +39064,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -39117,203 +39105,203 @@
   <sheetData>
     <row r="2" spans="1:4">
       <c r="B2" t="s">
-        <v>437</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>438</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>439</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>427</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <f ca="1">1+RAND()</f>
-        <v>1.0034107095971194</v>
+        <v>1.4676789279428704</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:D3" ca="1" si="0">1+RAND()</f>
-        <v>1.0379014271211418</v>
+        <v>1.6184780826270071</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>1.5597993158189638</v>
+        <v>1.8285955232822744</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>428</v>
+        <v>13</v>
       </c>
       <c r="B4">
         <f t="shared" ref="B4:D12" ca="1" si="1">1+RAND()</f>
-        <v>1.5992318496100779</v>
+        <v>1.543792327637675</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="1"/>
-        <v>1.7629515896469456</v>
+        <v>1.4388558543141698</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="1"/>
-        <v>1.7289566114759509</v>
+        <v>1.3742607948252044</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>429</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0423602629161905</v>
+        <v>1.3497200178863125</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="1"/>
-        <v>1.8224597744492712</v>
+        <v>1.2560692394708894</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="1"/>
-        <v>1.4185396299071726</v>
+        <v>1.1455702647554062</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>430</v>
+        <v>15</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="1"/>
-        <v>1.3206788949055408</v>
+        <v>1.4834604085717729</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="1"/>
-        <v>1.6313810965903031</v>
+        <v>1.9273937815924</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="1"/>
-        <v>1.4304087423679448</v>
+        <v>1.9761048997524995</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>431</v>
+        <v>16</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="1"/>
-        <v>1.9253215171574993</v>
+        <v>1.7320950406910924</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="1"/>
-        <v>1.3474100887233362</v>
+        <v>1.2329141350182908</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="1"/>
-        <v>1.5736943420279204</v>
+        <v>1.3629505366488956</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>432</v>
+        <v>17</v>
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1952243074965736</v>
+        <v>1.4890845889785851</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0500949305496761</v>
+        <v>1.2269925415093894</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0098735633173419</v>
+        <v>1.6514068050555579</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>433</v>
+        <v>18</v>
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="1"/>
-        <v>1.8733366577398556</v>
+        <v>1.6612884130654493</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="1"/>
-        <v>1.6092243476905423</v>
+        <v>1.8579332385143061</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="1"/>
-        <v>1.5343834503410108</v>
+        <v>1.0782521497003472</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>434</v>
+        <v>19</v>
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="1"/>
-        <v>1.4919768630279577</v>
+        <v>1.4939301170797989</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="1"/>
-        <v>1.8407484345189005</v>
+        <v>1.7421248302789536</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1335270346598918</v>
+        <v>1.5495760474223061</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>435</v>
+        <v>20</v>
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="1"/>
-        <v>1.106186115993296</v>
+        <v>1.7257328615314691</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="1"/>
-        <v>1.4032587703313766</v>
+        <v>1.9168086051322462</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="1"/>
-        <v>1.6680102815889768</v>
+        <v>1.4567895254731411</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>436</v>
+        <v>21</v>
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="1"/>
-        <v>1.6443001971219928</v>
+        <v>1.0879858493353822</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="1"/>
-        <v>1.5206514419260202</v>
+        <v>1.9262642200510527</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="1"/>
-        <v>1.8304438667137219</v>
+        <v>1.8879881252451014</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>443</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>440</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>441</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>442</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/doc/Manuscript/data/memory.xlsx
+++ b/doc/Manuscript/data/memory.xlsx
@@ -64,6 +64,1234 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="456">
   <si>
+    <t>MultiSource/Benchmarks/ASCI_Purple/SMG2000/smg2000</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/tramp3d-v4/tramp3d-v4</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Trimaran/enc-rc4/enc-rc4</t>
+  </si>
+  <si>
+    <t>MultiSource/Applications/lambda-0.1.3/lambda</t>
+  </si>
+  <si>
+    <t>MultiSource/Applications/SIBsim4/SIBsim4</t>
+  </si>
+  <si>
+    <t>MultiSource/Applications/ClamAV/clamscan</t>
+  </si>
+  <si>
+    <t>MultiSource/Applications/sgefa/sgefa</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/MiBench/consumer-lame/consumer-lame</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/MiBench/automotive-bitcount/automotive-bitcount</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/MiBench/consumer-jpeg/consumer-jpeg</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/MiBench/office-ispell/office-ispell</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/MiBench/security-rijndael/security-rijndael</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/NPB-serial/is/is</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/FreeBench/distray/distray</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/FreeBench/fourinarow/fourinarow</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/FreeBench/pifft/pifft</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/FreeBench/pcompress2/pcompress2</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/FreeBench/analyzer/analyzer</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/FreeBench/mason/mason</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/FreeBench/neural/neural</t>
+  </si>
+  <si>
+    <t>Time(secs)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Memory(bytes)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Benchmark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time(ms)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>External/SPEC/CFP2006/447.dealII/447.dealII</t>
+  </si>
+  <si>
+    <t>External/SPEC/CINT2006/464.h264ref/464.h264ref</t>
+  </si>
+  <si>
+    <t>External/SPEC/CINT2006/473.astar/473.astar</t>
+  </si>
+  <si>
+    <t>External/SPEC/CINT2006/483.xalancbmk/483.xalancbmk</t>
+  </si>
+  <si>
+    <t>External/SPEC/CINT2006/458.sjeng/458.sjeng</t>
+  </si>
+  <si>
+    <t>External/SPEC/CINT2006/429.mcf/429.mcf</t>
+  </si>
+  <si>
+    <t>External/SPEC/CINT2006/471.omnetpp/471.omnetpp</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/McCat/08-main/main</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/McCat/05-eks/eks</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/McCat/15-trie/trie</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/McCat/03-testtrie/testtrie</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/McCat/09-vor/vor</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/McCat/01-qbsort/qbsort</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/McCat/18-imp/imp</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/McCat/12-IOtest/iotest</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/McCat/04-bisect/bisect</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Olden/tsp/tsp</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Olden/health/health</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Olden/mst/mst</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Olden/perimeter/perimeter</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Olden/bh/bh</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Olden/voronoi/voronoi</t>
+  </si>
+  <si>
+    <t>External/SPEC/CINT2006/401.bzip2/401.bzip2</t>
+  </si>
+  <si>
+    <t>External/SPEC/CINT2006/456.hmmer/456.hmmer</t>
+  </si>
+  <si>
+    <t>Benchmark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vars</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Prolangs-C++/vcirc/vcirc</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Prolangs-C++/garage/garage</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Prolangs-C++/family/family</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Prolangs-C++/trees/trees</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Prolangs-C++/deriv2/deriv2</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Prolangs-C++/objects/objects</t>
+  </si>
+  <si>
+    <t>MultiSource/Applications/treecc/treecc</t>
+  </si>
+  <si>
+    <t>MultiSource/Applications/SPASS/SPASS</t>
+  </si>
+  <si>
+    <t>MultiSource/Applications/JM/lencod/lencod</t>
+  </si>
+  <si>
+    <t>MultiSource/Applications/JM/ldecod/ldecod</t>
+  </si>
+  <si>
+    <t>MultiSource/Applications/hexxagon/hexxagon</t>
+  </si>
+  <si>
+    <t>MultiSource/Applications/hbd/hbd</t>
+  </si>
+  <si>
+    <t>MultiSource/Applications/oggenc/oggenc</t>
+  </si>
+  <si>
+    <t>MultiSource/Applications/minisat/minisat</t>
+  </si>
+  <si>
+    <t>MultiSource/Applications/lua/lua</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Prolangs-C++/ocean/ocean</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Prolangs-C++/life/life</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Prolangs-C++/city/city</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Prolangs-C++/NP/np</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Prolangs-C++/fsm/fsm</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Prolangs-C++/employ/employ</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Prolangs-C++/office/office</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Prolangs-C++/primes/primes</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Adobe-C++/simple_types_loop_invariant</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Adobe-C++/loop_unroll</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/CoyoteBench/lpbench</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/CoyoteBench/huffbench</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/CoyoteBench/fftbench</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/CoyoteBench/almabench</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Dhrystone/dry</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Dhrystone/fldry</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/mediabench/adpcm/rawdaudio/rawdaudio</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/mediabench/adpcm/rawcaudio/rawcaudio</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/mediabench/g721/g721encode/encode</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/mediabench/mpeg2/mpeg2dec/mpeg2decode</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Fhourstones/fhourstones</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Bullet/bullet</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/sim/sim</t>
+  </si>
+  <si>
+    <t>MultiSource/Applications/sqlite3/sqlite3</t>
+  </si>
+  <si>
+    <t>MultiSource/Applications/lemon/lemon</t>
+  </si>
+  <si>
+    <t>MultiSource/Applications/siod/siod</t>
+  </si>
+  <si>
+    <t>MultiSource/Applications/kimwitu++/kc</t>
+  </si>
+  <si>
+    <t>MultiSource/Applications/spiff/spiff</t>
+  </si>
+  <si>
+    <t>MultiSource/Applications/Burg/burg</t>
+  </si>
+  <si>
+    <t>External/SPEC/CFP2006/470.lbm/470.lbm</t>
+  </si>
+  <si>
+    <t>External/SPEC/CFP2006/433.milc/433.milc</t>
+  </si>
+  <si>
+    <t>External/SPEC/CFP2006/444.namd/444.namd</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Prolangs-C/unix-tbl/unix-tbl</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Prolangs-C/plot2fig/plot2fig</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Prolangs-C/agrep/agrep</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Prolangs-C/fixoutput/fixoutput</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Prolangs-C/cdecl/cdecl</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Prolangs-C/loader/loader</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Prolangs-C/football/football</t>
+  </si>
+  <si>
+    <t>External/SPEC/CINT2006/403.gcc/403.gcc</t>
+  </si>
+  <si>
+    <t>External/SPEC/CINT2006/445.gobmk/445.gobmk</t>
+  </si>
+  <si>
+    <t>External/SPEC/CINT2006/462.libquantum/462.libquantum</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Prolangs-C++/simul/simul</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Prolangs-C++/deriv1/deriv1</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Prolangs-C++/shapes/shapes</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/ASC_Sequoia/AMGmk/AMGmk</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/McCat/17-bintr/bintr</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Shootout-C++/hash</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Shootout-C++/reversefile</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Shootout-C++/methcall</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Shootout-C++/ary3</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Shootout-C++/sieve</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Shootout-C++/random</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Shootout-C++/objinst</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Shootout-C++/sumcol</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Shootout-C++/moments</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Shootout-C++/strcat</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Shootout-C++/except</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Shootout-C++/ary2</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Shootout-C++/matrix</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Shootout-C++/wc</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Olden/treeadd/treeadd</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Olden/em3d/em3d</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Trimaran/netbench-url/netbench-url</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Trimaran/enc-pc1/enc-pc1</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Trimaran/netbench-crc/netbench-crc</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Trimaran/enc-3des/enc-3des</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Trimaran/enc-md5/enc-md5</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/llubenchmark/llu</t>
+  </si>
+  <si>
+    <t>MultiSource/Applications/obsequi/Obsequi</t>
+  </si>
+  <si>
+    <t>MultiSource/Applications/d/make_dparser</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/MiBench/office-stringsearch/office-stringsearch</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/MiBench/network-dijkstra/network-dijkstra</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/MiBench/automotive-susan/automotive-susan</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/MiBench/automotive-basicmath/automotive-basicmath</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/MiBench/telecomm-gsm/telecomm-gsm</t>
+  </si>
+  <si>
+    <t>MultiSource/Applications/aha/aha</t>
+  </si>
+  <si>
+    <t>MultiSource/Applications/viterbi/viterbi</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/MiBench/telecomm-CRC32/telecomm-CRC32</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/MiBench/security-blowfish/security-blowfish</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Adobe-C++/simple_types_constant_folding</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Adobe-C++/stepanov_abstraction</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Adobe-C++/functionobjects</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Misc/mandel</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Misc/oourafft</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Misc/flops</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Misc/flops-2</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Misc/flops-1</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Misc/whetstone</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Misc/fp-convert</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Misc/richards_benchmark</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Misc/ffbench</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Shootout/lists</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Shootout/ackermann</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Shootout/fib2</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Shootout/nestedloop</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Shootout/hash</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Shootout/methcall</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Shootout/ary3</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/mediabench/gsm/toast/toast</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Prolangs-C/archie-client/archie</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Prolangs-C/allroots/allroots</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Prolangs-C/compiler/compiler</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Prolangs-C/gnugo/gnugo</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Prolangs-C/unix-smail/unix-smail</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Prolangs-C/simulator/simulator</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Prolangs-C/assembler/assembler</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Prolangs-C/bison/mybison</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/VersaBench/8b10b/8b10b</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/VersaBench/ecbdes/ecbdes</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/VersaBench/beamformer/beamformer</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/VersaBench/bmm/bmm</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/SciMark2-C/scimark2</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/MallocBench/gs/gs</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/MallocBench/cfrac/cfrac</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Prolangs-C/TimberWolfMC/timberwolfmc</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/MallocBench/espresso/espresso</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/ASC_Sequoia/IRSmk/IRSmk</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/ASC_Sequoia/CrystalMk/CrystalMk</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Shootout-C++/ackermann</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Shootout-C++/nestedloop</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Shootout-C++/wordfreq</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2002-04-17-PrintfChar</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2003-07-09-LoadShorts</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2002-05-02-CastTest1</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/TestLoop</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2006-12-07-Compare64BitConstant</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2009-12-07-StructReturn</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2003-05-07-VarArgs</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/printargs</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2003-09-18-BitFieldTest</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2006-12-11-LoadConstants</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2003-04-22-Switch</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2002-05-02-ArgumentTest</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2004-11-28-GlobalBoolLayout</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Shootout-C++/heapsort</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Olden/power/power</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Olden/bisort/bisort</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/mafft/pairlocalalign</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Fhourstones-3.1/fhourstones3.1</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/PAQ8p/paq8p</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/MiBench/telecomm-FFT/telecomm-fft</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/MiBench/telecomm-adpcm/telecomm-adpcm</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/MiBench/network-patricia/network-patricia</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/MiBench/consumer-typeset/consumer-typeset</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Misc-C++/Large/ray</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Misc-C++/stepanov_container</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Misc-C++/mandel-text</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Misc-C++/oopack_v1p8</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Misc-C++/bigfib</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Misc-C++/stepanov_v1p2</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/McGill/queens</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/McGill/exptree</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/MiBench/security-sha/security-sha</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/McGill/misr</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/McGill/chomp</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Adobe-C++/stepanov_vector</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Misc/salsa20</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Misc/mandel-2</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Misc/pi</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Misc/himenobmtxpa</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/member-function-pointers</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/FloatPrecision</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2003-10-29-ScalarReplBug</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2007-01-04-KNR-Args</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2004-06-20-StaticBitfieldInit</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2008-04-18-LoopBug</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/DefaultInitDynArrays</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2005-05-13-SDivTwo</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2003-08-11-VaListArg</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2003-07-10-SignConversions</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2002-05-02-ManyArguments</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2006-12-04-DynAllocAndRestore</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Shootout/sieve</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/mediabench/jpeg/jpeg-6a/cjpeg</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/BitBench/five11/five11</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/BitBench/uuencode/uuencode</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/BitBench/drop3/drop3</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/BitBench/uudecode/uudecode</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Ptrdist/yacr2/yacr2</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Ptrdist/ks/ks</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Ptrdist/anagram/anagram</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Ptrdist/ft/ft</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/Ptrdist/bc/bc</t>
+  </si>
+  <si>
+    <t>MultiSource/Benchmarks/VersaBench/dbms/dbms</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Stanford/Bubblesort</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Stanford/RealMM</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Stanford/Puzzle</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Stanford/Treesort</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Shootout-C++/ary</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Shootout-C++/lists1</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Shootout-C++/hash2</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Shootout-C++/lists</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Shootout-C++/hello</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Shootout-C++/fibo</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Shootout-C++/spellcheck</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2005-07-15-Bitfield-ABI</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2007-04-25-weak</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2005-11-29-LongSwitch</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2008-04-20-LoopBug2</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/AtomicOps</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C/sumarray2d</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C/DuffsDevice</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C/2003-05-21-UnionTest</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C/callargs</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C/2005-05-06-LongLongSignedShift</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C/badidx</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C/2004-03-15-IndirectGoto</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C/2003-05-21-UnionBitfields</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C/globalrefs</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C/pointer_arithmetic</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C/2003-05-21-BitfieldHandling</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C/PR1386</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C/casts</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2003-07-09-SignedArgs</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Misc-C++-EH/spirit</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/BenchmarkGame/Large/fasta</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/BenchmarkGame/partialsums</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/BenchmarkGame/n-body</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/BenchmarkGame/nsieve-bits</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/BenchmarkGame/spectral-norm</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/BenchmarkGame/fannkuch</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/BenchmarkGame/recursive</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/BenchmarkGame/puzzle</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Misc-C++/Large/sphereflake</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/Threads/tls</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Misc/perlin</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Misc/flops-3</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Misc/ReedSolomon</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Misc/flops-7</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Misc/flops-4</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Misc/fbench</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Misc/flops-5</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Misc/flops-6</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Misc/dt</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Misc/flops-8</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Misc/lowercase</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2003-05-31-LongShifts</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/byval-alignment</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2009-04-16-BitfieldInitialization</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2002-05-03-NotTest</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2002-10-09-ArrayResolution</t>
+  </si>
+  <si>
+    <t>RangeAnalysis</t>
+  </si>
+  <si>
+    <t>BuildGraph</t>
+  </si>
+  <si>
+    <t>Nuutila</t>
+  </si>
+  <si>
+    <t>SCCs resolution</t>
+  </si>
+  <si>
+    <t>ComputeStats</t>
+  </si>
+  <si>
+    <t>Memory</t>
+  </si>
+  <si>
+    <t>|</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C++/2008-01-29-ParamAliasesReturn</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C++/pointer_method2</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C++/BuiltinTypeInfo</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C++/2011-03-28-Bitfield</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C++/2003-05-14-array-init</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C++/2003-06-08-VirtualFunctions</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C++/2003-06-13-Crasher</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C++/ofstream_ctor</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C++/pointer_method</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/initp1</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Shootout/random</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Shootout/objinst</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Shootout/strcat</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Shootout/matrix</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Shootout/heapsort</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Stanford/Towers</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Stanford/Queens</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Stanford/FloatMM</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Stanford/Perm</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Stanford/IntMM</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Stanford/Oscar</t>
+  </si>
+  <si>
+    <t>SingleSource/Benchmarks/Stanford/Quicksort</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/StructModifyTest</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2003-07-08-BitOpsTest</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2005-07-17-INT-To-FP</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2003-05-02-DependentPHI</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2005-05-11-Popcount-ffs-fls</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2002-05-02-CastTest2</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2002-05-02-CastTest</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2008-07-13-InlineSetjmp</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/conditional-gnu-ext-cxx</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2003-05-26-Shorts</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2003-05-31-CastToBool</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C/2004-02-03-AggregateCopy</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C/testtrace</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C/2004-08-12-InlinerAndAllocas</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C/matrixTranspose</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C/2003-05-23-TransparentUnion</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C++/EH/ctor_dtor_count-2</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C++/EH/simple_rethrow</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C++/EH/simple_throw</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C++/EH/throw_rethrow_test</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C++/EH/dead_try_block</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C++/EH/inlined_cleanup</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C++/EH/ctor_dtor_count</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C/uint64_to_float</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C/2003-05-22-LocalTypeTest</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C/sumarray</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C/2003-05-22-VarSizeArray</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C/PR640</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2006-01-23-UnionInit</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2002-05-19-DivTest</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2002-08-02-CastTest2</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2010-05-24-BitfieldTest</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2004-02-02-NegativeZero</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2002-05-02-CastTest3</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2003-10-13-SwitchTest</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2005-05-12-Int64ToFP</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2002-10-12-StructureArgs</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/stmtexpr</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/Threads/2010-12-08-tls</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C/PR491</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C/test_indvars</t>
+  </si>
+  <si>
+    <t>Memory (KB)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C/bigstack</t>
+  </si>
+  <si>
+    <t>SingleSource/Regression/C/sumarraymalloc</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/SignlessTypes/Large/cast</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/SignlessTypes/rem</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/SignlessTypes/cast2</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/SignlessTypes/shr</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/SignlessTypes/div</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/Vector/SSE/sse.expandfft</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/Vector/SSE/sse.isamax</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/conditional-gnu-ext</t>
+  </si>
+  <si>
+    <t>SingleSource/UnitTests/2006-02-04-DivRem</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Oprs</t>
+  </si>
+  <si>
+    <t>Vars</t>
+  </si>
+  <si>
+    <t>unk</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>cinf</t>
+  </si>
+  <si>
+    <t>cc</t>
+  </si>
+  <si>
+    <t>infc</t>
+  </si>
+  <si>
+    <t>maxrange</t>
+  </si>
+  <si>
+    <t>Insts</t>
+  </si>
+  <si>
+    <t>Init</t>
+  </si>
+  <si>
+    <t>Needed</t>
+  </si>
+  <si>
+    <t>Pct</t>
+  </si>
+  <si>
+    <t>SCCs</t>
+  </si>
+  <si>
+    <t>SCCs 1</t>
+  </si>
+  <si>
+    <t>largestSCC</t>
+  </si>
+  <si>
+    <t>maxvisited</t>
+  </si>
+  <si>
+    <t>vSSA</t>
+  </si>
+  <si>
     <t>SingleSource/UnitTests/SignlessTypes/factor</t>
   </si>
   <si>
@@ -226,1234 +1454,6 @@
   </si>
   <si>
     <t>SingleSource/Regression/C++/EH/exception_spec_test</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C++/EH/ctor_dtor_count-2</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C++/EH/simple_rethrow</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C++/EH/simple_throw</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C++/EH/throw_rethrow_test</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C++/EH/dead_try_block</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C++/EH/inlined_cleanup</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C++/EH/ctor_dtor_count</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C/uint64_to_float</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C/2003-05-22-LocalTypeTest</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C/sumarray</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C/2003-05-22-VarSizeArray</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C/PR640</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2006-01-23-UnionInit</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2002-05-19-DivTest</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2002-08-02-CastTest2</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2010-05-24-BitfieldTest</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2004-02-02-NegativeZero</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2002-05-02-CastTest3</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2003-10-13-SwitchTest</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2005-05-12-Int64ToFP</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2002-10-12-StructureArgs</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/stmtexpr</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/Threads/2010-12-08-tls</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C/PR491</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C/test_indvars</t>
-  </si>
-  <si>
-    <t>Memory (KB)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C/bigstack</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C/sumarraymalloc</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/SignlessTypes/Large/cast</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/SignlessTypes/rem</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/SignlessTypes/cast2</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/SignlessTypes/shr</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/SignlessTypes/div</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/Vector/SSE/sse.expandfft</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/Vector/SSE/sse.isamax</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/conditional-gnu-ext</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2006-02-04-DivRem</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Oprs</t>
-  </si>
-  <si>
-    <t>Vars</t>
-  </si>
-  <si>
-    <t>unk</t>
-  </si>
-  <si>
-    <t>empty</t>
-  </si>
-  <si>
-    <t>cinf</t>
-  </si>
-  <si>
-    <t>cc</t>
-  </si>
-  <si>
-    <t>infc</t>
-  </si>
-  <si>
-    <t>maxrange</t>
-  </si>
-  <si>
-    <t>Insts</t>
-  </si>
-  <si>
-    <t>Init</t>
-  </si>
-  <si>
-    <t>Needed</t>
-  </si>
-  <si>
-    <t>Pct</t>
-  </si>
-  <si>
-    <t>SCCs</t>
-  </si>
-  <si>
-    <t>SCCs 1</t>
-  </si>
-  <si>
-    <t>largestSCC</t>
-  </si>
-  <si>
-    <t>maxvisited</t>
-  </si>
-  <si>
-    <t>vSSA</t>
-  </si>
-  <si>
-    <t>RangeAnalysis</t>
-  </si>
-  <si>
-    <t>BuildGraph</t>
-  </si>
-  <si>
-    <t>Nuutila</t>
-  </si>
-  <si>
-    <t>SCCs resolution</t>
-  </si>
-  <si>
-    <t>ComputeStats</t>
-  </si>
-  <si>
-    <t>Memory</t>
-  </si>
-  <si>
-    <t>|</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C++/2008-01-29-ParamAliasesReturn</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C++/pointer_method2</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C++/BuiltinTypeInfo</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C++/2011-03-28-Bitfield</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C++/2003-05-14-array-init</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C++/2003-06-08-VirtualFunctions</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C++/2003-06-13-Crasher</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C++/ofstream_ctor</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C++/pointer_method</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/initp1</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Shootout/random</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Shootout/objinst</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Shootout/strcat</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Shootout/matrix</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Shootout/heapsort</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Stanford/Towers</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Stanford/Queens</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Stanford/FloatMM</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Stanford/Perm</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Stanford/IntMM</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Stanford/Oscar</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Stanford/Quicksort</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/StructModifyTest</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2003-07-08-BitOpsTest</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2005-07-17-INT-To-FP</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2003-05-02-DependentPHI</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2005-05-11-Popcount-ffs-fls</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2002-05-02-CastTest2</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2002-05-02-CastTest</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2008-07-13-InlineSetjmp</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/conditional-gnu-ext-cxx</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2003-05-26-Shorts</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2003-05-31-CastToBool</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C/2004-02-03-AggregateCopy</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C/testtrace</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C/2004-08-12-InlinerAndAllocas</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C/matrixTranspose</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C/2003-05-23-TransparentUnion</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C/sumarray2d</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C/DuffsDevice</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C/2003-05-21-UnionTest</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C/callargs</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C/2005-05-06-LongLongSignedShift</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C/badidx</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C/2004-03-15-IndirectGoto</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C/2003-05-21-UnionBitfields</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C/globalrefs</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C/pointer_arithmetic</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C/2003-05-21-BitfieldHandling</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C/PR1386</t>
-  </si>
-  <si>
-    <t>SingleSource/Regression/C/casts</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2003-07-09-SignedArgs</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Misc-C++-EH/spirit</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/BenchmarkGame/Large/fasta</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/BenchmarkGame/partialsums</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/BenchmarkGame/n-body</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/BenchmarkGame/nsieve-bits</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/BenchmarkGame/spectral-norm</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/BenchmarkGame/fannkuch</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/BenchmarkGame/recursive</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/BenchmarkGame/puzzle</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Misc-C++/Large/sphereflake</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/Threads/tls</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Misc/perlin</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Misc/flops-3</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Misc/ReedSolomon</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Misc/flops-7</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Misc/flops-4</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Misc/fbench</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Misc/flops-5</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Misc/flops-6</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Misc/dt</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Misc/flops-8</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Misc/lowercase</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2003-05-31-LongShifts</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/byval-alignment</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2009-04-16-BitfieldInitialization</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2002-05-03-NotTest</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2002-10-09-ArrayResolution</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/member-function-pointers</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/FloatPrecision</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2003-10-29-ScalarReplBug</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2007-01-04-KNR-Args</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2004-06-20-StaticBitfieldInit</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2008-04-18-LoopBug</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/DefaultInitDynArrays</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2005-05-13-SDivTwo</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2003-08-11-VaListArg</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2003-07-10-SignConversions</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2002-05-02-ManyArguments</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2006-12-04-DynAllocAndRestore</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Shootout/sieve</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/mediabench/jpeg/jpeg-6a/cjpeg</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/BitBench/five11/five11</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/BitBench/uuencode/uuencode</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/BitBench/drop3/drop3</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/BitBench/uudecode/uudecode</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Ptrdist/yacr2/yacr2</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Ptrdist/ks/ks</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Ptrdist/anagram/anagram</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Ptrdist/ft/ft</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Ptrdist/bc/bc</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/VersaBench/dbms/dbms</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Stanford/Bubblesort</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Stanford/RealMM</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Stanford/Puzzle</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Stanford/Treesort</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Shootout-C++/ary</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Shootout-C++/lists1</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Shootout-C++/hash2</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Shootout-C++/lists</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Shootout-C++/hello</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Shootout-C++/fibo</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Shootout-C++/spellcheck</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2005-07-15-Bitfield-ABI</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2007-04-25-weak</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2005-11-29-LongSwitch</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2008-04-20-LoopBug2</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/AtomicOps</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2002-04-17-PrintfChar</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2003-07-09-LoadShorts</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2002-05-02-CastTest1</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/TestLoop</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2006-12-07-Compare64BitConstant</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2009-12-07-StructReturn</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2003-05-07-VarArgs</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/printargs</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2003-09-18-BitFieldTest</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2006-12-11-LoadConstants</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2003-04-22-Switch</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2002-05-02-ArgumentTest</t>
-  </si>
-  <si>
-    <t>SingleSource/UnitTests/2004-11-28-GlobalBoolLayout</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Shootout-C++/heapsort</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Olden/power/power</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Olden/bisort/bisort</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/mafft/pairlocalalign</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Fhourstones-3.1/fhourstones3.1</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/PAQ8p/paq8p</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/MiBench/telecomm-FFT/telecomm-fft</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/MiBench/telecomm-adpcm/telecomm-adpcm</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/MiBench/network-patricia/network-patricia</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/MiBench/consumer-typeset/consumer-typeset</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Misc-C++/Large/ray</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Misc-C++/stepanov_container</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Misc-C++/mandel-text</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Misc-C++/oopack_v1p8</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Misc-C++/bigfib</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Misc-C++/stepanov_v1p2</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/McGill/queens</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/McGill/exptree</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/MiBench/security-sha/security-sha</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/McGill/misr</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/McGill/chomp</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Adobe-C++/stepanov_vector</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Misc/salsa20</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Misc/mandel-2</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Misc/pi</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Misc/himenobmtxpa</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Misc/mandel</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Misc/oourafft</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Misc/flops</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Misc/flops-2</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Misc/flops-1</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Misc/whetstone</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Misc/fp-convert</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Misc/richards_benchmark</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Misc/ffbench</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Shootout/lists</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Shootout/ackermann</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Shootout/fib2</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Shootout/nestedloop</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Shootout/hash</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Shootout/methcall</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Shootout/ary3</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/mediabench/gsm/toast/toast</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Prolangs-C/archie-client/archie</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Prolangs-C/allroots/allroots</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Prolangs-C/compiler/compiler</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Prolangs-C/gnugo/gnugo</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Prolangs-C/unix-smail/unix-smail</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Prolangs-C/simulator/simulator</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Prolangs-C/assembler/assembler</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Prolangs-C/bison/mybison</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/VersaBench/8b10b/8b10b</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/VersaBench/ecbdes/ecbdes</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/VersaBench/beamformer/beamformer</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/VersaBench/bmm/bmm</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/SciMark2-C/scimark2</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/MallocBench/gs/gs</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/MallocBench/cfrac/cfrac</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Prolangs-C/TimberWolfMC/timberwolfmc</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/MallocBench/espresso/espresso</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/ASC_Sequoia/IRSmk/IRSmk</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/ASC_Sequoia/CrystalMk/CrystalMk</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Shootout-C++/ackermann</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Shootout-C++/nestedloop</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Shootout-C++/wordfreq</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Shootout-C++/hash</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Shootout-C++/reversefile</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Shootout-C++/methcall</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Shootout-C++/ary3</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Shootout-C++/sieve</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Shootout-C++/random</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Shootout-C++/objinst</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Shootout-C++/sumcol</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Shootout-C++/moments</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Shootout-C++/strcat</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Shootout-C++/except</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Shootout-C++/ary2</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Shootout-C++/matrix</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Shootout-C++/wc</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Olden/treeadd/treeadd</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Olden/em3d/em3d</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Trimaran/netbench-url/netbench-url</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Trimaran/enc-pc1/enc-pc1</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Trimaran/netbench-crc/netbench-crc</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Trimaran/enc-3des/enc-3des</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Trimaran/enc-md5/enc-md5</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/llubenchmark/llu</t>
-  </si>
-  <si>
-    <t>MultiSource/Applications/obsequi/Obsequi</t>
-  </si>
-  <si>
-    <t>MultiSource/Applications/d/make_dparser</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/MiBench/office-stringsearch/office-stringsearch</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/MiBench/network-dijkstra/network-dijkstra</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/MiBench/automotive-susan/automotive-susan</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/MiBench/automotive-basicmath/automotive-basicmath</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/MiBench/telecomm-gsm/telecomm-gsm</t>
-  </si>
-  <si>
-    <t>MultiSource/Applications/aha/aha</t>
-  </si>
-  <si>
-    <t>MultiSource/Applications/viterbi/viterbi</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/MiBench/telecomm-CRC32/telecomm-CRC32</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/MiBench/security-blowfish/security-blowfish</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Adobe-C++/simple_types_constant_folding</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Adobe-C++/stepanov_abstraction</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Adobe-C++/functionobjects</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Adobe-C++/simple_types_loop_invariant</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Adobe-C++/loop_unroll</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/CoyoteBench/lpbench</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/CoyoteBench/huffbench</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/CoyoteBench/fftbench</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/CoyoteBench/almabench</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Dhrystone/dry</t>
-  </si>
-  <si>
-    <t>SingleSource/Benchmarks/Dhrystone/fldry</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/mediabench/adpcm/rawdaudio/rawdaudio</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/mediabench/adpcm/rawcaudio/rawcaudio</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/mediabench/g721/g721encode/encode</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/mediabench/mpeg2/mpeg2dec/mpeg2decode</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Fhourstones/fhourstones</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Bullet/bullet</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/sim/sim</t>
-  </si>
-  <si>
-    <t>MultiSource/Applications/sqlite3/sqlite3</t>
-  </si>
-  <si>
-    <t>MultiSource/Applications/lemon/lemon</t>
-  </si>
-  <si>
-    <t>MultiSource/Applications/siod/siod</t>
-  </si>
-  <si>
-    <t>MultiSource/Applications/kimwitu++/kc</t>
-  </si>
-  <si>
-    <t>MultiSource/Applications/spiff/spiff</t>
-  </si>
-  <si>
-    <t>MultiSource/Applications/Burg/burg</t>
-  </si>
-  <si>
-    <t>External/SPEC/CFP2006/470.lbm/470.lbm</t>
-  </si>
-  <si>
-    <t>External/SPEC/CFP2006/433.milc/433.milc</t>
-  </si>
-  <si>
-    <t>External/SPEC/CFP2006/444.namd/444.namd</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Prolangs-C/unix-tbl/unix-tbl</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Prolangs-C/plot2fig/plot2fig</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Prolangs-C/agrep/agrep</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Prolangs-C/fixoutput/fixoutput</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Prolangs-C/cdecl/cdecl</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Prolangs-C/loader/loader</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Prolangs-C/football/football</t>
-  </si>
-  <si>
-    <t>External/SPEC/CINT2006/403.gcc/403.gcc</t>
-  </si>
-  <si>
-    <t>External/SPEC/CINT2006/445.gobmk/445.gobmk</t>
-  </si>
-  <si>
-    <t>External/SPEC/CINT2006/462.libquantum/462.libquantum</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Prolangs-C++/simul/simul</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Prolangs-C++/deriv1/deriv1</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Prolangs-C++/shapes/shapes</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/ASC_Sequoia/AMGmk/AMGmk</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/McCat/17-bintr/bintr</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/McCat/08-main/main</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/McCat/05-eks/eks</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/McCat/15-trie/trie</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/McCat/03-testtrie/testtrie</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/McCat/09-vor/vor</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/McCat/01-qbsort/qbsort</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/McCat/18-imp/imp</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/McCat/12-IOtest/iotest</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/McCat/04-bisect/bisect</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Olden/tsp/tsp</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Olden/health/health</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Olden/mst/mst</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Olden/perimeter/perimeter</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Olden/bh/bh</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Olden/voronoi/voronoi</t>
-  </si>
-  <si>
-    <t>External/SPEC/CINT2006/401.bzip2/401.bzip2</t>
-  </si>
-  <si>
-    <t>External/SPEC/CINT2006/456.hmmer/456.hmmer</t>
-  </si>
-  <si>
-    <t>Benchmark</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Vars</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Prolangs-C++/vcirc/vcirc</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Prolangs-C++/garage/garage</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Prolangs-C++/family/family</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Prolangs-C++/trees/trees</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Prolangs-C++/deriv2/deriv2</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Prolangs-C++/objects/objects</t>
-  </si>
-  <si>
-    <t>MultiSource/Applications/treecc/treecc</t>
-  </si>
-  <si>
-    <t>MultiSource/Applications/SPASS/SPASS</t>
-  </si>
-  <si>
-    <t>MultiSource/Applications/JM/lencod/lencod</t>
-  </si>
-  <si>
-    <t>MultiSource/Applications/JM/ldecod/ldecod</t>
-  </si>
-  <si>
-    <t>MultiSource/Applications/hexxagon/hexxagon</t>
-  </si>
-  <si>
-    <t>MultiSource/Applications/hbd/hbd</t>
-  </si>
-  <si>
-    <t>MultiSource/Applications/oggenc/oggenc</t>
-  </si>
-  <si>
-    <t>MultiSource/Applications/minisat/minisat</t>
-  </si>
-  <si>
-    <t>MultiSource/Applications/lua/lua</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Prolangs-C++/ocean/ocean</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Prolangs-C++/life/life</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Prolangs-C++/city/city</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Prolangs-C++/NP/np</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Prolangs-C++/fsm/fsm</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Prolangs-C++/employ/employ</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Prolangs-C++/office/office</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Prolangs-C++/primes/primes</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/ASCI_Purple/SMG2000/smg2000</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/tramp3d-v4/tramp3d-v4</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/Trimaran/enc-rc4/enc-rc4</t>
-  </si>
-  <si>
-    <t>MultiSource/Applications/lambda-0.1.3/lambda</t>
-  </si>
-  <si>
-    <t>MultiSource/Applications/SIBsim4/SIBsim4</t>
-  </si>
-  <si>
-    <t>MultiSource/Applications/ClamAV/clamscan</t>
-  </si>
-  <si>
-    <t>MultiSource/Applications/sgefa/sgefa</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/MiBench/consumer-lame/consumer-lame</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/MiBench/automotive-bitcount/automotive-bitcount</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/MiBench/consumer-jpeg/consumer-jpeg</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/MiBench/office-ispell/office-ispell</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/MiBench/security-rijndael/security-rijndael</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/NPB-serial/is/is</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/FreeBench/distray/distray</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/FreeBench/fourinarow/fourinarow</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/FreeBench/pifft/pifft</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/FreeBench/pcompress2/pcompress2</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/FreeBench/analyzer/analyzer</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/FreeBench/mason/mason</t>
-  </si>
-  <si>
-    <t>MultiSource/Benchmarks/FreeBench/neural/neural</t>
-  </si>
-  <si>
-    <t>Time(secs)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Memory(bytes)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Benchmark</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Time(ms)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>External/SPEC/CFP2006/447.dealII/447.dealII</t>
-  </si>
-  <si>
-    <t>External/SPEC/CINT2006/464.h264ref/464.h264ref</t>
-  </si>
-  <si>
-    <t>External/SPEC/CINT2006/473.astar/473.astar</t>
-  </si>
-  <si>
-    <t>External/SPEC/CINT2006/483.xalancbmk/483.xalancbmk</t>
-  </si>
-  <si>
-    <t>External/SPEC/CINT2006/458.sjeng/458.sjeng</t>
-  </si>
-  <si>
-    <t>External/SPEC/CINT2006/429.mcf/429.mcf</t>
-  </si>
-  <si>
-    <t>External/SPEC/CINT2006/471.omnetpp/471.omnetpp</t>
   </si>
 </sst>
 </file>
@@ -1516,7 +1516,17 @@
   <c:style val="2"/>
   <c:chart>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.134099518810149"/>
+          <c:y val="0.0650887573964497"/>
+          <c:w val="0.815886701662292"/>
+          <c:h val="0.760066121542499"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:ser>
@@ -2831,11 +2841,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="505660184"/>
-        <c:axId val="505665688"/>
+        <c:axId val="467813752"/>
+        <c:axId val="467819256"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="505660184"/>
+        <c:axId val="467813752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -2843,12 +2853,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="505665688"/>
+        <c:crossAx val="467819256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="505665688"/>
+        <c:axId val="467819256"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -2857,14 +2867,23 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.E+00" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="505660184"/>
+        <c:crossAx val="467813752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.167077209098863"/>
+          <c:y val="0.0300936495364115"/>
+          <c:w val="0.360290026246719"/>
+          <c:h val="0.13558682383637"/>
+        </c:manualLayout>
+      </c:layout>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -2892,7 +2911,17 @@
   <c:style val="2"/>
   <c:chart>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.134099518810149"/>
+          <c:y val="0.0650887573964497"/>
+          <c:w val="0.815886701662292"/>
+          <c:h val="0.760066121542499"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:ser>
@@ -4206,11 +4235,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="505720072"/>
-        <c:axId val="505725688"/>
+        <c:axId val="467873640"/>
+        <c:axId val="467879256"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="505720072"/>
+        <c:axId val="467873640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -4218,12 +4247,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="505725688"/>
+        <c:crossAx val="467879256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="505725688"/>
+        <c:axId val="467879256"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -4233,14 +4262,23 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.E+00" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="505720072"/>
+        <c:crossAx val="467873640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15938188976378"/>
+          <c:y val="0.036010809299725"/>
+          <c:w val="0.475680446194226"/>
+          <c:h val="0.13558682383637"/>
+        </c:manualLayout>
+      </c:layout>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -4932,11 +4970,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="505762520"/>
-        <c:axId val="505767512"/>
+        <c:axId val="467916056"/>
+        <c:axId val="467921048"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="505762520"/>
+        <c:axId val="467916056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="98.0"/>
@@ -4946,12 +4984,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="505767512"/>
+        <c:crossAx val="467921048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="505767512"/>
+        <c:axId val="467921048"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -4961,7 +4999,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.E+00" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="505762520"/>
+        <c:crossAx val="467916056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5058,34 +5096,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.46767892794287</c:v>
+                  <c:v>1.554084540215626</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.543792327637675</c:v>
+                  <c:v>1.57930015803413</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.349720017886312</c:v>
+                  <c:v>1.882049241781715</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.483460408571773</c:v>
+                  <c:v>1.868874421522378</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.732095040691092</c:v>
+                  <c:v>1.700634984375938</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.489084588978585</c:v>
+                  <c:v>1.591847985814638</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.661288413065449</c:v>
+                  <c:v>1.011987932388365</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.493930117079799</c:v>
+                  <c:v>1.678673741721468</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.72573286153147</c:v>
+                  <c:v>1.041165743277816</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.087985849335382</c:v>
+                  <c:v>1.202980071418096</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5150,34 +5188,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.618478082627007</c:v>
+                  <c:v>1.595916773660974</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.43885585431417</c:v>
+                  <c:v>1.724932621921653</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.256069239470889</c:v>
+                  <c:v>1.333554604781057</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.9273937815924</c:v>
+                  <c:v>1.371494627217544</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.232914135018291</c:v>
+                  <c:v>1.82887818663221</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.226992541509389</c:v>
+                  <c:v>1.32737986049142</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.857933238514306</c:v>
+                  <c:v>1.832775569074329</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.742124830278954</c:v>
+                  <c:v>1.583358564202172</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.916808605132246</c:v>
+                  <c:v>1.991921018963694</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.926264220051053</c:v>
+                  <c:v>1.258518685689523</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5242,57 +5280,57 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.828595523282274</c:v>
+                  <c:v>1.340963014366935</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.374260794825204</c:v>
+                  <c:v>1.506549382294907</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.145570264755406</c:v>
+                  <c:v>1.885145637088499</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.976104899752499</c:v>
+                  <c:v>1.16230445213023</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.362950536648896</c:v>
+                  <c:v>1.261559027573639</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.651406805055558</c:v>
+                  <c:v>1.226044951117728</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.078252149700347</c:v>
+                  <c:v>1.850888450022467</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.549576047422306</c:v>
+                  <c:v>1.508727722595722</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.456789525473141</c:v>
+                  <c:v>1.037248670711051</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.887988125245101</c:v>
+                  <c:v>1.944921816888382</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="505782504"/>
-        <c:axId val="505785560"/>
+        <c:axId val="467936904"/>
+        <c:axId val="467939960"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="505782504"/>
+        <c:axId val="467936904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="505785560"/>
+        <c:crossAx val="467939960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="505785560"/>
+        <c:axId val="467939960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.0"/>
@@ -5302,7 +5340,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="505782504"/>
+        <c:crossAx val="467936904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5332,8 +5370,8 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5362,8 +5400,8 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>546100</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5780,84 +5818,84 @@
   <sheetData>
     <row r="1" spans="1:25">
       <c r="A1" t="s">
-        <v>86</v>
+        <v>389</v>
       </c>
       <c r="B1" t="s">
-        <v>87</v>
+        <v>390</v>
       </c>
       <c r="C1" t="s">
-        <v>88</v>
+        <v>391</v>
       </c>
       <c r="D1" t="s">
-        <v>89</v>
+        <v>392</v>
       </c>
       <c r="E1" t="s">
-        <v>90</v>
+        <v>393</v>
       </c>
       <c r="F1" t="s">
-        <v>91</v>
+        <v>394</v>
       </c>
       <c r="G1" t="s">
-        <v>92</v>
+        <v>395</v>
       </c>
       <c r="H1" t="s">
-        <v>93</v>
+        <v>396</v>
       </c>
       <c r="I1" t="s">
-        <v>94</v>
+        <v>397</v>
       </c>
       <c r="J1" t="s">
-        <v>95</v>
+        <v>398</v>
       </c>
       <c r="K1" t="s">
-        <v>96</v>
+        <v>399</v>
       </c>
       <c r="L1" t="s">
-        <v>97</v>
+        <v>400</v>
       </c>
       <c r="M1" t="s">
-        <v>98</v>
+        <v>401</v>
       </c>
       <c r="N1" t="s">
-        <v>99</v>
+        <v>402</v>
       </c>
       <c r="O1" t="s">
-        <v>100</v>
+        <v>403</v>
       </c>
       <c r="P1" t="s">
-        <v>101</v>
+        <v>404</v>
       </c>
       <c r="Q1" t="s">
-        <v>102</v>
+        <v>405</v>
       </c>
       <c r="R1" t="s">
-        <v>103</v>
+        <v>406</v>
       </c>
       <c r="S1" t="s">
-        <v>104</v>
+        <v>307</v>
       </c>
       <c r="T1" t="s">
-        <v>105</v>
+        <v>308</v>
       </c>
       <c r="U1" t="s">
-        <v>106</v>
+        <v>309</v>
       </c>
       <c r="V1" t="s">
-        <v>107</v>
+        <v>310</v>
       </c>
       <c r="W1" t="s">
-        <v>108</v>
+        <v>311</v>
       </c>
       <c r="X1" t="s">
-        <v>109</v>
+        <v>312</v>
       </c>
       <c r="Y1" t="s">
-        <v>110</v>
+        <v>313</v>
       </c>
     </row>
     <row r="2" spans="1:25">
       <c r="A2" t="s">
-        <v>117</v>
+        <v>320</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -5931,7 +5969,7 @@
     </row>
     <row r="3" spans="1:25">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>356</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -6005,7 +6043,7 @@
     </row>
     <row r="4" spans="1:25">
       <c r="A4" t="s">
-        <v>232</v>
+        <v>189</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -6079,7 +6117,7 @@
     </row>
     <row r="5" spans="1:25">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>449</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -6153,7 +6191,7 @@
     </row>
     <row r="6" spans="1:25">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>451</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -6227,7 +6265,7 @@
     </row>
     <row r="7" spans="1:25">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>447</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -6301,7 +6339,7 @@
     </row>
     <row r="8" spans="1:25">
       <c r="A8" t="s">
-        <v>226</v>
+        <v>262</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -6375,7 +6413,7 @@
     </row>
     <row r="9" spans="1:25">
       <c r="A9" t="s">
-        <v>65</v>
+        <v>368</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -6449,7 +6487,7 @@
     </row>
     <row r="10" spans="1:25">
       <c r="A10" t="s">
-        <v>71</v>
+        <v>374</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -6523,7 +6561,7 @@
     </row>
     <row r="11" spans="1:25">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>366</v>
       </c>
       <c r="B11">
         <v>3</v>
@@ -6597,7 +6635,7 @@
     </row>
     <row r="12" spans="1:25">
       <c r="A12" t="s">
-        <v>158</v>
+        <v>275</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -6671,7 +6709,7 @@
     </row>
     <row r="13" spans="1:25">
       <c r="A13" t="s">
-        <v>191</v>
+        <v>227</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -6745,7 +6783,7 @@
     </row>
     <row r="14" spans="1:25">
       <c r="A14" t="s">
-        <v>67</v>
+        <v>370</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -6819,7 +6857,7 @@
     </row>
     <row r="15" spans="1:25">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>354</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -6893,7 +6931,7 @@
     </row>
     <row r="16" spans="1:25">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>438</v>
       </c>
       <c r="B16">
         <v>2</v>
@@ -6967,7 +7005,7 @@
     </row>
     <row r="17" spans="1:24">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>443</v>
       </c>
       <c r="B17">
         <v>4</v>
@@ -7041,7 +7079,7 @@
     </row>
     <row r="18" spans="1:24">
       <c r="A18" t="s">
-        <v>153</v>
+        <v>270</v>
       </c>
       <c r="B18">
         <v>3</v>
@@ -7115,7 +7153,7 @@
     </row>
     <row r="19" spans="1:24">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>445</v>
       </c>
       <c r="B19">
         <v>3</v>
@@ -7189,7 +7227,7 @@
     </row>
     <row r="20" spans="1:24">
       <c r="A20" t="s">
-        <v>68</v>
+        <v>371</v>
       </c>
       <c r="B20">
         <v>4</v>
@@ -7263,7 +7301,7 @@
     </row>
     <row r="21" spans="1:24">
       <c r="A21" t="s">
-        <v>230</v>
+        <v>187</v>
       </c>
       <c r="B21">
         <v>5</v>
@@ -7337,7 +7375,7 @@
     </row>
     <row r="22" spans="1:24">
       <c r="A22" t="s">
-        <v>234</v>
+        <v>191</v>
       </c>
       <c r="B22">
         <v>3</v>
@@ -7411,7 +7449,7 @@
     </row>
     <row r="23" spans="1:24">
       <c r="A23" t="s">
-        <v>59</v>
+        <v>362</v>
       </c>
       <c r="B23">
         <v>4</v>
@@ -7485,7 +7523,7 @@
     </row>
     <row r="24" spans="1:24">
       <c r="A24" t="s">
-        <v>227</v>
+        <v>263</v>
       </c>
       <c r="B24">
         <v>3</v>
@@ -7559,7 +7597,7 @@
     </row>
     <row r="25" spans="1:24">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>347</v>
       </c>
       <c r="B25">
         <v>4</v>
@@ -7633,7 +7671,7 @@
     </row>
     <row r="26" spans="1:24">
       <c r="A26" t="s">
-        <v>186</v>
+        <v>303</v>
       </c>
       <c r="B26">
         <v>4</v>
@@ -7707,7 +7745,7 @@
     </row>
     <row r="27" spans="1:24">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>442</v>
       </c>
       <c r="B27">
         <v>4</v>
@@ -7781,7 +7819,7 @@
     </row>
     <row r="28" spans="1:24">
       <c r="A28" t="s">
-        <v>66</v>
+        <v>369</v>
       </c>
       <c r="B28">
         <v>5</v>
@@ -7855,7 +7893,7 @@
     </row>
     <row r="29" spans="1:24">
       <c r="A29" t="s">
-        <v>235</v>
+        <v>192</v>
       </c>
       <c r="B29">
         <v>4</v>
@@ -7929,7 +7967,7 @@
     </row>
     <row r="30" spans="1:24">
       <c r="A30" t="s">
-        <v>237</v>
+        <v>194</v>
       </c>
       <c r="B30">
         <v>5</v>
@@ -8003,7 +8041,7 @@
     </row>
     <row r="31" spans="1:24">
       <c r="A31" t="s">
-        <v>155</v>
+        <v>272</v>
       </c>
       <c r="B31">
         <v>6</v>
@@ -8077,7 +8115,7 @@
     </row>
     <row r="32" spans="1:24">
       <c r="A32" t="s">
-        <v>140</v>
+        <v>343</v>
       </c>
       <c r="B32">
         <v>5</v>
@@ -8151,7 +8189,7 @@
     </row>
     <row r="33" spans="1:24">
       <c r="A33" t="s">
-        <v>115</v>
+        <v>318</v>
       </c>
       <c r="B33">
         <v>5</v>
@@ -8225,7 +8263,7 @@
     </row>
     <row r="34" spans="1:24">
       <c r="A34" t="s">
-        <v>64</v>
+        <v>367</v>
       </c>
       <c r="B34">
         <v>5</v>
@@ -8299,7 +8337,7 @@
     </row>
     <row r="35" spans="1:24">
       <c r="A35" t="s">
-        <v>189</v>
+        <v>306</v>
       </c>
       <c r="B35">
         <v>5</v>
@@ -8373,7 +8411,7 @@
     </row>
     <row r="36" spans="1:24">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>444</v>
       </c>
       <c r="B36">
         <v>5</v>
@@ -8447,7 +8485,7 @@
     </row>
     <row r="37" spans="1:24">
       <c r="A37" t="s">
-        <v>236</v>
+        <v>193</v>
       </c>
       <c r="B37">
         <v>5</v>
@@ -8521,7 +8559,7 @@
     </row>
     <row r="38" spans="1:24">
       <c r="A38" t="s">
-        <v>197</v>
+        <v>233</v>
       </c>
       <c r="B38">
         <v>6</v>
@@ -8595,7 +8633,7 @@
     </row>
     <row r="39" spans="1:24">
       <c r="A39" t="s">
-        <v>113</v>
+        <v>316</v>
       </c>
       <c r="B39">
         <v>6</v>
@@ -8669,7 +8707,7 @@
     </row>
     <row r="40" spans="1:24">
       <c r="A40" t="s">
-        <v>151</v>
+        <v>268</v>
       </c>
       <c r="B40">
         <v>6</v>
@@ -8743,7 +8781,7 @@
     </row>
     <row r="41" spans="1:24">
       <c r="A41" t="s">
-        <v>79</v>
+        <v>382</v>
       </c>
       <c r="B41">
         <v>6</v>
@@ -8817,7 +8855,7 @@
     </row>
     <row r="42" spans="1:24">
       <c r="A42" t="s">
-        <v>138</v>
+        <v>341</v>
       </c>
       <c r="B42">
         <v>6</v>
@@ -8891,7 +8929,7 @@
     </row>
     <row r="43" spans="1:24">
       <c r="A43" t="s">
-        <v>116</v>
+        <v>319</v>
       </c>
       <c r="B43">
         <v>6</v>
@@ -8965,7 +9003,7 @@
     </row>
     <row r="44" spans="1:24">
       <c r="A44" t="s">
-        <v>136</v>
+        <v>339</v>
       </c>
       <c r="B44">
         <v>6</v>
@@ -9039,7 +9077,7 @@
     </row>
     <row r="45" spans="1:24">
       <c r="A45" t="s">
-        <v>7</v>
+        <v>414</v>
       </c>
       <c r="B45">
         <v>5</v>
@@ -9113,7 +9151,7 @@
     </row>
     <row r="46" spans="1:24">
       <c r="A46" t="s">
-        <v>33</v>
+        <v>440</v>
       </c>
       <c r="B46">
         <v>6</v>
@@ -9187,7 +9225,7 @@
     </row>
     <row r="47" spans="1:24">
       <c r="A47" t="s">
-        <v>192</v>
+        <v>228</v>
       </c>
       <c r="B47">
         <v>7</v>
@@ -9261,7 +9299,7 @@
     </row>
     <row r="48" spans="1:24">
       <c r="A48" t="s">
-        <v>194</v>
+        <v>230</v>
       </c>
       <c r="B48">
         <v>8</v>
@@ -9335,7 +9373,7 @@
     </row>
     <row r="49" spans="1:24">
       <c r="A49" t="s">
-        <v>196</v>
+        <v>232</v>
       </c>
       <c r="B49">
         <v>7</v>
@@ -9409,7 +9447,7 @@
     </row>
     <row r="50" spans="1:24">
       <c r="A50" t="s">
-        <v>148</v>
+        <v>351</v>
       </c>
       <c r="B50">
         <v>7</v>
@@ -9483,7 +9521,7 @@
     </row>
     <row r="51" spans="1:24">
       <c r="A51" t="s">
-        <v>229</v>
+        <v>265</v>
       </c>
       <c r="B51">
         <v>9</v>
@@ -9557,7 +9595,7 @@
     </row>
     <row r="52" spans="1:24">
       <c r="A52" t="s">
-        <v>57</v>
+        <v>360</v>
       </c>
       <c r="B52">
         <v>9</v>
@@ -9631,7 +9669,7 @@
     </row>
     <row r="53" spans="1:24">
       <c r="A53" t="s">
-        <v>241</v>
+        <v>198</v>
       </c>
       <c r="B53">
         <v>8</v>
@@ -9705,7 +9743,7 @@
     </row>
     <row r="54" spans="1:24">
       <c r="A54" t="s">
-        <v>173</v>
+        <v>290</v>
       </c>
       <c r="B54">
         <v>9</v>
@@ -9779,7 +9817,7 @@
     </row>
     <row r="55" spans="1:24">
       <c r="A55" t="s">
-        <v>240</v>
+        <v>197</v>
       </c>
       <c r="B55">
         <v>8</v>
@@ -9853,7 +9891,7 @@
     </row>
     <row r="56" spans="1:24">
       <c r="A56" t="s">
-        <v>242</v>
+        <v>199</v>
       </c>
       <c r="B56">
         <v>10</v>
@@ -9927,7 +9965,7 @@
     </row>
     <row r="57" spans="1:24">
       <c r="A57" t="s">
-        <v>146</v>
+        <v>349</v>
       </c>
       <c r="B57">
         <v>11</v>
@@ -10001,7 +10039,7 @@
     </row>
     <row r="58" spans="1:24">
       <c r="A58" t="s">
-        <v>2</v>
+        <v>409</v>
       </c>
       <c r="B58">
         <v>9</v>
@@ -10075,7 +10113,7 @@
     </row>
     <row r="59" spans="1:24">
       <c r="A59" t="s">
-        <v>6</v>
+        <v>413</v>
       </c>
       <c r="B59">
         <v>9</v>
@@ -10149,7 +10187,7 @@
     </row>
     <row r="60" spans="1:24">
       <c r="A60" t="s">
-        <v>41</v>
+        <v>448</v>
       </c>
       <c r="B60">
         <v>8</v>
@@ -10223,7 +10261,7 @@
     </row>
     <row r="61" spans="1:24">
       <c r="A61" t="s">
-        <v>29</v>
+        <v>436</v>
       </c>
       <c r="B61">
         <v>8</v>
@@ -10297,7 +10335,7 @@
     </row>
     <row r="62" spans="1:24">
       <c r="A62" t="s">
-        <v>54</v>
+        <v>357</v>
       </c>
       <c r="B62">
         <v>8</v>
@@ -10371,7 +10409,7 @@
     </row>
     <row r="63" spans="1:24">
       <c r="A63" t="s">
-        <v>3</v>
+        <v>410</v>
       </c>
       <c r="B63">
         <v>9</v>
@@ -10445,7 +10483,7 @@
     </row>
     <row r="64" spans="1:24">
       <c r="A64" t="s">
-        <v>50</v>
+        <v>353</v>
       </c>
       <c r="B64">
         <v>8</v>
@@ -10519,7 +10557,7 @@
     </row>
     <row r="65" spans="1:24">
       <c r="A65" t="s">
-        <v>280</v>
+        <v>159</v>
       </c>
       <c r="B65">
         <v>11</v>
@@ -10593,7 +10631,7 @@
     </row>
     <row r="66" spans="1:24">
       <c r="A66" t="s">
-        <v>60</v>
+        <v>363</v>
       </c>
       <c r="B66">
         <v>11</v>
@@ -10667,7 +10705,7 @@
     </row>
     <row r="67" spans="1:24">
       <c r="A67" t="s">
-        <v>154</v>
+        <v>271</v>
       </c>
       <c r="B67">
         <v>12</v>
@@ -10741,7 +10779,7 @@
     </row>
     <row r="68" spans="1:24">
       <c r="A68" t="s">
-        <v>185</v>
+        <v>302</v>
       </c>
       <c r="B68">
         <v>14</v>
@@ -10815,7 +10853,7 @@
     </row>
     <row r="69" spans="1:24">
       <c r="A69" t="s">
-        <v>114</v>
+        <v>317</v>
       </c>
       <c r="B69">
         <v>13</v>
@@ -10889,7 +10927,7 @@
     </row>
     <row r="70" spans="1:24">
       <c r="A70" t="s">
-        <v>238</v>
+        <v>195</v>
       </c>
       <c r="B70">
         <v>13</v>
@@ -10963,7 +11001,7 @@
     </row>
     <row r="71" spans="1:24">
       <c r="A71" t="s">
-        <v>225</v>
+        <v>261</v>
       </c>
       <c r="B71">
         <v>13</v>
@@ -11037,7 +11075,7 @@
     </row>
     <row r="72" spans="1:24">
       <c r="A72" t="s">
-        <v>199</v>
+        <v>235</v>
       </c>
       <c r="B72">
         <v>22</v>
@@ -11111,7 +11149,7 @@
     </row>
     <row r="73" spans="1:24">
       <c r="A73" t="s">
-        <v>200</v>
+        <v>236</v>
       </c>
       <c r="B73">
         <v>13</v>
@@ -11185,7 +11223,7 @@
     </row>
     <row r="74" spans="1:24">
       <c r="A74" t="s">
-        <v>133</v>
+        <v>336</v>
       </c>
       <c r="B74">
         <v>11</v>
@@ -11259,7 +11297,7 @@
     </row>
     <row r="75" spans="1:24">
       <c r="A75" t="s">
-        <v>69</v>
+        <v>372</v>
       </c>
       <c r="B75">
         <v>12</v>
@@ -11333,7 +11371,7 @@
     </row>
     <row r="76" spans="1:24">
       <c r="A76" t="s">
-        <v>156</v>
+        <v>273</v>
       </c>
       <c r="B76">
         <v>12</v>
@@ -11407,7 +11445,7 @@
     </row>
     <row r="77" spans="1:24">
       <c r="A77" t="s">
-        <v>233</v>
+        <v>190</v>
       </c>
       <c r="B77">
         <v>16</v>
@@ -11481,7 +11519,7 @@
     </row>
     <row r="78" spans="1:24">
       <c r="A78" t="s">
-        <v>267</v>
+        <v>224</v>
       </c>
       <c r="B78">
         <v>17</v>
@@ -11555,7 +11593,7 @@
     </row>
     <row r="79" spans="1:24">
       <c r="A79" t="s">
-        <v>279</v>
+        <v>158</v>
       </c>
       <c r="B79">
         <v>17</v>
@@ -11629,7 +11667,7 @@
     </row>
     <row r="80" spans="1:24">
       <c r="A80" t="s">
-        <v>62</v>
+        <v>365</v>
       </c>
       <c r="B80">
         <v>14</v>
@@ -11703,7 +11741,7 @@
     </row>
     <row r="81" spans="1:24">
       <c r="A81" t="s">
-        <v>275</v>
+        <v>154</v>
       </c>
       <c r="B81">
         <v>16</v>
@@ -11777,7 +11815,7 @@
     </row>
     <row r="82" spans="1:24">
       <c r="A82" t="s">
-        <v>85</v>
+        <v>388</v>
       </c>
       <c r="B82">
         <v>19</v>
@@ -11851,7 +11889,7 @@
     </row>
     <row r="83" spans="1:24">
       <c r="A83" t="s">
-        <v>45</v>
+        <v>452</v>
       </c>
       <c r="B83">
         <v>17</v>
@@ -11925,7 +11963,7 @@
     </row>
     <row r="84" spans="1:24">
       <c r="A84" t="s">
-        <v>134</v>
+        <v>337</v>
       </c>
       <c r="B84">
         <v>23</v>
@@ -11999,7 +12037,7 @@
     </row>
     <row r="85" spans="1:24">
       <c r="A85" t="s">
-        <v>43</v>
+        <v>450</v>
       </c>
       <c r="B85">
         <v>16</v>
@@ -12073,7 +12111,7 @@
     </row>
     <row r="86" spans="1:24">
       <c r="A86" t="s">
-        <v>182</v>
+        <v>299</v>
       </c>
       <c r="B86">
         <v>20</v>
@@ -12147,7 +12185,7 @@
     </row>
     <row r="87" spans="1:24">
       <c r="A87" t="s">
-        <v>119</v>
+        <v>322</v>
       </c>
       <c r="B87">
         <v>15</v>
@@ -12221,7 +12259,7 @@
     </row>
     <row r="88" spans="1:24">
       <c r="A88" t="s">
-        <v>121</v>
+        <v>324</v>
       </c>
       <c r="B88">
         <v>16</v>
@@ -12295,7 +12333,7 @@
     </row>
     <row r="89" spans="1:24">
       <c r="A89" t="s">
-        <v>58</v>
+        <v>361</v>
       </c>
       <c r="B89">
         <v>20</v>
@@ -12369,7 +12407,7 @@
     </row>
     <row r="90" spans="1:24">
       <c r="A90" t="s">
-        <v>160</v>
+        <v>277</v>
       </c>
       <c r="B90">
         <v>19</v>
@@ -12443,7 +12481,7 @@
     </row>
     <row r="91" spans="1:24">
       <c r="A91" t="s">
-        <v>175</v>
+        <v>292</v>
       </c>
       <c r="B91">
         <v>17</v>
@@ -12517,7 +12555,7 @@
     </row>
     <row r="92" spans="1:24">
       <c r="A92" t="s">
-        <v>11</v>
+        <v>418</v>
       </c>
       <c r="B92">
         <v>18</v>
@@ -12591,7 +12629,7 @@
     </row>
     <row r="93" spans="1:24">
       <c r="A93" t="s">
-        <v>48</v>
+        <v>455</v>
       </c>
       <c r="B93">
         <v>14</v>
@@ -12665,7 +12703,7 @@
     </row>
     <row r="94" spans="1:24">
       <c r="A94" t="s">
-        <v>193</v>
+        <v>229</v>
       </c>
       <c r="B94">
         <v>23</v>
@@ -12739,7 +12777,7 @@
     </row>
     <row r="95" spans="1:24">
       <c r="A95" t="s">
-        <v>55</v>
+        <v>358</v>
       </c>
       <c r="B95">
         <v>19</v>
@@ -12813,7 +12851,7 @@
     </row>
     <row r="96" spans="1:24">
       <c r="A96" t="s">
-        <v>180</v>
+        <v>297</v>
       </c>
       <c r="B96">
         <v>19</v>
@@ -12887,7 +12925,7 @@
     </row>
     <row r="97" spans="1:24">
       <c r="A97" t="s">
-        <v>181</v>
+        <v>298</v>
       </c>
       <c r="B97">
         <v>19</v>
@@ -12961,7 +12999,7 @@
     </row>
     <row r="98" spans="1:24">
       <c r="A98" t="s">
-        <v>34</v>
+        <v>441</v>
       </c>
       <c r="B98">
         <v>25</v>
@@ -13035,7 +13073,7 @@
     </row>
     <row r="99" spans="1:24">
       <c r="A99" t="s">
-        <v>123</v>
+        <v>326</v>
       </c>
       <c r="B99">
         <v>16</v>
@@ -13109,7 +13147,7 @@
     </row>
     <row r="100" spans="1:24">
       <c r="A100" t="s">
-        <v>177</v>
+        <v>294</v>
       </c>
       <c r="B100">
         <v>18</v>
@@ -13183,7 +13221,7 @@
     </row>
     <row r="101" spans="1:24">
       <c r="A101" t="s">
-        <v>72</v>
+        <v>375</v>
       </c>
       <c r="B101">
         <v>18</v>
@@ -13257,7 +13295,7 @@
     </row>
     <row r="102" spans="1:24">
       <c r="A102" t="s">
-        <v>201</v>
+        <v>237</v>
       </c>
       <c r="B102">
         <v>23</v>
@@ -13331,7 +13369,7 @@
     </row>
     <row r="103" spans="1:24">
       <c r="A103" t="s">
-        <v>183</v>
+        <v>300</v>
       </c>
       <c r="B103">
         <v>19</v>
@@ -13405,7 +13443,7 @@
     </row>
     <row r="104" spans="1:24">
       <c r="A104" t="s">
-        <v>165</v>
+        <v>282</v>
       </c>
       <c r="B104">
         <v>19</v>
@@ -13479,7 +13517,7 @@
     </row>
     <row r="105" spans="1:24">
       <c r="A105" t="s">
-        <v>255</v>
+        <v>212</v>
       </c>
       <c r="B105">
         <v>22</v>
@@ -13553,7 +13591,7 @@
     </row>
     <row r="106" spans="1:24">
       <c r="A106" t="s">
-        <v>190</v>
+        <v>226</v>
       </c>
       <c r="B106">
         <v>19</v>
@@ -13627,7 +13665,7 @@
     </row>
     <row r="107" spans="1:24">
       <c r="A107" t="s">
-        <v>32</v>
+        <v>439</v>
       </c>
       <c r="B107">
         <v>29</v>
@@ -13701,7 +13739,7 @@
     </row>
     <row r="108" spans="1:24">
       <c r="A108" t="s">
-        <v>178</v>
+        <v>295</v>
       </c>
       <c r="B108">
         <v>19</v>
@@ -13775,7 +13813,7 @@
     </row>
     <row r="109" spans="1:24">
       <c r="A109" t="s">
-        <v>135</v>
+        <v>338</v>
       </c>
       <c r="B109">
         <v>24</v>
@@ -13849,7 +13887,7 @@
     </row>
     <row r="110" spans="1:24">
       <c r="A110" t="s">
-        <v>202</v>
+        <v>238</v>
       </c>
       <c r="B110">
         <v>23</v>
@@ -13923,7 +13961,7 @@
     </row>
     <row r="111" spans="1:24">
       <c r="A111" t="s">
-        <v>149</v>
+        <v>266</v>
       </c>
       <c r="B111">
         <v>30</v>
@@ -13997,7 +14035,7 @@
     </row>
     <row r="112" spans="1:24">
       <c r="A112" t="s">
-        <v>157</v>
+        <v>274</v>
       </c>
       <c r="B112">
         <v>19</v>
@@ -14071,7 +14109,7 @@
     </row>
     <row r="113" spans="1:24">
       <c r="A113" t="s">
-        <v>284</v>
+        <v>163</v>
       </c>
       <c r="B113">
         <v>24</v>
@@ -14145,7 +14183,7 @@
     </row>
     <row r="114" spans="1:24">
       <c r="A114" t="s">
-        <v>152</v>
+        <v>269</v>
       </c>
       <c r="B114">
         <v>24</v>
@@ -14219,7 +14257,7 @@
     </row>
     <row r="115" spans="1:24">
       <c r="A115" t="s">
-        <v>273</v>
+        <v>152</v>
       </c>
       <c r="B115">
         <v>22</v>
@@ -14293,7 +14331,7 @@
     </row>
     <row r="116" spans="1:24">
       <c r="A116" t="s">
-        <v>30</v>
+        <v>437</v>
       </c>
       <c r="B116">
         <v>27</v>
@@ -14367,7 +14405,7 @@
     </row>
     <row r="117" spans="1:24">
       <c r="A117" t="s">
-        <v>269</v>
+        <v>148</v>
       </c>
       <c r="B117">
         <v>23</v>
@@ -14441,7 +14479,7 @@
     </row>
     <row r="118" spans="1:24">
       <c r="A118" t="s">
-        <v>272</v>
+        <v>151</v>
       </c>
       <c r="B118">
         <v>25</v>
@@ -14515,7 +14553,7 @@
     </row>
     <row r="119" spans="1:24">
       <c r="A119" t="s">
-        <v>76</v>
+        <v>379</v>
       </c>
       <c r="B119">
         <v>30</v>
@@ -14589,7 +14627,7 @@
     </row>
     <row r="120" spans="1:24">
       <c r="A120" t="s">
-        <v>1</v>
+        <v>408</v>
       </c>
       <c r="B120">
         <v>29</v>
@@ -14663,7 +14701,7 @@
     </row>
     <row r="121" spans="1:24">
       <c r="A121" t="s">
-        <v>46</v>
+        <v>453</v>
       </c>
       <c r="B121">
         <v>25</v>
@@ -14737,7 +14775,7 @@
     </row>
     <row r="122" spans="1:24">
       <c r="A122" t="s">
-        <v>145</v>
+        <v>348</v>
       </c>
       <c r="B122">
         <v>28</v>
@@ -14811,7 +14849,7 @@
     </row>
     <row r="123" spans="1:24">
       <c r="A123" t="s">
-        <v>228</v>
+        <v>264</v>
       </c>
       <c r="B123">
         <v>24</v>
@@ -14885,7 +14923,7 @@
     </row>
     <row r="124" spans="1:24">
       <c r="A124" t="s">
-        <v>420</v>
+        <v>68</v>
       </c>
       <c r="B124">
         <v>28</v>
@@ -14959,7 +14997,7 @@
     </row>
     <row r="125" spans="1:24">
       <c r="A125" t="s">
-        <v>195</v>
+        <v>231</v>
       </c>
       <c r="B125">
         <v>24</v>
@@ -15033,7 +15071,7 @@
     </row>
     <row r="126" spans="1:24">
       <c r="A126" t="s">
-        <v>39</v>
+        <v>446</v>
       </c>
       <c r="B126">
         <v>34</v>
@@ -15107,7 +15145,7 @@
     </row>
     <row r="127" spans="1:24">
       <c r="A127" t="s">
-        <v>52</v>
+        <v>355</v>
       </c>
       <c r="B127">
         <v>22</v>
@@ -15181,7 +15219,7 @@
     </row>
     <row r="128" spans="1:24">
       <c r="A128" t="s">
-        <v>143</v>
+        <v>346</v>
       </c>
       <c r="B128">
         <v>26</v>
@@ -15255,7 +15293,7 @@
     </row>
     <row r="129" spans="1:24">
       <c r="A129" t="s">
-        <v>111</v>
+        <v>314</v>
       </c>
       <c r="B129">
         <v>28</v>
@@ -15329,7 +15367,7 @@
     </row>
     <row r="130" spans="1:24">
       <c r="A130" t="s">
-        <v>167</v>
+        <v>284</v>
       </c>
       <c r="B130">
         <v>38</v>
@@ -15403,7 +15441,7 @@
     </row>
     <row r="131" spans="1:24">
       <c r="A131" t="s">
-        <v>281</v>
+        <v>160</v>
       </c>
       <c r="B131">
         <v>44</v>
@@ -15477,7 +15515,7 @@
     </row>
     <row r="132" spans="1:24">
       <c r="A132" t="s">
-        <v>84</v>
+        <v>387</v>
       </c>
       <c r="B132">
         <v>27</v>
@@ -15551,7 +15589,7 @@
     </row>
     <row r="133" spans="1:24">
       <c r="A133" t="s">
-        <v>49</v>
+        <v>352</v>
       </c>
       <c r="B133">
         <v>33</v>
@@ -15625,7 +15663,7 @@
     </row>
     <row r="134" spans="1:24">
       <c r="A134" t="s">
-        <v>9</v>
+        <v>416</v>
       </c>
       <c r="B134">
         <v>26</v>
@@ -15699,7 +15737,7 @@
     </row>
     <row r="135" spans="1:24">
       <c r="A135" t="s">
-        <v>188</v>
+        <v>305</v>
       </c>
       <c r="B135">
         <v>39</v>
@@ -15773,7 +15811,7 @@
     </row>
     <row r="136" spans="1:24">
       <c r="A136" t="s">
-        <v>139</v>
+        <v>342</v>
       </c>
       <c r="B136">
         <v>45</v>
@@ -15847,7 +15885,7 @@
     </row>
     <row r="137" spans="1:24">
       <c r="A137" t="s">
-        <v>73</v>
+        <v>376</v>
       </c>
       <c r="B137">
         <v>36</v>
@@ -15921,7 +15959,7 @@
     </row>
     <row r="138" spans="1:24">
       <c r="A138" t="s">
-        <v>266</v>
+        <v>223</v>
       </c>
       <c r="B138">
         <v>31</v>
@@ -15995,7 +16033,7 @@
     </row>
     <row r="139" spans="1:24">
       <c r="A139" t="s">
-        <v>129</v>
+        <v>332</v>
       </c>
       <c r="B139">
         <v>38</v>
@@ -16069,7 +16107,7 @@
     </row>
     <row r="140" spans="1:24">
       <c r="A140" t="s">
-        <v>5</v>
+        <v>412</v>
       </c>
       <c r="B140">
         <v>37</v>
@@ -16143,7 +16181,7 @@
     </row>
     <row r="141" spans="1:24">
       <c r="A141" t="s">
-        <v>215</v>
+        <v>251</v>
       </c>
       <c r="B141">
         <v>42</v>
@@ -16217,7 +16255,7 @@
     </row>
     <row r="142" spans="1:24">
       <c r="A142" t="s">
-        <v>128</v>
+        <v>331</v>
       </c>
       <c r="B142">
         <v>43</v>
@@ -16291,7 +16329,7 @@
     </row>
     <row r="143" spans="1:24">
       <c r="A143" t="s">
-        <v>75</v>
+        <v>378</v>
       </c>
       <c r="B143">
         <v>45</v>
@@ -16365,7 +16403,7 @@
     </row>
     <row r="144" spans="1:24">
       <c r="A144" t="s">
-        <v>223</v>
+        <v>259</v>
       </c>
       <c r="B144">
         <v>37</v>
@@ -16439,7 +16477,7 @@
     </row>
     <row r="145" spans="1:24">
       <c r="A145" t="s">
-        <v>4</v>
+        <v>411</v>
       </c>
       <c r="B145">
         <v>32</v>
@@ -16513,7 +16551,7 @@
     </row>
     <row r="146" spans="1:24">
       <c r="A146" t="s">
-        <v>184</v>
+        <v>301</v>
       </c>
       <c r="B146">
         <v>46</v>
@@ -16587,7 +16625,7 @@
     </row>
     <row r="147" spans="1:24">
       <c r="A147" t="s">
-        <v>222</v>
+        <v>258</v>
       </c>
       <c r="B147">
         <v>39</v>
@@ -16661,7 +16699,7 @@
     </row>
     <row r="148" spans="1:24">
       <c r="A148" t="s">
-        <v>322</v>
+        <v>126</v>
       </c>
       <c r="B148">
         <v>44</v>
@@ -16735,7 +16773,7 @@
     </row>
     <row r="149" spans="1:24">
       <c r="A149" t="s">
-        <v>130</v>
+        <v>333</v>
       </c>
       <c r="B149">
         <v>48</v>
@@ -16809,7 +16847,7 @@
     </row>
     <row r="150" spans="1:24">
       <c r="A150" t="s">
-        <v>147</v>
+        <v>350</v>
       </c>
       <c r="B150">
         <v>52</v>
@@ -16883,7 +16921,7 @@
     </row>
     <row r="151" spans="1:24">
       <c r="A151" t="s">
-        <v>198</v>
+        <v>234</v>
       </c>
       <c r="B151">
         <v>43</v>
@@ -16957,7 +16995,7 @@
     </row>
     <row r="152" spans="1:24">
       <c r="A152" t="s">
-        <v>141</v>
+        <v>344</v>
       </c>
       <c r="B152">
         <v>40</v>
@@ -17031,7 +17069,7 @@
     </row>
     <row r="153" spans="1:24">
       <c r="A153" t="s">
-        <v>243</v>
+        <v>200</v>
       </c>
       <c r="B153">
         <v>49</v>
@@ -17105,7 +17143,7 @@
     </row>
     <row r="154" spans="1:24">
       <c r="A154" t="s">
-        <v>170</v>
+        <v>287</v>
       </c>
       <c r="B154">
         <v>53</v>
@@ -17179,7 +17217,7 @@
     </row>
     <row r="155" spans="1:24">
       <c r="A155" t="s">
-        <v>166</v>
+        <v>283</v>
       </c>
       <c r="B155">
         <v>51</v>
@@ -17253,7 +17291,7 @@
     </row>
     <row r="156" spans="1:24">
       <c r="A156" t="s">
-        <v>125</v>
+        <v>328</v>
       </c>
       <c r="B156">
         <v>51</v>
@@ -17327,7 +17365,7 @@
     </row>
     <row r="157" spans="1:24">
       <c r="A157" t="s">
-        <v>162</v>
+        <v>279</v>
       </c>
       <c r="B157">
         <v>63</v>
@@ -17401,7 +17439,7 @@
     </row>
     <row r="158" spans="1:24">
       <c r="A158" t="s">
-        <v>424</v>
+        <v>72</v>
       </c>
       <c r="B158">
         <v>42</v>
@@ -17475,7 +17513,7 @@
     </row>
     <row r="159" spans="1:24">
       <c r="A159" t="s">
-        <v>168</v>
+        <v>285</v>
       </c>
       <c r="B159">
         <v>57</v>
@@ -17549,7 +17587,7 @@
     </row>
     <row r="160" spans="1:24">
       <c r="A160" t="s">
-        <v>339</v>
+        <v>143</v>
       </c>
       <c r="B160">
         <v>53</v>
@@ -17623,7 +17661,7 @@
     </row>
     <row r="161" spans="1:24">
       <c r="A161" t="s">
-        <v>171</v>
+        <v>288</v>
       </c>
       <c r="B161">
         <v>58</v>
@@ -17697,7 +17735,7 @@
     </row>
     <row r="162" spans="1:24">
       <c r="A162" t="s">
-        <v>349</v>
+        <v>78</v>
       </c>
       <c r="B162">
         <v>47</v>
@@ -17771,7 +17809,7 @@
     </row>
     <row r="163" spans="1:24">
       <c r="A163" t="s">
-        <v>326</v>
+        <v>130</v>
       </c>
       <c r="B163">
         <v>55</v>
@@ -17845,7 +17883,7 @@
     </row>
     <row r="164" spans="1:24">
       <c r="A164" t="s">
-        <v>214</v>
+        <v>250</v>
       </c>
       <c r="B164">
         <v>54</v>
@@ -17919,7 +17957,7 @@
     </row>
     <row r="165" spans="1:24">
       <c r="A165" t="s">
-        <v>112</v>
+        <v>315</v>
       </c>
       <c r="B165">
         <v>47</v>
@@ -17993,7 +18031,7 @@
     </row>
     <row r="166" spans="1:24">
       <c r="A166" t="s">
-        <v>0</v>
+        <v>407</v>
       </c>
       <c r="B166">
         <v>57</v>
@@ -18067,7 +18105,7 @@
     </row>
     <row r="167" spans="1:24">
       <c r="A167" t="s">
-        <v>61</v>
+        <v>364</v>
       </c>
       <c r="B167">
         <v>46</v>
@@ -18141,7 +18179,7 @@
     </row>
     <row r="168" spans="1:24">
       <c r="A168" t="s">
-        <v>164</v>
+        <v>281</v>
       </c>
       <c r="B168">
         <v>62</v>
@@ -18215,7 +18253,7 @@
     </row>
     <row r="169" spans="1:24">
       <c r="A169" t="s">
-        <v>305</v>
+        <v>184</v>
       </c>
       <c r="B169">
         <v>54</v>
@@ -18289,7 +18327,7 @@
     </row>
     <row r="170" spans="1:24">
       <c r="A170" t="s">
-        <v>306</v>
+        <v>185</v>
       </c>
       <c r="B170">
         <v>65</v>
@@ -18363,7 +18401,7 @@
     </row>
     <row r="171" spans="1:24">
       <c r="A171" t="s">
-        <v>81</v>
+        <v>384</v>
       </c>
       <c r="B171">
         <v>82</v>
@@ -18437,7 +18475,7 @@
     </row>
     <row r="172" spans="1:24">
       <c r="A172" t="s">
-        <v>283</v>
+        <v>162</v>
       </c>
       <c r="B172">
         <v>56</v>
@@ -18511,7 +18549,7 @@
     </row>
     <row r="173" spans="1:24">
       <c r="A173" t="s">
-        <v>402</v>
+        <v>50</v>
       </c>
       <c r="B173">
         <v>56</v>
@@ -18585,7 +18623,7 @@
     </row>
     <row r="174" spans="1:24">
       <c r="A174" t="s">
-        <v>315</v>
+        <v>119</v>
       </c>
       <c r="B174">
         <v>56</v>
@@ -18659,7 +18697,7 @@
     </row>
     <row r="175" spans="1:24">
       <c r="A175" t="s">
-        <v>8</v>
+        <v>415</v>
       </c>
       <c r="B175">
         <v>69</v>
@@ -18733,7 +18771,7 @@
     </row>
     <row r="176" spans="1:24">
       <c r="A176" t="s">
-        <v>47</v>
+        <v>454</v>
       </c>
       <c r="B176">
         <v>42</v>
@@ -18807,7 +18845,7 @@
     </row>
     <row r="177" spans="1:24">
       <c r="A177" t="s">
-        <v>169</v>
+        <v>286</v>
       </c>
       <c r="B177">
         <v>77</v>
@@ -18881,7 +18919,7 @@
     </row>
     <row r="178" spans="1:24">
       <c r="A178" t="s">
-        <v>127</v>
+        <v>330</v>
       </c>
       <c r="B178">
         <v>69</v>
@@ -18955,7 +18993,7 @@
     </row>
     <row r="179" spans="1:24">
       <c r="A179" t="s">
-        <v>122</v>
+        <v>325</v>
       </c>
       <c r="B179">
         <v>62</v>
@@ -19029,7 +19067,7 @@
     </row>
     <row r="180" spans="1:24">
       <c r="A180" t="s">
-        <v>132</v>
+        <v>335</v>
       </c>
       <c r="B180">
         <v>73</v>
@@ -19103,7 +19141,7 @@
     </row>
     <row r="181" spans="1:24">
       <c r="A181" t="s">
-        <v>313</v>
+        <v>117</v>
       </c>
       <c r="B181">
         <v>60</v>
@@ -19177,7 +19215,7 @@
     </row>
     <row r="182" spans="1:24">
       <c r="A182" t="s">
-        <v>404</v>
+        <v>52</v>
       </c>
       <c r="B182">
         <v>55</v>
@@ -19251,7 +19289,7 @@
     </row>
     <row r="183" spans="1:24">
       <c r="A183" t="s">
-        <v>118</v>
+        <v>321</v>
       </c>
       <c r="B183">
         <v>49</v>
@@ -19325,7 +19363,7 @@
     </row>
     <row r="184" spans="1:24">
       <c r="A184" t="s">
-        <v>70</v>
+        <v>373</v>
       </c>
       <c r="B184">
         <v>47</v>
@@ -19399,7 +19437,7 @@
     </row>
     <row r="185" spans="1:24">
       <c r="A185" t="s">
-        <v>150</v>
+        <v>267</v>
       </c>
       <c r="B185">
         <v>89</v>
@@ -19473,7 +19511,7 @@
     </row>
     <row r="186" spans="1:24">
       <c r="A186" t="s">
-        <v>287</v>
+        <v>166</v>
       </c>
       <c r="B186">
         <v>77</v>
@@ -19547,7 +19585,7 @@
     </row>
     <row r="187" spans="1:24">
       <c r="A187" t="s">
-        <v>124</v>
+        <v>327</v>
       </c>
       <c r="B187">
         <v>76</v>
@@ -19621,7 +19659,7 @@
     </row>
     <row r="188" spans="1:24">
       <c r="A188" t="s">
-        <v>126</v>
+        <v>329</v>
       </c>
       <c r="B188">
         <v>72</v>
@@ -19695,7 +19733,7 @@
     </row>
     <row r="189" spans="1:24">
       <c r="A189" t="s">
-        <v>80</v>
+        <v>383</v>
       </c>
       <c r="B189">
         <v>98</v>
@@ -19769,7 +19807,7 @@
     </row>
     <row r="190" spans="1:24">
       <c r="A190" t="s">
-        <v>427</v>
+        <v>2</v>
       </c>
       <c r="B190">
         <v>77</v>
@@ -19843,7 +19881,7 @@
     </row>
     <row r="191" spans="1:24">
       <c r="A191" t="s">
-        <v>161</v>
+        <v>278</v>
       </c>
       <c r="B191">
         <v>85</v>
@@ -19917,7 +19955,7 @@
     </row>
     <row r="192" spans="1:24">
       <c r="A192" t="s">
-        <v>297</v>
+        <v>176</v>
       </c>
       <c r="B192">
         <v>97</v>
@@ -19991,7 +20029,7 @@
     </row>
     <row r="193" spans="1:24">
       <c r="A193" t="s">
-        <v>187</v>
+        <v>304</v>
       </c>
       <c r="B193">
         <v>84</v>
@@ -20065,7 +20103,7 @@
     </row>
     <row r="194" spans="1:24">
       <c r="A194" t="s">
-        <v>421</v>
+        <v>69</v>
       </c>
       <c r="B194">
         <v>70</v>
@@ -20139,7 +20177,7 @@
     </row>
     <row r="195" spans="1:24">
       <c r="A195" t="s">
-        <v>174</v>
+        <v>291</v>
       </c>
       <c r="B195">
         <v>78</v>
@@ -20213,7 +20251,7 @@
     </row>
     <row r="196" spans="1:24">
       <c r="A196" t="s">
-        <v>159</v>
+        <v>276</v>
       </c>
       <c r="B196">
         <v>92</v>
@@ -20287,7 +20325,7 @@
     </row>
     <row r="197" spans="1:24">
       <c r="A197" t="s">
-        <v>318</v>
+        <v>122</v>
       </c>
       <c r="B197">
         <v>79</v>
@@ -20361,7 +20399,7 @@
     </row>
     <row r="198" spans="1:24">
       <c r="A198" t="s">
-        <v>217</v>
+        <v>253</v>
       </c>
       <c r="B198">
         <v>88</v>
@@ -20435,7 +20473,7 @@
     </row>
     <row r="199" spans="1:24">
       <c r="A199" t="s">
-        <v>282</v>
+        <v>161</v>
       </c>
       <c r="B199">
         <v>82</v>
@@ -20509,7 +20547,7 @@
     </row>
     <row r="200" spans="1:24">
       <c r="A200" t="s">
-        <v>371</v>
+        <v>100</v>
       </c>
       <c r="B200">
         <v>112</v>
@@ -20583,7 +20621,7 @@
     </row>
     <row r="201" spans="1:24">
       <c r="A201" t="s">
-        <v>137</v>
+        <v>340</v>
       </c>
       <c r="B201">
         <v>102</v>
@@ -20657,7 +20695,7 @@
     </row>
     <row r="202" spans="1:24">
       <c r="A202" t="s">
-        <v>294</v>
+        <v>173</v>
       </c>
       <c r="B202">
         <v>105</v>
@@ -20731,7 +20769,7 @@
     </row>
     <row r="203" spans="1:24">
       <c r="A203" t="s">
-        <v>259</v>
+        <v>216</v>
       </c>
       <c r="B203">
         <v>108</v>
@@ -20805,7 +20843,7 @@
     </row>
     <row r="204" spans="1:24">
       <c r="A204" t="s">
-        <v>335</v>
+        <v>139</v>
       </c>
       <c r="B204">
         <v>86</v>
@@ -20879,7 +20917,7 @@
     </row>
     <row r="205" spans="1:24">
       <c r="A205" t="s">
-        <v>83</v>
+        <v>386</v>
       </c>
       <c r="B205">
         <v>105</v>
@@ -20953,7 +20991,7 @@
     </row>
     <row r="206" spans="1:24">
       <c r="A206" t="s">
-        <v>321</v>
+        <v>125</v>
       </c>
       <c r="B206">
         <v>100</v>
@@ -21027,7 +21065,7 @@
     </row>
     <row r="207" spans="1:24">
       <c r="A207" t="s">
-        <v>329</v>
+        <v>133</v>
       </c>
       <c r="B207">
         <v>107</v>
@@ -21101,7 +21139,7 @@
     </row>
     <row r="208" spans="1:24">
       <c r="A208" t="s">
-        <v>333</v>
+        <v>137</v>
       </c>
       <c r="B208">
         <v>107</v>
@@ -21175,7 +21213,7 @@
     </row>
     <row r="209" spans="1:24">
       <c r="A209" t="s">
-        <v>179</v>
+        <v>296</v>
       </c>
       <c r="B209">
         <v>108</v>
@@ -21249,7 +21287,7 @@
     </row>
     <row r="210" spans="1:24">
       <c r="A210" t="s">
-        <v>403</v>
+        <v>51</v>
       </c>
       <c r="B210">
         <v>84</v>
@@ -21323,7 +21361,7 @@
     </row>
     <row r="211" spans="1:24">
       <c r="A211" t="s">
-        <v>391</v>
+        <v>39</v>
       </c>
       <c r="B211">
         <v>124</v>
@@ -21397,7 +21435,7 @@
     </row>
     <row r="212" spans="1:24">
       <c r="A212" t="s">
-        <v>277</v>
+        <v>156</v>
       </c>
       <c r="B212">
         <v>137</v>
@@ -21471,7 +21509,7 @@
     </row>
     <row r="213" spans="1:24">
       <c r="A213" t="s">
-        <v>317</v>
+        <v>121</v>
       </c>
       <c r="B213">
         <v>109</v>
@@ -21545,7 +21583,7 @@
     </row>
     <row r="214" spans="1:24">
       <c r="A214" t="s">
-        <v>207</v>
+        <v>243</v>
       </c>
       <c r="B214">
         <v>124</v>
@@ -21619,7 +21657,7 @@
     </row>
     <row r="215" spans="1:24">
       <c r="A215" t="s">
-        <v>320</v>
+        <v>124</v>
       </c>
       <c r="B215">
         <v>115</v>
@@ -21693,7 +21731,7 @@
     </row>
     <row r="216" spans="1:24">
       <c r="A216" t="s">
-        <v>249</v>
+        <v>206</v>
       </c>
       <c r="B216">
         <v>131</v>
@@ -21767,7 +21805,7 @@
     </row>
     <row r="217" spans="1:24">
       <c r="A217" t="s">
-        <v>382</v>
+        <v>111</v>
       </c>
       <c r="B217">
         <v>120</v>
@@ -21841,7 +21879,7 @@
     </row>
     <row r="218" spans="1:24">
       <c r="A218" t="s">
-        <v>204</v>
+        <v>240</v>
       </c>
       <c r="B218">
         <v>132</v>
@@ -21915,7 +21953,7 @@
     </row>
     <row r="219" spans="1:24">
       <c r="A219" t="s">
-        <v>385</v>
+        <v>33</v>
       </c>
       <c r="B219">
         <v>103</v>
@@ -21989,7 +22027,7 @@
     </row>
     <row r="220" spans="1:24">
       <c r="A220" t="s">
-        <v>10</v>
+        <v>417</v>
       </c>
       <c r="B220">
         <v>139</v>
@@ -22063,7 +22101,7 @@
     </row>
     <row r="221" spans="1:24">
       <c r="A221" t="s">
-        <v>351</v>
+        <v>80</v>
       </c>
       <c r="B221">
         <v>124</v>
@@ -22137,7 +22175,7 @@
     </row>
     <row r="222" spans="1:24">
       <c r="A222" t="s">
-        <v>310</v>
+        <v>114</v>
       </c>
       <c r="B222">
         <v>120</v>
@@ -22211,7 +22249,7 @@
     </row>
     <row r="223" spans="1:24">
       <c r="A223" t="s">
-        <v>131</v>
+        <v>334</v>
       </c>
       <c r="B223">
         <v>148</v>
@@ -22285,7 +22323,7 @@
     </row>
     <row r="224" spans="1:24">
       <c r="A224" t="s">
-        <v>314</v>
+        <v>118</v>
       </c>
       <c r="B224">
         <v>123</v>
@@ -22359,7 +22397,7 @@
     </row>
     <row r="225" spans="1:24">
       <c r="A225" t="s">
-        <v>352</v>
+        <v>81</v>
       </c>
       <c r="B225">
         <v>164</v>
@@ -22433,7 +22471,7 @@
     </row>
     <row r="226" spans="1:24">
       <c r="A226" t="s">
-        <v>353</v>
+        <v>82</v>
       </c>
       <c r="B226">
         <v>164</v>
@@ -22507,7 +22545,7 @@
     </row>
     <row r="227" spans="1:24">
       <c r="A227" t="s">
-        <v>250</v>
+        <v>207</v>
       </c>
       <c r="B227">
         <v>164</v>
@@ -22581,7 +22619,7 @@
     </row>
     <row r="228" spans="1:24">
       <c r="A228" t="s">
-        <v>386</v>
+        <v>34</v>
       </c>
       <c r="B228">
         <v>139</v>
@@ -22655,7 +22693,7 @@
     </row>
     <row r="229" spans="1:24">
       <c r="A229" t="s">
-        <v>142</v>
+        <v>345</v>
       </c>
       <c r="B229">
         <v>221</v>
@@ -22729,7 +22767,7 @@
     </row>
     <row r="230" spans="1:24">
       <c r="A230" t="s">
-        <v>231</v>
+        <v>188</v>
       </c>
       <c r="B230">
         <v>157</v>
@@ -22803,7 +22841,7 @@
     </row>
     <row r="231" spans="1:24">
       <c r="A231" t="s">
-        <v>205</v>
+        <v>241</v>
       </c>
       <c r="B231">
         <v>167</v>
@@ -22877,7 +22915,7 @@
     </row>
     <row r="232" spans="1:24">
       <c r="A232" t="s">
-        <v>423</v>
+        <v>71</v>
       </c>
       <c r="B232">
         <v>133</v>
@@ -22951,7 +22989,7 @@
     </row>
     <row r="233" spans="1:24">
       <c r="A233" t="s">
-        <v>271</v>
+        <v>150</v>
       </c>
       <c r="B233">
         <v>170</v>
@@ -23025,7 +23063,7 @@
     </row>
     <row r="234" spans="1:24">
       <c r="A234" t="s">
-        <v>350</v>
+        <v>79</v>
       </c>
       <c r="B234">
         <v>172</v>
@@ -23099,7 +23137,7 @@
     </row>
     <row r="235" spans="1:24">
       <c r="A235" t="s">
-        <v>390</v>
+        <v>38</v>
       </c>
       <c r="B235">
         <v>179</v>
@@ -23173,7 +23211,7 @@
     </row>
     <row r="236" spans="1:24">
       <c r="A236" t="s">
-        <v>437</v>
+        <v>12</v>
       </c>
       <c r="B236">
         <v>171</v>
@@ -23247,7 +23285,7 @@
     </row>
     <row r="237" spans="1:24">
       <c r="A237" t="s">
-        <v>346</v>
+        <v>75</v>
       </c>
       <c r="B237">
         <v>190</v>
@@ -23321,7 +23359,7 @@
     </row>
     <row r="238" spans="1:24">
       <c r="A238" t="s">
-        <v>304</v>
+        <v>183</v>
       </c>
       <c r="B238">
         <v>192</v>
@@ -23395,7 +23433,7 @@
     </row>
     <row r="239" spans="1:24">
       <c r="A239" t="s">
-        <v>77</v>
+        <v>380</v>
       </c>
       <c r="B239">
         <v>236</v>
@@ -23469,7 +23507,7 @@
     </row>
     <row r="240" spans="1:24">
       <c r="A240" t="s">
-        <v>388</v>
+        <v>36</v>
       </c>
       <c r="B240">
         <v>165</v>
@@ -23543,7 +23581,7 @@
     </row>
     <row r="241" spans="1:24">
       <c r="A241" t="s">
-        <v>245</v>
+        <v>202</v>
       </c>
       <c r="B241">
         <v>186</v>
@@ -23617,7 +23655,7 @@
     </row>
     <row r="242" spans="1:24">
       <c r="A242" t="s">
-        <v>262</v>
+        <v>219</v>
       </c>
       <c r="B242">
         <v>184</v>
@@ -23691,7 +23729,7 @@
     </row>
     <row r="243" spans="1:24">
       <c r="A243" t="s">
-        <v>120</v>
+        <v>323</v>
       </c>
       <c r="B243">
         <v>210</v>
@@ -23765,7 +23803,7 @@
     </row>
     <row r="244" spans="1:24">
       <c r="A244" t="s">
-        <v>218</v>
+        <v>254</v>
       </c>
       <c r="B244">
         <v>176</v>
@@ -23839,7 +23877,7 @@
     </row>
     <row r="245" spans="1:24">
       <c r="A245" t="s">
-        <v>278</v>
+        <v>157</v>
       </c>
       <c r="B245">
         <v>179</v>
@@ -23913,7 +23951,7 @@
     </row>
     <row r="246" spans="1:24">
       <c r="A246" t="s">
-        <v>274</v>
+        <v>153</v>
       </c>
       <c r="B246">
         <v>209</v>
@@ -23987,7 +24025,7 @@
     </row>
     <row r="247" spans="1:24">
       <c r="A247" t="s">
-        <v>82</v>
+        <v>385</v>
       </c>
       <c r="B247">
         <v>195</v>
@@ -24061,7 +24099,7 @@
     </row>
     <row r="248" spans="1:24">
       <c r="A248" t="s">
-        <v>260</v>
+        <v>217</v>
       </c>
       <c r="B248">
         <v>224</v>
@@ -24135,7 +24173,7 @@
     </row>
     <row r="249" spans="1:24">
       <c r="A249" t="s">
-        <v>311</v>
+        <v>115</v>
       </c>
       <c r="B249">
         <v>200</v>
@@ -24209,7 +24247,7 @@
     </row>
     <row r="250" spans="1:24">
       <c r="A250" t="s">
-        <v>239</v>
+        <v>196</v>
       </c>
       <c r="B250">
         <v>154</v>
@@ -24283,7 +24321,7 @@
     </row>
     <row r="251" spans="1:24">
       <c r="A251" t="s">
-        <v>261</v>
+        <v>218</v>
       </c>
       <c r="B251">
         <v>213</v>
@@ -24357,7 +24395,7 @@
     </row>
     <row r="252" spans="1:24">
       <c r="A252" t="s">
-        <v>206</v>
+        <v>242</v>
       </c>
       <c r="B252">
         <v>276</v>
@@ -24431,7 +24469,7 @@
     </row>
     <row r="253" spans="1:24">
       <c r="A253" t="s">
-        <v>296</v>
+        <v>175</v>
       </c>
       <c r="B253">
         <v>236</v>
@@ -24505,7 +24543,7 @@
     </row>
     <row r="254" spans="1:24">
       <c r="A254" t="s">
-        <v>418</v>
+        <v>66</v>
       </c>
       <c r="B254">
         <v>178</v>
@@ -24579,7 +24617,7 @@
     </row>
     <row r="255" spans="1:24">
       <c r="A255" t="s">
-        <v>395</v>
+        <v>43</v>
       </c>
       <c r="B255">
         <v>247</v>
@@ -24653,7 +24691,7 @@
     </row>
     <row r="256" spans="1:24">
       <c r="A256" t="s">
-        <v>276</v>
+        <v>155</v>
       </c>
       <c r="B256">
         <v>226</v>
@@ -24727,7 +24765,7 @@
     </row>
     <row r="257" spans="1:24">
       <c r="A257" t="s">
-        <v>405</v>
+        <v>53</v>
       </c>
       <c r="B257">
         <v>184</v>
@@ -24801,7 +24839,7 @@
     </row>
     <row r="258" spans="1:24">
       <c r="A258" t="s">
-        <v>319</v>
+        <v>123</v>
       </c>
       <c r="B258">
         <v>249</v>
@@ -24875,7 +24913,7 @@
     </row>
     <row r="259" spans="1:24">
       <c r="A259" t="s">
-        <v>244</v>
+        <v>201</v>
       </c>
       <c r="B259">
         <v>216</v>
@@ -24949,7 +24987,7 @@
     </row>
     <row r="260" spans="1:24">
       <c r="A260" t="s">
-        <v>392</v>
+        <v>40</v>
       </c>
       <c r="B260">
         <v>231</v>
@@ -25023,7 +25061,7 @@
     </row>
     <row r="261" spans="1:24">
       <c r="A261" t="s">
-        <v>438</v>
+        <v>13</v>
       </c>
       <c r="B261">
         <v>210</v>
@@ -25097,7 +25135,7 @@
     </row>
     <row r="262" spans="1:24">
       <c r="A262" t="s">
-        <v>394</v>
+        <v>42</v>
       </c>
       <c r="B262">
         <v>246</v>
@@ -25171,7 +25209,7 @@
     </row>
     <row r="263" spans="1:24">
       <c r="A263" t="s">
-        <v>378</v>
+        <v>107</v>
       </c>
       <c r="B263">
         <v>222</v>
@@ -25245,7 +25283,7 @@
     </row>
     <row r="264" spans="1:24">
       <c r="A264" t="s">
-        <v>56</v>
+        <v>359</v>
       </c>
       <c r="B264">
         <v>340</v>
@@ -25319,7 +25357,7 @@
     </row>
     <row r="265" spans="1:24">
       <c r="A265" t="s">
-        <v>379</v>
+        <v>108</v>
       </c>
       <c r="B265">
         <v>189</v>
@@ -25393,7 +25431,7 @@
     </row>
     <row r="266" spans="1:24">
       <c r="A266" t="s">
-        <v>347</v>
+        <v>76</v>
       </c>
       <c r="B266">
         <v>293</v>
@@ -25467,7 +25505,7 @@
     </row>
     <row r="267" spans="1:24">
       <c r="A267" t="s">
-        <v>433</v>
+        <v>8</v>
       </c>
       <c r="B267">
         <v>272</v>
@@ -25541,7 +25579,7 @@
     </row>
     <row r="268" spans="1:24">
       <c r="A268" t="s">
-        <v>216</v>
+        <v>252</v>
       </c>
       <c r="B268">
         <v>312</v>
@@ -25615,7 +25653,7 @@
     </row>
     <row r="269" spans="1:24">
       <c r="A269" t="s">
-        <v>393</v>
+        <v>41</v>
       </c>
       <c r="B269">
         <v>238</v>
@@ -25689,7 +25727,7 @@
     </row>
     <row r="270" spans="1:24">
       <c r="A270" t="s">
-        <v>443</v>
+        <v>18</v>
       </c>
       <c r="B270">
         <v>230</v>
@@ -25763,7 +25801,7 @@
     </row>
     <row r="271" spans="1:24">
       <c r="A271" t="s">
-        <v>332</v>
+        <v>136</v>
       </c>
       <c r="B271">
         <v>310</v>
@@ -25837,7 +25875,7 @@
     </row>
     <row r="272" spans="1:24">
       <c r="A272" t="s">
-        <v>256</v>
+        <v>213</v>
       </c>
       <c r="B272">
         <v>276</v>
@@ -25911,7 +25949,7 @@
     </row>
     <row r="273" spans="1:24">
       <c r="A273" t="s">
-        <v>263</v>
+        <v>220</v>
       </c>
       <c r="B273">
         <v>310</v>
@@ -25985,7 +26023,7 @@
     </row>
     <row r="274" spans="1:24">
       <c r="A274" t="s">
-        <v>221</v>
+        <v>257</v>
       </c>
       <c r="B274">
         <v>267</v>
@@ -26059,7 +26097,7 @@
     </row>
     <row r="275" spans="1:24">
       <c r="A275" t="s">
-        <v>210</v>
+        <v>246</v>
       </c>
       <c r="B275">
         <v>308</v>
@@ -26133,7 +26171,7 @@
     </row>
     <row r="276" spans="1:24">
       <c r="A276" t="s">
-        <v>324</v>
+        <v>128</v>
       </c>
       <c r="B276">
         <v>326</v>
@@ -26207,7 +26245,7 @@
     </row>
     <row r="277" spans="1:24">
       <c r="A277" t="s">
-        <v>422</v>
+        <v>70</v>
       </c>
       <c r="B277">
         <v>289</v>
@@ -26281,7 +26319,7 @@
     </row>
     <row r="278" spans="1:24">
       <c r="A278" t="s">
-        <v>172</v>
+        <v>289</v>
       </c>
       <c r="B278">
         <v>249</v>
@@ -26355,7 +26393,7 @@
     </row>
     <row r="279" spans="1:24">
       <c r="A279" t="s">
-        <v>323</v>
+        <v>127</v>
       </c>
       <c r="B279">
         <v>323</v>
@@ -26429,7 +26467,7 @@
     </row>
     <row r="280" spans="1:24">
       <c r="A280" t="s">
-        <v>251</v>
+        <v>208</v>
       </c>
       <c r="B280">
         <v>292</v>
@@ -26503,7 +26541,7 @@
     </row>
     <row r="281" spans="1:24">
       <c r="A281" t="s">
-        <v>303</v>
+        <v>182</v>
       </c>
       <c r="B281">
         <v>308</v>
@@ -26577,7 +26615,7 @@
     </row>
     <row r="282" spans="1:24">
       <c r="A282" t="s">
-        <v>78</v>
+        <v>381</v>
       </c>
       <c r="B282">
         <v>451</v>
@@ -26651,7 +26689,7 @@
     </row>
     <row r="283" spans="1:24">
       <c r="A283" t="s">
-        <v>407</v>
+        <v>55</v>
       </c>
       <c r="B283">
         <v>315</v>
@@ -26725,7 +26763,7 @@
     </row>
     <row r="284" spans="1:24">
       <c r="A284" t="s">
-        <v>337</v>
+        <v>141</v>
       </c>
       <c r="B284">
         <v>400</v>
@@ -26799,7 +26837,7 @@
     </row>
     <row r="285" spans="1:24">
       <c r="A285" t="s">
-        <v>369</v>
+        <v>98</v>
       </c>
       <c r="B285">
         <v>424</v>
@@ -26873,7 +26911,7 @@
     </row>
     <row r="286" spans="1:24">
       <c r="A286" t="s">
-        <v>444</v>
+        <v>19</v>
       </c>
       <c r="B286">
         <v>413</v>
@@ -26947,7 +26985,7 @@
     </row>
     <row r="287" spans="1:24">
       <c r="A287" t="s">
-        <v>219</v>
+        <v>255</v>
       </c>
       <c r="B287">
         <v>339</v>
@@ -27021,7 +27059,7 @@
     </row>
     <row r="288" spans="1:24">
       <c r="A288" t="s">
-        <v>253</v>
+        <v>210</v>
       </c>
       <c r="B288">
         <v>322</v>
@@ -27095,7 +27133,7 @@
     </row>
     <row r="289" spans="1:24">
       <c r="A289" t="s">
-        <v>325</v>
+        <v>129</v>
       </c>
       <c r="B289">
         <v>482</v>
@@ -27169,7 +27207,7 @@
     </row>
     <row r="290" spans="1:24">
       <c r="A290" t="s">
-        <v>209</v>
+        <v>245</v>
       </c>
       <c r="B290">
         <v>382</v>
@@ -27243,7 +27281,7 @@
     </row>
     <row r="291" spans="1:24">
       <c r="A291" t="s">
-        <v>338</v>
+        <v>142</v>
       </c>
       <c r="B291">
         <v>398</v>
@@ -27317,7 +27355,7 @@
     </row>
     <row r="292" spans="1:24">
       <c r="A292" t="s">
-        <v>265</v>
+        <v>222</v>
       </c>
       <c r="B292">
         <v>427</v>
@@ -27391,7 +27429,7 @@
     </row>
     <row r="293" spans="1:24">
       <c r="A293" t="s">
-        <v>247</v>
+        <v>204</v>
       </c>
       <c r="B293">
         <v>493</v>
@@ -27465,7 +27503,7 @@
     </row>
     <row r="294" spans="1:24">
       <c r="A294" t="s">
-        <v>312</v>
+        <v>116</v>
       </c>
       <c r="B294">
         <v>399</v>
@@ -27539,7 +27577,7 @@
     </row>
     <row r="295" spans="1:24">
       <c r="A295" t="s">
-        <v>380</v>
+        <v>109</v>
       </c>
       <c r="B295">
         <v>358</v>
@@ -27613,7 +27651,7 @@
     </row>
     <row r="296" spans="1:24">
       <c r="A296" t="s">
-        <v>417</v>
+        <v>65</v>
       </c>
       <c r="B296">
         <v>410</v>
@@ -27687,7 +27725,7 @@
     </row>
     <row r="297" spans="1:24">
       <c r="A297" t="s">
-        <v>356</v>
+        <v>85</v>
       </c>
       <c r="B297">
         <v>545</v>
@@ -27761,7 +27799,7 @@
     </row>
     <row r="298" spans="1:24">
       <c r="A298" t="s">
-        <v>348</v>
+        <v>77</v>
       </c>
       <c r="B298">
         <v>474</v>
@@ -27835,7 +27873,7 @@
     </row>
     <row r="299" spans="1:24">
       <c r="A299" t="s">
-        <v>298</v>
+        <v>177</v>
       </c>
       <c r="B299">
         <v>523</v>
@@ -27909,7 +27947,7 @@
     </row>
     <row r="300" spans="1:24">
       <c r="A300" t="s">
-        <v>211</v>
+        <v>247</v>
       </c>
       <c r="B300">
         <v>430</v>
@@ -27983,7 +28021,7 @@
     </row>
     <row r="301" spans="1:24">
       <c r="A301" t="s">
-        <v>316</v>
+        <v>120</v>
       </c>
       <c r="B301">
         <v>522</v>
@@ -28057,7 +28095,7 @@
     </row>
     <row r="302" spans="1:24">
       <c r="A302" t="s">
-        <v>384</v>
+        <v>32</v>
       </c>
       <c r="B302">
         <v>562</v>
@@ -28131,7 +28169,7 @@
     </row>
     <row r="303" spans="1:24">
       <c r="A303" t="s">
-        <v>176</v>
+        <v>293</v>
       </c>
       <c r="B303">
         <v>526</v>
@@ -28205,7 +28243,7 @@
     </row>
     <row r="304" spans="1:24">
       <c r="A304" t="s">
-        <v>258</v>
+        <v>215</v>
       </c>
       <c r="B304">
         <v>562</v>
@@ -28279,7 +28317,7 @@
     </row>
     <row r="305" spans="1:24">
       <c r="A305" t="s">
-        <v>441</v>
+        <v>16</v>
       </c>
       <c r="B305">
         <v>653</v>
@@ -28353,7 +28391,7 @@
     </row>
     <row r="306" spans="1:24">
       <c r="A306" t="s">
-        <v>396</v>
+        <v>44</v>
       </c>
       <c r="B306">
         <v>544</v>
@@ -28427,7 +28465,7 @@
     </row>
     <row r="307" spans="1:24">
       <c r="A307" t="s">
-        <v>309</v>
+        <v>113</v>
       </c>
       <c r="B307">
         <v>519</v>
@@ -28501,7 +28539,7 @@
     </row>
     <row r="308" spans="1:24">
       <c r="A308" t="s">
-        <v>224</v>
+        <v>260</v>
       </c>
       <c r="B308">
         <v>505</v>
@@ -28575,7 +28613,7 @@
     </row>
     <row r="309" spans="1:24">
       <c r="A309" t="s">
-        <v>406</v>
+        <v>54</v>
       </c>
       <c r="B309">
         <v>354</v>
@@ -28649,7 +28687,7 @@
     </row>
     <row r="310" spans="1:24">
       <c r="A310" t="s">
-        <v>373</v>
+        <v>102</v>
       </c>
       <c r="B310">
         <v>615</v>
@@ -28723,7 +28761,7 @@
     </row>
     <row r="311" spans="1:24">
       <c r="A311" t="s">
-        <v>383</v>
+        <v>31</v>
       </c>
       <c r="B311">
         <v>485</v>
@@ -28797,7 +28835,7 @@
     </row>
     <row r="312" spans="1:24">
       <c r="A312" t="s">
-        <v>270</v>
+        <v>149</v>
       </c>
       <c r="B312">
         <v>696</v>
@@ -28871,7 +28909,7 @@
     </row>
     <row r="313" spans="1:24">
       <c r="A313" t="s">
-        <v>419</v>
+        <v>67</v>
       </c>
       <c r="B313">
         <v>495</v>
@@ -28945,7 +28983,7 @@
     </row>
     <row r="314" spans="1:24">
       <c r="A314" t="s">
-        <v>439</v>
+        <v>14</v>
       </c>
       <c r="B314">
         <v>832</v>
@@ -29019,7 +29057,7 @@
     </row>
     <row r="315" spans="1:24">
       <c r="A315" t="s">
-        <v>308</v>
+        <v>112</v>
       </c>
       <c r="B315">
         <v>667</v>
@@ -29093,7 +29131,7 @@
     </row>
     <row r="316" spans="1:24">
       <c r="A316" t="s">
-        <v>442</v>
+        <v>17</v>
       </c>
       <c r="B316">
         <v>734</v>
@@ -29167,7 +29205,7 @@
     </row>
     <row r="317" spans="1:24">
       <c r="A317" t="s">
-        <v>220</v>
+        <v>256</v>
       </c>
       <c r="B317">
         <v>751</v>
@@ -29241,7 +29279,7 @@
     </row>
     <row r="318" spans="1:24">
       <c r="A318" t="s">
-        <v>268</v>
+        <v>225</v>
       </c>
       <c r="B318">
         <v>769</v>
@@ -29315,7 +29353,7 @@
     </row>
     <row r="319" spans="1:24">
       <c r="A319" t="s">
-        <v>288</v>
+        <v>167</v>
       </c>
       <c r="B319">
         <v>867</v>
@@ -29389,7 +29427,7 @@
     </row>
     <row r="320" spans="1:24">
       <c r="A320" t="s">
-        <v>431</v>
+        <v>6</v>
       </c>
       <c r="B320">
         <v>907</v>
@@ -29463,7 +29501,7 @@
     </row>
     <row r="321" spans="1:24">
       <c r="A321" t="s">
-        <v>307</v>
+        <v>186</v>
       </c>
       <c r="B321">
         <v>790</v>
@@ -29537,7 +29575,7 @@
     </row>
     <row r="322" spans="1:24">
       <c r="A322" t="s">
-        <v>397</v>
+        <v>45</v>
       </c>
       <c r="B322">
         <v>717</v>
@@ -29611,7 +29649,7 @@
     </row>
     <row r="323" spans="1:24">
       <c r="A323" t="s">
-        <v>328</v>
+        <v>132</v>
       </c>
       <c r="B323">
         <v>1112</v>
@@ -29685,7 +29723,7 @@
     </row>
     <row r="324" spans="1:24">
       <c r="A324" t="s">
-        <v>354</v>
+        <v>83</v>
       </c>
       <c r="B324">
         <v>1232</v>
@@ -29759,7 +29797,7 @@
     </row>
     <row r="325" spans="1:24">
       <c r="A325" t="s">
-        <v>295</v>
+        <v>174</v>
       </c>
       <c r="B325">
         <v>1208</v>
@@ -29833,7 +29871,7 @@
     </row>
     <row r="326" spans="1:24">
       <c r="A326" t="s">
-        <v>343</v>
+        <v>147</v>
       </c>
       <c r="B326">
         <v>1038</v>
@@ -29907,7 +29945,7 @@
     </row>
     <row r="327" spans="1:24">
       <c r="A327" t="s">
-        <v>381</v>
+        <v>110</v>
       </c>
       <c r="B327">
         <v>1131</v>
@@ -29981,7 +30019,7 @@
     </row>
     <row r="328" spans="1:24">
       <c r="A328" t="s">
-        <v>372</v>
+        <v>101</v>
       </c>
       <c r="B328">
         <v>1137</v>
@@ -30055,7 +30093,7 @@
     </row>
     <row r="329" spans="1:24">
       <c r="A329" t="s">
-        <v>412</v>
+        <v>60</v>
       </c>
       <c r="B329">
         <v>1167</v>
@@ -30129,7 +30167,7 @@
     </row>
     <row r="330" spans="1:24">
       <c r="A330" t="s">
-        <v>213</v>
+        <v>249</v>
       </c>
       <c r="B330">
         <v>1124</v>
@@ -30203,7 +30241,7 @@
     </row>
     <row r="331" spans="1:24">
       <c r="A331" t="s">
-        <v>365</v>
+        <v>94</v>
       </c>
       <c r="B331">
         <v>1408</v>
@@ -30277,7 +30315,7 @@
     </row>
     <row r="332" spans="1:24">
       <c r="A332" t="s">
-        <v>292</v>
+        <v>171</v>
       </c>
       <c r="B332">
         <v>1361</v>
@@ -30351,7 +30389,7 @@
     </row>
     <row r="333" spans="1:24">
       <c r="A333" t="s">
-        <v>454</v>
+        <v>29</v>
       </c>
       <c r="B333">
         <v>1156</v>
@@ -30425,7 +30463,7 @@
     </row>
     <row r="334" spans="1:24">
       <c r="A334" t="s">
-        <v>389</v>
+        <v>37</v>
       </c>
       <c r="B334">
         <v>1311</v>
@@ -30499,7 +30537,7 @@
     </row>
     <row r="335" spans="1:24">
       <c r="A335" t="s">
-        <v>342</v>
+        <v>146</v>
       </c>
       <c r="B335">
         <v>1305</v>
@@ -30573,7 +30611,7 @@
     </row>
     <row r="336" spans="1:24">
       <c r="A336" t="s">
-        <v>289</v>
+        <v>168</v>
       </c>
       <c r="B336">
         <v>1608</v>
@@ -30647,7 +30685,7 @@
     </row>
     <row r="337" spans="1:24">
       <c r="A337" t="s">
-        <v>290</v>
+        <v>169</v>
       </c>
       <c r="B337">
         <v>1371</v>
@@ -30721,7 +30759,7 @@
     </row>
     <row r="338" spans="1:24">
       <c r="A338" t="s">
-        <v>257</v>
+        <v>214</v>
       </c>
       <c r="B338">
         <v>1368</v>
@@ -30795,7 +30833,7 @@
     </row>
     <row r="339" spans="1:24">
       <c r="A339" t="s">
-        <v>340</v>
+        <v>144</v>
       </c>
       <c r="B339">
         <v>1705</v>
@@ -30869,7 +30907,7 @@
     </row>
     <row r="340" spans="1:24">
       <c r="A340" t="s">
-        <v>387</v>
+        <v>35</v>
       </c>
       <c r="B340">
         <v>1341</v>
@@ -30943,7 +30981,7 @@
     </row>
     <row r="341" spans="1:24">
       <c r="A341" t="s">
-        <v>264</v>
+        <v>221</v>
       </c>
       <c r="B341">
         <v>1577</v>
@@ -31017,7 +31055,7 @@
     </row>
     <row r="342" spans="1:24">
       <c r="A342" t="s">
-        <v>358</v>
+        <v>87</v>
       </c>
       <c r="B342">
         <v>2203</v>
@@ -31091,7 +31129,7 @@
     </row>
     <row r="343" spans="1:24">
       <c r="A343" t="s">
-        <v>286</v>
+        <v>165</v>
       </c>
       <c r="B343">
         <v>1767</v>
@@ -31165,7 +31203,7 @@
     </row>
     <row r="344" spans="1:24">
       <c r="A344" t="s">
-        <v>254</v>
+        <v>211</v>
       </c>
       <c r="B344">
         <v>1798</v>
@@ -31239,7 +31277,7 @@
     </row>
     <row r="345" spans="1:24">
       <c r="A345" t="s">
-        <v>363</v>
+        <v>92</v>
       </c>
       <c r="B345">
         <v>2044</v>
@@ -31313,7 +31351,7 @@
     </row>
     <row r="346" spans="1:24">
       <c r="A346" t="s">
-        <v>208</v>
+        <v>244</v>
       </c>
       <c r="B346">
         <v>2561</v>
@@ -31387,7 +31425,7 @@
     </row>
     <row r="347" spans="1:24">
       <c r="A347" t="s">
-        <v>291</v>
+        <v>170</v>
       </c>
       <c r="B347">
         <v>2470</v>
@@ -31461,7 +31499,7 @@
     </row>
     <row r="348" spans="1:24">
       <c r="A348" t="s">
-        <v>377</v>
+        <v>106</v>
       </c>
       <c r="B348">
         <v>2336</v>
@@ -31535,7 +31573,7 @@
     </row>
     <row r="349" spans="1:24">
       <c r="A349" t="s">
-        <v>415</v>
+        <v>63</v>
       </c>
       <c r="B349">
         <v>2193</v>
@@ -31609,7 +31647,7 @@
     </row>
     <row r="350" spans="1:24">
       <c r="A350" t="s">
-        <v>368</v>
+        <v>97</v>
       </c>
       <c r="B350">
         <v>2684</v>
@@ -31683,7 +31721,7 @@
     </row>
     <row r="351" spans="1:24">
       <c r="A351" t="s">
-        <v>300</v>
+        <v>179</v>
       </c>
       <c r="B351">
         <v>2778</v>
@@ -31757,7 +31795,7 @@
     </row>
     <row r="352" spans="1:24">
       <c r="A352" t="s">
-        <v>327</v>
+        <v>131</v>
       </c>
       <c r="B352">
         <v>3016</v>
@@ -31831,7 +31869,7 @@
     </row>
     <row r="353" spans="1:24">
       <c r="A353" t="s">
-        <v>440</v>
+        <v>15</v>
       </c>
       <c r="B353">
         <v>3116</v>
@@ -31905,7 +31943,7 @@
     </row>
     <row r="354" spans="1:24">
       <c r="A354" t="s">
-        <v>428</v>
+        <v>3</v>
       </c>
       <c r="B354">
         <v>2498</v>
@@ -31979,7 +32017,7 @@
     </row>
     <row r="355" spans="1:24">
       <c r="A355" t="s">
-        <v>212</v>
+        <v>248</v>
       </c>
       <c r="B355">
         <v>3631</v>
@@ -32053,7 +32091,7 @@
     </row>
     <row r="356" spans="1:24">
       <c r="A356" t="s">
-        <v>436</v>
+        <v>11</v>
       </c>
       <c r="B356">
         <v>3544</v>
@@ -32127,7 +32165,7 @@
     </row>
     <row r="357" spans="1:24">
       <c r="A357" t="s">
-        <v>330</v>
+        <v>134</v>
       </c>
       <c r="B357">
         <v>3963</v>
@@ -32201,7 +32239,7 @@
     </row>
     <row r="358" spans="1:24">
       <c r="A358" t="s">
-        <v>374</v>
+        <v>103</v>
       </c>
       <c r="B358">
         <v>3544</v>
@@ -32275,7 +32313,7 @@
     </row>
     <row r="359" spans="1:24">
       <c r="A359" t="s">
-        <v>451</v>
+        <v>26</v>
       </c>
       <c r="B359">
         <v>3799</v>
@@ -32349,7 +32387,7 @@
     </row>
     <row r="360" spans="1:24">
       <c r="A360" t="s">
-        <v>413</v>
+        <v>61</v>
       </c>
       <c r="B360">
         <v>3700</v>
@@ -32423,7 +32461,7 @@
     </row>
     <row r="361" spans="1:24">
       <c r="A361" t="s">
-        <v>355</v>
+        <v>84</v>
       </c>
       <c r="B361">
         <v>4686</v>
@@ -32497,7 +32535,7 @@
     </row>
     <row r="362" spans="1:24">
       <c r="A362" t="s">
-        <v>435</v>
+        <v>10</v>
       </c>
       <c r="B362">
         <v>4488</v>
@@ -32571,7 +32609,7 @@
     </row>
     <row r="363" spans="1:24">
       <c r="A363" t="s">
-        <v>334</v>
+        <v>138</v>
       </c>
       <c r="B363">
         <v>5016</v>
@@ -32645,7 +32683,7 @@
     </row>
     <row r="364" spans="1:24">
       <c r="A364" t="s">
-        <v>364</v>
+        <v>93</v>
       </c>
       <c r="B364">
         <v>4092</v>
@@ -32719,7 +32757,7 @@
     </row>
     <row r="365" spans="1:24">
       <c r="A365" t="s">
-        <v>293</v>
+        <v>172</v>
       </c>
       <c r="B365">
         <v>5152</v>
@@ -32793,7 +32831,7 @@
     </row>
     <row r="366" spans="1:24">
       <c r="A366" t="s">
-        <v>360</v>
+        <v>89</v>
       </c>
       <c r="B366">
         <v>4491</v>
@@ -32867,7 +32905,7 @@
     </row>
     <row r="367" spans="1:24">
       <c r="A367" t="s">
-        <v>370</v>
+        <v>99</v>
       </c>
       <c r="B367">
         <v>5371</v>
@@ -32941,7 +32979,7 @@
     </row>
     <row r="368" spans="1:24">
       <c r="A368" t="s">
-        <v>429</v>
+        <v>4</v>
       </c>
       <c r="B368">
         <v>4980</v>
@@ -33015,7 +33053,7 @@
     </row>
     <row r="369" spans="1:24">
       <c r="A369" t="s">
-        <v>344</v>
+        <v>73</v>
       </c>
       <c r="B369">
         <v>6389</v>
@@ -33089,7 +33127,7 @@
     </row>
     <row r="370" spans="1:24">
       <c r="A370" t="s">
-        <v>345</v>
+        <v>74</v>
       </c>
       <c r="B370">
         <v>6922</v>
@@ -33163,7 +33201,7 @@
     </row>
     <row r="371" spans="1:24">
       <c r="A371" t="s">
-        <v>336</v>
+        <v>140</v>
       </c>
       <c r="B371">
         <v>6401</v>
@@ -33237,7 +33275,7 @@
     </row>
     <row r="372" spans="1:24">
       <c r="A372" t="s">
-        <v>285</v>
+        <v>164</v>
       </c>
       <c r="B372">
         <v>6401</v>
@@ -33311,7 +33349,7 @@
     </row>
     <row r="373" spans="1:24">
       <c r="A373" t="s">
-        <v>366</v>
+        <v>95</v>
       </c>
       <c r="B373">
         <v>6780</v>
@@ -33385,7 +33423,7 @@
     </row>
     <row r="374" spans="1:24">
       <c r="A374" t="s">
-        <v>341</v>
+        <v>145</v>
       </c>
       <c r="B374">
         <v>7845</v>
@@ -33459,7 +33497,7 @@
     </row>
     <row r="375" spans="1:24">
       <c r="A375" t="s">
-        <v>248</v>
+        <v>205</v>
       </c>
       <c r="B375">
         <v>7648</v>
@@ -33533,7 +33571,7 @@
     </row>
     <row r="376" spans="1:24">
       <c r="A376" t="s">
-        <v>361</v>
+        <v>90</v>
       </c>
       <c r="B376">
         <v>6890</v>
@@ -33607,7 +33645,7 @@
     </row>
     <row r="377" spans="1:24">
       <c r="A377" t="s">
-        <v>408</v>
+        <v>56</v>
       </c>
       <c r="B377">
         <v>7007</v>
@@ -33681,7 +33719,7 @@
     </row>
     <row r="378" spans="1:24">
       <c r="A378" t="s">
-        <v>398</v>
+        <v>46</v>
       </c>
       <c r="B378">
         <v>8731</v>
@@ -33755,7 +33793,7 @@
     </row>
     <row r="379" spans="1:24">
       <c r="A379" t="s">
-        <v>453</v>
+        <v>28</v>
       </c>
       <c r="B379">
         <v>11164</v>
@@ -33829,7 +33867,7 @@
     </row>
     <row r="380" spans="1:24">
       <c r="A380" t="s">
-        <v>432</v>
+        <v>7</v>
       </c>
       <c r="B380">
         <v>10375</v>
@@ -33903,7 +33941,7 @@
     </row>
     <row r="381" spans="1:24">
       <c r="A381" t="s">
-        <v>416</v>
+        <v>64</v>
       </c>
       <c r="B381">
         <v>10855</v>
@@ -33977,7 +34015,7 @@
     </row>
     <row r="382" spans="1:24">
       <c r="A382" t="s">
-        <v>331</v>
+        <v>135</v>
       </c>
       <c r="B382">
         <v>11172</v>
@@ -34051,7 +34089,7 @@
     </row>
     <row r="383" spans="1:24">
       <c r="A383" t="s">
-        <v>163</v>
+        <v>280</v>
       </c>
       <c r="B383">
         <v>13489</v>
@@ -34125,7 +34163,7 @@
     </row>
     <row r="384" spans="1:24">
       <c r="A384" t="s">
-        <v>302</v>
+        <v>181</v>
       </c>
       <c r="B384">
         <v>15638</v>
@@ -34199,7 +34237,7 @@
     </row>
     <row r="385" spans="1:24">
       <c r="A385" t="s">
-        <v>414</v>
+        <v>62</v>
       </c>
       <c r="B385">
         <v>15448</v>
@@ -34273,7 +34311,7 @@
     </row>
     <row r="386" spans="1:24">
       <c r="A386" t="s">
-        <v>299</v>
+        <v>178</v>
       </c>
       <c r="B386">
         <v>15641</v>
@@ -34347,7 +34385,7 @@
     </row>
     <row r="387" spans="1:24">
       <c r="A387" t="s">
-        <v>434</v>
+        <v>9</v>
       </c>
       <c r="B387">
         <v>15611</v>
@@ -34421,7 +34459,7 @@
     </row>
     <row r="388" spans="1:24">
       <c r="A388" t="s">
-        <v>203</v>
+        <v>239</v>
       </c>
       <c r="B388">
         <v>16326</v>
@@ -34495,7 +34533,7 @@
     </row>
     <row r="389" spans="1:24">
       <c r="A389" t="s">
-        <v>367</v>
+        <v>96</v>
       </c>
       <c r="B389">
         <v>19027</v>
@@ -34569,7 +34607,7 @@
     </row>
     <row r="390" spans="1:24">
       <c r="A390" t="s">
-        <v>399</v>
+        <v>47</v>
       </c>
       <c r="B390">
         <v>24530</v>
@@ -34643,7 +34681,7 @@
     </row>
     <row r="391" spans="1:24">
       <c r="A391" t="s">
-        <v>246</v>
+        <v>203</v>
       </c>
       <c r="B391">
         <v>30420</v>
@@ -34717,7 +34755,7 @@
     </row>
     <row r="392" spans="1:24">
       <c r="A392" t="s">
-        <v>301</v>
+        <v>180</v>
       </c>
       <c r="B392">
         <v>30612</v>
@@ -34791,7 +34829,7 @@
     </row>
     <row r="393" spans="1:24">
       <c r="A393" t="s">
-        <v>425</v>
+        <v>0</v>
       </c>
       <c r="B393">
         <v>32663</v>
@@ -34865,7 +34903,7 @@
     </row>
     <row r="394" spans="1:24">
       <c r="A394" t="s">
-        <v>411</v>
+        <v>59</v>
       </c>
       <c r="B394">
         <v>32658</v>
@@ -34939,7 +34977,7 @@
     </row>
     <row r="395" spans="1:24">
       <c r="A395" t="s">
-        <v>359</v>
+        <v>88</v>
       </c>
       <c r="B395">
         <v>33106</v>
@@ -35013,7 +35051,7 @@
     </row>
     <row r="396" spans="1:24">
       <c r="A396" t="s">
-        <v>455</v>
+        <v>30</v>
       </c>
       <c r="B396">
         <v>28943</v>
@@ -35087,7 +35125,7 @@
     </row>
     <row r="397" spans="1:24">
       <c r="A397" t="s">
-        <v>409</v>
+        <v>57</v>
       </c>
       <c r="B397">
         <v>45157</v>
@@ -35161,7 +35199,7 @@
     </row>
     <row r="398" spans="1:24">
       <c r="A398" t="s">
-        <v>430</v>
+        <v>5</v>
       </c>
       <c r="B398">
         <v>45033</v>
@@ -35235,7 +35273,7 @@
     </row>
     <row r="399" spans="1:24">
       <c r="A399" t="s">
-        <v>357</v>
+        <v>86</v>
       </c>
       <c r="B399">
         <v>44049</v>
@@ -35309,7 +35347,7 @@
     </row>
     <row r="400" spans="1:24">
       <c r="A400" t="s">
-        <v>426</v>
+        <v>1</v>
       </c>
       <c r="B400">
         <v>50521</v>
@@ -35383,7 +35421,7 @@
     </row>
     <row r="401" spans="1:24">
       <c r="A401" t="s">
-        <v>362</v>
+        <v>91</v>
       </c>
       <c r="B401">
         <v>45064</v>
@@ -35457,7 +35495,7 @@
     </row>
     <row r="402" spans="1:24">
       <c r="A402" t="s">
-        <v>376</v>
+        <v>105</v>
       </c>
       <c r="B402">
         <v>63506</v>
@@ -35531,7 +35569,7 @@
     </row>
     <row r="403" spans="1:24">
       <c r="A403" t="s">
-        <v>450</v>
+        <v>25</v>
       </c>
       <c r="B403">
         <v>69530</v>
@@ -35605,7 +35643,7 @@
     </row>
     <row r="404" spans="1:24">
       <c r="A404" t="s">
-        <v>410</v>
+        <v>58</v>
       </c>
       <c r="B404">
         <v>82370</v>
@@ -35679,7 +35717,7 @@
     </row>
     <row r="405" spans="1:24">
       <c r="A405" t="s">
-        <v>252</v>
+        <v>209</v>
       </c>
       <c r="B405">
         <v>103922</v>
@@ -35753,7 +35791,7 @@
     </row>
     <row r="406" spans="1:24">
       <c r="A406" t="s">
-        <v>449</v>
+        <v>24</v>
       </c>
       <c r="B406">
         <v>143432</v>
@@ -35827,7 +35865,7 @@
     </row>
     <row r="407" spans="1:24">
       <c r="A407" t="s">
-        <v>452</v>
+        <v>27</v>
       </c>
       <c r="B407">
         <v>213535</v>
@@ -35901,7 +35939,7 @@
     </row>
     <row r="408" spans="1:24">
       <c r="A408" t="s">
-        <v>375</v>
+        <v>104</v>
       </c>
       <c r="B408">
         <v>309310</v>
@@ -35974,6 +36012,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <sortState ref="A2:Y408">
     <sortCondition ref="C3:C408"/>
     <sortCondition ref="S3:S408"/>
@@ -36099,26 +36138,26 @@
   <dimension ref="A2:E103"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>447</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>391</v>
       </c>
       <c r="C2" t="s">
-        <v>445</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>446</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>448</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -37940,6 +37979,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
@@ -37992,18 +38032,18 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>401</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>74</v>
+        <v>377</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>406</v>
+        <v>54</v>
       </c>
       <c r="B2">
         <v>840</v>
@@ -38014,7 +38054,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>373</v>
+        <v>102</v>
       </c>
       <c r="B3">
         <v>849</v>
@@ -38025,7 +38065,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>383</v>
+        <v>31</v>
       </c>
       <c r="B4">
         <v>864</v>
@@ -38036,7 +38076,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>270</v>
+        <v>149</v>
       </c>
       <c r="B5">
         <v>912</v>
@@ -38047,7 +38087,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>419</v>
+        <v>67</v>
       </c>
       <c r="B6">
         <v>926</v>
@@ -38058,7 +38098,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>439</v>
+        <v>14</v>
       </c>
       <c r="B7">
         <v>943</v>
@@ -38069,7 +38109,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>308</v>
+        <v>112</v>
       </c>
       <c r="B8">
         <v>969</v>
@@ -38080,7 +38120,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>442</v>
+        <v>17</v>
       </c>
       <c r="B9">
         <v>1009</v>
@@ -38091,7 +38131,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>220</v>
+        <v>256</v>
       </c>
       <c r="B10">
         <v>1104</v>
@@ -38102,7 +38142,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>268</v>
+        <v>225</v>
       </c>
       <c r="B11">
         <v>1115</v>
@@ -38113,7 +38153,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>288</v>
+        <v>167</v>
       </c>
       <c r="B12">
         <v>1176</v>
@@ -38124,7 +38164,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>431</v>
+        <v>6</v>
       </c>
       <c r="B13">
         <v>1185</v>
@@ -38135,7 +38175,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>307</v>
+        <v>186</v>
       </c>
       <c r="B14">
         <v>1208</v>
@@ -38146,7 +38186,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>397</v>
+        <v>45</v>
       </c>
       <c r="B15">
         <v>1217</v>
@@ -38157,7 +38197,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>328</v>
+        <v>132</v>
       </c>
       <c r="B16">
         <v>1435</v>
@@ -38168,7 +38208,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>354</v>
+        <v>83</v>
       </c>
       <c r="B17">
         <v>1485</v>
@@ -38179,7 +38219,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>295</v>
+        <v>174</v>
       </c>
       <c r="B18">
         <v>1506</v>
@@ -38190,7 +38230,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>343</v>
+        <v>147</v>
       </c>
       <c r="B19">
         <v>1565</v>
@@ -38201,7 +38241,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>381</v>
+        <v>110</v>
       </c>
       <c r="B20">
         <v>1586</v>
@@ -38212,7 +38252,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>372</v>
+        <v>101</v>
       </c>
       <c r="B21">
         <v>1640</v>
@@ -38223,7 +38263,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>412</v>
+        <v>60</v>
       </c>
       <c r="B22">
         <v>1692</v>
@@ -38234,7 +38274,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>213</v>
+        <v>249</v>
       </c>
       <c r="B23">
         <v>1776</v>
@@ -38245,7 +38285,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>292</v>
+        <v>171</v>
       </c>
       <c r="B24">
         <v>1786</v>
@@ -38256,7 +38296,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>454</v>
+        <v>29</v>
       </c>
       <c r="B25">
         <v>1853</v>
@@ -38267,7 +38307,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>389</v>
+        <v>37</v>
       </c>
       <c r="B26">
         <v>1894</v>
@@ -38278,7 +38318,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>342</v>
+        <v>146</v>
       </c>
       <c r="B27">
         <v>1903</v>
@@ -38289,7 +38329,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>289</v>
+        <v>168</v>
       </c>
       <c r="B28">
         <v>1949</v>
@@ -38300,7 +38340,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>290</v>
+        <v>169</v>
       </c>
       <c r="B29">
         <v>2038</v>
@@ -38311,7 +38351,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>257</v>
+        <v>214</v>
       </c>
       <c r="B30">
         <v>2146</v>
@@ -38322,7 +38362,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>340</v>
+        <v>144</v>
       </c>
       <c r="B31">
         <v>2244</v>
@@ -38333,7 +38373,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>387</v>
+        <v>35</v>
       </c>
       <c r="B32">
         <v>2268</v>
@@ -38344,7 +38384,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>264</v>
+        <v>221</v>
       </c>
       <c r="B33">
         <v>2358</v>
@@ -38355,7 +38395,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>358</v>
+        <v>87</v>
       </c>
       <c r="B34">
         <v>2666</v>
@@ -38366,7 +38406,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>286</v>
+        <v>165</v>
       </c>
       <c r="B35">
         <v>2724</v>
@@ -38377,7 +38417,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>254</v>
+        <v>211</v>
       </c>
       <c r="B36">
         <v>2767</v>
@@ -38388,7 +38428,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>363</v>
+        <v>92</v>
       </c>
       <c r="B37">
         <v>2854</v>
@@ -38399,7 +38439,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>208</v>
+        <v>244</v>
       </c>
       <c r="B38">
         <v>3120</v>
@@ -38410,7 +38450,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>291</v>
+        <v>170</v>
       </c>
       <c r="B39">
         <v>3193</v>
@@ -38421,7 +38461,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>377</v>
+        <v>106</v>
       </c>
       <c r="B40">
         <v>3293</v>
@@ -38432,7 +38472,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>415</v>
+        <v>63</v>
       </c>
       <c r="B41">
         <v>3320</v>
@@ -38443,7 +38483,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>368</v>
+        <v>97</v>
       </c>
       <c r="B42">
         <v>3445</v>
@@ -38454,7 +38494,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>300</v>
+        <v>179</v>
       </c>
       <c r="B43">
         <v>3706</v>
@@ -38465,7 +38505,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>327</v>
+        <v>131</v>
       </c>
       <c r="B44">
         <v>3841</v>
@@ -38476,7 +38516,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>440</v>
+        <v>15</v>
       </c>
       <c r="B45">
         <v>4212</v>
@@ -38487,7 +38527,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>428</v>
+        <v>3</v>
       </c>
       <c r="B46">
         <v>4606</v>
@@ -38498,7 +38538,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>212</v>
+        <v>248</v>
       </c>
       <c r="B47">
         <v>4927</v>
@@ -38509,7 +38549,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>436</v>
+        <v>11</v>
       </c>
       <c r="B48">
         <v>5003</v>
@@ -38520,7 +38560,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>330</v>
+        <v>134</v>
       </c>
       <c r="B49">
         <v>5064</v>
@@ -38531,7 +38571,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>374</v>
+        <v>103</v>
       </c>
       <c r="B50">
         <v>5321</v>
@@ -38542,7 +38582,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>451</v>
+        <v>26</v>
       </c>
       <c r="B51">
         <v>5490</v>
@@ -38553,7 +38593,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>413</v>
+        <v>61</v>
       </c>
       <c r="B52">
         <v>5797</v>
@@ -38564,7 +38604,7 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>355</v>
+        <v>84</v>
       </c>
       <c r="B53">
         <v>5863</v>
@@ -38575,7 +38615,7 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>435</v>
+        <v>10</v>
       </c>
       <c r="B54">
         <v>6042</v>
@@ -38586,7 +38626,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>334</v>
+        <v>138</v>
       </c>
       <c r="B55">
         <v>6176</v>
@@ -38597,7 +38637,7 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>364</v>
+        <v>93</v>
       </c>
       <c r="B56">
         <v>6317</v>
@@ -38608,7 +38648,7 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>293</v>
+        <v>172</v>
       </c>
       <c r="B57">
         <v>6660</v>
@@ -38619,7 +38659,7 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>360</v>
+        <v>89</v>
       </c>
       <c r="B58">
         <v>6926</v>
@@ -38630,7 +38670,7 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>370</v>
+        <v>99</v>
       </c>
       <c r="B59">
         <v>6984</v>
@@ -38641,7 +38681,7 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>429</v>
+        <v>4</v>
       </c>
       <c r="B60">
         <v>7061</v>
@@ -38652,7 +38692,7 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>344</v>
+        <v>73</v>
       </c>
       <c r="B61">
         <v>7357</v>
@@ -38663,7 +38703,7 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>345</v>
+        <v>74</v>
       </c>
       <c r="B62">
         <v>7745</v>
@@ -38674,7 +38714,7 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>285</v>
+        <v>164</v>
       </c>
       <c r="B63">
         <v>7956</v>
@@ -38685,7 +38725,7 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>336</v>
+        <v>140</v>
       </c>
       <c r="B64">
         <v>7956</v>
@@ -38696,7 +38736,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>341</v>
+        <v>145</v>
       </c>
       <c r="B65">
         <v>9478</v>
@@ -38707,7 +38747,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>248</v>
+        <v>205</v>
       </c>
       <c r="B66">
         <v>9582</v>
@@ -38718,7 +38758,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>361</v>
+        <v>90</v>
       </c>
       <c r="B67">
         <v>10092</v>
@@ -38729,7 +38769,7 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>408</v>
+        <v>56</v>
       </c>
       <c r="B68">
         <v>10498</v>
@@ -38740,7 +38780,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>398</v>
+        <v>46</v>
       </c>
       <c r="B69">
         <v>12517</v>
@@ -38751,7 +38791,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>453</v>
+        <v>28</v>
       </c>
       <c r="B70">
         <v>14407</v>
@@ -38762,7 +38802,7 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>432</v>
+        <v>7</v>
       </c>
       <c r="B71">
         <v>14494</v>
@@ -38773,7 +38813,7 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>416</v>
+        <v>64</v>
       </c>
       <c r="B72">
         <v>16612</v>
@@ -38784,7 +38824,7 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>331</v>
+        <v>135</v>
       </c>
       <c r="B73">
         <v>18434</v>
@@ -38795,7 +38835,7 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>163</v>
+        <v>280</v>
       </c>
       <c r="B74">
         <v>22042</v>
@@ -38806,7 +38846,7 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>302</v>
+        <v>181</v>
       </c>
       <c r="B75">
         <v>22304</v>
@@ -38817,7 +38857,7 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>414</v>
+        <v>62</v>
       </c>
       <c r="B76">
         <v>22409</v>
@@ -38828,7 +38868,7 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>299</v>
+        <v>178</v>
       </c>
       <c r="B77">
         <v>22856</v>
@@ -38839,7 +38879,7 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>434</v>
+        <v>9</v>
       </c>
       <c r="B78">
         <v>24100</v>
@@ -38850,7 +38890,7 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>203</v>
+        <v>239</v>
       </c>
       <c r="B79">
         <v>25243</v>
@@ -38861,7 +38901,7 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>399</v>
+        <v>47</v>
       </c>
       <c r="B80">
         <v>38409</v>
@@ -38872,7 +38912,7 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>246</v>
+        <v>203</v>
       </c>
       <c r="B81">
         <v>40259</v>
@@ -38883,7 +38923,7 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>301</v>
+        <v>180</v>
       </c>
       <c r="B82">
         <v>41695</v>
@@ -38894,7 +38934,7 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>425</v>
+        <v>0</v>
       </c>
       <c r="B83">
         <v>45299</v>
@@ -38905,7 +38945,7 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>411</v>
+        <v>59</v>
       </c>
       <c r="B84">
         <v>48806</v>
@@ -38916,7 +38956,7 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>359</v>
+        <v>88</v>
       </c>
       <c r="B85">
         <v>49504</v>
@@ -38927,7 +38967,7 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>455</v>
+        <v>30</v>
       </c>
       <c r="B86">
         <v>50095</v>
@@ -38938,7 +38978,7 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>409</v>
+        <v>57</v>
       </c>
       <c r="B87">
         <v>55312</v>
@@ -38949,7 +38989,7 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>430</v>
+        <v>5</v>
       </c>
       <c r="B88">
         <v>64438</v>
@@ -38960,7 +39000,7 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>357</v>
+        <v>86</v>
       </c>
       <c r="B89">
         <v>74219</v>
@@ -38971,7 +39011,7 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>426</v>
+        <v>1</v>
       </c>
       <c r="B90">
         <v>75328</v>
@@ -38982,7 +39022,7 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>362</v>
+        <v>91</v>
       </c>
       <c r="B91">
         <v>83230</v>
@@ -38993,7 +39033,7 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>376</v>
+        <v>105</v>
       </c>
       <c r="B92">
         <v>84846</v>
@@ -39004,7 +39044,7 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>450</v>
+        <v>25</v>
       </c>
       <c r="B93">
         <v>97494</v>
@@ -39015,7 +39055,7 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>410</v>
+        <v>58</v>
       </c>
       <c r="B94">
         <v>115372</v>
@@ -39026,7 +39066,7 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>252</v>
+        <v>209</v>
       </c>
       <c r="B95">
         <v>139552</v>
@@ -39037,7 +39077,7 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>452</v>
+        <v>27</v>
       </c>
       <c r="B96">
         <v>352423</v>
@@ -39048,7 +39088,7 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>375</v>
+        <v>104</v>
       </c>
       <c r="B97">
         <v>449442</v>
@@ -39105,207 +39145,206 @@
   <sheetData>
     <row r="2" spans="1:4">
       <c r="B2" t="s">
-        <v>22</v>
+        <v>429</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>430</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>431</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>419</v>
       </c>
       <c r="B3">
         <f ca="1">1+RAND()</f>
-        <v>1.4676789279428704</v>
+        <v>1.5540845402156265</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:D3" ca="1" si="0">1+RAND()</f>
-        <v>1.6184780826270071</v>
+        <v>1.5959167736609743</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>1.8285955232822744</v>
+        <v>1.3409630143669347</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>420</v>
       </c>
       <c r="B4">
         <f t="shared" ref="B4:D12" ca="1" si="1">1+RAND()</f>
-        <v>1.543792327637675</v>
+        <v>1.5793001580341297</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="1"/>
-        <v>1.4388558543141698</v>
+        <v>1.7249326219216528</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="1"/>
-        <v>1.3742607948252044</v>
+        <v>1.5065493822949065</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>421</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="1"/>
-        <v>1.3497200178863125</v>
+        <v>1.882049241781715</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2560692394708894</v>
+        <v>1.3335546047810567</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1455702647554062</v>
+        <v>1.8851456370884989</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>422</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="1"/>
-        <v>1.4834604085717729</v>
+        <v>1.8688744215223778</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="1"/>
-        <v>1.9273937815924</v>
+        <v>1.3714946272175439</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="1"/>
-        <v>1.9761048997524995</v>
+        <v>1.162304452130229</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>423</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="1"/>
-        <v>1.7320950406910924</v>
+        <v>1.7006349843759381</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2329141350182908</v>
+        <v>1.8288781866322097</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="1"/>
-        <v>1.3629505366488956</v>
+        <v>1.2615590275736395</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>424</v>
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="1"/>
-        <v>1.4890845889785851</v>
+        <v>1.5918479858146384</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2269925415093894</v>
+        <v>1.3273798604914191</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="1"/>
-        <v>1.6514068050555579</v>
+        <v>1.2260449511177285</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>425</v>
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="1"/>
-        <v>1.6612884130654493</v>
+        <v>1.0119879323883652</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="1"/>
-        <v>1.8579332385143061</v>
+        <v>1.8327755690743288</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0782521497003472</v>
+        <v>1.8508884500224667</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>426</v>
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="1"/>
-        <v>1.4939301170797989</v>
+        <v>1.6786737417214681</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="1"/>
-        <v>1.7421248302789536</v>
+        <v>1.5833585642021717</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="1"/>
-        <v>1.5495760474223061</v>
+        <v>1.5087277225957223</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="1"/>
-        <v>1.7257328615314691</v>
+        <v>1.0411657432778156</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="1"/>
-        <v>1.9168086051322462</v>
+        <v>1.9919210189636942</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="1"/>
-        <v>1.4567895254731411</v>
+        <v>1.0372486707110511</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>428</v>
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0879858493353822</v>
+        <v>1.2029800714180965</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="1"/>
-        <v>1.9262642200510527</v>
+        <v>1.2585186856895234</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="1"/>
-        <v>1.8879881252451014</v>
+        <v>1.9449218168883817</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>28</v>
+        <v>435</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>25</v>
+        <v>432</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>26</v>
+        <v>433</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>27</v>
+        <v>434</v>
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
